--- a/excel/dosyalar/Uretim_list.xlsx
+++ b/excel/dosyalar/Uretim_list.xlsx
@@ -194,8 +194,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,47 +632,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-13T00:00:00.000Z</t>
+          <t>2024-03-18T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>2024-03-13T00:00:00.000Z</t>
+          <t>2024-03-18T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C2" s="17" t="inlineStr">
         <is>
-          <t>YGM</t>
+          <t>Cosmin Tache - Romania</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>YGM</t>
+          <t>Cosmin Tache - Romania</t>
         </is>
       </c>
       <c r="E2" s="17" t="inlineStr">
         <is>
-          <t>24YGM11</t>
+          <t>24CST05</t>
         </is>
       </c>
       <c r="F2" s="14" t="inlineStr">
         <is>
-          <t>24YGM11</t>
+          <t>24CST05</t>
         </is>
       </c>
       <c r="G2" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silverela</t>
         </is>
       </c>
       <c r="H2" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Mina-Dolgulu&amp;Honlu&amp;Düz Kenar-MINIxSETx1,2</t>
+          <t>Travertine Tiles-Silverela-Dolgulu&amp;Fırçalı&amp;Eskitme-ANTxPATx1,2 (1248 Adet) (4 Kasa)</t>
         </is>
       </c>
       <c r="I2" s="17" t="inlineStr">
         <is>
-          <t>MINIxSETx1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="J2" s="17" t="inlineStr">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="K2" s="9" t="n">
-        <v>15</v>
+        <v>154.64</v>
       </c>
       <c r="L2" s="9" t="n">
         <v>0</v>
@@ -692,65 +692,53 @@
         </is>
       </c>
       <c r="N2" s="7" t="n">
-        <v>14.6666</v>
+        <v>20</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>220</v>
+        <v>3092.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-03-12T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>2024-03-12T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-03-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B3" s="18" t="n"/>
       <c r="C3" s="17" t="inlineStr">
         <is>
-          <t>Tammy, Divi - Aruba</t>
-        </is>
-      </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>Tammy, Divi - Aruba</t>
-        </is>
-      </c>
+          <t>Cosmin Tache - Romania</t>
+        </is>
+      </c>
+      <c r="D3" s="18" t="n"/>
       <c r="E3" s="17" t="inlineStr">
         <is>
-          <t>24DIVI04</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>24DIVI04</t>
-        </is>
-      </c>
+          <t>24CST05</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="n"/>
       <c r="G3" s="17" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Storm Noche</t>
         </is>
       </c>
       <c r="H3" s="17" t="inlineStr">
         <is>
-          <t>1- Traverten - Rustic Gold (Sivas Noche) - Dolgusuz Eskitme - 40,6 x 40,6 x 3 cm (16" x 16" x 1 1/4") - 337,25 sqm - 2046 adet</t>
+          <t>Travertine Tiles-Storm Noche-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (1560 Adet) (5 Kasa)</t>
         </is>
       </c>
       <c r="I3" s="17" t="inlineStr">
         <is>
-          <t>40,6x40,6x3,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="J3" s="17" t="inlineStr">
         <is>
-          <t>Betamer Sivas</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K3" s="9" t="n">
-        <v>337.25</v>
+        <v>193.3</v>
       </c>
       <c r="L3" s="9" t="n">
         <v>0</v>
@@ -761,65 +749,53 @@
         </is>
       </c>
       <c r="N3" s="7" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>10454.75</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-03-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>2024-03-08T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-03-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B4" s="18" t="n"/>
       <c r="C4" s="17" t="inlineStr">
         <is>
-          <t>Beverley Jackson - USA</t>
-        </is>
-      </c>
-      <c r="D4" s="14" t="inlineStr">
-        <is>
-          <t>Beverley Jackson - USA</t>
-        </is>
-      </c>
+          <t>Cosmin Tache - Romania</t>
+        </is>
+      </c>
+      <c r="D4" s="18" t="n"/>
       <c r="E4" s="17" t="inlineStr">
         <is>
-          <t>24BEV01</t>
-        </is>
-      </c>
-      <c r="F4" s="14" t="inlineStr">
-        <is>
-          <t>24BEV01</t>
-        </is>
-      </c>
+          <t>24CST05</t>
+        </is>
+      </c>
+      <c r="F4" s="18" t="n"/>
       <c r="G4" s="17" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Silverela</t>
         </is>
       </c>
       <c r="H4" s="17" t="inlineStr">
         <is>
-          <t>Bianco Ibiza - Honlu - 24x48x3/4" - 60x120x2 cm - 260,64 m2 - 2804 sqft - 362 adet</t>
+          <t>Travertine Tiles-Silverela-Dolgulu&amp;Fırçalı-MINIxSETx1,2 (504 Adet) (2 Kasa)</t>
         </is>
       </c>
       <c r="I4" s="17" t="inlineStr">
         <is>
-          <t>60,0x120,0x2,0</t>
+          <t>MINIxSETx1,2</t>
         </is>
       </c>
       <c r="J4" s="17" t="inlineStr">
         <is>
-          <t>Çobanlar Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K4" s="9" t="n">
-        <v>260.64</v>
+        <v>90.72</v>
       </c>
       <c r="L4" s="9" t="n">
         <v>0</v>
@@ -830,113 +806,101 @@
         </is>
       </c>
       <c r="N4" s="7" t="n">
-        <v>41.964</v>
+        <v>14.5</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>10937.5</v>
+        <v>1315.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-03-08T00:00:00.000Z</t>
+          <t>2024-03-18T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B5" s="18" t="n"/>
       <c r="C5" s="17" t="inlineStr">
         <is>
-          <t>Beverley Jackson - USA</t>
+          <t>Cosmin Tache - Romania</t>
         </is>
       </c>
       <c r="D5" s="18" t="n"/>
       <c r="E5" s="17" t="inlineStr">
         <is>
-          <t>24BEV01</t>
+          <t>24CST05</t>
         </is>
       </c>
       <c r="F5" s="18" t="n"/>
       <c r="G5" s="17" t="inlineStr">
         <is>
-          <t>Kalekim 1052</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="H5" s="17" t="inlineStr">
         <is>
-          <t>Other-Kalekim 1052-Tile Adhesive-VariousxVariousxVarious - 60 ADET</t>
+          <t>Travertine Tiles-Mina Rustic-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (624 Adet) (2 Kasa)</t>
         </is>
       </c>
       <c r="I5" s="17" t="inlineStr">
         <is>
-          <t>VariousxVariousxVarious</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="J5" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K5" s="9" t="n">
-        <v>60</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N5" s="7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>960</v>
+        <v>1275.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-02-29T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-29T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-03-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B6" s="18" t="n"/>
       <c r="C6" s="17" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>YGM</t>
-        </is>
-      </c>
+          <t>Cosmin Tache - Romania</t>
+        </is>
+      </c>
+      <c r="D6" s="18" t="n"/>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>24YGM09-2</t>
-        </is>
-      </c>
-      <c r="F6" s="14" t="inlineStr">
-        <is>
-          <t>24YGM09-2</t>
-        </is>
-      </c>
+          <t>24CST05</t>
+        </is>
+      </c>
+      <c r="F6" s="18" t="n"/>
       <c r="G6" s="17" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Silverela</t>
         </is>
       </c>
       <c r="H6" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Scabos-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (12 Kasa 26 set 231,96 m2)</t>
+          <t>Travertine Tiles-Silverela-Dolgulu&amp;Honlu-30,5x61,0x1,2 (324 Adet)(2 Kasa)</t>
         </is>
       </c>
       <c r="I6" s="17" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J6" s="17" t="inlineStr">
@@ -945,7 +909,7 @@
         </is>
       </c>
       <c r="K6" s="9" t="n">
-        <v>19.33</v>
+        <v>60.28</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>0</v>
@@ -956,56 +920,44 @@
         </is>
       </c>
       <c r="N6" s="7" t="n">
-        <v>19.476</v>
+        <v>20</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>376.47</v>
+        <v>1205.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-02-28T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-28T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-03-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B7" s="19" t="n"/>
       <c r="C7" s="17" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
-        </is>
-      </c>
-      <c r="D7" s="14" t="inlineStr">
-        <is>
-          <t>Sanya Dogaltas - Turkey</t>
-        </is>
-      </c>
+          <t>Cosmin Tache - Romania</t>
+        </is>
+      </c>
+      <c r="D7" s="19" t="n"/>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>24SNY20</t>
-        </is>
-      </c>
-      <c r="F7" s="14" t="inlineStr">
-        <is>
-          <t>24SNY20</t>
-        </is>
-      </c>
+          <t>24CST05</t>
+        </is>
+      </c>
+      <c r="F7" s="19" t="n"/>
       <c r="G7" s="17" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Light Volcano</t>
         </is>
       </c>
       <c r="H7" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Gold - Dolgulu&amp;Honlu - 30,5X61,0X1,2</t>
+          <t>Travertine Tiles-Light Volcano-Dolgusuz&amp;Honlu&amp;Eskitme-ANTxPATx1,2 (324 Adet)(6 Kasa)</t>
         </is>
       </c>
       <c r="I7" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="J7" s="17" t="inlineStr">
@@ -1014,7 +966,7 @@
         </is>
       </c>
       <c r="K7" s="9" t="n">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="L7" s="9" t="n">
         <v>0</v>
@@ -1025,44 +977,56 @@
         </is>
       </c>
       <c r="N7" s="7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>1600</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-02-28T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B8" s="19" t="n"/>
+          <t>2024-03-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>2024-03-15T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
-        </is>
-      </c>
-      <c r="D8" s="19" t="n"/>
+          <t>Amanda O. - Ghana</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>Amanda O. - Ghana</t>
+        </is>
+      </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>24SNY20</t>
-        </is>
-      </c>
-      <c r="F8" s="19" t="n"/>
+          <t>24AMND03</t>
+        </is>
+      </c>
+      <c r="F8" s="14" t="inlineStr">
+        <is>
+          <t>24AMND03</t>
+        </is>
+      </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Gold -Dolgulu&amp;Fırçalı&amp;Kenarı Kırık- ANTXPATX1,2</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Yarı Cilalı-60,0x120,0x3,0 (45 Adet)</t>
         </is>
       </c>
       <c r="I8" s="17" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>60,0x120,0x3,0</t>
         </is>
       </c>
       <c r="J8" s="17" t="inlineStr">
@@ -1071,7 +1035,7 @@
         </is>
       </c>
       <c r="K8" s="9" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="L8" s="9" t="n">
         <v>0</v>
@@ -1082,56 +1046,56 @@
         </is>
       </c>
       <c r="N8" s="7" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>640</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-02-28T00:00:00.000Z</t>
+          <t>2024-03-15T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B9" s="18" t="n"/>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
+          <t>Amanda O. - Ghana</t>
         </is>
       </c>
       <c r="D9" s="18" t="n"/>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>24SNY20</t>
+          <t>24AMND03</t>
         </is>
       </c>
       <c r="F9" s="18" t="n"/>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>Yellow Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="H9" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Yellow Vein Cut-Dolgulu&amp;Cilalı-30,5x61,0x1,2</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Yarı Cilalı-55,0x80,0x3,0 (25 Adet)</t>
         </is>
       </c>
       <c r="I9" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>55,0x80,0x3,0</t>
         </is>
       </c>
       <c r="J9" s="17" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K9" s="9" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="L9" s="9" t="n">
-        <v>23.44</v>
+        <v>0</v>
       </c>
       <c r="M9" s="17" t="inlineStr">
         <is>
@@ -1139,812 +1103,776 @@
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>1750</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2024-03-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B10" s="19" t="n"/>
+      <c r="C10" s="17" t="inlineStr">
+        <is>
+          <t>Amanda O. - Ghana</t>
+        </is>
+      </c>
+      <c r="D10" s="19" t="n"/>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>24AMND03</t>
+        </is>
+      </c>
+      <c r="F10" s="19" t="n"/>
+      <c r="G10" s="17" t="inlineStr">
+        <is>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="H10" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Volcano-Dolgulu&amp;Fırçalı-ANTxPATx2,0 (500 adet)</t>
+        </is>
+      </c>
+      <c r="I10" s="17" t="inlineStr">
+        <is>
+          <t>ANTxPATx2,0</t>
+        </is>
+      </c>
+      <c r="J10" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="F11" s="14" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="G11" s="17" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="H11" s="17" t="inlineStr">
+        <is>
+          <t>3- (158) Traverten- Classic Light - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 1 Kasa - 38,66 sqm</t>
+        </is>
+      </c>
+      <c r="I11" s="17" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="J11" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O11" s="7" t="n">
+        <v>889.1799999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="n"/>
+      <c r="C12" s="17" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D12" s="18" t="n"/>
+      <c r="E12" s="17" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="F12" s="18" t="n"/>
+      <c r="G12" s="17" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="H12" s="17" t="inlineStr">
+        <is>
+          <t>6- (16)  Traverten - Classic Light - Dolgulu Honlu 1 Uzun Kenarı Bulnozlu - 30,5 x 61 x 5 cm - 1 Kasa - 50 adet - 9,30 sqm</t>
+        </is>
+      </c>
+      <c r="I12" s="17" t="inlineStr">
+        <is>
+          <t>30,5x61,0x5,0</t>
+        </is>
+      </c>
+      <c r="J12" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B13" s="18" t="n"/>
+      <c r="C13" s="17" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D13" s="18" t="n"/>
+      <c r="E13" s="17" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="F13" s="18" t="n"/>
+      <c r="G13" s="17" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="H13" s="17" t="inlineStr">
+        <is>
+          <t>4- (170)  Travertine Tiles - Classic Light - Dolgulu Honlu - 40,6 x 61 x 1,2 cm - 3 Kasa - 480 Adet - 118,89 sqm</t>
+        </is>
+      </c>
+      <c r="I13" s="17" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J13" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>118.89</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N13" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="O13" s="7" t="n">
+        <v>2853.36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B14" s="18" t="n"/>
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D14" s="18" t="n"/>
+      <c r="E14" s="17" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="F14" s="18" t="n"/>
+      <c r="G14" s="17" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="H14" s="17" t="inlineStr">
+        <is>
+          <t>5- (65 - Classic Mix) Travertine Tiles - Mina Rustic - Dolgulu &amp; Fırçalı - 30,5 x 61 x 1,2 cm - 3 Kasa - 630 adet - 117,21 sqm</t>
+        </is>
+      </c>
+      <c r="I14" s="17" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J14" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>117.21</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>1758.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B15" s="18" t="n"/>
+      <c r="C15" s="17" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D15" s="18" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H15" s="17" t="inlineStr">
+        <is>
+          <t>10-  (155) Traverten - Silver Grey - 33 x 61 x 3 cm - Dolgusuz Eskitme 1 Uzun Kenarı Bulnozlu - 1 kasa - 67 adet - 13,49 sqm</t>
+        </is>
+      </c>
+      <c r="I15" s="17" t="inlineStr">
+        <is>
+          <t>33,0x61,0x3,0</t>
+        </is>
+      </c>
+      <c r="J15" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>553.09</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="17" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D16" s="18" t="n"/>
+      <c r="E16" s="17" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="n"/>
+      <c r="G16" s="17" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="H16" s="17" t="inlineStr">
+        <is>
+          <t>11-  (154) Traverten - Silver Rustic - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 2 Kasa - 77,32 sqm</t>
+        </is>
+      </c>
+      <c r="I16" s="17" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="J16" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N16" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>2010.32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B17" s="18" t="n"/>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D17" s="18" t="n"/>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="F17" s="18" t="n"/>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>12-  (MTM) Traverten - Silver Grey - 40,6 x 61 x 1,2 cm - Dolgusuz Eskitme - 1 Kasa - 160 Adet - 39,63 sqm</t>
+        </is>
+      </c>
+      <c r="I17" s="17" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J17" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>1426.68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D18" s="19" t="n"/>
+      <c r="E18" s="17" t="inlineStr">
+        <is>
+          <t>24FLOS57</t>
+        </is>
+      </c>
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="17" t="inlineStr">
+        <is>
+          <t>Walnut Rustic</t>
+        </is>
+      </c>
+      <c r="H18" s="17" t="inlineStr">
+        <is>
+          <t>2- (87 - Antique French Pattern) Traverten - Walnut Rustic - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 1 Kasa - 38,66 sqm</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="J18" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" s="7" t="n">
+        <v>618.5599999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-02-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>2024-02-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="E19" s="17" t="inlineStr">
+        <is>
+          <t>24YGM09-2</t>
+        </is>
+      </c>
+      <c r="F19" s="14" t="inlineStr">
+        <is>
+          <t>24YGM09-2</t>
+        </is>
+      </c>
+      <c r="G19" s="17" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="H19" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Scabos-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (12 Kasa 26 set 231,96 m2)</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="J19" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N19" s="7" t="n">
+        <v>19.476</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>376.47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-02-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>2024-02-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="E20" s="17" t="inlineStr">
+        <is>
+          <t>24SNY20-2</t>
+        </is>
+      </c>
+      <c r="F20" s="14" t="inlineStr">
+        <is>
+          <t>24SNY20-2</t>
+        </is>
+      </c>
+      <c r="G20" s="17" t="inlineStr">
+        <is>
+          <t>Yellow Vein Cut</t>
+        </is>
+      </c>
+      <c r="H20" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Yellow Vein Cut-Dolgulu&amp;Cilalı-30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J20" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>2024-02-27T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B21" s="14" t="inlineStr">
         <is>
           <t>2024-02-27T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr">
+      <c r="C21" s="17" t="inlineStr">
         <is>
           <t>Edris Maden - Turkey</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D21" s="14" t="inlineStr">
         <is>
           <t>Edris Maden - Turkey</t>
         </is>
       </c>
-      <c r="E10" s="17" t="inlineStr">
+      <c r="E21" s="17" t="inlineStr">
         <is>
           <t>24EDRS01</t>
         </is>
       </c>
-      <c r="F10" s="14" t="inlineStr">
+      <c r="F21" s="14" t="inlineStr">
         <is>
           <t>24EDRS01</t>
         </is>
       </c>
-      <c r="G10" s="17" t="inlineStr">
+      <c r="G21" s="17" t="inlineStr">
         <is>
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="H10" s="17" t="inlineStr">
+      <c r="H21" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Traverten Fayans - Classic Vein Cut - Kalibreli &amp; Ham - 30 x 30-40-45-55 x 1.2 cm
 </t>
         </is>
       </c>
-      <c r="I10" s="17" t="inlineStr">
+      <c r="I21" s="17" t="inlineStr">
         <is>
           <t>30,0xFreex1,2</t>
         </is>
       </c>
-      <c r="J10" s="17" t="inlineStr">
+      <c r="J21" s="17" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="K10" s="9" t="n">
+      <c r="K21" s="9" t="n">
         <v>1150</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L21" s="9" t="n">
         <v>1161</v>
       </c>
-      <c r="M10" s="17" t="inlineStr">
+      <c r="M21" s="17" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N21" s="7" t="n">
         <v>13.5</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O21" s="7" t="n">
         <v>15525</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-02-26T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B11" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C11" s="17" t="inlineStr">
-        <is>
-          <t>Dilamar Mermer</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="inlineStr">
-        <is>
-          <t>Dilamar Mermer</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>23DLM21</t>
-        </is>
-      </c>
-      <c r="F11" s="14" t="inlineStr">
-        <is>
-          <t>23DLM21</t>
-        </is>
-      </c>
-      <c r="G11" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H11" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Silver Grey - Dolgulu&amp;Honlu- 30,5X30,5X1,2 (215 Adet)</t>
-        </is>
-      </c>
-      <c r="I11" s="17" t="inlineStr">
-        <is>
-          <t>30,5x30,5x1,2</t>
-        </is>
-      </c>
-      <c r="J11" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="M11" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N11" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-02-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C12" s="17" t="inlineStr">
-        <is>
-          <t>Aurelien Jeudy - Dominican</t>
-        </is>
-      </c>
-      <c r="D12" s="14" t="inlineStr">
-        <is>
-          <t>Aurelien Jeudy - Dominican</t>
-        </is>
-      </c>
-      <c r="E12" s="17" t="inlineStr">
-        <is>
-          <t>24KIMI01</t>
-        </is>
-      </c>
-      <c r="F12" s="14" t="inlineStr">
-        <is>
-          <t>24KIMI01</t>
-        </is>
-      </c>
-      <c r="G12" s="17" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="H12" s="17" t="inlineStr">
-        <is>
-          <t>Classic Light 1. kalite - dolgulu fırçalı düz kenar - 40,6X61,0X1,2 - 911,49 m2 - 3680 adet</t>
-        </is>
-      </c>
-      <c r="I12" s="17" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J12" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>911.49</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>594.45</v>
-      </c>
-      <c r="M12" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>17318.31</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-02-19T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-19T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C13" s="17" t="inlineStr">
-        <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
-      <c r="E13" s="17" t="inlineStr">
-        <is>
-          <t>24BYN60</t>
-        </is>
-      </c>
-      <c r="F13" s="14" t="inlineStr">
-        <is>
-          <t>24BYN60</t>
-        </is>
-      </c>
-      <c r="G13" s="17" t="inlineStr">
-        <is>
-          <t>Mina Rustic</t>
-        </is>
-      </c>
-      <c r="H13" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Mina Rustic - Dolgulu&amp;Fırçalı&amp;Kenarı Kırık - ANTXPATX1,2</t>
-        </is>
-      </c>
-      <c r="I13" s="17" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-      <c r="J13" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>773.2</v>
-      </c>
-      <c r="L13" s="9" t="n">
-        <v>773.2</v>
-      </c>
-      <c r="M13" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N13" s="7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O13" s="7" t="n">
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024-02-09T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-09T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C14" s="17" t="inlineStr">
-        <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
-      <c r="E14" s="17" t="inlineStr">
-        <is>
-          <t>24SU117</t>
-        </is>
-      </c>
-      <c r="F14" s="14" t="inlineStr">
-        <is>
-          <t>24SU117</t>
-        </is>
-      </c>
-      <c r="G14" s="17" t="inlineStr">
-        <is>
-          <t>Walnut Com</t>
-        </is>
-      </c>
-      <c r="H14" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Walnut Com - Dolgulu&amp;Honlu - 30,5X61,0X1,2</t>
-        </is>
-      </c>
-      <c r="I14" s="17" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J14" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>156.28</v>
-      </c>
-      <c r="L14" s="9" t="n">
-        <v>156.28</v>
-      </c>
-      <c r="M14" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N14" s="7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O14" s="7" t="n">
-        <v>2109.78</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-02-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B15" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C15" s="17" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="E15" s="17" t="inlineStr">
-        <is>
-          <t>24DSP08</t>
-        </is>
-      </c>
-      <c r="F15" s="14" t="inlineStr">
-        <is>
-          <t>24DSP08</t>
-        </is>
-      </c>
-      <c r="G15" s="17" t="inlineStr">
-        <is>
-          <t>Diana Royal MP-DRB-B</t>
-        </is>
-      </c>
-      <c r="H15" s="17" t="inlineStr">
-        <is>
-          <t>1- Mozaik - Basketweave Diana Royal &amp; Kahverengi Mermer MP-DRB-B - Cilalı - 30,5 x 30,5 x 1 cm - 300,47 sqm - 3230 mesh</t>
-        </is>
-      </c>
-      <c r="I15" s="17" t="inlineStr">
-        <is>
-          <t>30,5x30,5x1,0</t>
-        </is>
-      </c>
-      <c r="J15" s="17" t="inlineStr">
-        <is>
-          <t>Denmar</t>
-        </is>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>300.47</v>
-      </c>
-      <c r="L15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>57.888</v>
-      </c>
-      <c r="O15" s="7" t="n">
-        <v>17393.61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-02-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B16" s="18" t="n"/>
-      <c r="C16" s="17" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="D16" s="18" t="n"/>
-      <c r="E16" s="17" t="inlineStr">
-        <is>
-          <t>24DSP08</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="n"/>
-      <c r="G16" s="17" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="H16" s="17" t="inlineStr">
-        <is>
-          <t>2- Mermer - Diana Royal - Fırçalı &amp; Kenarı Kırık - ANT x PAT x 1,2 cm - 576,21 sqm</t>
-        </is>
-      </c>
-      <c r="I16" s="17" t="inlineStr">
-        <is>
-          <t>FRxPATx1,2</t>
-        </is>
-      </c>
-      <c r="J16" s="17" t="inlineStr">
-        <is>
-          <t>Kanal Mermer</t>
-        </is>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>576.21</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>39.274</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>22630.07</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2024-02-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B17" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="inlineStr">
-        <is>
-          <t>24DSP09</t>
-        </is>
-      </c>
-      <c r="F17" s="14" t="inlineStr">
-        <is>
-          <t>24DSP09</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>1- Mermer - Diana Royal - Cilalı Düz Kenar - 61 x 122 x 2 cm (24" x 48" x 3/4") - 500,10 sqm - 672 adet</t>
-        </is>
-      </c>
-      <c r="I17" s="17" t="inlineStr">
-        <is>
-          <t>61,0x122.0x2,0</t>
-        </is>
-      </c>
-      <c r="J17" s="17" t="inlineStr">
-        <is>
-          <t>Köylü Mermer</t>
-        </is>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>500.1</v>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>500.11</v>
-      </c>
-      <c r="M17" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>52.724</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>26367.27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B18" s="14" t="inlineStr">
-        <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C18" s="17" t="inlineStr">
-        <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="E18" s="17" t="inlineStr">
-        <is>
-          <t>23PENTA01-2</t>
-        </is>
-      </c>
-      <c r="F18" s="14" t="inlineStr">
-        <is>
-          <t>23PENTA01-2</t>
-        </is>
-      </c>
-      <c r="G18" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H18" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Silver traverten - dolgulu honlu - 60x120x2 cm - 840,96 m2 - 1168 adet </t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="inlineStr">
-        <is>
-          <t>60,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="J18" s="17" t="inlineStr">
-        <is>
-          <t>Emaş Doğaltaş</t>
-        </is>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>840.96</v>
-      </c>
-      <c r="L18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N18" s="7" t="n">
-        <v>69</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>58026.24</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B19" s="19" t="n"/>
-      <c r="C19" s="17" t="inlineStr">
-        <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="D19" s="19" t="n"/>
-      <c r="E19" s="17" t="inlineStr">
-        <is>
-          <t>23PENTA01-2</t>
-        </is>
-      </c>
-      <c r="F19" s="19" t="n"/>
-      <c r="G19" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H19" s="17" t="inlineStr">
-        <is>
-          <t>Silver traverten - dolgusuz honlu - 60,0X120,0X2,0 cm - 110,16 m2 - 153 adet</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="inlineStr">
-        <is>
-          <t>60,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="J19" s="17" t="inlineStr">
-        <is>
-          <t>Emaş Doğaltaş</t>
-        </is>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>110.16</v>
-      </c>
-      <c r="L19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N19" s="7" t="n">
-        <v>69</v>
-      </c>
-      <c r="O19" s="7" t="n">
-        <v>7601.04</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="n"/>
-      <c r="C20" s="17" t="inlineStr">
-        <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="D20" s="19" t="n"/>
-      <c r="E20" s="17" t="inlineStr">
-        <is>
-          <t>23PENTA01-2</t>
-        </is>
-      </c>
-      <c r="F20" s="19" t="n"/>
-      <c r="G20" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H20" s="17" t="inlineStr">
-        <is>
-          <t>Silver süpürgelik - dolgusuz honlu - 6,0X120,0X2,0 cm - 10,22 m2 - 142 adet</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="inlineStr">
-        <is>
-          <t>6,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="J20" s="17" t="inlineStr">
-        <is>
-          <t>Emaş Doğaltaş</t>
-        </is>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="L20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N20" s="7" t="n">
-        <v>69</v>
-      </c>
-      <c r="O20" s="7" t="n">
-        <v>705.1799999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B21" s="19" t="n"/>
-      <c r="C21" s="17" t="inlineStr">
-        <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="D21" s="19" t="n"/>
-      <c r="E21" s="17" t="inlineStr">
-        <is>
-          <t>23PENTA01-2</t>
-        </is>
-      </c>
-      <c r="F21" s="19" t="n"/>
-      <c r="G21" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H21" s="17" t="inlineStr">
-        <is>
-          <t>Silver traverten - dolgusuz honlu - 60,0X120,0X4,0 cm - 336,96 m2 - 468 adet</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="inlineStr">
-        <is>
-          <t>60,0x120,0x4,0</t>
-        </is>
-      </c>
-      <c r="J21" s="17" t="inlineStr">
-        <is>
-          <t>Emaş Doğaltaş</t>
-        </is>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>66.95999999999999</v>
-      </c>
-      <c r="L21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N21" s="7" t="n">
-        <v>74</v>
-      </c>
-      <c r="O21" s="7" t="n">
-        <v>4955.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="n"/>
+          <t>2024-02-26T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B22" s="14" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C22" s="17" t="inlineStr">
         <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="D22" s="18" t="n"/>
+          <t>Dilamar Mermer</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>Dilamar Mermer</t>
+        </is>
+      </c>
       <c r="E22" s="17" t="inlineStr">
         <is>
-          <t>23PENTA01-2</t>
-        </is>
-      </c>
-      <c r="F22" s="18" t="n"/>
+          <t>23DLM21</t>
+        </is>
+      </c>
+      <c r="F22" s="14" t="inlineStr">
+        <is>
+          <t>23DLM21</t>
+        </is>
+      </c>
       <c r="G22" s="17" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -1952,24 +1880,24 @@
       </c>
       <c r="H22" s="17" t="inlineStr">
         <is>
-          <t>Silver traverten Plaka - Dolgulu honlu -SLABXSLABX2,0 - 50 m2</t>
+          <t>Travertine Tiles - Silver Grey - Dolgulu&amp;Honlu- 30,5X30,5X1,2 (215 Adet)</t>
         </is>
       </c>
       <c r="I22" s="17" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="J22" s="17" t="inlineStr">
         <is>
-          <t>Emaş Doğaltaş</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K22" s="9" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M22" s="17" t="inlineStr">
         <is>
@@ -1977,56 +1905,56 @@
         </is>
       </c>
       <c r="N22" s="7" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="O22" s="7" t="n">
-        <v>3650</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-11-16T00:00:00.000Z</t>
+          <t>2024-02-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B23" s="14" t="inlineStr">
         <is>
-          <t>2023-11-16T00:00:00.000Z</t>
+          <t>2024-02-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C23" s="17" t="inlineStr">
         <is>
-          <t>Mustafa Adanalı - Turkey</t>
+          <t>Aurelien Jeudy - Dominican</t>
         </is>
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Mustafa Adanalı - Turkey</t>
+          <t>Aurelien Jeudy - Dominican</t>
         </is>
       </c>
       <c r="E23" s="17" t="inlineStr">
         <is>
-          <t>23MUT04-2</t>
+          <t>24KIMI01</t>
         </is>
       </c>
       <c r="F23" s="14" t="inlineStr">
         <is>
-          <t>23MUT04-2</t>
+          <t>24KIMI01</t>
         </is>
       </c>
       <c r="G23" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="H23" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Honlu - 30,5X61,0X1,2</t>
+          <t>Classic Light 1. kalite - dolgulu fırçalı düz kenar - 40,6X61,0X1,2 - 911,49 m2 - 3680 adet</t>
         </is>
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J23" s="17" t="inlineStr">
@@ -2035,10 +1963,10 @@
         </is>
       </c>
       <c r="K23" s="9" t="n">
-        <v>195.35</v>
+        <v>911.49</v>
       </c>
       <c r="L23" s="9" t="n">
-        <v>195.35</v>
+        <v>634.08</v>
       </c>
       <c r="M23" s="17" t="inlineStr">
         <is>
@@ -2046,56 +1974,56 @@
         </is>
       </c>
       <c r="N23" s="7" t="n">
-        <v>16.75</v>
+        <v>19</v>
       </c>
       <c r="O23" s="7" t="n">
-        <v>3272.11</v>
+        <v>17318.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-11-09T00:00:00.000Z</t>
+          <t>2024-02-19T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B24" s="14" t="inlineStr">
         <is>
-          <t>2023-11-09T00:00:00.000Z</t>
+          <t>2024-02-19T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C24" s="17" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="E24" s="17" t="inlineStr">
         <is>
-          <t>23PK3005-8</t>
+          <t>24BYN60</t>
         </is>
       </c>
       <c r="F24" s="14" t="inlineStr">
         <is>
-          <t>23PK3005-8</t>
+          <t>24BYN60</t>
         </is>
       </c>
       <c r="G24" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="H24" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Honlu - 30,5X61,0X1,2</t>
+          <t>Travertine Tiles - Mina Rustic - Dolgulu&amp;Fırçalı&amp;Kenarı Kırık - ANTXPATX1,2</t>
         </is>
       </c>
       <c r="I24" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="J24" s="17" t="inlineStr">
@@ -2104,10 +2032,10 @@
         </is>
       </c>
       <c r="K24" s="9" t="n">
-        <v>238.16</v>
+        <v>773.2</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>297.7</v>
+        <v>773.2</v>
       </c>
       <c r="M24" s="17" t="inlineStr">
         <is>
@@ -2115,68 +2043,68 @@
         </is>
       </c>
       <c r="N24" s="7" t="n">
-        <v>23.75</v>
+        <v>7.5</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>5656.3</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-10-30T00:00:00.000Z</t>
+          <t>2024-02-09T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B25" s="14" t="inlineStr">
         <is>
-          <t>2023-10-30T00:00:00.000Z</t>
+          <t>2024-02-09T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C25" s="17" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="E25" s="17" t="inlineStr">
         <is>
-          <t>23COS33</t>
+          <t>24SU117</t>
         </is>
       </c>
       <c r="F25" s="14" t="inlineStr">
         <is>
-          <t>23COS33</t>
+          <t>24SU117</t>
         </is>
       </c>
       <c r="G25" s="17" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Walnut Com</t>
         </is>
       </c>
       <c r="H25" s="17" t="inlineStr">
         <is>
-          <t>Diana Royal - Cilalı Plaka (arkası meşli) - 2 cm</t>
+          <t>Travertine Tiles - Walnut Com - Dolgulu&amp;Honlu - 30,5X61,0X1,2</t>
         </is>
       </c>
       <c r="I25" s="17" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J25" s="17" t="inlineStr">
         <is>
-          <t>Köylü Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K25" s="9" t="n">
-        <v>145.56</v>
+        <v>156.28</v>
       </c>
       <c r="L25" s="9" t="n">
-        <v>145.56</v>
+        <v>156.28</v>
       </c>
       <c r="M25" s="17" t="inlineStr">
         <is>
@@ -2184,56 +2112,68 @@
         </is>
       </c>
       <c r="N25" s="7" t="n">
-        <v>45</v>
+        <v>13.5</v>
       </c>
       <c r="O25" s="7" t="n">
-        <v>6550.2</v>
+        <v>2109.78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-10-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B26" s="19" t="n"/>
+          <t>2023-11-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B26" s="14" t="inlineStr">
+        <is>
+          <t>2023-11-16T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="D26" s="19" t="n"/>
+          <t>Mustafa Adanalı - Turkey</t>
+        </is>
+      </c>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>Mustafa Adanalı - Turkey</t>
+        </is>
+      </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>23COS33</t>
-        </is>
-      </c>
-      <c r="F26" s="19" t="n"/>
+          <t>23MUT04-2</t>
+        </is>
+      </c>
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t>23MUT04-2</t>
+        </is>
+      </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="H26" s="17" t="inlineStr">
         <is>
-          <t>Classic Cross Cut Traverten - Dolgusuz Honlu (arkası meşli) - 2 cm</t>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Honlu - 30,5X61,0X1,2</t>
         </is>
       </c>
       <c r="I26" s="17" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J26" s="17" t="inlineStr">
         <is>
-          <t>Ertu Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K26" s="9" t="n">
-        <v>60.84</v>
+        <v>195.35</v>
       </c>
       <c r="L26" s="9" t="n">
-        <v>60.84</v>
+        <v>195.35</v>
       </c>
       <c r="M26" s="17" t="inlineStr">
         <is>
@@ -2241,53 +2181,65 @@
         </is>
       </c>
       <c r="N26" s="7" t="n">
-        <v>47</v>
+        <v>16.75</v>
       </c>
       <c r="O26" s="7" t="n">
-        <v>2859.48</v>
+        <v>3272.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-10-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B27" s="18" t="n"/>
+          <t>2023-10-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>2023-10-25T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C27" s="17" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="D27" s="18" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E27" s="17" t="inlineStr">
         <is>
-          <t>23COS33</t>
-        </is>
-      </c>
-      <c r="F27" s="18" t="n"/>
+          <t>Empire Court 07-2</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court 07-2</t>
+        </is>
+      </c>
       <c r="G27" s="17" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="H27" s="17" t="inlineStr">
         <is>
-          <t>Classic Cross Cut Plaka - Dolgulu Honlu (arkası meşli) - 2 cm</t>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Yarı Cilalı - 40,0X60,0X2,0</t>
         </is>
       </c>
       <c r="I27" s="17" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>40,0x60,0x2,0</t>
         </is>
       </c>
       <c r="J27" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K27" s="9" t="n">
-        <v>225</v>
+        <v>29.96</v>
       </c>
       <c r="L27" s="9" t="n">
         <v>0</v>
@@ -2298,10 +2250,10 @@
         </is>
       </c>
       <c r="N27" s="7" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="O27" s="7" t="n">
-        <v>10800</v>
+        <v>329.56</v>
       </c>
     </row>
     <row r="28">
@@ -2310,31 +2262,19 @@
           <t>2023-10-25T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="B28" s="14" t="inlineStr">
-        <is>
-          <t>2023-10-25T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="B28" s="19" t="n"/>
       <c r="C28" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D28" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D28" s="19" t="n"/>
       <c r="E28" s="17" t="inlineStr">
         <is>
           <t>Empire Court 07-2</t>
         </is>
       </c>
-      <c r="F28" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court 07-2</t>
-        </is>
-      </c>
+      <c r="F28" s="19" t="n"/>
       <c r="G28" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">Mina Rustic Vein Cut </t>
@@ -2342,12 +2282,12 @@
       </c>
       <c r="H28" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Yarı Cilalı - 40,0X60,0X2,0</t>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Yarı Cilalı - 40,0X40,0X2,0</t>
         </is>
       </c>
       <c r="I28" s="17" t="inlineStr">
         <is>
-          <t>40,0x60,0x2,0</t>
+          <t>40,0x40,0x2,0</t>
         </is>
       </c>
       <c r="J28" s="17" t="inlineStr">
@@ -2356,7 +2296,7 @@
         </is>
       </c>
       <c r="K28" s="9" t="n">
-        <v>29.96</v>
+        <v>13.52</v>
       </c>
       <c r="L28" s="9" t="n">
         <v>0</v>
@@ -2370,41 +2310,53 @@
         <v>11</v>
       </c>
       <c r="O28" s="7" t="n">
-        <v>329.56</v>
+        <v>148.72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-10-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B29" s="18" t="n"/>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C29" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D29" s="18" t="n"/>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="D29" s="14" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
       <c r="E29" s="17" t="inlineStr">
         <is>
-          <t>Empire Court 07-2</t>
-        </is>
-      </c>
-      <c r="F29" s="18" t="n"/>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="F29" s="14" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
       <c r="G29" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Pablo Cross Cut</t>
         </is>
       </c>
       <c r="H29" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Yarı Cilalı - 40,0X40,0X2,0</t>
+          <t>Travertine Tiles - Pablo Cross Cut - Dolgulu&amp;Fırçalı&amp;Düz Kenar - 40,6X61,0X1,2 (1616 Adet)</t>
         </is>
       </c>
       <c r="I29" s="17" t="inlineStr">
         <is>
-          <t>40,0x40,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J29" s="17" t="inlineStr">
@@ -2413,10 +2365,10 @@
         </is>
       </c>
       <c r="K29" s="9" t="n">
-        <v>13.52</v>
+        <v>401.2</v>
       </c>
       <c r="L29" s="9" t="n">
-        <v>0</v>
+        <v>401.2</v>
       </c>
       <c r="M29" s="17" t="inlineStr">
         <is>
@@ -2424,134 +2376,122 @@
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O29" s="7" t="n">
-        <v>148.72</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-10-03T00:00:00.000Z</t>
+          <t>2022-07-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>2023-10-03T00:00:00.000Z</t>
+          <t>2022-07-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C30" s="17" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="E30" s="17" t="inlineStr">
         <is>
-          <t>23COS32</t>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
         </is>
       </c>
       <c r="F30" s="14" t="inlineStr">
         <is>
-          <t>23COS32</t>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
         </is>
       </c>
       <c r="G30" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H30" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut Plaka - Dolgulu Honlu ya da Cilalı (Arkası meşli) - 2 cm Slab</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X150,0X2,0</t>
         </is>
       </c>
       <c r="I30" s="17" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>30,0x150,0x2,0</t>
         </is>
       </c>
       <c r="J30" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K30" s="9" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="L30" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="O30" s="7" t="n">
-        <v>23400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B31" s="14" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B31" s="18" t="n"/>
       <c r="C31" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D31" s="14" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D31" s="18" t="n"/>
       <c r="E31" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F31" s="14" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F31" s="18" t="n"/>
       <c r="G31" s="17" t="inlineStr">
         <is>
-          <t>Bathroom Sink Cabinet</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H31" s="17" t="inlineStr">
         <is>
-          <t>Banyo dolabı 45x80 cm - ayna, lavabo ve dolap içerir</t>
+          <t xml:space="preserve">Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X150,0X2,0 </t>
         </is>
       </c>
       <c r="I31" s="17" t="inlineStr">
         <is>
-          <t>45,0x80,0xVarious</t>
+          <t>16,0x150,0x2,0</t>
         </is>
       </c>
       <c r="J31" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K31" s="9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="L31" s="9" t="n">
         <v>0</v>
@@ -2562,170 +2502,170 @@
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="O31" s="7" t="n">
-        <v>1375</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B32" s="19" t="n"/>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B32" s="18" t="n"/>
       <c r="C32" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D32" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D32" s="18" t="n"/>
       <c r="E32" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F32" s="19" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F32" s="18" t="n"/>
       <c r="G32" s="17" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H32" s="17" t="inlineStr">
         <is>
-          <t>Marble Tiles - Bluestone - Cilalı - ANTXPATX1,2</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X120,0X2,0</t>
         </is>
       </c>
       <c r="I32" s="17" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>30,0x120,0x2,0</t>
         </is>
       </c>
       <c r="J32" s="17" t="inlineStr">
         <is>
-          <t>Tabi Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K32" s="9" t="n">
-        <v>80.3</v>
+        <v>80</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>80.3</v>
+        <v>0</v>
       </c>
       <c r="M32" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
         <v>24</v>
       </c>
       <c r="O32" s="7" t="n">
-        <v>1927.2</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B33" s="19" t="n"/>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B33" s="18" t="n"/>
       <c r="C33" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D33" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D33" s="18" t="n"/>
       <c r="E33" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F33" s="19" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F33" s="18" t="n"/>
       <c r="G33" s="17" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H33" s="17" t="inlineStr">
         <is>
-          <t>Marble Tiles - Bluestone - Kumlama&amp;Fırçalı- ANTXPATX1,2</t>
+          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X120,0X2,0</t>
         </is>
       </c>
       <c r="I33" s="17" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>16,0x120,0x2,0</t>
         </is>
       </c>
       <c r="J33" s="17" t="inlineStr">
         <is>
-          <t>Tabi Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K33" s="9" t="n">
-        <v>120.45</v>
+        <v>100</v>
       </c>
       <c r="L33" s="9" t="n">
-        <v>120.45</v>
+        <v>0</v>
       </c>
       <c r="M33" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O33" s="7" t="n">
-        <v>2890.8</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B34" s="19" t="n"/>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B34" s="18" t="n"/>
       <c r="C34" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D34" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D34" s="18" t="n"/>
       <c r="E34" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F34" s="19" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F34" s="18" t="n"/>
       <c r="G34" s="17" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H34" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Bluestone - Kumlama&amp;Fırçalı- 14,0X120,0X2,0</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X160,5X2,0</t>
         </is>
       </c>
       <c r="I34" s="17" t="inlineStr">
         <is>
-          <t>14,0x120,0x2,0</t>
+          <t>30,0x160,5x2,0</t>
         </is>
       </c>
       <c r="J34" s="17" t="inlineStr">
         <is>
-          <t>Tabi Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K34" s="9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L34" s="9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17" t="inlineStr">
         <is>
@@ -2733,53 +2673,53 @@
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="O34" s="7" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B35" s="19" t="n"/>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B35" s="18" t="n"/>
       <c r="C35" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D35" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D35" s="18" t="n"/>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F35" s="19" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F35" s="18" t="n"/>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>Hygassos</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H35" s="17" t="inlineStr">
         <is>
-          <t>(3302) Quartz Slab - Hygassos - Cilalı - 2 cm Kalınlık - sqm daha sonra netleşecek</t>
+          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X160,5X2,0</t>
         </is>
       </c>
       <c r="I35" s="17" t="inlineStr">
         <is>
-          <t>VARxVARx2,0</t>
+          <t>16,0x160,5x2,0</t>
         </is>
       </c>
       <c r="J35" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K35" s="9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L35" s="9" t="n">
         <v>0</v>
@@ -2790,54 +2730,53 @@
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>4000</v>
+        <v>18</v>
       </c>
       <c r="O35" s="7" t="n">
-        <v>4000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B36" s="19" t="n"/>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B36" s="18" t="n"/>
       <c r="C36" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D36" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D36" s="18" t="n"/>
       <c r="E36" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F36" s="19" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F36" s="18" t="n"/>
       <c r="G36" s="17" t="inlineStr">
         <is>
-          <t>Kitchen Cabinets</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H36" s="17" t="inlineStr">
         <is>
-          <t>Mutfak Dolabı - GÖVDE MDFLAM; 
-DOLAP KAPAKLARI LAKE ANTRASİT MAT VE LAKE PARLAK BEYAZ detaylar sqm daha sonra netleştirilecek</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X110,0X2,0</t>
         </is>
       </c>
       <c r="I36" s="17" t="inlineStr">
         <is>
-          <t>VARxVARxVAR</t>
+          <t>30,0x110,0x2,0</t>
         </is>
       </c>
       <c r="J36" s="17" t="inlineStr">
         <is>
-          <t>Anka Ahşap</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K36" s="9" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="L36" s="9" t="n">
         <v>0</v>
@@ -2848,56 +2787,56 @@
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>11000</v>
+        <v>24</v>
       </c>
       <c r="O36" s="7" t="n">
-        <v>11000</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B37" s="19" t="n"/>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B37" s="18" t="n"/>
       <c r="C37" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D37" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D37" s="18" t="n"/>
       <c r="E37" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F37" s="19" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F37" s="18" t="n"/>
       <c r="G37" s="17" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H37" s="17" t="inlineStr">
         <is>
-          <t>Travertine Sahanlık - Bluestone - Kumlama&amp;Fırçalı- 43,5X132,0X2,0</t>
+          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X110,0X2,0</t>
         </is>
       </c>
       <c r="I37" s="17" t="inlineStr">
         <is>
-          <t>43,5x132,0x2,0</t>
+          <t>16,0x110,0x2,0</t>
         </is>
       </c>
       <c r="J37" s="17" t="inlineStr">
         <is>
-          <t>Tabi Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K37" s="9" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="L37" s="9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M37" s="17" t="inlineStr">
         <is>
@@ -2905,44 +2844,44 @@
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O37" s="7" t="n">
-        <v>162</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B38" s="19" t="n"/>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B38" s="18" t="n"/>
       <c r="C38" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D38" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D38" s="18" t="n"/>
       <c r="E38" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F38" s="19" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F38" s="18" t="n"/>
       <c r="G38" s="17" t="inlineStr">
         <is>
-          <t>Pablo Cross Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H38" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Pablo Cross Cut - Dolgulu&amp;Fırçalı&amp;Düz Kenar - 40,6X61,0X1,2 (1616 Adet)</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 33,0X120,0X2,0</t>
         </is>
       </c>
       <c r="I38" s="17" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>33,0x120,0x2,0</t>
         </is>
       </c>
       <c r="J38" s="17" t="inlineStr">
@@ -2951,67 +2890,67 @@
         </is>
       </c>
       <c r="K38" s="9" t="n">
-        <v>401.2</v>
+        <v>20</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>401.2</v>
+        <v>0</v>
       </c>
       <c r="M38" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O38" s="7" t="n">
-        <v>12036</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B39" s="19" t="n"/>
+          <t>2022-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B39" s="18" t="n"/>
       <c r="C39" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="D39" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D39" s="18" t="n"/>
       <c r="E39" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="F39" s="19" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F39" s="18" t="n"/>
       <c r="G39" s="17" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H39" s="17" t="inlineStr">
         <is>
-          <t>Basamak - Bluestone - Fırçalı Kumlama &amp; 1 Uzun Kenarı 2 mm Pahlı 3 Kaymaz Oluklu - 35 x 120 x 2 cm - 22 adet - 9,24 sqm</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 32,0X130,0X2,0</t>
         </is>
       </c>
       <c r="I39" s="17" t="inlineStr">
         <is>
-          <t>35,0x120,0x2,0</t>
+          <t>32,0x130,0x2,0</t>
         </is>
       </c>
       <c r="J39" s="17" t="inlineStr">
         <is>
-          <t>Tabi Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K39" s="9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L39" s="9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M39" s="17" t="inlineStr">
         <is>
@@ -3019,54 +2958,53 @@
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O39" s="7" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
+          <t>2022-07-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B40" s="18" t="n"/>
       <c r="C40" s="17" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="D40" s="18" t="n"/>
       <c r="E40" s="17" t="inlineStr">
         <is>
-          <t>23STAD01</t>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
         </is>
       </c>
       <c r="F40" s="18" t="n"/>
       <c r="G40" s="17" t="inlineStr">
         <is>
-          <t>Refrigerator</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H40" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10- SILVERLINE - REFRIGERATOR - BLACK
-</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0x130,0x2,0</t>
         </is>
       </c>
       <c r="I40" s="17" t="inlineStr">
         <is>
-          <t>VARxVARxVAR</t>
+          <t>30,0x130,0x2,0</t>
         </is>
       </c>
       <c r="J40" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K40" s="9" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="L40" s="9" t="n">
         <v>0</v>
@@ -3077,10 +3015,10 @@
         </is>
       </c>
       <c r="N40" s="7" t="n">
-        <v>1950</v>
+        <v>26</v>
       </c>
       <c r="O40" s="7" t="n">
-        <v>1950</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="41">
@@ -3089,31 +3027,19 @@
           <t>2022-07-14T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="B41" s="14" t="inlineStr">
-        <is>
-          <t>2022-07-14T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="B41" s="19" t="n"/>
       <c r="C41" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D41" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D41" s="19" t="n"/>
       <c r="E41" s="17" t="inlineStr">
         <is>
           <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
         </is>
       </c>
-      <c r="F41" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
+      <c r="F41" s="19" t="n"/>
       <c r="G41" s="17" t="inlineStr">
         <is>
           <t>Classic Mina</t>
@@ -3121,12 +3047,12 @@
       </c>
       <c r="H41" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X150,0X2,0</t>
+          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X130,0X2,0</t>
         </is>
       </c>
       <c r="I41" s="17" t="inlineStr">
         <is>
-          <t>30,0x150,0x2,0</t>
+          <t>16,0x130,0x2,0</t>
         </is>
       </c>
       <c r="J41" s="17" t="inlineStr">
@@ -3135,7 +3061,7 @@
         </is>
       </c>
       <c r="K41" s="9" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L41" s="9" t="n">
         <v>0</v>
@@ -3146,44 +3072,56 @@
         </is>
       </c>
       <c r="N41" s="7" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="O41" s="7" t="n">
-        <v>4200</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B42" s="19" t="n"/>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B42" s="14" t="inlineStr">
+        <is>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C42" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D42" s="19" t="n"/>
+          <t>Henry - Ghana</t>
+        </is>
+      </c>
+      <c r="D42" s="14" t="inlineStr">
+        <is>
+          <t>Henry - Ghana</t>
+        </is>
+      </c>
       <c r="E42" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
-      <c r="F42" s="19" t="n"/>
+          <t>Carl Mutt - 5</t>
+        </is>
+      </c>
+      <c r="F42" s="14" t="inlineStr">
+        <is>
+          <t>Carl Mutt - 5</t>
+        </is>
+      </c>
       <c r="G42" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="H42" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X150,0X2,0 </t>
+          <t>Travertine Tiles - Gold - Cilalı - 50,0x100,0x2,0</t>
         </is>
       </c>
       <c r="I42" s="17" t="inlineStr">
         <is>
-          <t>16,0x150,0x2,0</t>
+          <t>50,0x100,0x2,0</t>
         </is>
       </c>
       <c r="J42" s="17" t="inlineStr">
@@ -3192,18 +3130,18 @@
         </is>
       </c>
       <c r="K42" s="9" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L42" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M42" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N42" s="7" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="O42" s="7" t="n">
         <v>2400</v>
@@ -3212,22 +3150,34 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B43" s="19" t="n"/>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B43" s="14" t="inlineStr">
+        <is>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C43" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D43" s="19" t="n"/>
+      <c r="D43" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E43" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
-      <c r="F43" s="19" t="n"/>
+          <t>Empire Court House 2A</t>
+        </is>
+      </c>
+      <c r="F43" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 2A</t>
+        </is>
+      </c>
       <c r="G43" s="17" t="inlineStr">
         <is>
           <t>Classic Mina</t>
@@ -3235,12 +3185,12 @@
       </c>
       <c r="H43" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X120,0X2,0</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;yarı Cilalı - 30,5X61,0X1,2 (1237 Adet)</t>
         </is>
       </c>
       <c r="I43" s="17" t="inlineStr">
         <is>
-          <t>30,0x120,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J43" s="17" t="inlineStr">
@@ -3249,27 +3199,27 @@
         </is>
       </c>
       <c r="K43" s="9" t="n">
-        <v>80</v>
+        <v>230.14</v>
       </c>
       <c r="L43" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M43" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N43" s="7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O43" s="7" t="n">
-        <v>1920</v>
+        <v>5063.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
+          <t>2022-06-06T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B44" s="19" t="n"/>
@@ -3281,23 +3231,23 @@
       <c r="D44" s="19" t="n"/>
       <c r="E44" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+          <t>Empire Court House 2A</t>
         </is>
       </c>
       <c r="F44" s="19" t="n"/>
       <c r="G44" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H44" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X120,0X2,0</t>
+          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 15,25x30,5x1,2 (323 Adet)</t>
         </is>
       </c>
       <c r="I44" s="17" t="inlineStr">
         <is>
-          <t>16,0x120,0x2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="J44" s="17" t="inlineStr">
@@ -3306,42 +3256,54 @@
         </is>
       </c>
       <c r="K44" s="9" t="n">
-        <v>100</v>
+        <v>150.24</v>
       </c>
       <c r="L44" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M44" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N44" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O44" s="7" t="n">
-        <v>1400</v>
+        <v>2704.32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B45" s="19" t="n"/>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B45" s="14" t="inlineStr">
+        <is>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C45" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D45" s="19" t="n"/>
+      <c r="D45" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E45" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
-      <c r="F45" s="19" t="n"/>
+          <t>Empire Court House 2B</t>
+        </is>
+      </c>
+      <c r="F45" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 2B</t>
+        </is>
+      </c>
       <c r="G45" s="17" t="inlineStr">
         <is>
           <t>Classic Mina</t>
@@ -3349,12 +3311,12 @@
       </c>
       <c r="H45" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X160,5X2,0</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2 (1237 Adet)</t>
         </is>
       </c>
       <c r="I45" s="17" t="inlineStr">
         <is>
-          <t>30,0x160,5x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J45" s="17" t="inlineStr">
@@ -3363,27 +3325,27 @@
         </is>
       </c>
       <c r="K45" s="9" t="n">
-        <v>20</v>
+        <v>230.14</v>
       </c>
       <c r="L45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M45" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N45" s="7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O45" s="7" t="n">
-        <v>600</v>
+        <v>5063.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
+          <t>2022-06-06T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B46" s="19" t="n"/>
@@ -3395,23 +3357,23 @@
       <c r="D46" s="19" t="n"/>
       <c r="E46" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+          <t>Empire Court House 2B</t>
         </is>
       </c>
       <c r="F46" s="19" t="n"/>
       <c r="G46" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H46" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X160,5X2,0</t>
+          <t>Travertine Tiles - Picasso Ivory -  Dolgulu&amp;Yarı Cilalı - 15,25X30,5X1,2 (323 Adet)</t>
         </is>
       </c>
       <c r="I46" s="17" t="inlineStr">
         <is>
-          <t>16,0x160,5x2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="J46" s="17" t="inlineStr">
@@ -3420,55 +3382,67 @@
         </is>
       </c>
       <c r="K46" s="9" t="n">
-        <v>20</v>
+        <v>150.23</v>
       </c>
       <c r="L46" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M46" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N46" s="7" t="n">
         <v>18</v>
       </c>
       <c r="O46" s="7" t="n">
-        <v>360</v>
+        <v>2704.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B47" s="19" t="n"/>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B47" s="14" t="inlineStr">
+        <is>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C47" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D47" s="19" t="n"/>
+      <c r="D47" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E47" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
-      <c r="F47" s="19" t="n"/>
+          <t>Empire Court House 03 - 3</t>
+        </is>
+      </c>
+      <c r="F47" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 03 - 3</t>
+        </is>
+      </c>
       <c r="G47" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="H47" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X110,0X2,0</t>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Cilalı- 20,3x40,6x1,2 (693 Adet)</t>
         </is>
       </c>
       <c r="I47" s="17" t="inlineStr">
         <is>
-          <t>30,0x110,0x2,0</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="J47" s="17" t="inlineStr">
@@ -3477,55 +3451,67 @@
         </is>
       </c>
       <c r="K47" s="9" t="n">
-        <v>80</v>
+        <v>57.12</v>
       </c>
       <c r="L47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M47" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N47" s="7" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O47" s="7" t="n">
-        <v>1920</v>
+        <v>913.92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B48" s="19" t="n"/>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B48" s="14" t="inlineStr">
+        <is>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C48" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D48" s="19" t="n"/>
+      <c r="D48" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E48" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
-      <c r="F48" s="19" t="n"/>
+          <t>Empire Court House 04 &amp; 05</t>
+        </is>
+      </c>
+      <c r="F48" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 04 &amp; 05</t>
+        </is>
+      </c>
       <c r="G48" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="H48" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X110,0X2,0</t>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Cilalı- 30,5X61,0X1,2 (5375 Adet)</t>
         </is>
       </c>
       <c r="I48" s="17" t="inlineStr">
         <is>
-          <t>16,0x110,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J48" s="17" t="inlineStr">
@@ -3534,27 +3520,27 @@
         </is>
       </c>
       <c r="K48" s="9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M48" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N48" s="7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O48" s="7" t="n">
-        <v>1120</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
+          <t>2022-06-06T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B49" s="19" t="n"/>
@@ -3566,23 +3552,23 @@
       <c r="D49" s="19" t="n"/>
       <c r="E49" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+          <t>Empire Court House 04 &amp; 05</t>
         </is>
       </c>
       <c r="F49" s="19" t="n"/>
       <c r="G49" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Mina Vein Cut</t>
         </is>
       </c>
       <c r="H49" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 33,0X120,0X2,0</t>
+          <t>Travertine Tiles - Classic Mina Vein Cut - Dolgulu&amp;Yarı Cilalı - 15,25x30,5x1,2 (645 Adet)</t>
         </is>
       </c>
       <c r="I49" s="17" t="inlineStr">
         <is>
-          <t>33,0x120,0x2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="J49" s="17" t="inlineStr">
@@ -3591,42 +3577,54 @@
         </is>
       </c>
       <c r="K49" s="9" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="L49" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M49" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N49" s="7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O49" s="7" t="n">
-        <v>480</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B50" s="19" t="n"/>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B50" s="14" t="inlineStr">
+        <is>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C50" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D50" s="19" t="n"/>
+      <c r="D50" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E50" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
-      <c r="F50" s="19" t="n"/>
+          <t>Empire Court House 08</t>
+        </is>
+      </c>
+      <c r="F50" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 08</t>
+        </is>
+      </c>
       <c r="G50" s="17" t="inlineStr">
         <is>
           <t>Classic Mina</t>
@@ -3634,12 +3632,12 @@
       </c>
       <c r="H50" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 32,0X130,0X2,0</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2 (699 Adet)</t>
         </is>
       </c>
       <c r="I50" s="17" t="inlineStr">
         <is>
-          <t>32,0x130,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J50" s="17" t="inlineStr">
@@ -3648,27 +3646,27 @@
         </is>
       </c>
       <c r="K50" s="9" t="n">
-        <v>20</v>
+        <v>130.05</v>
       </c>
       <c r="L50" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M50" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N50" s="7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O50" s="7" t="n">
-        <v>540</v>
+        <v>2861.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
+          <t>2022-06-06T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B51" s="19" t="n"/>
@@ -3680,23 +3678,23 @@
       <c r="D51" s="19" t="n"/>
       <c r="E51" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+          <t>Empire Court House 08</t>
         </is>
       </c>
       <c r="F51" s="19" t="n"/>
       <c r="G51" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H51" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0x130,0x2,0</t>
+          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 15,25X30,5X1,2 (215 Adet)</t>
         </is>
       </c>
       <c r="I51" s="17" t="inlineStr">
         <is>
-          <t>30,0x130,0x2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="J51" s="17" t="inlineStr">
@@ -3705,42 +3703,54 @@
         </is>
       </c>
       <c r="K51" s="9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L51" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M51" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N51" s="7" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O51" s="7" t="n">
-        <v>2860</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022-07-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B52" s="18" t="n"/>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B52" s="14" t="inlineStr">
+        <is>
+          <t>2022-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C52" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D52" s="18" t="n"/>
+      <c r="D52" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E52" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
-      <c r="F52" s="18" t="n"/>
+          <t>Empire Court House 10</t>
+        </is>
+      </c>
+      <c r="F52" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 10</t>
+        </is>
+      </c>
       <c r="G52" s="17" t="inlineStr">
         <is>
           <t>Classic Mina</t>
@@ -3748,12 +3758,12 @@
       </c>
       <c r="H52" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X130,0X2,0</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2  (2258 Adet)</t>
         </is>
       </c>
       <c r="I52" s="17" t="inlineStr">
         <is>
-          <t>16,0x130,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J52" s="17" t="inlineStr">
@@ -3762,21 +3772,21 @@
         </is>
       </c>
       <c r="K52" s="9" t="n">
-        <v>130</v>
+        <v>420.1</v>
       </c>
       <c r="L52" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M52" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N52" s="7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O52" s="7" t="n">
-        <v>1950</v>
+        <v>9242.200000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3785,56 +3795,44 @@
           <t>2022-06-06T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="B53" s="14" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="B53" s="18" t="n"/>
       <c r="C53" s="17" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
-        </is>
-      </c>
-      <c r="D53" s="14" t="inlineStr">
-        <is>
-          <t>Henry - Ghana</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D53" s="18" t="n"/>
       <c r="E53" s="17" t="inlineStr">
         <is>
-          <t>Carl Mutt - 5</t>
-        </is>
-      </c>
-      <c r="F53" s="14" t="inlineStr">
-        <is>
-          <t>Carl Mutt - 5</t>
-        </is>
-      </c>
+          <t>Empire Court House 10</t>
+        </is>
+      </c>
+      <c r="F53" s="18" t="n"/>
       <c r="G53" s="17" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H53" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Gold - Cilalı - 50,0x100,0x2,0</t>
+          <t>Travertine Mosaic - Classic Mina - Dolgulu&amp;Cilalı- 5,0x15,0 (1613 Adet)</t>
         </is>
       </c>
       <c r="I53" s="17" t="inlineStr">
         <is>
-          <t>50,0x100,0x2,0</t>
+          <t>5,0x15,0x1,2</t>
         </is>
       </c>
       <c r="J53" s="17" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mek-Moz</t>
         </is>
       </c>
       <c r="K53" s="9" t="n">
-        <v>50</v>
+        <v>150.05</v>
       </c>
       <c r="L53" s="9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M53" s="17" t="inlineStr">
         <is>
@@ -3842,10 +3840,10 @@
         </is>
       </c>
       <c r="N53" s="7" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="O53" s="7" t="n">
-        <v>2400</v>
+        <v>4201.4</v>
       </c>
     </row>
     <row r="54">
@@ -3854,53 +3852,41 @@
           <t>2022-06-06T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="B54" s="14" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="B54" s="19" t="n"/>
       <c r="C54" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D54" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D54" s="19" t="n"/>
       <c r="E54" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2A</t>
-        </is>
-      </c>
-      <c r="F54" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court House 2A</t>
-        </is>
-      </c>
+          <t>Empire Court House 10</t>
+        </is>
+      </c>
+      <c r="F54" s="19" t="n"/>
       <c r="G54" s="17" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H54" s="17" t="inlineStr">
         <is>
-          <t>Marble Tiles - Diana Royal - Cilalı - 30,0X60,0X2,0 (1223 Adet)</t>
+          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 20,3X40,6X1,2 (1820 Adet)</t>
         </is>
       </c>
       <c r="I54" s="17" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="J54" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K54" s="9" t="n">
-        <v>220.14</v>
+        <v>171.43</v>
       </c>
       <c r="L54" s="9" t="n">
         <v>0</v>
@@ -3911,39 +3897,51 @@
         </is>
       </c>
       <c r="N54" s="7" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O54" s="7" t="n">
-        <v>6163.92</v>
+        <v>3600.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B55" s="19" t="n"/>
+          <t>2022-04-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B55" s="14" t="inlineStr">
+        <is>
+          <t>2022-04-25T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C55" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D55" s="19" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D55" s="14" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="E55" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2A</t>
-        </is>
-      </c>
-      <c r="F55" s="19" t="n"/>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F55" s="14" t="inlineStr">
+        <is>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
       <c r="G55" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H55" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;yarı Cilalı - 30,5X61,0X1,2 (1237 Adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgulu&amp;Honlu - 30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="I55" s="17" t="inlineStr">
@@ -3957,10 +3955,10 @@
         </is>
       </c>
       <c r="K55" s="9" t="n">
-        <v>230.14</v>
+        <v>280.39</v>
       </c>
       <c r="L55" s="9" t="n">
-        <v>0</v>
+        <v>59.54</v>
       </c>
       <c r="M55" s="17" t="inlineStr">
         <is>
@@ -3968,101 +3966,101 @@
         </is>
       </c>
       <c r="N55" s="7" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="O55" s="7" t="n">
-        <v>5063.08</v>
+        <v>6028.38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B56" s="19" t="n"/>
+          <t>2022-04-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B56" s="18" t="n"/>
       <c r="C56" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D56" s="19" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D56" s="18" t="n"/>
       <c r="E56" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2A</t>
-        </is>
-      </c>
-      <c r="F56" s="19" t="n"/>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F56" s="18" t="n"/>
       <c r="G56" s="17" t="inlineStr">
         <is>
-          <t>Rangoon Beige</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H56" s="17" t="inlineStr">
         <is>
-          <t>Marble Tiles - Rangoon Beige - Cilalı- 5,0x5,0 (1075 Adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık- 40,6X61,0X1,2</t>
         </is>
       </c>
       <c r="I56" s="17" t="inlineStr">
         <is>
-          <t>5,0x5,0x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J56" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K56" s="9" t="n">
-        <v>100</v>
+        <v>356.67</v>
       </c>
       <c r="L56" s="9" t="n">
+        <v>356.67</v>
+      </c>
+      <c r="M56" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M56" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N56" s="7" t="n">
-        <v>50</v>
-      </c>
       <c r="O56" s="7" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B57" s="18" t="n"/>
+          <t>2022-04-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B57" s="19" t="n"/>
       <c r="C57" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D57" s="18" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D57" s="19" t="n"/>
       <c r="E57" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2A</t>
-        </is>
-      </c>
-      <c r="F57" s="18" t="n"/>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F57" s="19" t="n"/>
       <c r="G57" s="17" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H57" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 15,25x30,5x1,2 (323 Adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık- ANTXPATX1,2</t>
         </is>
       </c>
       <c r="I57" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="J57" s="17" t="inlineStr">
@@ -4071,32 +4069,32 @@
         </is>
       </c>
       <c r="K57" s="9" t="n">
-        <v>150.24</v>
+        <v>160.56</v>
       </c>
       <c r="L57" s="9" t="n">
+        <v>160.56</v>
+      </c>
+      <c r="M57" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N57" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M57" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N57" s="7" t="n">
-        <v>18</v>
-      </c>
       <c r="O57" s="7" t="n">
-        <v>2704.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
+          <t>2022-04-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B58" s="14" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
+          <t>2022-04-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C58" s="17" t="inlineStr">
@@ -4111,36 +4109,36 @@
       </c>
       <c r="E58" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2B</t>
+          <t>Wenthworth Place 02 - 2</t>
         </is>
       </c>
       <c r="F58" s="14" t="inlineStr">
         <is>
-          <t>Empire Court House 2B</t>
+          <t>Wenthworth Place 02 - 2</t>
         </is>
       </c>
       <c r="G58" s="17" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="H58" s="17" t="inlineStr">
         <is>
-          <t>Marble Tiles - Diana Royal - Cilalı- 30,0X60,0X2,0 (1223 Adet)</t>
+          <t>Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Honlu- 30,5X61,0X1,2 (323 Adet)</t>
         </is>
       </c>
       <c r="I58" s="17" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J58" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K58" s="9" t="n">
-        <v>220.14</v>
+        <v>60.09</v>
       </c>
       <c r="L58" s="9" t="n">
         <v>0</v>
@@ -4151,16 +4149,16 @@
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O58" s="7" t="n">
-        <v>6163.92</v>
+        <v>1562.34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
+          <t>2022-04-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B59" s="19" t="n"/>
@@ -4172,32 +4170,32 @@
       <c r="D59" s="19" t="n"/>
       <c r="E59" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2B</t>
+          <t>Wenthworth Place 02 - 2</t>
         </is>
       </c>
       <c r="F59" s="19" t="n"/>
       <c r="G59" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="H59" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2 (1237 Adet)</t>
+          <t xml:space="preserve">Travertine Mosaic - Classic Vein Cut - Dolgulu&amp;Cilalı- 5,0X15,0 (323 Adet) </t>
         </is>
       </c>
       <c r="I59" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>5,0x15,0x</t>
         </is>
       </c>
       <c r="J59" s="17" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mek-Moz</t>
         </is>
       </c>
       <c r="K59" s="9" t="n">
-        <v>230.14</v>
+        <v>30.05</v>
       </c>
       <c r="L59" s="9" t="n">
         <v>0</v>
@@ -4208,53 +4206,65 @@
         </is>
       </c>
       <c r="N59" s="7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O59" s="7" t="n">
-        <v>5063.08</v>
+        <v>781.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B60" s="19" t="n"/>
+          <t>2022-01-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B60" s="14" t="inlineStr">
+        <is>
+          <t>2022-01-13T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C60" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D60" s="19" t="n"/>
+      <c r="D60" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2B</t>
-        </is>
-      </c>
-      <c r="F60" s="19" t="n"/>
+          <t>Zambang 2-3</t>
+        </is>
+      </c>
+      <c r="F60" s="14" t="inlineStr">
+        <is>
+          <t>Zambang 2-3</t>
+        </is>
+      </c>
       <c r="G60" s="17" t="inlineStr">
         <is>
-          <t>Rangoon Beige</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H60" s="17" t="inlineStr">
         <is>
-          <t>Marble Mosaic - Rangoon Beige - Cilalı- 5,0X5,0 (1075 Adet)</t>
+          <t>Travertine Tiles - Classic Mina Cross Cut- Dolgulu&amp;Yarı Cilalı  Düz Kenar 40,6X61,0X1,2 (3554 Adet)</t>
         </is>
       </c>
       <c r="I60" s="17" t="inlineStr">
         <is>
-          <t>5,0x5,0x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J60" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K60" s="9" t="n">
-        <v>100</v>
+        <v>276.88</v>
       </c>
       <c r="L60" s="9" t="n">
         <v>0</v>
@@ -4265,44 +4275,56 @@
         </is>
       </c>
       <c r="N60" s="7" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="O60" s="7" t="n">
-        <v>4300</v>
+        <v>5814.48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B61" s="18" t="n"/>
+          <t>2021-12-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B61" s="14" t="inlineStr">
+        <is>
+          <t>2021-12-02T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="C61" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D61" s="18" t="n"/>
+      <c r="D61" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2B</t>
-        </is>
-      </c>
-      <c r="F61" s="18" t="n"/>
+          <t>Wenthworth Place -10</t>
+        </is>
+      </c>
+      <c r="F61" s="14" t="inlineStr">
+        <is>
+          <t>Wenthworth Place -10</t>
+        </is>
+      </c>
       <c r="G61" s="17" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="H61" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory -  Dolgulu&amp;Yarı Cilalı - 15,25X30,5X1,2 (323 Adet)</t>
+          <t>Traverten-Mina Rustic Cross Cut -Dolgulu&amp;Yarı Cilalı-40,6X61,0X1,2 (6394 Adet)</t>
         </is>
       </c>
       <c r="I61" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J61" s="17" t="inlineStr">
@@ -4311,10 +4333,10 @@
         </is>
       </c>
       <c r="K61" s="9" t="n">
-        <v>150.23</v>
+        <v>538.39</v>
       </c>
       <c r="L61" s="9" t="n">
-        <v>0</v>
+        <v>118.89</v>
       </c>
       <c r="M61" s="17" t="inlineStr">
         <is>
@@ -4322,51 +4344,39 @@
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O61" s="7" t="n">
-        <v>2704.14</v>
+        <v>8075.85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B62" s="14" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2021-12-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B62" s="19" t="n"/>
       <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D62" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D62" s="19" t="n"/>
       <c r="E62" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 03 - 3</t>
-        </is>
-      </c>
-      <c r="F62" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court House 03 - 3</t>
-        </is>
-      </c>
+          <t>Wenthworth Place -10</t>
+        </is>
+      </c>
+      <c r="F62" s="19" t="n"/>
       <c r="G62" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="H62" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Cilalı- 20,3x40,6x1,2 (693 Adet)</t>
+          <t>Traverten -Mina Rustic ( Classic Mina ) Cross Cut-Dolgulu&amp;Yarı Cilalı-20,3X40,6X1,2 (3559 Adet)</t>
         </is>
       </c>
       <c r="I62" s="17" t="inlineStr">
@@ -4380,10 +4390,10 @@
         </is>
       </c>
       <c r="K62" s="9" t="n">
-        <v>57.12</v>
+        <v>128.49</v>
       </c>
       <c r="L62" s="9" t="n">
-        <v>0</v>
+        <v>126.09</v>
       </c>
       <c r="M62" s="17" t="inlineStr">
         <is>
@@ -4394,18 +4404,18 @@
         <v>16</v>
       </c>
       <c r="O62" s="7" t="n">
-        <v>913.92</v>
+        <v>2055.84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
+          <t>2021-06-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
+          <t>2021-06-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C63" s="17" t="inlineStr">
@@ -4420,27 +4430,27 @@
       </c>
       <c r="E63" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 04 &amp; 05</t>
+          <t>Aston Loft-7</t>
         </is>
       </c>
       <c r="F63" s="14" t="inlineStr">
         <is>
-          <t>Empire Court House 04 &amp; 05</t>
+          <t>Aston Loft-7</t>
         </is>
       </c>
       <c r="G63" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="H63" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Cilalı- 30,5X61,0X1,2 (5375 Adet)</t>
+          <t>Travertine Tiles - Silver Rustic - Dolgulu&amp;Cilalı - 40,6X61,0X1,2</t>
         </is>
       </c>
       <c r="I63" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J63" s="17" t="inlineStr">
@@ -4449,7 +4459,7 @@
         </is>
       </c>
       <c r="K63" s="9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L63" s="9" t="n">
         <v>0</v>
@@ -4460,16 +4470,16 @@
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O63" s="7" t="n">
-        <v>16000</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
+          <t>2021-06-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B64" s="18" t="n"/>
@@ -4481,23 +4491,23 @@
       <c r="D64" s="18" t="n"/>
       <c r="E64" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 04 &amp; 05</t>
+          <t>Aston Loft-7</t>
         </is>
       </c>
       <c r="F64" s="18" t="n"/>
       <c r="G64" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="H64" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina Vein Cut - Dolgulu&amp;Yarı Cilalı - 15,25x30,5x1,2 (645 Adet)</t>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Honlu - 30,5x61,0x1,2 ( 16141 Adet)</t>
         </is>
       </c>
       <c r="I64" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J64" s="17" t="inlineStr">
@@ -4506,7 +4516,7 @@
         </is>
       </c>
       <c r="K64" s="9" t="n">
-        <v>300</v>
+        <v>1945</v>
       </c>
       <c r="L64" s="9" t="n">
         <v>0</v>
@@ -4517,68 +4527,56 @@
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O64" s="7" t="n">
-        <v>4200</v>
+        <v>33065</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B65" s="14" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2021-06-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B65" s="19" t="n"/>
       <c r="C65" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D65" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D65" s="19" t="n"/>
       <c r="E65" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 07</t>
-        </is>
-      </c>
-      <c r="F65" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court House 07</t>
-        </is>
-      </c>
+          <t>Aston Loft-7</t>
+        </is>
+      </c>
+      <c r="F65" s="19" t="n"/>
       <c r="G65" s="17" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H65" s="17" t="inlineStr">
         <is>
-          <t>Marble Tiles - Diana Royal - Cilalı- 30,0X60,0X2,0 (1945 Adet)</t>
+          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Honlu - 15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="I65" s="17" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="J65" s="17" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K65" s="9" t="n">
-        <v>350.1</v>
+        <v>620.55</v>
       </c>
       <c r="L65" s="9" t="n">
-        <v>0</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="M65" s="17" t="inlineStr">
         <is>
@@ -4586,21 +4584,21 @@
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="O65" s="7" t="n">
-        <v>9802.799999999999</v>
+        <v>9618.52</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
+          <t>2021-03-02T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>2022-06-06T00:00:00.000Z</t>
+          <t>2021-03-02T00:00:00.000Z</t>
         </is>
       </c>
       <c r="C66" s="17" t="inlineStr">
@@ -4615,1222 +4613,1162 @@
       </c>
       <c r="E66" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 08</t>
+          <t>Katmor Gardens (Extra)-3</t>
         </is>
       </c>
       <c r="F66" s="14" t="inlineStr">
         <is>
-          <t>Empire Court House 08</t>
+          <t>Katmor Gardens (Extra)-3</t>
         </is>
       </c>
       <c r="G66" s="17" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H66" s="17" t="inlineStr">
-        <is>
-          <t>Marble Tiles - Diana Royal - Cilalı- 30,0X60,0X2,0 (723 Adet)</t>
-        </is>
-      </c>
-      <c r="I66" s="17" t="inlineStr">
-        <is>
-          <t>30,0x60,0x2,0</t>
-        </is>
-      </c>
-      <c r="J66" s="17" t="inlineStr">
-        <is>
-          <t>Ayarlanmadi</t>
-        </is>
-      </c>
-      <c r="K66" s="9" t="n">
-        <v>130.14</v>
-      </c>
-      <c r="L66" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N66" s="7" t="n">
-        <v>28</v>
-      </c>
-      <c r="O66" s="7" t="n">
-        <v>3643.92</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B67" s="19" t="n"/>
-      <c r="C67" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D67" s="19" t="n"/>
-      <c r="E67" s="17" t="inlineStr">
-        <is>
-          <t>Empire Court House 08</t>
-        </is>
-      </c>
-      <c r="F67" s="19" t="n"/>
-      <c r="G67" s="17" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="H67" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2 (699 Adet)</t>
-        </is>
-      </c>
-      <c r="I67" s="17" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J67" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>130.05</v>
-      </c>
-      <c r="L67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N67" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="O67" s="7" t="n">
-        <v>2861.1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B68" s="18" t="n"/>
-      <c r="C68" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D68" s="18" t="n"/>
-      <c r="E68" s="17" t="inlineStr">
-        <is>
-          <t>Empire Court House 08</t>
-        </is>
-      </c>
-      <c r="F68" s="18" t="n"/>
-      <c r="G68" s="17" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="H68" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 15,25X30,5X1,2 (215 Adet)</t>
-        </is>
-      </c>
-      <c r="I68" s="17" t="inlineStr">
-        <is>
-          <t>15,25x30,5x1,2</t>
-        </is>
-      </c>
-      <c r="J68" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L68" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N68" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="O68" s="7" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B69" s="14" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C69" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D69" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E69" s="17" t="inlineStr">
-        <is>
-          <t>Empire Court House 10</t>
-        </is>
-      </c>
-      <c r="F69" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court House 10</t>
-        </is>
-      </c>
-      <c r="G69" s="17" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="H69" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2  (2258 Adet)</t>
-        </is>
-      </c>
-      <c r="I69" s="17" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J69" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K69" s="9" t="n">
-        <v>420.1</v>
-      </c>
-      <c r="L69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N69" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="O69" s="7" t="n">
-        <v>9242.200000000001</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B70" s="19" t="n"/>
-      <c r="C70" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D70" s="19" t="n"/>
-      <c r="E70" s="17" t="inlineStr">
-        <is>
-          <t>Empire Court House 10</t>
-        </is>
-      </c>
-      <c r="F70" s="19" t="n"/>
-      <c r="G70" s="17" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="H70" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic - Classic Mina - Dolgulu&amp;Cilalı- 5,0x15,0 (1613 Adet)</t>
-        </is>
-      </c>
-      <c r="I70" s="17" t="inlineStr">
-        <is>
-          <t>5,0x15,0x1,2</t>
-        </is>
-      </c>
-      <c r="J70" s="17" t="inlineStr">
-        <is>
-          <t>Mek-Moz</t>
-        </is>
-      </c>
-      <c r="K70" s="9" t="n">
-        <v>150.05</v>
-      </c>
-      <c r="L70" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N70" s="7" t="n">
-        <v>28</v>
-      </c>
-      <c r="O70" s="7" t="n">
-        <v>4201.4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2022-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B71" s="18" t="n"/>
-      <c r="C71" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D71" s="18" t="n"/>
-      <c r="E71" s="17" t="inlineStr">
-        <is>
-          <t>Empire Court House 10</t>
-        </is>
-      </c>
-      <c r="F71" s="18" t="n"/>
-      <c r="G71" s="17" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="H71" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 20,3X40,6X1,2 (1820 Adet)</t>
-        </is>
-      </c>
-      <c r="I71" s="17" t="inlineStr">
-        <is>
-          <t>20,3x40,6x1,2</t>
-        </is>
-      </c>
-      <c r="J71" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>171.43</v>
-      </c>
-      <c r="L71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N71" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="O71" s="7" t="n">
-        <v>3600.03</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2022-04-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B72" s="14" t="inlineStr">
-        <is>
-          <t>2022-04-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C72" s="17" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="D72" s="14" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="E72" s="17" t="inlineStr">
-        <is>
-          <t>22EFE01-12</t>
-        </is>
-      </c>
-      <c r="F72" s="14" t="inlineStr">
-        <is>
-          <t>22EFE01-12</t>
-        </is>
-      </c>
-      <c r="G72" s="17" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="H72" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Valencia - Dolgulu&amp;Honlu - 30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="I72" s="17" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J72" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>280.39</v>
-      </c>
-      <c r="L72" s="9" t="n">
-        <v>59.54</v>
-      </c>
-      <c r="M72" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N72" s="7" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="O72" s="7" t="n">
-        <v>6028.38</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2022-04-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B73" s="19" t="n"/>
-      <c r="C73" s="17" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="D73" s="19" t="n"/>
-      <c r="E73" s="17" t="inlineStr">
-        <is>
-          <t>22EFE01-12</t>
-        </is>
-      </c>
-      <c r="F73" s="19" t="n"/>
-      <c r="G73" s="17" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="H73" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık- 40,6X61,0X1,2</t>
-        </is>
-      </c>
-      <c r="I73" s="17" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J73" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>356.67</v>
-      </c>
-      <c r="L73" s="9" t="n">
-        <v>356.67</v>
-      </c>
-      <c r="M73" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N73" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2022-04-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B74" s="18" t="n"/>
-      <c r="C74" s="17" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="D74" s="18" t="n"/>
-      <c r="E74" s="17" t="inlineStr">
-        <is>
-          <t>22EFE01-12</t>
-        </is>
-      </c>
-      <c r="F74" s="18" t="n"/>
-      <c r="G74" s="17" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="H74" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık- ANTXPATX1,2</t>
-        </is>
-      </c>
-      <c r="I74" s="17" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-      <c r="J74" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K74" s="9" t="n">
-        <v>160.56</v>
-      </c>
-      <c r="L74" s="9" t="n">
-        <v>160.56</v>
-      </c>
-      <c r="M74" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2022-04-05T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B75" s="14" t="inlineStr">
-        <is>
-          <t>2022-04-05T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C75" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D75" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E75" s="17" t="inlineStr">
-        <is>
-          <t>Wenthworth Place 02 - 2</t>
-        </is>
-      </c>
-      <c r="F75" s="14" t="inlineStr">
-        <is>
-          <t>Wenthworth Place 02 - 2</t>
-        </is>
-      </c>
-      <c r="G75" s="17" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="H75" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Honlu- 30,5X61,0X1,2 (323 Adet)</t>
-        </is>
-      </c>
-      <c r="I75" s="17" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J75" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K75" s="9" t="n">
-        <v>60.09</v>
-      </c>
-      <c r="L75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N75" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="O75" s="7" t="n">
-        <v>1562.34</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2022-04-05T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B76" s="18" t="n"/>
-      <c r="C76" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D76" s="18" t="n"/>
-      <c r="E76" s="17" t="inlineStr">
-        <is>
-          <t>Wenthworth Place 02 - 2</t>
-        </is>
-      </c>
-      <c r="F76" s="18" t="n"/>
-      <c r="G76" s="17" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="H76" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Travertine Mosaic - Classic Vein Cut - Dolgulu&amp;Cilalı- 5,0X15,0 (323 Adet) </t>
-        </is>
-      </c>
-      <c r="I76" s="17" t="inlineStr">
-        <is>
-          <t>5,0x15,0x</t>
-        </is>
-      </c>
-      <c r="J76" s="17" t="inlineStr">
-        <is>
-          <t>Mek-Moz</t>
-        </is>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="L76" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N76" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="O76" s="7" t="n">
-        <v>781.3</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2022-01-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B77" s="14" t="inlineStr">
-        <is>
-          <t>2022-01-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C77" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D77" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E77" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Vista House 3-6-8 - 3</t>
-        </is>
-      </c>
-      <c r="F77" s="14" t="inlineStr">
-        <is>
-          <t>Imperial Vista House 3-6-8 - 3</t>
-        </is>
-      </c>
-      <c r="G77" s="17" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="H77" s="17" t="inlineStr">
-        <is>
-          <t>Marble Tiles Diana Royal Cilalı 30.0x60.0x2.0 (322 Adet)</t>
-        </is>
-      </c>
-      <c r="I77" s="17" t="inlineStr">
-        <is>
-          <t>30,0x60,0x2,0</t>
-        </is>
-      </c>
-      <c r="J77" s="17" t="inlineStr">
-        <is>
-          <t>Kanal Mermer</t>
-        </is>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="L77" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N77" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="O77" s="7" t="n">
-        <v>1564.92</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2022-01-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B78" s="14" t="inlineStr">
-        <is>
-          <t>2022-01-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C78" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D78" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E78" s="17" t="inlineStr">
-        <is>
-          <t>Zambang 2-3</t>
-        </is>
-      </c>
-      <c r="F78" s="14" t="inlineStr">
-        <is>
-          <t>Zambang 2-3</t>
-        </is>
-      </c>
-      <c r="G78" s="17" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="H78" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Classic Mina Cross Cut- Dolgulu&amp;Yarı Cilalı  Düz Kenar 40,6X61,0X1,2 (3554 Adet)</t>
-        </is>
-      </c>
-      <c r="I78" s="17" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J78" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>276.88</v>
-      </c>
-      <c r="L78" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N78" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="O78" s="7" t="n">
-        <v>5814.48</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2021-12-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B79" s="14" t="inlineStr">
-        <is>
-          <t>2021-12-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C79" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D79" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E79" s="17" t="inlineStr">
-        <is>
-          <t>Wenthworth Place -10</t>
-        </is>
-      </c>
-      <c r="F79" s="14" t="inlineStr">
-        <is>
-          <t>Wenthworth Place -10</t>
-        </is>
-      </c>
-      <c r="G79" s="17" t="inlineStr">
-        <is>
-          <t>Mina Rustic</t>
-        </is>
-      </c>
-      <c r="H79" s="17" t="inlineStr">
-        <is>
-          <t>Traverten-Mina Rustic Cross Cut -Dolgulu&amp;Yarı Cilalı-40,6X61,0X1,2 (6394 Adet)</t>
-        </is>
-      </c>
-      <c r="I79" s="17" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J79" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>538.39</v>
-      </c>
-      <c r="L79" s="9" t="n">
-        <v>118.89</v>
-      </c>
-      <c r="M79" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N79" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O79" s="7" t="n">
-        <v>8075.85</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2021-12-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B80" s="18" t="n"/>
-      <c r="C80" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D80" s="18" t="n"/>
-      <c r="E80" s="17" t="inlineStr">
-        <is>
-          <t>Wenthworth Place -10</t>
-        </is>
-      </c>
-      <c r="F80" s="18" t="n"/>
-      <c r="G80" s="17" t="inlineStr">
-        <is>
-          <t>Mina Rustic</t>
-        </is>
-      </c>
-      <c r="H80" s="17" t="inlineStr">
-        <is>
-          <t>Traverten -Mina Rustic ( Classic Mina ) Cross Cut-Dolgulu&amp;Yarı Cilalı-20,3X40,6X1,2 (3559 Adet)</t>
-        </is>
-      </c>
-      <c r="I80" s="17" t="inlineStr">
-        <is>
-          <t>20,3x40,6x1,2</t>
-        </is>
-      </c>
-      <c r="J80" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K80" s="9" t="n">
-        <v>128.49</v>
-      </c>
-      <c r="L80" s="9" t="n">
-        <v>126.09</v>
-      </c>
-      <c r="M80" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N80" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="O80" s="7" t="n">
-        <v>2055.84</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2021-06-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B81" s="14" t="inlineStr">
-        <is>
-          <t>2021-06-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C81" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D81" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E81" s="17" t="inlineStr">
-        <is>
-          <t>Aston Loft-7</t>
-        </is>
-      </c>
-      <c r="F81" s="14" t="inlineStr">
-        <is>
-          <t>Aston Loft-7</t>
-        </is>
-      </c>
-      <c r="G81" s="17" t="inlineStr">
-        <is>
-          <t>Silver Rustic</t>
-        </is>
-      </c>
-      <c r="H81" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Silver Rustic - Dolgulu&amp;Cilalı - 40,6X61,0X1,2</t>
-        </is>
-      </c>
-      <c r="I81" s="17" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J81" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>600</v>
-      </c>
-      <c r="L81" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N81" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="O81" s="7" t="n">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2021-06-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B82" s="19" t="n"/>
-      <c r="C82" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D82" s="19" t="n"/>
-      <c r="E82" s="17" t="inlineStr">
-        <is>
-          <t>Aston Loft-7</t>
-        </is>
-      </c>
-      <c r="F82" s="19" t="n"/>
-      <c r="G82" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
-        </is>
-      </c>
-      <c r="H82" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Honlu - 30,5x61,0x1,2 ( 16141 Adet)</t>
-        </is>
-      </c>
-      <c r="I82" s="17" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J82" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K82" s="9" t="n">
-        <v>1945</v>
-      </c>
-      <c r="L82" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N82" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="O82" s="7" t="n">
-        <v>33065</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2021-06-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B83" s="18" t="n"/>
-      <c r="C83" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D83" s="18" t="n"/>
-      <c r="E83" s="17" t="inlineStr">
-        <is>
-          <t>Aston Loft-7</t>
-        </is>
-      </c>
-      <c r="F83" s="18" t="n"/>
-      <c r="G83" s="17" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="H83" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Honlu - 15,25x30,5x1,2</t>
-        </is>
-      </c>
-      <c r="I83" s="17" t="inlineStr">
-        <is>
-          <t>15,25x30,5x1,2</t>
-        </is>
-      </c>
-      <c r="J83" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K83" s="9" t="n">
-        <v>620.55</v>
-      </c>
-      <c r="L83" s="9" t="n">
-        <v>77.76000000000001</v>
-      </c>
-      <c r="M83" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N83" s="7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="O83" s="7" t="n">
-        <v>9618.52</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2021-03-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B84" s="14" t="inlineStr">
-        <is>
-          <t>2021-03-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C84" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D84" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E84" s="17" t="inlineStr">
-        <is>
-          <t>Katmor Gardens (Extra)-3</t>
-        </is>
-      </c>
-      <c r="F84" s="14" t="inlineStr">
-        <is>
-          <t>Katmor Gardens (Extra)-3</t>
-        </is>
-      </c>
-      <c r="G84" s="17" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="H84" s="17" t="inlineStr">
         <is>
           <t>Travertine Tiles - Picasso Philedelphia
 Dolgulu&amp; Yarı Cilalı &amp; Duz Kenar
 15,25 x 30,5 x1,2 (300 Adet)</t>
         </is>
       </c>
-      <c r="I84" s="17" t="inlineStr">
+      <c r="I66" s="17" t="inlineStr">
         <is>
           <t>15,25x30,5x1,2</t>
         </is>
       </c>
-      <c r="J84" s="17" t="inlineStr">
+      <c r="J66" s="17" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="K84" s="9" t="n">
+      <c r="K66" s="9" t="n">
         <v>13.95</v>
       </c>
-      <c r="L84" s="9" t="n">
+      <c r="L66" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M84" s="17" t="inlineStr">
+      <c r="M66" s="17" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="N84" s="7" t="n">
+      <c r="N66" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="O84" s="7" t="n">
+      <c r="O66" s="7" t="n">
         <v>209.25</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>2021-03-01T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="B85" s="14" t="inlineStr">
+      <c r="B67" s="14" t="inlineStr">
         <is>
           <t>2021-03-01T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="C85" s="17" t="inlineStr">
+      <c r="C67" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D85" s="14" t="inlineStr">
+      <c r="D67" s="14" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="E85" s="17" t="inlineStr">
+      <c r="E67" s="17" t="inlineStr">
         <is>
           <t>Pool Tiles-3</t>
         </is>
       </c>
-      <c r="F85" s="14" t="inlineStr">
+      <c r="F67" s="14" t="inlineStr">
         <is>
           <t>Pool Tiles-3</t>
         </is>
       </c>
-      <c r="G85" s="17" t="inlineStr">
+      <c r="G67" s="17" t="inlineStr">
         <is>
           <t>Volcano</t>
         </is>
       </c>
-      <c r="H85" s="17" t="inlineStr">
+      <c r="H67" s="17" t="inlineStr">
         <is>
           <t>Travertine Tiles -Volcano Cross Cut -
 Dolgulu&amp; Fırçalı&amp; Kenarı Kırık
 40,6x61x1,2 (2443 Adet)</t>
         </is>
       </c>
+      <c r="I67" s="17" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J67" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>605</v>
+      </c>
+      <c r="L67" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N67" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O67" s="7" t="n">
+        <v>12705</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2020-07-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B68" s="14" t="inlineStr">
+        <is>
+          <t>2020-07-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C68" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D68" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="E68" s="17" t="inlineStr">
+        <is>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
+      <c r="F68" s="14" t="inlineStr">
+        <is>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
+      <c r="G68" s="17" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="H68" s="17" t="inlineStr">
+        <is>
+          <t>Traverten classic vein cut yarı cilalı (724 Adet)</t>
+        </is>
+      </c>
+      <c r="I68" s="17" t="inlineStr">
+        <is>
+          <t>40,6x61,0x2,0</t>
+        </is>
+      </c>
+      <c r="J68" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K68" s="9" t="n">
+        <v>179.31</v>
+      </c>
+      <c r="L68" s="9" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="M68" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N68" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="O68" s="7" t="n">
+        <v>4482.63</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-07-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B69" s="18" t="n"/>
+      <c r="C69" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D69" s="18" t="n"/>
+      <c r="E69" s="17" t="inlineStr">
+        <is>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
+      <c r="F69" s="18" t="n"/>
+      <c r="G69" s="17" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="H69" s="17" t="inlineStr">
+        <is>
+          <t>traverten classic vein cut yarı cilalı (982 Adet)</t>
+        </is>
+      </c>
+      <c r="I69" s="17" t="inlineStr">
+        <is>
+          <t>15,25x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J69" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K69" s="9" t="n">
+        <v>91.34999999999999</v>
+      </c>
+      <c r="L69" s="9" t="n">
+        <v>122.79</v>
+      </c>
+      <c r="M69" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N69" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O69" s="7" t="n">
+        <v>1644.3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-07-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B70" s="18" t="n"/>
+      <c r="C70" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D70" s="18" t="n"/>
+      <c r="E70" s="17" t="inlineStr">
+        <is>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
+      <c r="F70" s="18" t="n"/>
+      <c r="G70" s="17" t="inlineStr">
+        <is>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="H70" s="17" t="inlineStr">
+        <is>
+          <t>traverten volcano pattern set yarı cilalı</t>
+        </is>
+      </c>
+      <c r="I70" s="17" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="J70" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="L70" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N70" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O70" s="7" t="n">
+        <v>2869.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-07-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B71" s="18" t="n"/>
+      <c r="C71" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D71" s="18" t="n"/>
+      <c r="E71" s="17" t="inlineStr">
+        <is>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
+      <c r="F71" s="18" t="n"/>
+      <c r="G71" s="17" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="H71" s="17" t="inlineStr">
+        <is>
+          <t>traverten basamak classic mina yarı cilalı</t>
+        </is>
+      </c>
+      <c r="I71" s="17" t="inlineStr">
+        <is>
+          <t>30,0x125,0x3,0</t>
+        </is>
+      </c>
+      <c r="J71" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O71" s="7" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-07-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B72" s="19" t="n"/>
+      <c r="C72" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D72" s="19" t="n"/>
+      <c r="E72" s="17" t="inlineStr">
+        <is>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
+      <c r="F72" s="19" t="n"/>
+      <c r="G72" s="17" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="H72" s="17" t="inlineStr">
+        <is>
+          <t>traverten rıht classic mina yarı cilalı</t>
+        </is>
+      </c>
+      <c r="I72" s="17" t="inlineStr">
+        <is>
+          <t>15,0x125,0x3,0</t>
+        </is>
+      </c>
+      <c r="J72" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L72" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N72" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O72" s="7" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2019-02-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B73" s="14" t="inlineStr">
+        <is>
+          <t>2019-02-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C73" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D73" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="E73" s="17" t="inlineStr">
+        <is>
+          <t>Rangoon Apatment - 2</t>
+        </is>
+      </c>
+      <c r="F73" s="14" t="inlineStr">
+        <is>
+          <t>Rangoon Apatment - 2</t>
+        </is>
+      </c>
+      <c r="G73" s="17" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="H73" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Picasso Dolgulu Honlu</t>
+        </is>
+      </c>
+      <c r="I73" s="17" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J73" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>76.08</v>
+      </c>
+      <c r="L73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N73" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="O73" s="7" t="n">
+        <v>1673.76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B74" s="14" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C74" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D74" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="E74" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F74" s="14" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="G74" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H74" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tile Silver Dolgulu Cilalı</t>
+        </is>
+      </c>
+      <c r="I74" s="17" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J74" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>2195</v>
+      </c>
+      <c r="L74" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N74" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="O74" s="7" t="n">
+        <v>52680</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B75" s="18" t="n"/>
+      <c r="C75" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D75" s="18" t="n"/>
+      <c r="E75" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F75" s="18" t="n"/>
+      <c r="G75" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H75" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Mosaic Silver Cilalı</t>
+        </is>
+      </c>
+      <c r="I75" s="17" t="inlineStr">
+        <is>
+          <t>5,0x15,0x</t>
+        </is>
+      </c>
+      <c r="J75" s="17" t="inlineStr">
+        <is>
+          <t>Mek-Moz</t>
+        </is>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>230</v>
+      </c>
+      <c r="L75" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N75" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="O75" s="7" t="n">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B76" s="18" t="n"/>
+      <c r="C76" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D76" s="18" t="n"/>
+      <c r="E76" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F76" s="18" t="n"/>
+      <c r="G76" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H76" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Silver Cilalı</t>
+        </is>
+      </c>
+      <c r="I76" s="17" t="inlineStr">
+        <is>
+          <t>20,3x40,6x1,2</t>
+        </is>
+      </c>
+      <c r="J76" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>485</v>
+      </c>
+      <c r="L76" s="9" t="n">
+        <v>128.58</v>
+      </c>
+      <c r="M76" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N76" s="7" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="O76" s="7" t="n">
+        <v>12367.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B77" s="18" t="n"/>
+      <c r="C77" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D77" s="18" t="n"/>
+      <c r="E77" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F77" s="18" t="n"/>
+      <c r="G77" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H77" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Silver Basamak Cilalı</t>
+        </is>
+      </c>
+      <c r="I77" s="17" t="inlineStr">
+        <is>
+          <t>100,0x190,0x2,0</t>
+        </is>
+      </c>
+      <c r="J77" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L77" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N77" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="O77" s="7" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B78" s="18" t="n"/>
+      <c r="C78" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D78" s="18" t="n"/>
+      <c r="E78" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F78" s="18" t="n"/>
+      <c r="G78" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H78" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı</t>
+        </is>
+      </c>
+      <c r="I78" s="17" t="inlineStr">
+        <is>
+          <t>15,0x170,0x2,0</t>
+        </is>
+      </c>
+      <c r="J78" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="L78" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N78" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O78" s="7" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B79" s="18" t="n"/>
+      <c r="C79" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D79" s="18" t="n"/>
+      <c r="E79" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F79" s="18" t="n"/>
+      <c r="G79" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H79" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I79" s="17" t="inlineStr">
+        <is>
+          <t>30,0x129,0x2,0</t>
+        </is>
+      </c>
+      <c r="J79" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L79" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N79" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="O79" s="7" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B80" s="18" t="n"/>
+      <c r="C80" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D80" s="18" t="n"/>
+      <c r="E80" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F80" s="18" t="n"/>
+      <c r="G80" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H80" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I80" s="17" t="inlineStr">
+        <is>
+          <t>20,0x129,0x2,0</t>
+        </is>
+      </c>
+      <c r="J80" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L80" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N80" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O80" s="7" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B81" s="18" t="n"/>
+      <c r="C81" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D81" s="18" t="n"/>
+      <c r="E81" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F81" s="18" t="n"/>
+      <c r="G81" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H81" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I81" s="17" t="inlineStr">
+        <is>
+          <t>33,0x126,0x2,0</t>
+        </is>
+      </c>
+      <c r="J81" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K81" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L81" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N81" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="O81" s="7" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B82" s="18" t="n"/>
+      <c r="C82" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D82" s="18" t="n"/>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F82" s="18" t="n"/>
+      <c r="G82" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H82" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I82" s="17" t="inlineStr">
+        <is>
+          <t>22,0x126,0x2,0</t>
+        </is>
+      </c>
+      <c r="J82" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N82" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O82" s="7" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B83" s="18" t="n"/>
+      <c r="C83" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D83" s="18" t="n"/>
+      <c r="E83" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F83" s="18" t="n"/>
+      <c r="G83" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H83" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I83" s="17" t="inlineStr">
+        <is>
+          <t>33,0x127,0x2,0</t>
+        </is>
+      </c>
+      <c r="J83" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K83" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L83" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N83" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="O83" s="7" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B84" s="18" t="n"/>
+      <c r="C84" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D84" s="18" t="n"/>
+      <c r="E84" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F84" s="18" t="n"/>
+      <c r="G84" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H84" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I84" s="17" t="inlineStr">
+        <is>
+          <t>15,0x125,0x2,0</t>
+        </is>
+      </c>
+      <c r="J84" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K84" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L84" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N84" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O84" s="7" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B85" s="18" t="n"/>
+      <c r="C85" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D85" s="18" t="n"/>
+      <c r="E85" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F85" s="18" t="n"/>
+      <c r="G85" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H85" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
       <c r="I85" s="17" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>33,0x120,0x2,0</t>
         </is>
       </c>
       <c r="J85" s="17" t="inlineStr">
@@ -5839,67 +5777,55 @@
         </is>
       </c>
       <c r="K85" s="9" t="n">
-        <v>605</v>
+        <v>80</v>
       </c>
       <c r="L85" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M85" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O85" s="7" t="n">
-        <v>12705</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2020-07-01T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B86" s="14" t="inlineStr">
-        <is>
-          <t>2020-07-01T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B86" s="18" t="n"/>
       <c r="C86" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D86" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D86" s="18" t="n"/>
       <c r="E86" s="17" t="inlineStr">
         <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F86" s="14" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F86" s="18" t="n"/>
       <c r="G86" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="H86" s="17" t="inlineStr">
         <is>
-          <t>Traverten classic vein cut yarı cilalı (724 Adet)</t>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
         </is>
       </c>
       <c r="I86" s="17" t="inlineStr">
         <is>
-          <t>40,6x61,0x2,0</t>
+          <t>18,0x120,0x2,0</t>
         </is>
       </c>
       <c r="J86" s="17" t="inlineStr">
@@ -5908,55 +5834,55 @@
         </is>
       </c>
       <c r="K86" s="9" t="n">
-        <v>179.31</v>
+        <v>80</v>
       </c>
       <c r="L86" s="9" t="n">
-        <v>24.77</v>
+        <v>0</v>
       </c>
       <c r="M86" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O86" s="7" t="n">
-        <v>4482.63</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2020-07-01T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B87" s="19" t="n"/>
+          <t>2019-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="B87" s="18" t="n"/>
       <c r="C87" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D87" s="19" t="n"/>
+      <c r="D87" s="18" t="n"/>
       <c r="E87" s="17" t="inlineStr">
         <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F87" s="19" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F87" s="18" t="n"/>
       <c r="G87" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="H87" s="17" t="inlineStr">
         <is>
-          <t>traverten classic vein cut yarı cilalı (982 Adet)</t>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
         </is>
       </c>
       <c r="I87" s="17" t="inlineStr">
         <is>
-          <t>15,25x61,0x1,2</t>
+          <t>33,0x115,0x2,0</t>
         </is>
       </c>
       <c r="J87" s="17" t="inlineStr">
@@ -5965,27 +5891,27 @@
         </is>
       </c>
       <c r="K87" s="9" t="n">
-        <v>91.34999999999999</v>
+        <v>40</v>
       </c>
       <c r="L87" s="9" t="n">
-        <v>122.79</v>
+        <v>0</v>
       </c>
       <c r="M87" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O87" s="7" t="n">
-        <v>1644.3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2020-07-01T00:00:00.000Z</t>
+          <t>2019-02-13T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B88" s="19" t="n"/>
@@ -5997,23 +5923,23 @@
       <c r="D88" s="19" t="n"/>
       <c r="E88" s="17" t="inlineStr">
         <is>
-          <t>Imperial Zambang Chalets</t>
+          <t>Lincoln Court</t>
         </is>
       </c>
       <c r="F88" s="19" t="n"/>
       <c r="G88" s="17" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="H88" s="17" t="inlineStr">
         <is>
-          <t>traverten volcano pattern set yarı cilalı</t>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
         </is>
       </c>
       <c r="I88" s="17" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>20,0x115,0x2,0</t>
         </is>
       </c>
       <c r="J88" s="17" t="inlineStr">
@@ -6022,1129 +5948,326 @@
         </is>
       </c>
       <c r="K88" s="9" t="n">
-        <v>159.4</v>
+        <v>40</v>
       </c>
       <c r="L88" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M88" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O88" s="7" t="n">
-        <v>2869.2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2020-07-01T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B89" s="19" t="n"/>
-      <c r="C89" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D89" s="19" t="n"/>
-      <c r="E89" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F89" s="19" t="n"/>
-      <c r="G89" s="17" t="inlineStr">
-        <is>
-          <t>Bianco Ibiza</t>
-        </is>
-      </c>
-      <c r="H89" s="17" t="inlineStr">
-        <is>
-          <t>Marble Mosaic - Bianco Ibiza - Polished - 5,0X10,0(1753 Adet)</t>
-        </is>
-      </c>
-      <c r="I89" s="17" t="inlineStr">
-        <is>
-          <t>5,0x10,0x1,0</t>
-        </is>
-      </c>
-      <c r="J89" s="17" t="inlineStr">
-        <is>
-          <t>Denmar</t>
-        </is>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>163.26</v>
-      </c>
-      <c r="L89" s="9" t="n">
-        <v>163.26</v>
-      </c>
-      <c r="M89" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N89" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="O89" s="7" t="n">
-        <v>4081.5</v>
-      </c>
+      <c r="B89" s="17" t="n"/>
+      <c r="C89" s="17" t="n"/>
+      <c r="D89" s="17" t="n"/>
+      <c r="E89" s="17" t="n"/>
+      <c r="F89" s="17" t="n"/>
+      <c r="G89" s="17" t="n"/>
+      <c r="H89" s="17" t="n"/>
+      <c r="I89" s="17" t="n"/>
+      <c r="J89" s="17" t="n"/>
+      <c r="K89" s="9" t="n"/>
+      <c r="L89" s="9" t="n"/>
+      <c r="M89" s="17" t="n"/>
+      <c r="N89" s="7" t="n"/>
+      <c r="O89" s="7" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2020-07-01T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B90" s="19" t="n"/>
-      <c r="C90" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D90" s="19" t="n"/>
-      <c r="E90" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F90" s="19" t="n"/>
-      <c r="G90" s="17" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="H90" s="17" t="inlineStr">
-        <is>
-          <t>traverten basamak classic mina yarı cilalı</t>
-        </is>
-      </c>
-      <c r="I90" s="17" t="inlineStr">
-        <is>
-          <t>30,0x125,0x3,0</t>
-        </is>
-      </c>
-      <c r="J90" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L90" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N90" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="O90" s="7" t="n">
-        <v>360</v>
-      </c>
+      <c r="B90" s="17" t="n"/>
+      <c r="C90" s="17" t="n"/>
+      <c r="D90" s="17" t="n"/>
+      <c r="E90" s="17" t="n"/>
+      <c r="F90" s="17" t="n"/>
+      <c r="G90" s="17" t="n"/>
+      <c r="H90" s="17" t="n"/>
+      <c r="I90" s="17" t="n"/>
+      <c r="J90" s="17" t="n"/>
+      <c r="K90" s="9" t="n"/>
+      <c r="L90" s="9" t="n"/>
+      <c r="M90" s="17" t="n"/>
+      <c r="N90" s="7" t="n"/>
+      <c r="O90" s="7" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2020-07-01T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B91" s="18" t="n"/>
-      <c r="C91" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D91" s="18" t="n"/>
-      <c r="E91" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F91" s="18" t="n"/>
-      <c r="G91" s="17" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="H91" s="17" t="inlineStr">
-        <is>
-          <t>traverten rıht classic mina yarı cilalı</t>
-        </is>
-      </c>
-      <c r="I91" s="17" t="inlineStr">
-        <is>
-          <t>15,0x125,0x3,0</t>
-        </is>
-      </c>
-      <c r="J91" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K91" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N91" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O91" s="7" t="n">
-        <v>198</v>
-      </c>
+      <c r="B91" s="17" t="n"/>
+      <c r="C91" s="17" t="n"/>
+      <c r="D91" s="17" t="n"/>
+      <c r="E91" s="17" t="n"/>
+      <c r="F91" s="17" t="n"/>
+      <c r="G91" s="17" t="n"/>
+      <c r="H91" s="17" t="n"/>
+      <c r="I91" s="17" t="n"/>
+      <c r="J91" s="17" t="n"/>
+      <c r="K91" s="9" t="n"/>
+      <c r="L91" s="9" t="n"/>
+      <c r="M91" s="17" t="n"/>
+      <c r="N91" s="7" t="n"/>
+      <c r="O91" s="7" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2019-02-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B92" s="14" t="inlineStr">
-        <is>
-          <t>2019-02-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C92" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D92" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E92" s="17" t="inlineStr">
-        <is>
-          <t>Rangoon Apatment - 2</t>
-        </is>
-      </c>
-      <c r="F92" s="14" t="inlineStr">
-        <is>
-          <t>Rangoon Apatment - 2</t>
-        </is>
-      </c>
-      <c r="G92" s="17" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="H92" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Picasso Dolgulu Honlu</t>
-        </is>
-      </c>
-      <c r="I92" s="17" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J92" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K92" s="9" t="n">
-        <v>76.08</v>
-      </c>
-      <c r="L92" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N92" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="O92" s="7" t="n">
-        <v>1673.76</v>
-      </c>
+      <c r="B92" s="17" t="n"/>
+      <c r="C92" s="17" t="n"/>
+      <c r="D92" s="17" t="n"/>
+      <c r="E92" s="17" t="n"/>
+      <c r="F92" s="17" t="n"/>
+      <c r="G92" s="17" t="n"/>
+      <c r="H92" s="17" t="n"/>
+      <c r="I92" s="17" t="n"/>
+      <c r="J92" s="17" t="n"/>
+      <c r="K92" s="9" t="n"/>
+      <c r="L92" s="9" t="n"/>
+      <c r="M92" s="17" t="n"/>
+      <c r="N92" s="7" t="n"/>
+      <c r="O92" s="7" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B93" s="14" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="C93" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D93" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E93" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F93" s="14" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="G93" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H93" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tile Silver Dolgulu Cilalı</t>
-        </is>
-      </c>
-      <c r="I93" s="17" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J93" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>2195</v>
-      </c>
-      <c r="L93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N93" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="O93" s="7" t="n">
-        <v>52680</v>
-      </c>
+      <c r="B93" s="17" t="n"/>
+      <c r="C93" s="17" t="n"/>
+      <c r="D93" s="17" t="n"/>
+      <c r="E93" s="17" t="n"/>
+      <c r="F93" s="17" t="n"/>
+      <c r="G93" s="17" t="n"/>
+      <c r="H93" s="17" t="n"/>
+      <c r="I93" s="17" t="n"/>
+      <c r="J93" s="17" t="n"/>
+      <c r="K93" s="9" t="n"/>
+      <c r="L93" s="9" t="n"/>
+      <c r="M93" s="17" t="n"/>
+      <c r="N93" s="7" t="n"/>
+      <c r="O93" s="7" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B94" s="19" t="n"/>
-      <c r="C94" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D94" s="19" t="n"/>
-      <c r="E94" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F94" s="19" t="n"/>
-      <c r="G94" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H94" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Mosaic Silver Cilalı</t>
-        </is>
-      </c>
-      <c r="I94" s="17" t="inlineStr">
-        <is>
-          <t>5,0x15,0x</t>
-        </is>
-      </c>
-      <c r="J94" s="17" t="inlineStr">
-        <is>
-          <t>Mek-Moz</t>
-        </is>
-      </c>
-      <c r="K94" s="9" t="n">
-        <v>230</v>
-      </c>
-      <c r="L94" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N94" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="O94" s="7" t="n">
-        <v>7820</v>
-      </c>
+      <c r="B94" s="17" t="n"/>
+      <c r="C94" s="17" t="n"/>
+      <c r="D94" s="17" t="n"/>
+      <c r="E94" s="17" t="n"/>
+      <c r="F94" s="17" t="n"/>
+      <c r="G94" s="17" t="n"/>
+      <c r="H94" s="17" t="n"/>
+      <c r="I94" s="17" t="n"/>
+      <c r="J94" s="17" t="n"/>
+      <c r="K94" s="9" t="n"/>
+      <c r="L94" s="9" t="n"/>
+      <c r="M94" s="17" t="n"/>
+      <c r="N94" s="7" t="n"/>
+      <c r="O94" s="7" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B95" s="19" t="n"/>
-      <c r="C95" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D95" s="19" t="n"/>
-      <c r="E95" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F95" s="19" t="n"/>
-      <c r="G95" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H95" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Silver Cilalı</t>
-        </is>
-      </c>
-      <c r="I95" s="17" t="inlineStr">
-        <is>
-          <t>20,3x40,6x1,2</t>
-        </is>
-      </c>
-      <c r="J95" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K95" s="9" t="n">
-        <v>485</v>
-      </c>
-      <c r="L95" s="9" t="n">
-        <v>128.58</v>
-      </c>
-      <c r="M95" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N95" s="7" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="O95" s="7" t="n">
-        <v>12367.5</v>
-      </c>
+      <c r="B95" s="17" t="n"/>
+      <c r="C95" s="17" t="n"/>
+      <c r="D95" s="17" t="n"/>
+      <c r="E95" s="17" t="n"/>
+      <c r="F95" s="17" t="n"/>
+      <c r="G95" s="17" t="n"/>
+      <c r="H95" s="17" t="n"/>
+      <c r="I95" s="17" t="n"/>
+      <c r="J95" s="17" t="n"/>
+      <c r="K95" s="9" t="n"/>
+      <c r="L95" s="9" t="n"/>
+      <c r="M95" s="17" t="n"/>
+      <c r="N95" s="7" t="n"/>
+      <c r="O95" s="7" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B96" s="19" t="n"/>
-      <c r="C96" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D96" s="19" t="n"/>
-      <c r="E96" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F96" s="19" t="n"/>
-      <c r="G96" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H96" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Silver Basamak Cilalı</t>
-        </is>
-      </c>
-      <c r="I96" s="17" t="inlineStr">
-        <is>
-          <t>100,0x190,0x2,0</t>
-        </is>
-      </c>
-      <c r="J96" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K96" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L96" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N96" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="O96" s="7" t="n">
-        <v>1350</v>
-      </c>
+      <c r="B96" s="17" t="n"/>
+      <c r="C96" s="17" t="n"/>
+      <c r="D96" s="17" t="n"/>
+      <c r="E96" s="17" t="n"/>
+      <c r="F96" s="17" t="n"/>
+      <c r="G96" s="17" t="n"/>
+      <c r="H96" s="17" t="n"/>
+      <c r="I96" s="17" t="n"/>
+      <c r="J96" s="17" t="n"/>
+      <c r="K96" s="9" t="n"/>
+      <c r="L96" s="9" t="n"/>
+      <c r="M96" s="17" t="n"/>
+      <c r="N96" s="7" t="n"/>
+      <c r="O96" s="7" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B97" s="19" t="n"/>
-      <c r="C97" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D97" s="19" t="n"/>
-      <c r="E97" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F97" s="19" t="n"/>
-      <c r="G97" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H97" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Rıht Silver Cilalı</t>
-        </is>
-      </c>
-      <c r="I97" s="17" t="inlineStr">
-        <is>
-          <t>15,0x170,0x2,0</t>
-        </is>
-      </c>
-      <c r="J97" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>60</v>
-      </c>
-      <c r="L97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N97" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="O97" s="7" t="n">
-        <v>1260</v>
-      </c>
+      <c r="B97" s="17" t="n"/>
+      <c r="C97" s="17" t="n"/>
+      <c r="D97" s="17" t="n"/>
+      <c r="E97" s="17" t="n"/>
+      <c r="F97" s="17" t="n"/>
+      <c r="G97" s="17" t="n"/>
+      <c r="H97" s="17" t="n"/>
+      <c r="I97" s="17" t="n"/>
+      <c r="J97" s="17" t="n"/>
+      <c r="K97" s="9" t="n"/>
+      <c r="L97" s="9" t="n"/>
+      <c r="M97" s="17" t="n"/>
+      <c r="N97" s="7" t="n"/>
+      <c r="O97" s="7" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B98" s="19" t="n"/>
-      <c r="C98" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D98" s="19" t="n"/>
-      <c r="E98" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F98" s="19" t="n"/>
-      <c r="G98" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H98" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I98" s="17" t="inlineStr">
-        <is>
-          <t>30,0x129,0x2,0</t>
-        </is>
-      </c>
-      <c r="J98" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K98" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L98" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N98" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="O98" s="7" t="n">
-        <v>960</v>
-      </c>
+      <c r="B98" s="17" t="n"/>
+      <c r="C98" s="17" t="n"/>
+      <c r="D98" s="17" t="n"/>
+      <c r="E98" s="17" t="n"/>
+      <c r="F98" s="17" t="n"/>
+      <c r="G98" s="17" t="n"/>
+      <c r="H98" s="17" t="n"/>
+      <c r="I98" s="17" t="n"/>
+      <c r="J98" s="17" t="n"/>
+      <c r="K98" s="9" t="n"/>
+      <c r="L98" s="9" t="n"/>
+      <c r="M98" s="17" t="n"/>
+      <c r="N98" s="7" t="n"/>
+      <c r="O98" s="7" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B99" s="19" t="n"/>
-      <c r="C99" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D99" s="19" t="n"/>
-      <c r="E99" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F99" s="19" t="n"/>
-      <c r="G99" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H99" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I99" s="17" t="inlineStr">
-        <is>
-          <t>20,0x129,0x2,0</t>
-        </is>
-      </c>
-      <c r="J99" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K99" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L99" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N99" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="O99" s="7" t="n">
-        <v>640</v>
-      </c>
+      <c r="B99" s="17" t="n"/>
+      <c r="C99" s="17" t="n"/>
+      <c r="D99" s="17" t="n"/>
+      <c r="E99" s="17" t="n"/>
+      <c r="F99" s="17" t="n"/>
+      <c r="G99" s="17" t="n"/>
+      <c r="H99" s="17" t="n"/>
+      <c r="I99" s="17" t="n"/>
+      <c r="J99" s="17" t="n"/>
+      <c r="K99" s="9" t="n"/>
+      <c r="L99" s="9" t="n"/>
+      <c r="M99" s="17" t="n"/>
+      <c r="N99" s="7" t="n"/>
+      <c r="O99" s="7" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B100" s="19" t="n"/>
-      <c r="C100" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D100" s="19" t="n"/>
-      <c r="E100" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F100" s="19" t="n"/>
-      <c r="G100" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H100" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I100" s="17" t="inlineStr">
-        <is>
-          <t>33,0x126,0x2,0</t>
-        </is>
-      </c>
-      <c r="J100" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K100" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L100" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N100" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="O100" s="7" t="n">
-        <v>1160</v>
-      </c>
+      <c r="B100" s="17" t="n"/>
+      <c r="C100" s="17" t="n"/>
+      <c r="D100" s="17" t="n"/>
+      <c r="E100" s="17" t="n"/>
+      <c r="F100" s="17" t="n"/>
+      <c r="G100" s="17" t="n"/>
+      <c r="H100" s="17" t="n"/>
+      <c r="I100" s="17" t="n"/>
+      <c r="J100" s="17" t="n"/>
+      <c r="K100" s="9" t="n"/>
+      <c r="L100" s="9" t="n"/>
+      <c r="M100" s="17" t="n"/>
+      <c r="N100" s="7" t="n"/>
+      <c r="O100" s="7" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B101" s="19" t="n"/>
-      <c r="C101" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D101" s="19" t="n"/>
-      <c r="E101" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F101" s="19" t="n"/>
-      <c r="G101" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H101" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I101" s="17" t="inlineStr">
-        <is>
-          <t>22,0x126,0x2,0</t>
-        </is>
-      </c>
-      <c r="J101" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K101" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L101" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N101" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O101" s="7" t="n">
-        <v>760</v>
-      </c>
+      <c r="B101" s="17" t="n"/>
+      <c r="C101" s="17" t="n"/>
+      <c r="D101" s="17" t="n"/>
+      <c r="E101" s="17" t="n"/>
+      <c r="F101" s="17" t="n"/>
+      <c r="G101" s="17" t="n"/>
+      <c r="H101" s="17" t="n"/>
+      <c r="I101" s="17" t="n"/>
+      <c r="J101" s="17" t="n"/>
+      <c r="K101" s="9" t="n"/>
+      <c r="L101" s="9" t="n"/>
+      <c r="M101" s="17" t="n"/>
+      <c r="N101" s="7" t="n"/>
+      <c r="O101" s="7" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B102" s="19" t="n"/>
-      <c r="C102" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D102" s="19" t="n"/>
-      <c r="E102" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F102" s="19" t="n"/>
-      <c r="G102" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H102" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I102" s="17" t="inlineStr">
-        <is>
-          <t>33,0x127,0x2,0</t>
-        </is>
-      </c>
-      <c r="J102" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K102" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L102" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N102" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="O102" s="7" t="n">
-        <v>1160</v>
-      </c>
+      <c r="B102" s="17" t="n"/>
+      <c r="C102" s="17" t="n"/>
+      <c r="D102" s="17" t="n"/>
+      <c r="E102" s="17" t="n"/>
+      <c r="F102" s="17" t="n"/>
+      <c r="G102" s="17" t="n"/>
+      <c r="H102" s="17" t="n"/>
+      <c r="I102" s="17" t="n"/>
+      <c r="J102" s="17" t="n"/>
+      <c r="K102" s="9" t="n"/>
+      <c r="L102" s="9" t="n"/>
+      <c r="M102" s="17" t="n"/>
+      <c r="N102" s="7" t="n"/>
+      <c r="O102" s="7" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B103" s="19" t="n"/>
-      <c r="C103" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D103" s="19" t="n"/>
-      <c r="E103" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F103" s="19" t="n"/>
-      <c r="G103" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H103" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I103" s="17" t="inlineStr">
-        <is>
-          <t>15,0x125,0x2,0</t>
-        </is>
-      </c>
-      <c r="J103" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N103" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O103" s="7" t="n">
-        <v>600</v>
-      </c>
+      <c r="B103" s="17" t="n"/>
+      <c r="C103" s="17" t="n"/>
+      <c r="D103" s="17" t="n"/>
+      <c r="E103" s="17" t="n"/>
+      <c r="F103" s="17" t="n"/>
+      <c r="G103" s="17" t="n"/>
+      <c r="H103" s="17" t="n"/>
+      <c r="I103" s="17" t="n"/>
+      <c r="J103" s="17" t="n"/>
+      <c r="K103" s="9" t="n"/>
+      <c r="L103" s="9" t="n"/>
+      <c r="M103" s="17" t="n"/>
+      <c r="N103" s="7" t="n"/>
+      <c r="O103" s="7" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B104" s="19" t="n"/>
-      <c r="C104" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D104" s="19" t="n"/>
-      <c r="E104" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F104" s="19" t="n"/>
-      <c r="G104" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H104" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I104" s="17" t="inlineStr">
-        <is>
-          <t>33,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="J104" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K104" s="9" t="n">
-        <v>80</v>
-      </c>
-      <c r="L104" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N104" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="O104" s="7" t="n">
-        <v>2080</v>
-      </c>
+      <c r="B104" s="17" t="n"/>
+      <c r="C104" s="17" t="n"/>
+      <c r="D104" s="17" t="n"/>
+      <c r="E104" s="17" t="n"/>
+      <c r="F104" s="17" t="n"/>
+      <c r="G104" s="17" t="n"/>
+      <c r="H104" s="17" t="n"/>
+      <c r="I104" s="17" t="n"/>
+      <c r="J104" s="17" t="n"/>
+      <c r="K104" s="9" t="n"/>
+      <c r="L104" s="9" t="n"/>
+      <c r="M104" s="17" t="n"/>
+      <c r="N104" s="7" t="n"/>
+      <c r="O104" s="7" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B105" s="19" t="n"/>
-      <c r="C105" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D105" s="19" t="n"/>
-      <c r="E105" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F105" s="19" t="n"/>
-      <c r="G105" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H105" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I105" s="17" t="inlineStr">
-        <is>
-          <t>18,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="J105" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K105" s="9" t="n">
-        <v>80</v>
-      </c>
-      <c r="L105" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N105" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O105" s="7" t="n">
-        <v>1040</v>
-      </c>
+      <c r="B105" s="17" t="n"/>
+      <c r="C105" s="17" t="n"/>
+      <c r="D105" s="17" t="n"/>
+      <c r="E105" s="17" t="n"/>
+      <c r="F105" s="17" t="n"/>
+      <c r="G105" s="17" t="n"/>
+      <c r="H105" s="17" t="n"/>
+      <c r="I105" s="17" t="n"/>
+      <c r="J105" s="17" t="n"/>
+      <c r="K105" s="9" t="n"/>
+      <c r="L105" s="9" t="n"/>
+      <c r="M105" s="17" t="n"/>
+      <c r="N105" s="7" t="n"/>
+      <c r="O105" s="7" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B106" s="19" t="n"/>
-      <c r="C106" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D106" s="19" t="n"/>
-      <c r="E106" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F106" s="19" t="n"/>
-      <c r="G106" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H106" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I106" s="17" t="inlineStr">
-        <is>
-          <t>33,0x115,0x2,0</t>
-        </is>
-      </c>
-      <c r="J106" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L106" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N106" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="O106" s="7" t="n">
-        <v>1000</v>
-      </c>
+      <c r="B106" s="17" t="n"/>
+      <c r="C106" s="17" t="n"/>
+      <c r="D106" s="17" t="n"/>
+      <c r="E106" s="17" t="n"/>
+      <c r="F106" s="17" t="n"/>
+      <c r="G106" s="17" t="n"/>
+      <c r="H106" s="17" t="n"/>
+      <c r="I106" s="17" t="n"/>
+      <c r="J106" s="17" t="n"/>
+      <c r="K106" s="9" t="n"/>
+      <c r="L106" s="9" t="n"/>
+      <c r="M106" s="17" t="n"/>
+      <c r="N106" s="7" t="n"/>
+      <c r="O106" s="7" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2019-02-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="B107" s="18" t="n"/>
-      <c r="C107" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D107" s="18" t="n"/>
-      <c r="E107" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F107" s="18" t="n"/>
-      <c r="G107" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H107" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
-        </is>
-      </c>
-      <c r="I107" s="17" t="inlineStr">
-        <is>
-          <t>20,0x115,0x2,0</t>
-        </is>
-      </c>
-      <c r="J107" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K107" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L107" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N107" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O107" s="7" t="n">
-        <v>600</v>
-      </c>
+      <c r="B107" s="17" t="n"/>
+      <c r="C107" s="17" t="n"/>
+      <c r="D107" s="17" t="n"/>
+      <c r="E107" s="17" t="n"/>
+      <c r="F107" s="17" t="n"/>
+      <c r="G107" s="17" t="n"/>
+      <c r="H107" s="17" t="n"/>
+      <c r="I107" s="17" t="n"/>
+      <c r="J107" s="17" t="n"/>
+      <c r="K107" s="9" t="n"/>
+      <c r="L107" s="9" t="n"/>
+      <c r="M107" s="17" t="n"/>
+      <c r="N107" s="7" t="n"/>
+      <c r="O107" s="7" t="n"/>
     </row>
     <row r="108">
       <c r="B108" s="17" t="n"/>
@@ -19473,127 +18596,103 @@
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
-  <mergeCells count="120">
+  <mergeCells count="96">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="D10"/>
-    <mergeCell ref="F10"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="F11"/>
-    <mergeCell ref="B12"/>
-    <mergeCell ref="D12"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="D13"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="B14"/>
-    <mergeCell ref="D14"/>
-    <mergeCell ref="F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17"/>
-    <mergeCell ref="D17"/>
-    <mergeCell ref="F17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="D20"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="D21"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="B22"/>
+    <mergeCell ref="D22"/>
+    <mergeCell ref="F22"/>
     <mergeCell ref="B23"/>
     <mergeCell ref="D23"/>
     <mergeCell ref="F23"/>
     <mergeCell ref="B24"/>
     <mergeCell ref="D24"/>
     <mergeCell ref="F24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B30"/>
-    <mergeCell ref="D30"/>
-    <mergeCell ref="F30"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="D41:D52"/>
-    <mergeCell ref="F41:F52"/>
-    <mergeCell ref="B53"/>
-    <mergeCell ref="D53"/>
-    <mergeCell ref="F53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="B62"/>
-    <mergeCell ref="D62"/>
-    <mergeCell ref="F62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="B65"/>
-    <mergeCell ref="D65"/>
-    <mergeCell ref="F65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="B77"/>
-    <mergeCell ref="D77"/>
-    <mergeCell ref="F77"/>
-    <mergeCell ref="B78"/>
-    <mergeCell ref="D78"/>
-    <mergeCell ref="F78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="B84"/>
-    <mergeCell ref="D84"/>
-    <mergeCell ref="F84"/>
-    <mergeCell ref="B85"/>
-    <mergeCell ref="D85"/>
-    <mergeCell ref="F85"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="B92"/>
-    <mergeCell ref="D92"/>
-    <mergeCell ref="F92"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="D93:D107"/>
-    <mergeCell ref="F93:F107"/>
+    <mergeCell ref="B25"/>
+    <mergeCell ref="D25"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="B26"/>
+    <mergeCell ref="D26"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B29"/>
+    <mergeCell ref="D29"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="D30:D41"/>
+    <mergeCell ref="F30:F41"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="D42"/>
+    <mergeCell ref="F42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="D47"/>
+    <mergeCell ref="F47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="B60"/>
+    <mergeCell ref="D60"/>
+    <mergeCell ref="F60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="D66"/>
+    <mergeCell ref="F66"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="D67"/>
+    <mergeCell ref="F67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="B73"/>
+    <mergeCell ref="D73"/>
+    <mergeCell ref="F73"/>
+    <mergeCell ref="B74:B88"/>
+    <mergeCell ref="D74:D88"/>
+    <mergeCell ref="F74:F88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/excel/dosyalar/Uretim_list.xlsx
+++ b/excel/dosyalar/Uretim_list.xlsx
@@ -652,66 +652,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B2" s="20" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-03-21T00:00:00.000Z</t>
+          <t>2024-06-11T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D2" s="16" t="inlineStr">
         <is>
-          <t>2024-03-21T00:00:00.000Z</t>
+          <t>2024-06-11T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" s="21" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Ata Sab. - Kuwait</t>
         </is>
       </c>
       <c r="F2" s="16" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Ata Sab. - Kuwait</t>
         </is>
       </c>
       <c r="G2" s="21" t="inlineStr">
         <is>
-          <t>24VEIK97</t>
+          <t>24ATA20</t>
         </is>
       </c>
       <c r="H2" s="16" t="inlineStr">
         <is>
-          <t>24VEIK97</t>
+          <t>24ATA20</t>
         </is>
       </c>
       <c r="I2" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Perla</t>
         </is>
       </c>
       <c r="J2" s="21" t="inlineStr">
         <is>
-          <t>1- Traverten - Classic Vein Cut - Dolgulu Honlu - 15,25 x 61 x 1.2 cm - 934,89 sqm - 5040 adet</t>
+          <t>Cloudy (Perla) - Honlu - 40 x 80 x 3 cm</t>
         </is>
       </c>
       <c r="K2" s="21" t="inlineStr">
         <is>
-          <t>15,25x61,0x1,2</t>
+          <t>40,0x80,0x3,0</t>
         </is>
       </c>
       <c r="L2" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Hazmer</t>
         </is>
       </c>
       <c r="M2" s="9" t="n">
-        <v>934.89</v>
+        <v>591.36</v>
       </c>
       <c r="N2" s="9" t="n">
         <v>0</v>
@@ -721,138 +721,113 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P2" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="7" t="n">
-        <v>12153.57</v>
-      </c>
+      <c r="P2" s="7" t="n"/>
+      <c r="Q2" s="7" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>Hakan</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-03-18T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D3" s="16" t="inlineStr">
-        <is>
-          <t>2024-03-18T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-06-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D3" s="22" t="n"/>
       <c r="E3" s="21" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="F3" s="16" t="inlineStr">
-        <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
+          <t>Ata Sab. - Kuwait</t>
+        </is>
+      </c>
+      <c r="F3" s="22" t="n"/>
       <c r="G3" s="21" t="inlineStr">
         <is>
-          <t>24CST05</t>
-        </is>
-      </c>
-      <c r="H3" s="16" t="inlineStr">
-        <is>
-          <t>24CST05</t>
-        </is>
-      </c>
+          <t>24ATA20</t>
+        </is>
+      </c>
+      <c r="H3" s="22" t="n"/>
       <c r="I3" s="21" t="inlineStr">
         <is>
-          <t>Silverela</t>
+          <t>Perla</t>
         </is>
       </c>
       <c r="J3" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silverela-Dolgulu&amp;Fırçalı&amp;Eskitme-ANTxPATx1,2 (1248 Adet) (4 Kasa) - 154,64 m2</t>
+          <t>Cloudy (Perla) - Honlu - 50 x 100 x 4 cm</t>
         </is>
       </c>
       <c r="K3" s="21" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>50,0x100,0x4,0</t>
         </is>
       </c>
       <c r="L3" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Hazmer</t>
         </is>
       </c>
       <c r="M3" s="9" t="n">
-        <v>154.64</v>
+        <v>20</v>
       </c>
       <c r="N3" s="9" t="n">
-        <v>38.66</v>
+        <v>0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P3" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>3092.8</v>
-      </c>
+      <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-03-18T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D4" s="22" t="n"/>
+          <t>2024-06-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D4" s="23" t="n"/>
       <c r="E4" s="21" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="F4" s="22" t="n"/>
+          <t>Ata Sab. - Kuwait</t>
+        </is>
+      </c>
+      <c r="F4" s="23" t="n"/>
       <c r="G4" s="21" t="inlineStr">
         <is>
-          <t>24CST05</t>
-        </is>
-      </c>
-      <c r="H4" s="22" t="n"/>
+          <t>24ATA20</t>
+        </is>
+      </c>
+      <c r="H4" s="23" t="n"/>
       <c r="I4" s="21" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t>Perla</t>
         </is>
       </c>
       <c r="J4" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Storm Noche-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (1560 Adet) (5 Kasa) - 193,3 m2</t>
+          <t>Cloudy (Perla) - Honed - 50 x 100 x 5 cm</t>
         </is>
       </c>
       <c r="K4" s="21" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t xml:space="preserve">50,0x100,0x5,0 </t>
         </is>
       </c>
       <c r="L4" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Hazmer</t>
         </is>
       </c>
       <c r="M4" s="9" t="n">
-        <v>193.3</v>
+        <v>100</v>
       </c>
       <c r="N4" s="9" t="n">
         <v>0</v>
@@ -862,112 +837,138 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>1933</v>
-      </c>
+      <c r="P4" s="7" t="n"/>
+      <c r="Q4" s="7" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B5" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-03-18T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D5" s="22" t="n"/>
+          <t>2024-06-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>2024-06-08T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E5" s="21" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="F5" s="22" t="n"/>
+          <t>Bruce - USA</t>
+        </is>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>Bruce - USA</t>
+        </is>
+      </c>
       <c r="G5" s="21" t="inlineStr">
         <is>
-          <t>24CST05</t>
-        </is>
-      </c>
-      <c r="H5" s="22" t="n"/>
+          <t>24AFG36</t>
+        </is>
+      </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>24AFG36</t>
+        </is>
+      </c>
       <c r="I5" s="21" t="inlineStr">
         <is>
-          <t>Silverela</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J5" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silverela-Dolgulu&amp;Fırçalı-MINIxSETx1,2 (1710 Adet) (2 Kasa) - 79,50 m2</t>
+          <t>1- Classic Light - Dolgusuz Eskitme - 61x61x1,2 cm - 200 adet - 74,42 sqm</t>
         </is>
       </c>
       <c r="K5" s="21" t="inlineStr">
         <is>
-          <t>MINIxSETx1,2</t>
+          <t>61,0x61,0x1,2</t>
         </is>
       </c>
       <c r="L5" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Şanlı Mermer</t>
         </is>
       </c>
       <c r="M5" s="9" t="n">
-        <v>79.5</v>
+        <v>74.42</v>
       </c>
       <c r="N5" s="9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P5" s="7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>1152.75</v>
-      </c>
+      <c r="P5" s="7" t="n"/>
+      <c r="Q5" s="7" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-03-18T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D6" s="22" t="n"/>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E6" s="21" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="F6" s="22" t="n"/>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
+      <c r="F6" s="16" t="inlineStr">
+        <is>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
       <c r="G6" s="21" t="inlineStr">
         <is>
-          <t>24CST05</t>
-        </is>
-      </c>
-      <c r="H6" s="22" t="n"/>
+          <t>24RICZ01</t>
+        </is>
+      </c>
+      <c r="H6" s="16" t="inlineStr">
+        <is>
+          <t>24RICZ01</t>
+        </is>
+      </c>
       <c r="I6" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J6" s="21" t="inlineStr">
         <is>
-          <t>Mina Rustic Vein Cut Traverten - Dolgulu honlu - 30,0x60,0x2,0 - 3 kasa - 68,04 m2 - 378 adet</t>
+          <t>Classic Vein Cut - Dolgulu &amp; Honlu - 30.5 x Free (30,5-50 cm arası) x 1.2 cm</t>
         </is>
       </c>
       <c r="K6" s="21" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>30,5xFreex1,2</t>
         </is>
       </c>
       <c r="L6" s="21" t="inlineStr">
@@ -976,7 +977,7 @@
         </is>
       </c>
       <c r="M6" s="9" t="n">
-        <v>68.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="N6" s="9" t="n">
         <v>0</v>
@@ -986,129 +987,104 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P6" s="7" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>1139.67</v>
-      </c>
+      <c r="P6" s="7" t="n"/>
+      <c r="Q6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-03-18T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D7" s="23" t="n"/>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D7" s="22" t="n"/>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="F7" s="23" t="n"/>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
+      <c r="F7" s="22" t="n"/>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>24CST05</t>
-        </is>
-      </c>
-      <c r="H7" s="23" t="n"/>
+          <t>24RICZ01</t>
+        </is>
+      </c>
+      <c r="H7" s="22" t="n"/>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>Silverela</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J7" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silverela-Dolgulu&amp;Honlu-30,5x61,0x1,2 (324 Adet)(2 Kasa) - 60,28 m2</t>
+          <t>Classic Vein Cut - Dolgulu &amp; Honlu - 30.5 x FREE (45-75 cm arası) x 1.2 cm</t>
         </is>
       </c>
       <c r="K7" s="21" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x75,0x1,2</t>
         </is>
       </c>
       <c r="L7" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M7" s="9" t="n">
-        <v>60.28</v>
+        <v>100</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>58.42</v>
+        <v>0</v>
       </c>
       <c r="O7" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P7" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>1205.6</v>
-      </c>
+      <c r="P7" s="7" t="n"/>
+      <c r="Q7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="inlineStr">
-        <is>
-          <t>Hakan</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-03-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D8" s="16" t="inlineStr">
-        <is>
-          <t>2024-03-15T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D8" s="22" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>Amanda O. - Ghana</t>
-        </is>
-      </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>Amanda O. - Ghana</t>
-        </is>
-      </c>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
+      <c r="F8" s="22" t="n"/>
       <c r="G8" s="21" t="inlineStr">
         <is>
-          <t>24AMND03</t>
-        </is>
-      </c>
-      <c r="H8" s="16" t="inlineStr">
-        <is>
-          <t>24AMND03</t>
-        </is>
-      </c>
+          <t>24RICZ01</t>
+        </is>
+      </c>
+      <c r="H8" s="22" t="n"/>
       <c r="I8" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J8" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Yarı Cilalı-60,0x120,0x3,0 (45 Adet)</t>
+          <t>Classic Vein Cut - Filled &amp; Honed - 30.5 x 61 x 1.2 cm</t>
         </is>
       </c>
       <c r="K8" s="21" t="inlineStr">
         <is>
-          <t>60,0x120,0x3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L8" s="21" t="inlineStr">
@@ -1117,60 +1093,56 @@
         </is>
       </c>
       <c r="M8" s="9" t="n">
-        <v>32.4</v>
+        <v>200</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="O8" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P8" s="7" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>2106</v>
-      </c>
+      <c r="P8" s="7" t="n"/>
+      <c r="Q8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-03-15T00:00:00.000Z</t>
+          <t>2024-06-06T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Amanda O. - Ghana</t>
+          <t>Emil, Riczy - Hungary</t>
         </is>
       </c>
       <c r="F9" s="22" t="n"/>
       <c r="G9" s="21" t="inlineStr">
         <is>
-          <t>24AMND03</t>
+          <t>24RICZ01</t>
         </is>
       </c>
       <c r="H9" s="22" t="n"/>
       <c r="I9" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J9" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Yarı Cilalı-55,0x80,0x3,0 (25 Adet)</t>
+          <t>Classic Vein Cut - Dolgusuz &amp; Honlu - 30.5 x Free (30,5-50 cm) x 1.2 cm</t>
         </is>
       </c>
       <c r="K9" s="21" t="inlineStr">
         <is>
-          <t>55,0x80,0x3,0</t>
+          <t>30,5xFreex1,2</t>
         </is>
       </c>
       <c r="L9" s="21" t="inlineStr">
@@ -1179,69 +1151,65 @@
         </is>
       </c>
       <c r="M9" s="9" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>11.44</v>
+        <v>0</v>
       </c>
       <c r="O9" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P9" s="7" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>715</v>
-      </c>
+      <c r="P9" s="7" t="n"/>
+      <c r="Q9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-03-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D10" s="23" t="n"/>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D10" s="22" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Amanda O. - Ghana</t>
-        </is>
-      </c>
-      <c r="F10" s="23" t="n"/>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
+      <c r="F10" s="22" t="n"/>
       <c r="G10" s="21" t="inlineStr">
         <is>
-          <t>24AMND03</t>
-        </is>
-      </c>
-      <c r="H10" s="23" t="n"/>
+          <t>24RICZ01</t>
+        </is>
+      </c>
+      <c r="H10" s="22" t="n"/>
       <c r="I10" s="21" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J10" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Volcano-Dolgulu&amp;Fırçalı-ANTxPATx2,0 (500 adet)</t>
+          <t>Classic Vein Cut - Mastic Dolgu &amp; Honlu - 2 cm Yarım Plaka</t>
         </is>
       </c>
       <c r="K10" s="21" t="inlineStr">
         <is>
-          <t>ANTxPATx2,0</t>
+          <t>SLABxSLABx2,0</t>
         </is>
       </c>
       <c r="L10" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>DN Mermer</t>
         </is>
       </c>
       <c r="M10" s="9" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N10" s="9" t="n">
         <v>0</v>
@@ -1251,138 +1219,113 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P10" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="n">
-        <v>2356</v>
-      </c>
+      <c r="P10" s="7" t="n"/>
+      <c r="Q10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-03-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D11" s="16" t="inlineStr">
-        <is>
-          <t>2024-03-14T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D11" s="22" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F11" s="16" t="inlineStr">
-        <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
+      <c r="F11" s="22" t="n"/>
       <c r="G11" s="21" t="inlineStr">
         <is>
-          <t>24FLOS57</t>
-        </is>
-      </c>
-      <c r="H11" s="16" t="inlineStr">
-        <is>
-          <t>24FLOS57</t>
-        </is>
-      </c>
+          <t>24RICZ01</t>
+        </is>
+      </c>
+      <c r="H11" s="22" t="n"/>
       <c r="I11" s="21" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J11" s="21" t="inlineStr">
         <is>
-          <t>3- (158) Traverten- Classic Light - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 1 Kasa - 38,66 sqm</t>
+          <t xml:space="preserve"> Classic Vein Cut - Mastic Dolgu &amp; Honlu- 3 cm Yarım Plaka</t>
         </is>
       </c>
       <c r="K11" s="21" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>SLABxSLABx3,0</t>
         </is>
       </c>
       <c r="L11" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>DN Mermer</t>
         </is>
       </c>
       <c r="M11" s="9" t="n">
-        <v>38.66</v>
+        <v>30</v>
       </c>
       <c r="N11" s="9" t="n">
-        <v>38.66</v>
+        <v>0</v>
       </c>
       <c r="O11" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P11" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="7" t="n">
-        <v>889.1799999999999</v>
-      </c>
+      <c r="P11" s="7" t="n"/>
+      <c r="Q11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-03-14T00:00:00.000Z</t>
+          <t>2024-06-06T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Emil, Riczy - Hungary</t>
         </is>
       </c>
       <c r="F12" s="22" t="n"/>
       <c r="G12" s="21" t="inlineStr">
         <is>
-          <t>24FLOS57</t>
+          <t>24RICZ01</t>
         </is>
       </c>
       <c r="H12" s="22" t="n"/>
       <c r="I12" s="21" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J12" s="21" t="inlineStr">
         <is>
-          <t>6- (16)  Traverten - Classic Light - Dolgulu Honlu 1 Uzun Kenarı Bulnozlu - 30,5 x 61 x 5 cm - 1 Kasa - 50 adet - 9,30 sqm</t>
+          <t>Classic Vein Cut - Dolgusuz &amp; Honlu - 30.5 x FREE (45-75 cm ARASI) x 1.2 cm</t>
         </is>
       </c>
       <c r="K12" s="21" t="inlineStr">
         <is>
-          <t>30,5x61,0x5,0</t>
+          <t>30,5x75,0x1,2</t>
         </is>
       </c>
       <c r="L12" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M12" s="9" t="n">
-        <v>9.300000000000001</v>
+        <v>100</v>
       </c>
       <c r="N12" s="9" t="n">
         <v>0</v>
@@ -1392,121 +1335,130 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P12" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="7" t="n">
-        <v>558</v>
-      </c>
+      <c r="P12" s="7" t="n"/>
+      <c r="Q12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-03-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D13" s="22" t="n"/>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D13" s="23" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F13" s="22" t="n"/>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
+      <c r="F13" s="23" t="n"/>
       <c r="G13" s="21" t="inlineStr">
         <is>
-          <t>24FLOS57</t>
-        </is>
-      </c>
-      <c r="H13" s="22" t="n"/>
+          <t>24RICZ01</t>
+        </is>
+      </c>
+      <c r="H13" s="23" t="n"/>
       <c r="I13" s="21" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="J13" s="21" t="inlineStr">
         <is>
-          <t>4- (170)  Travertine Tiles - Classic Light - Dolgulu Honlu - 40,6 x 61 x 1,2 cm - 3 Kasa - 480 Adet - 118,89 sqm</t>
+          <t>NUMUNE HAZIRLANACAK</t>
         </is>
       </c>
       <c r="K13" s="21" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>60,0x60,0x2,0</t>
         </is>
       </c>
       <c r="L13" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="M13" s="9" t="n">
-        <v>118.89</v>
+        <v>1</v>
       </c>
       <c r="N13" s="9" t="n">
-        <v>39.63</v>
+        <v>0</v>
       </c>
       <c r="O13" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P13" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="7" t="n">
-        <v>2853.36</v>
-      </c>
+      <c r="P13" s="7" t="n"/>
+      <c r="Q13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B14" s="20" t="inlineStr">
+        <is>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-03-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="n"/>
+          <t>2024-06-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>2024-06-05T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F14" s="22" t="n"/>
+          <t>Atu - Ghana</t>
+        </is>
+      </c>
+      <c r="F14" s="16" t="inlineStr">
+        <is>
+          <t>Atu - Ghana</t>
+        </is>
+      </c>
       <c r="G14" s="21" t="inlineStr">
         <is>
-          <t>24FLOS57</t>
-        </is>
-      </c>
-      <c r="H14" s="22" t="n"/>
+          <t>24ATU06</t>
+        </is>
+      </c>
+      <c r="H14" s="16" t="inlineStr">
+        <is>
+          <t>24ATU06</t>
+        </is>
+      </c>
       <c r="I14" s="21" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Perla</t>
         </is>
       </c>
       <c r="J14" s="21" t="inlineStr">
         <is>
-          <t>5- (65 - Classic Mix) Travertine Tiles - Mina Rustic - Dolgulu &amp; Fırçalı - 30,5 x 61 x 1,2 cm - 3 Kasa - 630 adet - 117,21 sqm</t>
+          <t>Perla (Beyaz Limestone) - Splitface - 10 x Free</t>
         </is>
       </c>
       <c r="K14" s="21" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>10,0xFreex2,5</t>
         </is>
       </c>
       <c r="L14" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Kent Mermer</t>
         </is>
       </c>
       <c r="M14" s="9" t="n">
-        <v>117.21</v>
+        <v>425</v>
       </c>
       <c r="N14" s="9" t="n">
         <v>0</v>
@@ -1516,12 +1468,8 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P14" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="7" t="n">
-        <v>1758.15</v>
-      </c>
+      <c r="P14" s="7" t="n"/>
+      <c r="Q14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1529,24 +1477,41 @@
           <t>Ozlem</t>
         </is>
       </c>
+      <c r="B15" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-03-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D15" s="22" t="n"/>
+          <t>2024-05-31T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-31T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F15" s="22" t="n"/>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
+      <c r="F15" s="16" t="inlineStr">
+        <is>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
       <c r="G15" s="21" t="inlineStr">
         <is>
-          <t>24FLOS57</t>
-        </is>
-      </c>
-      <c r="H15" s="22" t="n"/>
+          <t>24VEIK98</t>
+        </is>
+      </c>
+      <c r="H15" s="16" t="inlineStr">
+        <is>
+          <t>24VEIK98</t>
+        </is>
+      </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -1554,12 +1519,12 @@
       </c>
       <c r="J15" s="21" t="inlineStr">
         <is>
-          <t>10-  (155) Traverten - Silver Grey - 33 x 61 x 3 cm - Dolgusuz Eskitme 1 Uzun Kenarı Bulnozlu - 1 kasa - 67 adet - 13,49 sqm</t>
+          <t>Silver - Dolgulu Fırçalı Kenarı Kırık - Mini Pattern Set x 1.2 cm (19 Kasa)</t>
         </is>
       </c>
       <c r="K15" s="21" t="inlineStr">
         <is>
-          <t>33,0x61,0x3,0</t>
+          <t>MINIxPATx1,2</t>
         </is>
       </c>
       <c r="L15" s="21" t="inlineStr">
@@ -1568,22 +1533,18 @@
         </is>
       </c>
       <c r="M15" s="9" t="n">
-        <v>13.49</v>
+        <v>721.05</v>
       </c>
       <c r="N15" s="9" t="n">
-        <v>13.69</v>
+        <v>0</v>
       </c>
       <c r="O15" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P15" s="7" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="7" t="n">
-        <v>553.09</v>
-      </c>
+      <c r="P15" s="7" t="n"/>
+      <c r="Q15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1593,35 +1554,35 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-03-14T00:00:00.000Z</t>
+          <t>2024-05-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Veik - UAE</t>
         </is>
       </c>
       <c r="F16" s="22" t="n"/>
       <c r="G16" s="21" t="inlineStr">
         <is>
-          <t>24FLOS57</t>
+          <t>24VEIK98</t>
         </is>
       </c>
       <c r="H16" s="22" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="J16" s="21" t="inlineStr">
         <is>
-          <t>11-  (154) Traverten - Silver Rustic - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 2 Kasa - 77,32 sqm</t>
+          <t>Ela - Dolgulu Fırçalı - Mini Pattern Set x 1.2 cm (10 kasa)</t>
         </is>
       </c>
       <c r="K16" s="21" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>MINIxPATx1,2</t>
         </is>
       </c>
       <c r="L16" s="21" t="inlineStr">
@@ -1630,7 +1591,7 @@
         </is>
       </c>
       <c r="M16" s="9" t="n">
-        <v>77.31999999999999</v>
+        <v>379.5</v>
       </c>
       <c r="N16" s="9" t="n">
         <v>0</v>
@@ -1640,12 +1601,8 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P16" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v>2010.32</v>
-      </c>
+      <c r="P16" s="7" t="n"/>
+      <c r="Q16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1655,35 +1612,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-03-14T00:00:00.000Z</t>
+          <t>2024-05-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Veik - UAE</t>
         </is>
       </c>
       <c r="F17" s="22" t="n"/>
       <c r="G17" s="21" t="inlineStr">
         <is>
-          <t>24FLOS57</t>
+          <t>24VEIK98</t>
         </is>
       </c>
       <c r="H17" s="22" t="n"/>
       <c r="I17" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J17" s="21" t="inlineStr">
         <is>
-          <t>12-  (MTM) Traverten - Silver Grey - 40,6 x 61 x 1,2 cm - Dolgusuz Eskitme - 1 Kasa - 160 Adet - 39,63 sqm</t>
+          <t>Mina Rustic - Dolgusuz &amp; Fırçalı - 15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="K17" s="21" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="L17" s="21" t="inlineStr">
@@ -1692,22 +1649,18 @@
         </is>
       </c>
       <c r="M17" s="9" t="n">
-        <v>39.63</v>
+        <v>390.8</v>
       </c>
       <c r="N17" s="9" t="n">
-        <v>39.63</v>
+        <v>0</v>
       </c>
       <c r="O17" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P17" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>1426.68</v>
-      </c>
+      <c r="P17" s="7" t="n"/>
+      <c r="Q17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1717,35 +1670,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-03-14T00:00:00.000Z</t>
+          <t>2024-05-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D18" s="23" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Veik - UAE</t>
         </is>
       </c>
       <c r="F18" s="23" t="n"/>
       <c r="G18" s="21" t="inlineStr">
         <is>
-          <t>24FLOS57</t>
+          <t>24VEIK98</t>
         </is>
       </c>
       <c r="H18" s="23" t="n"/>
       <c r="I18" s="21" t="inlineStr">
         <is>
-          <t>Walnut Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J18" s="21" t="inlineStr">
         <is>
-          <t>2- (87 - Antique French Pattern) Traverten - Walnut Rustic - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 1 Kasa - 38,66 sqm</t>
+          <t>Silver Grey - Dolgusuz &amp; Fırçalı - 15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="K18" s="21" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="L18" s="21" t="inlineStr">
@@ -1754,7 +1707,7 @@
         </is>
       </c>
       <c r="M18" s="9" t="n">
-        <v>38.66</v>
+        <v>468.96</v>
       </c>
       <c r="N18" s="9" t="n">
         <v>0</v>
@@ -1764,68 +1717,63 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P18" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>618.5599999999999</v>
-      </c>
+      <c r="P18" s="7" t="n"/>
+      <c r="Q18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-02-27T00:00:00.000Z</t>
+          <t>2024-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D19" s="16" t="inlineStr">
         <is>
-          <t>2024-02-27T00:00:00.000Z</t>
+          <t>2024-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Edris Maden - Turkey</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="F19" s="16" t="inlineStr">
         <is>
-          <t>Edris Maden - Turkey</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="G19" s="21" t="inlineStr">
         <is>
-          <t>24EDRS01</t>
+          <t>24FLOS59</t>
         </is>
       </c>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>24EDRS01</t>
+          <t>24FLOS59</t>
         </is>
       </c>
       <c r="I19" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Traverten Fayans - Classic Vein Cut - Kalibreli &amp; Ham - 30 x 30-40-45-55 x 1.2 cm
-</t>
+          <t>1- (112 - Nimbus) - Silver Grey - Dolgulu Eskitme - 40,6 x 61 x 1,2 cm - 1 kasa - 39,63 sqm - 160 adet</t>
         </is>
       </c>
       <c r="K19" s="21" t="inlineStr">
         <is>
-          <t>30,0xFreex1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L19" s="21" t="inlineStr">
@@ -1834,143 +1782,101 @@
         </is>
       </c>
       <c r="M19" s="9" t="n">
-        <v>1150</v>
+        <v>39.63</v>
       </c>
       <c r="N19" s="9" t="n">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="O19" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P19" s="7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Q19" s="7" t="n">
-        <v>15525</v>
-      </c>
+      <c r="P19" s="7" t="n"/>
+      <c r="Q19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-02-26T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D20" s="16" t="inlineStr">
-        <is>
-          <t>2024-02-26T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D20" s="22" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Dilamar Mermer</t>
-        </is>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>Dilamar Mermer</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F20" s="22" t="n"/>
       <c r="G20" s="21" t="inlineStr">
         <is>
-          <t>23DLM21</t>
-        </is>
-      </c>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>23DLM21</t>
-        </is>
-      </c>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H20" s="22" t="n"/>
       <c r="I20" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="J20" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Silver Grey - Dolgulu&amp;Honlu- 30,5X30,5X1,2 (215 Adet)</t>
+          <t>2- (34 - Clara) Golden Ink - Dolgusuz Eskitme 1 Uzun Kenarı Bulnozlu - 33 x 61 x 3 cm - 66 LI 4 KASA - 264 adet - 53,14 sqm</t>
         </is>
       </c>
       <c r="K20" s="21" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,2</t>
+          <t>33,0x61,0x3,0</t>
         </is>
       </c>
       <c r="L20" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M20" s="9" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="N20" s="9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O20" s="21" t="inlineStr">
         <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P20" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="7" t="n">
-        <v>380</v>
-      </c>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P20" s="7" t="n"/>
+      <c r="Q20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-02-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D21" s="16" t="inlineStr">
-        <is>
-          <t>2024-02-20T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D21" s="22" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Aurelien Jeudy - Dominican</t>
-        </is>
-      </c>
-      <c r="F21" s="16" t="inlineStr">
-        <is>
-          <t>Aurelien Jeudy - Dominican</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F21" s="22" t="n"/>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>24KIMI01</t>
-        </is>
-      </c>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>24KIMI01</t>
-        </is>
-      </c>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H21" s="22" t="n"/>
       <c r="I21" s="21" t="inlineStr">
         <is>
           <t>Classic Light</t>
@@ -1978,91 +1884,70 @@
       </c>
       <c r="J21" s="21" t="inlineStr">
         <is>
-          <t>Classic Light 1. kalite - dolgulu fırçalı düz kenar - 40,6X61,0X1,2 - 911,49 m2 - 3680 adet</t>
+          <t>3- (14 - Stella) Classic - Dolgusuz Honlu Eskitme 1 Uzun Kenarı Bulnozlu - 33 x 61 x 3 cm - 66 LI 2 KASA - 132 Adet - 26,57 sqm</t>
         </is>
       </c>
       <c r="K21" s="21" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>33,0x61,0x3,0</t>
         </is>
       </c>
       <c r="L21" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M21" s="9" t="n">
-        <v>911.49</v>
+        <v>132</v>
       </c>
       <c r="N21" s="9" t="n">
-        <v>871.86</v>
+        <v>0</v>
       </c>
       <c r="O21" s="21" t="inlineStr">
         <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P21" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="n">
-        <v>17318.31</v>
-      </c>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P21" s="7" t="n"/>
+      <c r="Q21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B22" s="20" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-02-19T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
-        <is>
-          <t>2024-02-19T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F22" s="22" t="n"/>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>24BYN60</t>
-        </is>
-      </c>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>24BYN60</t>
-        </is>
-      </c>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H22" s="22" t="n"/>
       <c r="I22" s="21" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J22" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic - Dolgulu&amp;Fırçalı&amp;Kenarı Kırık - ANTXPATX1,2</t>
+          <t>4- (SILL22) Classic - Dolgulu Honlu 2 Uzun Kenarı 2 mm Pahlı Alın Dolgulu Honlu- 22 x 150 x 2 cm - 100 LÜ 2 KASA - 200 Adet - 66 sqm</t>
         </is>
       </c>
       <c r="K22" s="21" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>22,0x150,0x2,0</t>
         </is>
       </c>
       <c r="L22" s="21" t="inlineStr">
@@ -2071,62 +1956,56 @@
         </is>
       </c>
       <c r="M22" s="9" t="n">
-        <v>773.2</v>
+        <v>200</v>
       </c>
       <c r="N22" s="9" t="n">
-        <v>773.2</v>
+        <v>0</v>
       </c>
       <c r="O22" s="21" t="inlineStr">
         <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P22" s="7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q22" s="7" t="n">
-        <v>5799</v>
-      </c>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P22" s="7" t="n"/>
+      <c r="Q22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-02-19T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D23" s="23" t="n"/>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D23" s="22" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
-      <c r="F23" s="23" t="n"/>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F23" s="22" t="n"/>
       <c r="G23" s="21" t="inlineStr">
         <is>
-          <t>24BYN60</t>
-        </is>
-      </c>
-      <c r="H23" s="23" t="n"/>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H23" s="22" t="n"/>
       <c r="I23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Fırçalı-20,3x61,0x1,2 (Kutulu euro palet paketli şekilde olacaktır, Kutu içi 4 adet bir palette 
-84 kutu olacak kutu ve paletler beyzanurdan gelecek.)
-</t>
+          <t>5- (SILL150) Classic - Dolgulu Honlu 2 Uzun Kenarı 2 mm Pahlı Alın Dolgulu Honlu - 27 x 150 x 2 cm - 66 LI 4 KASA - 264 Adet - 106,92 sqm</t>
         </is>
       </c>
       <c r="K23" s="21" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>27,0x150,0x2,0</t>
         </is>
       </c>
       <c r="L23" s="21" t="inlineStr">
@@ -2135,72 +2014,51 @@
         </is>
       </c>
       <c r="M23" s="9" t="n">
-        <v>873.6</v>
+        <v>264</v>
       </c>
       <c r="N23" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O23" s="21" t="inlineStr">
         <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P23" s="7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q23" s="7" t="n">
-        <v>6552</v>
-      </c>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P23" s="7" t="n"/>
+      <c r="Q23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-02-09T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D24" s="16" t="inlineStr">
-        <is>
-          <t>2024-02-09T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D24" s="22" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
-      <c r="F24" s="16" t="inlineStr">
-        <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F24" s="22" t="n"/>
       <c r="G24" s="21" t="inlineStr">
         <is>
-          <t>24SU117</t>
-        </is>
-      </c>
-      <c r="H24" s="16" t="inlineStr">
-        <is>
-          <t>24SU117</t>
-        </is>
-      </c>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H24" s="22" t="n"/>
       <c r="I24" s="21" t="inlineStr">
         <is>
-          <t>Walnut Com</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J24" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Walnut Com - Dolgulu&amp;Honlu - 30,5X61,0X1,2</t>
+          <t>6- (65 - Classic Mix) Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm - 210lu 7 Kasa - 1470 adet - 273,49 sqm</t>
         </is>
       </c>
       <c r="K24" s="21" t="inlineStr">
@@ -2214,22 +2072,18 @@
         </is>
       </c>
       <c r="M24" s="9" t="n">
-        <v>156.28</v>
+        <v>273.49</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>156.28</v>
+        <v>0</v>
       </c>
       <c r="O24" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P24" s="7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Q24" s="7" t="n">
-        <v>2109.78</v>
-      </c>
+      <c r="P24" s="7" t="n"/>
+      <c r="Q24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2237,49 +2091,32 @@
           <t>Ozlem</t>
         </is>
       </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D25" s="16" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D25" s="23" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F25" s="16" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F25" s="23" t="n"/>
       <c r="G25" s="21" t="inlineStr">
         <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H25" s="16" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H25" s="23" t="n"/>
       <c r="I25" s="21" t="inlineStr">
         <is>
-          <t>Pablo Cross Cut</t>
+          <t>Walnut Rustic</t>
         </is>
       </c>
       <c r="J25" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Pablo Cross Cut - Dolgulu&amp;Fırçalı&amp;Düz Kenar - 40,6X61,0X1,2 (1616 Adet)</t>
+          <t>7- (105- Antique Cross Cut) Walnut Rustic - Dolgusuz Eskitme - 40,6 x 61 x 1,2 cm - 160lı 5 Kasa - 800 Adet - 198,15 sqm</t>
         </is>
       </c>
       <c r="K25" s="21" t="inlineStr">
@@ -2289,26 +2126,22 @@
       </c>
       <c r="L25" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Sorkun</t>
         </is>
       </c>
       <c r="M25" s="9" t="n">
-        <v>401.2</v>
+        <v>198.15</v>
       </c>
       <c r="N25" s="9" t="n">
-        <v>401.2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P25" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="7" t="n">
-        <v>12036</v>
-      </c>
+      <c r="P25" s="7" t="n"/>
+      <c r="Q25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2323,56 +2156,56 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
+          <t>2024-05-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D26" s="16" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
+          <t>2024-05-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Osman Avukat - Ghana</t>
         </is>
       </c>
       <c r="F26" s="16" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Osman Avukat - Ghana</t>
         </is>
       </c>
       <c r="G26" s="21" t="inlineStr">
         <is>
-          <t>Aston Loft-7</t>
+          <t>24AVKO01</t>
         </is>
       </c>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>Aston Loft-7</t>
+          <t>24AVKO01</t>
         </is>
       </c>
       <c r="I26" s="21" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J26" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Silver Rustic - Dolgulu&amp;Cilalı - 40,6X61,0X1,2</t>
+          <t>Marble Tiles-Diana Royal-Cilalı-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K26" s="21" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L26" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M26" s="9" t="n">
-        <v>600</v>
+        <v>35</v>
       </c>
       <c r="N26" s="9" t="n">
         <v>0</v>
@@ -2382,12 +2215,8 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P26" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="7" t="n">
-        <v>12600</v>
-      </c>
+      <c r="P26" s="7" t="n"/>
+      <c r="Q26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2397,44 +2226,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
+          <t>2024-05-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Osman Avukat - Ghana</t>
         </is>
       </c>
       <c r="F27" s="22" t="n"/>
       <c r="G27" s="21" t="inlineStr">
         <is>
-          <t>Aston Loft-7</t>
+          <t>24AVKO01</t>
         </is>
       </c>
       <c r="H27" s="22" t="n"/>
       <c r="I27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="J27" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Honlu - 30,5x61,0x1,2 ( 16141 Adet)</t>
+          <t>Marble Tiles-Bianco Ibiza White-Cilalı-30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="K27" s="21" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="L27" s="21" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M27" s="9" t="n">
-        <v>1945</v>
+        <v>50</v>
       </c>
       <c r="N27" s="9" t="n">
         <v>0</v>
@@ -2444,12 +2273,8 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="P27" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="7" t="n">
-        <v>33065</v>
-      </c>
+      <c r="P27" s="7" t="n"/>
+      <c r="Q27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2459,35 +2284,35 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
+          <t>2024-05-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D28" s="23" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Osman Avukat - Ghana</t>
         </is>
       </c>
       <c r="F28" s="23" t="n"/>
       <c r="G28" s="21" t="inlineStr">
         <is>
-          <t>Aston Loft-7</t>
+          <t>24AVKO01</t>
         </is>
       </c>
       <c r="H28" s="23" t="n"/>
       <c r="I28" s="21" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J28" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Honlu - 15,25x30,5x1,2</t>
+          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Cilalı-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K28" s="21" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L28" s="21" t="inlineStr">
@@ -2496,884 +2321,3344 @@
         </is>
       </c>
       <c r="M28" s="9" t="n">
-        <v>620.55</v>
+        <v>95</v>
       </c>
       <c r="N28" s="9" t="n">
-        <v>77.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="O28" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P28" s="7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Q28" s="7" t="n">
-        <v>9618.52</v>
-      </c>
+      <c r="P28" s="7" t="n"/>
+      <c r="Q28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="D29" s="21" t="n"/>
-      <c r="E29" s="21" t="n"/>
-      <c r="F29" s="21" t="n"/>
-      <c r="G29" s="21" t="n"/>
-      <c r="H29" s="21" t="n"/>
-      <c r="I29" s="21" t="n"/>
-      <c r="J29" s="21" t="n"/>
-      <c r="K29" s="21" t="n"/>
-      <c r="L29" s="21" t="n"/>
-      <c r="M29" s="9" t="n"/>
-      <c r="N29" s="9" t="n"/>
-      <c r="O29" s="21" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B29" s="20" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D29" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>Ashraf Dawood - Dubai</t>
+        </is>
+      </c>
+      <c r="F29" s="16" t="inlineStr">
+        <is>
+          <t>Ashraf Dawood - Dubai</t>
+        </is>
+      </c>
+      <c r="G29" s="21" t="inlineStr">
+        <is>
+          <t>24MOHAJ01</t>
+        </is>
+      </c>
+      <c r="H29" s="16" t="inlineStr">
+        <is>
+          <t>24MOHAJ01</t>
+        </is>
+      </c>
+      <c r="I29" s="21" t="inlineStr">
+        <is>
+          <t>North Blue 1</t>
+        </is>
+      </c>
+      <c r="J29" s="21" t="inlineStr">
+        <is>
+          <t>North Blue 1 - Cilalı plaka - SLABxSLABx2,0 - 75,72 m2 - 16 adet  - 9944</t>
+        </is>
+      </c>
+      <c r="K29" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L29" s="21" t="inlineStr">
+        <is>
+          <t>Şahinmer</t>
+        </is>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="N29" s="9" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="O29" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P29" s="7" t="n"/>
       <c r="Q29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="D30" s="21" t="n"/>
-      <c r="E30" s="21" t="n"/>
-      <c r="F30" s="21" t="n"/>
-      <c r="G30" s="21" t="n"/>
-      <c r="H30" s="21" t="n"/>
-      <c r="I30" s="21" t="n"/>
-      <c r="J30" s="21" t="n"/>
-      <c r="K30" s="21" t="n"/>
-      <c r="L30" s="21" t="n"/>
-      <c r="M30" s="9" t="n"/>
-      <c r="N30" s="9" t="n"/>
-      <c r="O30" s="21" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>Ashraf Dawood - Dubai</t>
+        </is>
+      </c>
+      <c r="F30" s="22" t="n"/>
+      <c r="G30" s="21" t="inlineStr">
+        <is>
+          <t>24MOHAJ01</t>
+        </is>
+      </c>
+      <c r="H30" s="22" t="n"/>
+      <c r="I30" s="21" t="inlineStr">
+        <is>
+          <t>North Blue 2</t>
+        </is>
+      </c>
+      <c r="J30" s="21" t="inlineStr">
+        <is>
+          <t>North Blue 2 - Cilalı plaka - SLABxSLABx2,0 - 50,46 m2 - 11 adet  - 9943</t>
+        </is>
+      </c>
+      <c r="K30" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L30" s="21" t="inlineStr">
+        <is>
+          <t>Şahinmer</t>
+        </is>
+      </c>
+      <c r="M30" s="9" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="N30" s="9" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="O30" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P30" s="7" t="n"/>
       <c r="Q30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="D31" s="21" t="n"/>
-      <c r="E31" s="21" t="n"/>
-      <c r="F31" s="21" t="n"/>
-      <c r="G31" s="21" t="n"/>
-      <c r="H31" s="21" t="n"/>
-      <c r="I31" s="21" t="n"/>
-      <c r="J31" s="21" t="n"/>
-      <c r="K31" s="21" t="n"/>
-      <c r="L31" s="21" t="n"/>
-      <c r="M31" s="9" t="n"/>
-      <c r="N31" s="9" t="n"/>
-      <c r="O31" s="21" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D31" s="22" t="n"/>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>Ashraf Dawood - Dubai</t>
+        </is>
+      </c>
+      <c r="F31" s="22" t="n"/>
+      <c r="G31" s="21" t="inlineStr">
+        <is>
+          <t>24MOHAJ01</t>
+        </is>
+      </c>
+      <c r="H31" s="22" t="n"/>
+      <c r="I31" s="21" t="inlineStr">
+        <is>
+          <t>Ice Grey</t>
+        </is>
+      </c>
+      <c r="J31" s="21" t="inlineStr">
+        <is>
+          <t>Ice Grey - cilalı plaka - SLABxSLABx2,0 - 200,54 m2 - 49 adet</t>
+        </is>
+      </c>
+      <c r="K31" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L31" s="21" t="inlineStr">
+        <is>
+          <t>Şahinmer</t>
+        </is>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>200.54</v>
+      </c>
+      <c r="N31" s="9" t="n">
+        <v>141.39</v>
+      </c>
+      <c r="O31" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P31" s="7" t="n"/>
       <c r="Q31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="D32" s="21" t="n"/>
-      <c r="E32" s="21" t="n"/>
-      <c r="F32" s="21" t="n"/>
-      <c r="G32" s="21" t="n"/>
-      <c r="H32" s="21" t="n"/>
-      <c r="I32" s="21" t="n"/>
-      <c r="J32" s="21" t="n"/>
-      <c r="K32" s="21" t="n"/>
-      <c r="L32" s="21" t="n"/>
-      <c r="M32" s="9" t="n"/>
-      <c r="N32" s="9" t="n"/>
-      <c r="O32" s="21" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D32" s="23" t="n"/>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>Ashraf Dawood - Dubai</t>
+        </is>
+      </c>
+      <c r="F32" s="23" t="n"/>
+      <c r="G32" s="21" t="inlineStr">
+        <is>
+          <t>24MOHAJ01</t>
+        </is>
+      </c>
+      <c r="H32" s="23" t="n"/>
+      <c r="I32" s="21" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="J32" s="21" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut traverten - Ham - 2 cm plaka - 90,01 m2 - 29 adet</t>
+        </is>
+      </c>
+      <c r="K32" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L32" s="21" t="inlineStr">
+        <is>
+          <t>Şahinmer</t>
+        </is>
+      </c>
+      <c r="M32" s="9" t="n">
+        <v>90.01000000000001</v>
+      </c>
+      <c r="N32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P32" s="7" t="n"/>
       <c r="Q32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="D33" s="21" t="n"/>
-      <c r="E33" s="21" t="n"/>
-      <c r="F33" s="21" t="n"/>
-      <c r="G33" s="21" t="n"/>
-      <c r="H33" s="21" t="n"/>
-      <c r="I33" s="21" t="n"/>
-      <c r="J33" s="21" t="n"/>
-      <c r="K33" s="21" t="n"/>
-      <c r="L33" s="21" t="n"/>
-      <c r="M33" s="9" t="n"/>
-      <c r="N33" s="9" t="n"/>
-      <c r="O33" s="21" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B33" s="20" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>Calum McCarthy - Virgin</t>
+        </is>
+      </c>
+      <c r="F33" s="16" t="inlineStr">
+        <is>
+          <t>Calum McCarthy - Virgin</t>
+        </is>
+      </c>
+      <c r="G33" s="21" t="inlineStr">
+        <is>
+          <t>24EMCS01</t>
+        </is>
+      </c>
+      <c r="H33" s="16" t="inlineStr">
+        <is>
+          <t>24EMCS01</t>
+        </is>
+      </c>
+      <c r="I33" s="21" t="inlineStr">
+        <is>
+          <t>Classic Limestone</t>
+        </is>
+      </c>
+      <c r="J33" s="21" t="inlineStr">
+        <is>
+          <t>Classic limestone - Fırçalı - 60,0x120.0x2,0 cm - 744,48 m2 - 1034 adet</t>
+        </is>
+      </c>
+      <c r="K33" s="21" t="inlineStr">
+        <is>
+          <t>60,0x120,0x2,0</t>
+        </is>
+      </c>
+      <c r="L33" s="21" t="inlineStr">
+        <is>
+          <t>Ece Mermer</t>
+        </is>
+      </c>
+      <c r="M33" s="9" t="n">
+        <v>744.48</v>
+      </c>
+      <c r="N33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P33" s="7" t="n"/>
       <c r="Q33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="D34" s="21" t="n"/>
-      <c r="E34" s="21" t="n"/>
-      <c r="F34" s="21" t="n"/>
-      <c r="G34" s="21" t="n"/>
-      <c r="H34" s="21" t="n"/>
-      <c r="I34" s="21" t="n"/>
-      <c r="J34" s="21" t="n"/>
-      <c r="K34" s="21" t="n"/>
-      <c r="L34" s="21" t="n"/>
-      <c r="M34" s="9" t="n"/>
-      <c r="N34" s="9" t="n"/>
-      <c r="O34" s="21" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D34" s="23" t="n"/>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>Calum McCarthy - Virgin</t>
+        </is>
+      </c>
+      <c r="F34" s="23" t="n"/>
+      <c r="G34" s="21" t="inlineStr">
+        <is>
+          <t>24EMCS01</t>
+        </is>
+      </c>
+      <c r="H34" s="23" t="n"/>
+      <c r="I34" s="21" t="inlineStr">
+        <is>
+          <t>Classic Limestone</t>
+        </is>
+      </c>
+      <c r="J34" s="21" t="inlineStr">
+        <is>
+          <t>Classic Limestone - Derin fırçalı - 60,0x120,0x2,0 - 744,48 m2 - 1034 adet</t>
+        </is>
+      </c>
+      <c r="K34" s="21" t="inlineStr">
+        <is>
+          <t>60,0x120,0x2,0</t>
+        </is>
+      </c>
+      <c r="L34" s="21" t="inlineStr">
+        <is>
+          <t>Ece Mermer</t>
+        </is>
+      </c>
+      <c r="M34" s="9" t="n">
+        <v>744.48</v>
+      </c>
+      <c r="N34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P34" s="7" t="n"/>
       <c r="Q34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="D35" s="21" t="n"/>
-      <c r="E35" s="21" t="n"/>
-      <c r="F35" s="21" t="n"/>
-      <c r="G35" s="21" t="n"/>
-      <c r="H35" s="21" t="n"/>
-      <c r="I35" s="21" t="n"/>
-      <c r="J35" s="21" t="n"/>
-      <c r="K35" s="21" t="n"/>
-      <c r="L35" s="21" t="n"/>
-      <c r="M35" s="9" t="n"/>
-      <c r="N35" s="9" t="n"/>
-      <c r="O35" s="21" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B35" s="20" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="G35" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H35" s="16" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="I35" s="21" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J35" s="21" t="inlineStr">
+        <is>
+          <t>Silver Pattern Set - Dolgulu Fırçalı Kenarı Kırık - 1.2 cm Pat. Set - 704 Set - 0.74 m2 kutu - 520.22 m2</t>
+        </is>
+      </c>
+      <c r="K35" s="21" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="L35" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M35" s="9" t="n">
+        <v>520.22</v>
+      </c>
+      <c r="N35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P35" s="7" t="n"/>
       <c r="Q35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="D36" s="21" t="n"/>
-      <c r="E36" s="21" t="n"/>
-      <c r="F36" s="21" t="n"/>
-      <c r="G36" s="21" t="n"/>
-      <c r="H36" s="21" t="n"/>
-      <c r="I36" s="21" t="n"/>
-      <c r="J36" s="21" t="n"/>
-      <c r="K36" s="21" t="n"/>
-      <c r="L36" s="21" t="n"/>
-      <c r="M36" s="9" t="n"/>
-      <c r="N36" s="9" t="n"/>
-      <c r="O36" s="21" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="n"/>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F36" s="22" t="n"/>
+      <c r="G36" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H36" s="22" t="n"/>
+      <c r="I36" s="21" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J36" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Silver Travertine - Dolgulu Honlu - 100x100x2 cm </t>
+        </is>
+      </c>
+      <c r="K36" s="21" t="inlineStr">
+        <is>
+          <t>100,0x100,0x2,0</t>
+        </is>
+      </c>
+      <c r="L36" s="21" t="inlineStr">
+        <is>
+          <t>Ayarlanmadi</t>
+        </is>
+      </c>
+      <c r="M36" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="N36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P36" s="7" t="n"/>
       <c r="Q36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="D37" s="21" t="n"/>
-      <c r="E37" s="21" t="n"/>
-      <c r="F37" s="21" t="n"/>
-      <c r="G37" s="21" t="n"/>
-      <c r="H37" s="21" t="n"/>
-      <c r="I37" s="21" t="n"/>
-      <c r="J37" s="21" t="n"/>
-      <c r="K37" s="21" t="n"/>
-      <c r="L37" s="21" t="n"/>
-      <c r="M37" s="9" t="n"/>
-      <c r="N37" s="9" t="n"/>
-      <c r="O37" s="21" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F37" s="22" t="n"/>
+      <c r="G37" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H37" s="22" t="n"/>
+      <c r="I37" s="21" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J37" s="21" t="inlineStr">
+        <is>
+          <t>Silver Traverten Basamak -  35 x 100 x 3 - Dolgulu Honlu 1 Uzun Kenar ince Pah ve Led Kanallı!</t>
+        </is>
+      </c>
+      <c r="K37" s="21" t="inlineStr">
+        <is>
+          <t>35,0x100,0x3,0</t>
+        </is>
+      </c>
+      <c r="L37" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M37" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="P37" s="7" t="n"/>
       <c r="Q37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="21" t="n"/>
-      <c r="E38" s="21" t="n"/>
-      <c r="F38" s="21" t="n"/>
-      <c r="G38" s="21" t="n"/>
-      <c r="H38" s="21" t="n"/>
-      <c r="I38" s="21" t="n"/>
-      <c r="J38" s="21" t="n"/>
-      <c r="K38" s="21" t="n"/>
-      <c r="L38" s="21" t="n"/>
-      <c r="M38" s="9" t="n"/>
-      <c r="N38" s="9" t="n"/>
-      <c r="O38" s="21" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D38" s="22" t="n"/>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F38" s="22" t="n"/>
+      <c r="G38" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H38" s="22" t="n"/>
+      <c r="I38" s="21" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J38" s="21" t="inlineStr">
+        <is>
+          <t>Silver Rıht - 17.5 x 100 x 2 cm Dolgulu Honlu İnce Pah Kenar</t>
+        </is>
+      </c>
+      <c r="K38" s="21" t="inlineStr">
+        <is>
+          <t>17,5x100,0x2,0</t>
+        </is>
+      </c>
+      <c r="L38" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M38" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="P38" s="7" t="n"/>
       <c r="Q38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="21" t="n"/>
-      <c r="E39" s="21" t="n"/>
-      <c r="F39" s="21" t="n"/>
-      <c r="G39" s="21" t="n"/>
-      <c r="H39" s="21" t="n"/>
-      <c r="I39" s="21" t="n"/>
-      <c r="J39" s="21" t="n"/>
-      <c r="K39" s="21" t="n"/>
-      <c r="L39" s="21" t="n"/>
-      <c r="M39" s="9" t="n"/>
-      <c r="N39" s="9" t="n"/>
-      <c r="O39" s="21" t="n"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D39" s="22" t="n"/>
+      <c r="E39" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F39" s="22" t="n"/>
+      <c r="G39" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H39" s="22" t="n"/>
+      <c r="I39" s="21" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="J39" s="21" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut Dolgulu Honlu 2 cm Plaka</t>
+        </is>
+      </c>
+      <c r="K39" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L39" s="21" t="inlineStr">
+        <is>
+          <t>Ayarlanmadi</t>
+        </is>
+      </c>
+      <c r="M39" s="9" t="n">
+        <v>161.12</v>
+      </c>
+      <c r="N39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P39" s="7" t="n"/>
       <c r="Q39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="21" t="n"/>
-      <c r="E40" s="21" t="n"/>
-      <c r="F40" s="21" t="n"/>
-      <c r="G40" s="21" t="n"/>
-      <c r="H40" s="21" t="n"/>
-      <c r="I40" s="21" t="n"/>
-      <c r="J40" s="21" t="n"/>
-      <c r="K40" s="21" t="n"/>
-      <c r="L40" s="21" t="n"/>
-      <c r="M40" s="9" t="n"/>
-      <c r="N40" s="9" t="n"/>
-      <c r="O40" s="21" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="n"/>
+      <c r="E40" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F40" s="22" t="n"/>
+      <c r="G40" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H40" s="22" t="n"/>
+      <c r="I40" s="21" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J40" s="21" t="inlineStr">
+        <is>
+          <t>Silver Traverten Coping 30.5x61x3 cm Dolgulu Honlu - 1 Uzun Kenar  Full Bullnose</t>
+        </is>
+      </c>
+      <c r="K40" s="21" t="inlineStr">
+        <is>
+          <t>30,5x61,0x3,0</t>
+        </is>
+      </c>
+      <c r="L40" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M40" s="9" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="N40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="P40" s="7" t="n"/>
       <c r="Q40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
-      <c r="F41" s="21" t="n"/>
-      <c r="G41" s="21" t="n"/>
-      <c r="H41" s="21" t="n"/>
-      <c r="I41" s="21" t="n"/>
-      <c r="J41" s="21" t="n"/>
-      <c r="K41" s="21" t="n"/>
-      <c r="L41" s="21" t="n"/>
-      <c r="M41" s="9" t="n"/>
-      <c r="N41" s="9" t="n"/>
-      <c r="O41" s="21" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D41" s="22" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F41" s="22" t="n"/>
+      <c r="G41" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H41" s="22" t="n"/>
+      <c r="I41" s="21" t="inlineStr">
+        <is>
+          <t>Crystal White</t>
+        </is>
+      </c>
+      <c r="J41" s="21" t="inlineStr">
+        <is>
+          <t>Crystal White - Cilalı - 100,0x100,0x2,0 cm</t>
+        </is>
+      </c>
+      <c r="K41" s="21" t="inlineStr">
+        <is>
+          <t>100,0x100,0x2,0</t>
+        </is>
+      </c>
+      <c r="L41" s="21" t="inlineStr">
+        <is>
+          <t>Kommersan</t>
+        </is>
+      </c>
+      <c r="M41" s="9" t="n">
+        <v>335</v>
+      </c>
+      <c r="N41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P41" s="7" t="n"/>
       <c r="Q41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="21" t="n"/>
-      <c r="E42" s="21" t="n"/>
-      <c r="F42" s="21" t="n"/>
-      <c r="G42" s="21" t="n"/>
-      <c r="H42" s="21" t="n"/>
-      <c r="I42" s="21" t="n"/>
-      <c r="J42" s="21" t="n"/>
-      <c r="K42" s="21" t="n"/>
-      <c r="L42" s="21" t="n"/>
-      <c r="M42" s="9" t="n"/>
-      <c r="N42" s="9" t="n"/>
-      <c r="O42" s="21" t="n"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D42" s="22" t="n"/>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F42" s="22" t="n"/>
+      <c r="G42" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H42" s="22" t="n"/>
+      <c r="I42" s="21" t="inlineStr">
+        <is>
+          <t>Crystal White</t>
+        </is>
+      </c>
+      <c r="J42" s="21" t="inlineStr">
+        <is>
+          <t>Crystal White baseboard - cilalı &amp; bullnose - 20,0x100,0x2,0</t>
+        </is>
+      </c>
+      <c r="K42" s="21" t="inlineStr">
+        <is>
+          <t>20,0x100,0x2,0</t>
+        </is>
+      </c>
+      <c r="L42" s="21" t="inlineStr">
+        <is>
+          <t>Ayarlanmadi</t>
+        </is>
+      </c>
+      <c r="M42" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="N42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="P42" s="7" t="n"/>
       <c r="Q42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
-      <c r="F43" s="21" t="n"/>
-      <c r="G43" s="21" t="n"/>
-      <c r="H43" s="21" t="n"/>
-      <c r="I43" s="21" t="n"/>
-      <c r="J43" s="21" t="n"/>
-      <c r="K43" s="21" t="n"/>
-      <c r="L43" s="21" t="n"/>
-      <c r="M43" s="9" t="n"/>
-      <c r="N43" s="9" t="n"/>
-      <c r="O43" s="21" t="n"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D43" s="22" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F43" s="22" t="n"/>
+      <c r="G43" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H43" s="22" t="n"/>
+      <c r="I43" s="21" t="inlineStr">
+        <is>
+          <t>Crystal White</t>
+        </is>
+      </c>
+      <c r="J43" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal White Plaka -  2 cm - Cilalı </t>
+        </is>
+      </c>
+      <c r="K43" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L43" s="21" t="inlineStr">
+        <is>
+          <t>Kommersan</t>
+        </is>
+      </c>
+      <c r="M43" s="9" t="n">
+        <v>160</v>
+      </c>
+      <c r="N43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P43" s="7" t="n"/>
       <c r="Q43" s="7" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
-      <c r="F44" s="21" t="n"/>
-      <c r="G44" s="21" t="n"/>
-      <c r="H44" s="21" t="n"/>
-      <c r="I44" s="21" t="n"/>
-      <c r="J44" s="21" t="n"/>
-      <c r="K44" s="21" t="n"/>
-      <c r="L44" s="21" t="n"/>
-      <c r="M44" s="9" t="n"/>
-      <c r="N44" s="9" t="n"/>
-      <c r="O44" s="21" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F44" s="22" t="n"/>
+      <c r="G44" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H44" s="22" t="n"/>
+      <c r="I44" s="21" t="inlineStr">
+        <is>
+          <t>Crystal White</t>
+        </is>
+      </c>
+      <c r="J44" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal White Mozaik -  7.5x15 cm Mesh Üstünde - Honlu - DM-075-0201 Kodlu - 215 adet - 0.093 m2 each </t>
+        </is>
+      </c>
+      <c r="K44" s="21" t="inlineStr">
+        <is>
+          <t>7,5x15,0x2,0</t>
+        </is>
+      </c>
+      <c r="L44" s="21" t="inlineStr">
+        <is>
+          <t>Denmar</t>
+        </is>
+      </c>
+      <c r="M44" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P44" s="7" t="n"/>
       <c r="Q44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
-      <c r="F45" s="21" t="n"/>
-      <c r="G45" s="21" t="n"/>
-      <c r="H45" s="21" t="n"/>
-      <c r="I45" s="21" t="n"/>
-      <c r="J45" s="21" t="n"/>
-      <c r="K45" s="21" t="n"/>
-      <c r="L45" s="21" t="n"/>
-      <c r="M45" s="9" t="n"/>
-      <c r="N45" s="9" t="n"/>
-      <c r="O45" s="21" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F45" s="22" t="n"/>
+      <c r="G45" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H45" s="22" t="n"/>
+      <c r="I45" s="21" t="inlineStr">
+        <is>
+          <t>Calacatta Erin</t>
+        </is>
+      </c>
+      <c r="J45" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monza Quartz (Calacatta Erin) - Plaka 2 cm - Cilalı </t>
+        </is>
+      </c>
+      <c r="K45" s="21" t="inlineStr">
+        <is>
+          <t>164,0x330,0x2,0</t>
+        </is>
+      </c>
+      <c r="L45" s="21" t="inlineStr">
+        <is>
+          <t>Coante</t>
+        </is>
+      </c>
+      <c r="M45" s="9" t="n">
+        <v>43.96</v>
+      </c>
+      <c r="N45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P45" s="7" t="n"/>
       <c r="Q45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
-      <c r="F46" s="21" t="n"/>
-      <c r="G46" s="21" t="n"/>
-      <c r="H46" s="21" t="n"/>
-      <c r="I46" s="21" t="n"/>
-      <c r="J46" s="21" t="n"/>
-      <c r="K46" s="21" t="n"/>
-      <c r="L46" s="21" t="n"/>
-      <c r="M46" s="9" t="n"/>
-      <c r="N46" s="9" t="n"/>
-      <c r="O46" s="21" t="n"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D46" s="23" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F46" s="23" t="n"/>
+      <c r="G46" s="21" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
+      <c r="H46" s="23" t="n"/>
+      <c r="I46" s="21" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J46" s="21" t="inlineStr">
+        <is>
+          <t>Silver Traverten - Patlatma - 10,0xFree</t>
+        </is>
+      </c>
+      <c r="K46" s="21" t="inlineStr">
+        <is>
+          <t>10,0xFreex</t>
+        </is>
+      </c>
+      <c r="L46" s="21" t="inlineStr">
+        <is>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="M46" s="9" t="n">
+        <v>225</v>
+      </c>
+      <c r="N46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P46" s="7" t="n"/>
       <c r="Q46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
-      <c r="F47" s="21" t="n"/>
-      <c r="G47" s="21" t="n"/>
-      <c r="H47" s="21" t="n"/>
-      <c r="I47" s="21" t="n"/>
-      <c r="J47" s="21" t="n"/>
-      <c r="K47" s="21" t="n"/>
-      <c r="L47" s="21" t="n"/>
-      <c r="M47" s="9" t="n"/>
-      <c r="N47" s="9" t="n"/>
-      <c r="O47" s="21" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B47" s="20" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D47" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="G47" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H47" s="16" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="I47" s="21" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="J47" s="21" t="inlineStr">
+        <is>
+          <t>1- Classic Mina Light - Dolgulu Yarı Cilalı - 60cm x120cm x 2cm - 791,28 sqm - 1099 adet
+11- Classic Mina Light - Dolgulu Honlu - 60cm x120cm x 2cm - 21,6 sqm - 30 adet
+TOTAL: 812,88 sqm - 1129pcs</t>
+        </is>
+      </c>
+      <c r="K47" s="21" t="inlineStr">
+        <is>
+          <t>60,0x120,0x2,0</t>
+        </is>
+      </c>
+      <c r="L47" s="21" t="inlineStr">
+        <is>
+          <t>Nova - Afyon</t>
+        </is>
+      </c>
+      <c r="M47" s="9" t="n">
+        <v>812.88</v>
+      </c>
+      <c r="N47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P47" s="7" t="n"/>
       <c r="Q47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
-      <c r="F48" s="21" t="n"/>
-      <c r="G48" s="21" t="n"/>
-      <c r="H48" s="21" t="n"/>
-      <c r="I48" s="21" t="n"/>
-      <c r="J48" s="21" t="n"/>
-      <c r="K48" s="21" t="n"/>
-      <c r="L48" s="21" t="n"/>
-      <c r="M48" s="9" t="n"/>
-      <c r="N48" s="9" t="n"/>
-      <c r="O48" s="21" t="n"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D48" s="22" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F48" s="22" t="n"/>
+      <c r="G48" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H48" s="22" t="n"/>
+      <c r="I48" s="21" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="J48" s="21" t="inlineStr">
+        <is>
+          <t>2- Mina Rustic - Dolgulu Fırçalı Kenarı Kırık - ANT x PAT x 1,2 cm - 86,25 sqm - 116 set</t>
+        </is>
+      </c>
+      <c r="K48" s="21" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="L48" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M48" s="9" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="N48" s="9" t="n">
+        <v>8.9215</v>
+      </c>
+      <c r="O48" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P48" s="7" t="n"/>
       <c r="Q48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
-      <c r="F49" s="21" t="n"/>
-      <c r="G49" s="21" t="n"/>
-      <c r="H49" s="21" t="n"/>
-      <c r="I49" s="21" t="n"/>
-      <c r="J49" s="21" t="n"/>
-      <c r="K49" s="21" t="n"/>
-      <c r="L49" s="21" t="n"/>
-      <c r="M49" s="9" t="n"/>
-      <c r="N49" s="9" t="n"/>
-      <c r="O49" s="21" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F49" s="22" t="n"/>
+      <c r="G49" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H49" s="22" t="n"/>
+      <c r="I49" s="21" t="inlineStr">
+        <is>
+          <t>GL 132624</t>
+        </is>
+      </c>
+      <c r="J49" s="21" t="inlineStr">
+        <is>
+          <t>3- Cam Mozaik - GL 132624 - Cilalı - 2,5 x 2,5 cm - 66 sqm - Meshli</t>
+        </is>
+      </c>
+      <c r="K49" s="21" t="inlineStr">
+        <is>
+          <t>2,5x2,5x1,0</t>
+        </is>
+      </c>
+      <c r="L49" s="21" t="inlineStr">
+        <is>
+          <t>Yerevdekor</t>
+        </is>
+      </c>
+      <c r="M49" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="N49" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="O49" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P49" s="7" t="n"/>
       <c r="Q49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
-      <c r="F50" s="21" t="n"/>
-      <c r="G50" s="21" t="n"/>
-      <c r="H50" s="21" t="n"/>
-      <c r="I50" s="21" t="n"/>
-      <c r="J50" s="21" t="n"/>
-      <c r="K50" s="21" t="n"/>
-      <c r="L50" s="21" t="n"/>
-      <c r="M50" s="9" t="n"/>
-      <c r="N50" s="9" t="n"/>
-      <c r="O50" s="21" t="n"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D50" s="22" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F50" s="22" t="n"/>
+      <c r="G50" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H50" s="22" t="n"/>
+      <c r="I50" s="21" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="J50" s="21" t="inlineStr">
+        <is>
+          <t>4- Classic Mina Light Antique - Eskitme - 7,5x15x1 cm - 44.01 sqm - 3912 adet</t>
+        </is>
+      </c>
+      <c r="K50" s="21" t="inlineStr">
+        <is>
+          <t>7,5x15,0x1,0</t>
+        </is>
+      </c>
+      <c r="L50" s="21" t="inlineStr">
+        <is>
+          <t>Ayarlanmadi</t>
+        </is>
+      </c>
+      <c r="M50" s="9" t="n">
+        <v>44.01</v>
+      </c>
+      <c r="N50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P50" s="7" t="n"/>
       <c r="Q50" s="7" t="n"/>
     </row>
     <row r="51">
-      <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
-      <c r="F51" s="21" t="n"/>
-      <c r="G51" s="21" t="n"/>
-      <c r="H51" s="21" t="n"/>
-      <c r="I51" s="21" t="n"/>
-      <c r="J51" s="21" t="n"/>
-      <c r="K51" s="21" t="n"/>
-      <c r="L51" s="21" t="n"/>
-      <c r="M51" s="9" t="n"/>
-      <c r="N51" s="9" t="n"/>
-      <c r="O51" s="21" t="n"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D51" s="22" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F51" s="22" t="n"/>
+      <c r="G51" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H51" s="22" t="n"/>
+      <c r="I51" s="21" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="J51" s="21" t="inlineStr">
+        <is>
+          <t>5- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 42 sqm
+6- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 29 sqm
+7- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 29 sqm
+8- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 35 sqm
+9- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 344 sqm
+TOTAL: 479,08 sqm - 2575 adet</t>
+        </is>
+      </c>
+      <c r="K51" s="21" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L51" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M51" s="9" t="n">
+        <v>479.08</v>
+      </c>
+      <c r="N51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P51" s="7" t="n"/>
       <c r="Q51" s="7" t="n"/>
     </row>
     <row r="52">
-      <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
-      <c r="F52" s="21" t="n"/>
-      <c r="G52" s="21" t="n"/>
-      <c r="H52" s="21" t="n"/>
-      <c r="I52" s="21" t="n"/>
-      <c r="J52" s="21" t="n"/>
-      <c r="K52" s="21" t="n"/>
-      <c r="L52" s="21" t="n"/>
-      <c r="M52" s="9" t="n"/>
-      <c r="N52" s="9" t="n"/>
-      <c r="O52" s="21" t="n"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D52" s="22" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F52" s="22" t="n"/>
+      <c r="G52" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H52" s="22" t="n"/>
+      <c r="I52" s="21" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="J52" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10- Classic Mina Light - Dolgulu Honlu 1 Uzun Kenarı 4 mm Pahlı - 30 x 150 x 3 cm Rıhtlar 15 x 150 x 2 cm SET! - 40 Adet </t>
+        </is>
+      </c>
+      <c r="K52" s="21" t="inlineStr">
+        <is>
+          <t>30,0x150,0x3,0</t>
+        </is>
+      </c>
+      <c r="L52" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M52" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="N52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P52" s="7" t="n"/>
       <c r="Q52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
-      <c r="F53" s="21" t="n"/>
-      <c r="G53" s="21" t="n"/>
-      <c r="H53" s="21" t="n"/>
-      <c r="I53" s="21" t="n"/>
-      <c r="J53" s="21" t="n"/>
-      <c r="K53" s="21" t="n"/>
-      <c r="L53" s="21" t="n"/>
-      <c r="M53" s="9" t="n"/>
-      <c r="N53" s="9" t="n"/>
-      <c r="O53" s="21" t="n"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D53" s="22" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F53" s="22" t="n"/>
+      <c r="G53" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H53" s="22" t="n"/>
+      <c r="I53" s="21" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="J53" s="21" t="inlineStr">
+        <is>
+          <t>12- Classic Mina Light - Dolgulu Honlu - 10cm x 60cm x 2cm - 560,4 lmt - 934 adet - PAH VAR MI SONRA KONUŞULACAK!</t>
+        </is>
+      </c>
+      <c r="K53" s="21" t="inlineStr">
+        <is>
+          <t>10,0x60,0x2,0</t>
+        </is>
+      </c>
+      <c r="L53" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M53" s="9" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="N53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="P53" s="7" t="n"/>
       <c r="Q53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
-      <c r="F54" s="21" t="n"/>
-      <c r="G54" s="21" t="n"/>
-      <c r="H54" s="21" t="n"/>
-      <c r="I54" s="21" t="n"/>
-      <c r="J54" s="21" t="n"/>
-      <c r="K54" s="21" t="n"/>
-      <c r="L54" s="21" t="n"/>
-      <c r="M54" s="9" t="n"/>
-      <c r="N54" s="9" t="n"/>
-      <c r="O54" s="21" t="n"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D54" s="23" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F54" s="23" t="n"/>
+      <c r="G54" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H54" s="23" t="n"/>
+      <c r="I54" s="21" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="J54" s="21" t="inlineStr">
+        <is>
+          <t>13) Her -- His -- master bedroom special Design tiles estimated sqm and cost - DETAYA GÖRE ÜRÜN KARTI REVİZE OLACAK!</t>
+        </is>
+      </c>
+      <c r="K54" s="21" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="L54" s="21" t="inlineStr">
+        <is>
+          <t>Ayarlanmadi</t>
+        </is>
+      </c>
+      <c r="M54" s="9" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="N54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P54" s="7" t="n"/>
       <c r="Q54" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
-      <c r="F55" s="21" t="n"/>
-      <c r="G55" s="21" t="n"/>
-      <c r="H55" s="21" t="n"/>
-      <c r="I55" s="21" t="n"/>
-      <c r="J55" s="21" t="n"/>
-      <c r="K55" s="21" t="n"/>
-      <c r="L55" s="21" t="n"/>
-      <c r="M55" s="9" t="n"/>
-      <c r="N55" s="9" t="n"/>
-      <c r="O55" s="21" t="n"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B55" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2024-05-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D55" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Douglas - Belize</t>
+        </is>
+      </c>
+      <c r="F55" s="16" t="inlineStr">
+        <is>
+          <t>Douglas - Belize</t>
+        </is>
+      </c>
+      <c r="G55" s="21" t="inlineStr">
+        <is>
+          <t>24DSP11</t>
+        </is>
+      </c>
+      <c r="H55" s="16" t="inlineStr">
+        <is>
+          <t>24DSP11</t>
+        </is>
+      </c>
+      <c r="I55" s="21" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="J55" s="21" t="inlineStr">
+        <is>
+          <t>1- Diana Royal - Fırçalı &amp; Kenarı Kırık - 61 x 61 x 1,2 cm - 327,47 sqm - 880 Adet - 11 kasa</t>
+        </is>
+      </c>
+      <c r="K55" s="21" t="inlineStr">
+        <is>
+          <t>61,0x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L55" s="21" t="inlineStr">
+        <is>
+          <t>Kanal Mermer</t>
+        </is>
+      </c>
+      <c r="M55" s="9" t="n">
+        <v>327.47</v>
+      </c>
+      <c r="N55" s="9" t="n">
+        <v>327.47</v>
+      </c>
+      <c r="O55" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P55" s="7" t="n"/>
       <c r="Q55" s="7" t="n"/>
     </row>
     <row r="56">
-      <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
-      <c r="F56" s="21" t="n"/>
-      <c r="G56" s="21" t="n"/>
-      <c r="H56" s="21" t="n"/>
-      <c r="I56" s="21" t="n"/>
-      <c r="J56" s="21" t="n"/>
-      <c r="K56" s="21" t="n"/>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="9" t="n"/>
-      <c r="N56" s="9" t="n"/>
-      <c r="O56" s="21" t="n"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024-05-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D56" s="23" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Douglas - Belize</t>
+        </is>
+      </c>
+      <c r="F56" s="23" t="n"/>
+      <c r="G56" s="21" t="inlineStr">
+        <is>
+          <t>24DSP11</t>
+        </is>
+      </c>
+      <c r="H56" s="23" t="n"/>
+      <c r="I56" s="21" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="J56" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2- Diana Royal - Cilalı 1 Uzun Kenarı 4 mm Alın Pah Cilalı - 20,3 x 61 x 2 cm - 300,91 sqm - 2430 Adet - 162 li 15 Kasa </t>
+        </is>
+      </c>
+      <c r="K56" s="21" t="inlineStr">
+        <is>
+          <t>20,3x61,0x2,0</t>
+        </is>
+      </c>
+      <c r="L56" s="21" t="inlineStr">
+        <is>
+          <t>Kanal Mermer</t>
+        </is>
+      </c>
+      <c r="M56" s="9" t="n">
+        <v>300.91</v>
+      </c>
+      <c r="N56" s="9" t="n">
+        <v>322.15</v>
+      </c>
+      <c r="O56" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P56" s="7" t="n"/>
       <c r="Q56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
-      <c r="F57" s="21" t="n"/>
-      <c r="G57" s="21" t="n"/>
-      <c r="H57" s="21" t="n"/>
-      <c r="I57" s="21" t="n"/>
-      <c r="J57" s="21" t="n"/>
-      <c r="K57" s="21" t="n"/>
-      <c r="L57" s="21" t="n"/>
-      <c r="M57" s="9" t="n"/>
-      <c r="N57" s="9" t="n"/>
-      <c r="O57" s="21" t="n"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B57" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2024-04-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D57" s="16" t="inlineStr">
+        <is>
+          <t>2024-04-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Bruce - USA</t>
+        </is>
+      </c>
+      <c r="F57" s="16" t="inlineStr">
+        <is>
+          <t>Bruce - USA</t>
+        </is>
+      </c>
+      <c r="G57" s="21" t="inlineStr">
+        <is>
+          <t>24AFG35</t>
+        </is>
+      </c>
+      <c r="H57" s="16" t="inlineStr">
+        <is>
+          <t>24AFG35</t>
+        </is>
+      </c>
+      <c r="I57" s="21" t="inlineStr">
+        <is>
+          <t>Calacatta Green</t>
+        </is>
+      </c>
+      <c r="J57" s="21" t="inlineStr">
+        <is>
+          <t>1- Manikür Lavabosu - Calacatta Green - Cilalı - 45,7 x 48,25 x 50,8 cm - 2 adet</t>
+        </is>
+      </c>
+      <c r="K57" s="21" t="inlineStr">
+        <is>
+          <t>45,7x48,25x50,8</t>
+        </is>
+      </c>
+      <c r="L57" s="21" t="inlineStr">
+        <is>
+          <t>Erkan Mermer</t>
+        </is>
+      </c>
+      <c r="M57" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P57" s="7" t="n"/>
       <c r="Q57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
-      <c r="F58" s="21" t="n"/>
-      <c r="G58" s="21" t="n"/>
-      <c r="H58" s="21" t="n"/>
-      <c r="I58" s="21" t="n"/>
-      <c r="J58" s="21" t="n"/>
-      <c r="K58" s="21" t="n"/>
-      <c r="L58" s="21" t="n"/>
-      <c r="M58" s="9" t="n"/>
-      <c r="N58" s="9" t="n"/>
-      <c r="O58" s="21" t="n"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2024-04-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D58" s="22" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Bruce - USA</t>
+        </is>
+      </c>
+      <c r="F58" s="22" t="n"/>
+      <c r="G58" s="21" t="inlineStr">
+        <is>
+          <t>24AFG35</t>
+        </is>
+      </c>
+      <c r="H58" s="22" t="n"/>
+      <c r="I58" s="21" t="inlineStr">
+        <is>
+          <t>Calacatta Green</t>
+        </is>
+      </c>
+      <c r="J58" s="21" t="inlineStr">
+        <is>
+          <t>2- Pedikür Lavabosu - Calacatta Green - Cilalı - 44,5 x 54,6 x 20,3 cm - 4 adet</t>
+        </is>
+      </c>
+      <c r="K58" s="21" t="inlineStr">
+        <is>
+          <t>44,5x54,6x20,3</t>
+        </is>
+      </c>
+      <c r="L58" s="21" t="inlineStr">
+        <is>
+          <t>Erkan Mermer</t>
+        </is>
+      </c>
+      <c r="M58" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P58" s="7" t="n"/>
       <c r="Q58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
-      <c r="F59" s="21" t="n"/>
-      <c r="G59" s="21" t="n"/>
-      <c r="H59" s="21" t="n"/>
-      <c r="I59" s="21" t="n"/>
-      <c r="J59" s="21" t="n"/>
-      <c r="K59" s="21" t="n"/>
-      <c r="L59" s="21" t="n"/>
-      <c r="M59" s="9" t="n"/>
-      <c r="N59" s="9" t="n"/>
-      <c r="O59" s="21" t="n"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024-04-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D59" s="23" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Bruce - USA</t>
+        </is>
+      </c>
+      <c r="F59" s="23" t="n"/>
+      <c r="G59" s="21" t="inlineStr">
+        <is>
+          <t>24AFG35</t>
+        </is>
+      </c>
+      <c r="H59" s="23" t="n"/>
+      <c r="I59" s="21" t="inlineStr">
+        <is>
+          <t>Calacatta Green</t>
+        </is>
+      </c>
+      <c r="J59" s="21" t="inlineStr">
+        <is>
+          <t>3- Manikür Lavabosu - Calacatta Green - Cilalı - 44,5 x 44,5 x 20,3 cm - 1 Adet</t>
+        </is>
+      </c>
+      <c r="K59" s="21" t="inlineStr">
+        <is>
+          <t>44,5x44,5x20,3</t>
+        </is>
+      </c>
+      <c r="L59" s="21" t="inlineStr">
+        <is>
+          <t>Erkan Mermer</t>
+        </is>
+      </c>
+      <c r="M59" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P59" s="7" t="n"/>
       <c r="Q59" s="7" t="n"/>
     </row>
     <row r="60">
-      <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
-      <c r="F60" s="21" t="n"/>
-      <c r="G60" s="21" t="n"/>
-      <c r="H60" s="21" t="n"/>
-      <c r="I60" s="21" t="n"/>
-      <c r="J60" s="21" t="n"/>
-      <c r="K60" s="21" t="n"/>
-      <c r="L60" s="21" t="n"/>
-      <c r="M60" s="9" t="n"/>
-      <c r="N60" s="9" t="n"/>
-      <c r="O60" s="21" t="n"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B60" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D60" s="16" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="F60" s="16" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="G60" s="21" t="inlineStr">
+        <is>
+          <t>24VML01-2</t>
+        </is>
+      </c>
+      <c r="H60" s="16" t="inlineStr">
+        <is>
+          <t>24VML01-2</t>
+        </is>
+      </c>
+      <c r="I60" s="21" t="inlineStr">
+        <is>
+          <t>Classic</t>
+        </is>
+      </c>
+      <c r="J60" s="21" t="inlineStr">
+        <is>
+          <t>3- Traverten Baluster - Classic Mina - Dolgulu Cilalı - 15,2 x 86,4 x 15,2 cm - 150 Adet</t>
+        </is>
+      </c>
+      <c r="K60" s="21" t="inlineStr">
+        <is>
+          <t>15,2x86,4x15,2</t>
+        </is>
+      </c>
+      <c r="L60" s="21" t="inlineStr">
+        <is>
+          <t>Candoğan Mermer</t>
+        </is>
+      </c>
+      <c r="M60" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="N60" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P60" s="7" t="n"/>
       <c r="Q60" s="7" t="n"/>
     </row>
     <row r="61">
-      <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
-      <c r="F61" s="21" t="n"/>
-      <c r="G61" s="21" t="n"/>
-      <c r="H61" s="21" t="n"/>
-      <c r="I61" s="21" t="n"/>
-      <c r="J61" s="21" t="n"/>
-      <c r="K61" s="21" t="n"/>
-      <c r="L61" s="21" t="n"/>
-      <c r="M61" s="9" t="n"/>
-      <c r="N61" s="9" t="n"/>
-      <c r="O61" s="21" t="n"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D61" s="22" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="F61" s="22" t="n"/>
+      <c r="G61" s="21" t="inlineStr">
+        <is>
+          <t>24VML01-2</t>
+        </is>
+      </c>
+      <c r="H61" s="22" t="n"/>
+      <c r="I61" s="21" t="inlineStr">
+        <is>
+          <t>Classic</t>
+        </is>
+      </c>
+      <c r="J61" s="21" t="inlineStr">
+        <is>
+          <t>4- Traverten Basamak - Classic Mina - Dolgulu Cilalı 1 Uzun Kenarı Alından Kırık ROCKFACE - 33 x 213,4 x 6 cm - 12 Adet - 8,45 sqm</t>
+        </is>
+      </c>
+      <c r="K61" s="21" t="inlineStr">
+        <is>
+          <t>33,0x213,4x6,0</t>
+        </is>
+      </c>
+      <c r="L61" s="21" t="inlineStr">
+        <is>
+          <t>Candoğan Mermer</t>
+        </is>
+      </c>
+      <c r="M61" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="N61" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="O61" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P61" s="7" t="n"/>
       <c r="Q61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
-      <c r="F62" s="21" t="n"/>
-      <c r="G62" s="21" t="n"/>
-      <c r="H62" s="21" t="n"/>
-      <c r="I62" s="21" t="n"/>
-      <c r="J62" s="21" t="n"/>
-      <c r="K62" s="21" t="n"/>
-      <c r="L62" s="21" t="n"/>
-      <c r="M62" s="9" t="n"/>
-      <c r="N62" s="9" t="n"/>
-      <c r="O62" s="21" t="n"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D62" s="22" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="F62" s="22" t="n"/>
+      <c r="G62" s="21" t="inlineStr">
+        <is>
+          <t>24VML01-2</t>
+        </is>
+      </c>
+      <c r="H62" s="22" t="n"/>
+      <c r="I62" s="21" t="inlineStr">
+        <is>
+          <t>Classic</t>
+        </is>
+      </c>
+      <c r="J62" s="21" t="inlineStr">
+        <is>
+          <t>5- Traverten Duvar Üstü - Classic Mina - Dolgulu Cilalı - 36 x 100 x 9 cm - 19,81 lmt - 7,13 sqm</t>
+        </is>
+      </c>
+      <c r="K62" s="21" t="inlineStr">
+        <is>
+          <t>36,0x100,0x9,0</t>
+        </is>
+      </c>
+      <c r="L62" s="21" t="inlineStr">
+        <is>
+          <t>Candoğan Mermer</t>
+        </is>
+      </c>
+      <c r="M62" s="9" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="N62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="P62" s="7" t="n"/>
       <c r="Q62" s="7" t="n"/>
     </row>
     <row r="63">
-      <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
-      <c r="F63" s="21" t="n"/>
-      <c r="G63" s="21" t="n"/>
-      <c r="H63" s="21" t="n"/>
-      <c r="I63" s="21" t="n"/>
-      <c r="J63" s="21" t="n"/>
-      <c r="K63" s="21" t="n"/>
-      <c r="L63" s="21" t="n"/>
-      <c r="M63" s="9" t="n"/>
-      <c r="N63" s="9" t="n"/>
-      <c r="O63" s="21" t="n"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D63" s="22" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="F63" s="22" t="n"/>
+      <c r="G63" s="21" t="inlineStr">
+        <is>
+          <t>24VML01-2</t>
+        </is>
+      </c>
+      <c r="H63" s="22" t="n"/>
+      <c r="I63" s="21" t="inlineStr">
+        <is>
+          <t>Classic</t>
+        </is>
+      </c>
+      <c r="J63" s="21" t="inlineStr">
+        <is>
+          <t>6- Traverten Profil Üstü Rayı - Classic Mina - Dolgulu Cilalı - 26 x 100 x 10 cm - 45,72 lmt - 11,89 sqm</t>
+        </is>
+      </c>
+      <c r="K63" s="21" t="inlineStr">
+        <is>
+          <t>26,0x100,0x10,0</t>
+        </is>
+      </c>
+      <c r="L63" s="21" t="inlineStr">
+        <is>
+          <t>Candoğan Mermer</t>
+        </is>
+      </c>
+      <c r="M63" s="9" t="n">
+        <v>45.72</v>
+      </c>
+      <c r="N63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="P63" s="7" t="n"/>
       <c r="Q63" s="7" t="n"/>
     </row>
     <row r="64">
-      <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
-      <c r="F64" s="21" t="n"/>
-      <c r="G64" s="21" t="n"/>
-      <c r="H64" s="21" t="n"/>
-      <c r="I64" s="21" t="n"/>
-      <c r="J64" s="21" t="n"/>
-      <c r="K64" s="21" t="n"/>
-      <c r="L64" s="21" t="n"/>
-      <c r="M64" s="9" t="n"/>
-      <c r="N64" s="9" t="n"/>
-      <c r="O64" s="21" t="n"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="F64" s="22" t="n"/>
+      <c r="G64" s="21" t="inlineStr">
+        <is>
+          <t>24VML01-2</t>
+        </is>
+      </c>
+      <c r="H64" s="22" t="n"/>
+      <c r="I64" s="21" t="inlineStr">
+        <is>
+          <t>Classic</t>
+        </is>
+      </c>
+      <c r="J64" s="21" t="inlineStr">
+        <is>
+          <t>7- Traverten Merdiven Babası - Classic Mina - Dolgulu Cilalı 4 yüzünden 2 cm oymalı desenli - 30 x 102 x 30 cm - 8 adet</t>
+        </is>
+      </c>
+      <c r="K64" s="21" t="inlineStr">
+        <is>
+          <t>30,0x102,0x30,0</t>
+        </is>
+      </c>
+      <c r="L64" s="21" t="inlineStr">
+        <is>
+          <t>Candoğan Mermer</t>
+        </is>
+      </c>
+      <c r="M64" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N64" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O64" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P64" s="7" t="n"/>
       <c r="Q64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
-      <c r="F65" s="21" t="n"/>
-      <c r="G65" s="21" t="n"/>
-      <c r="H65" s="21" t="n"/>
-      <c r="I65" s="21" t="n"/>
-      <c r="J65" s="21" t="n"/>
-      <c r="K65" s="21" t="n"/>
-      <c r="L65" s="21" t="n"/>
-      <c r="M65" s="9" t="n"/>
-      <c r="N65" s="9" t="n"/>
-      <c r="O65" s="21" t="n"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D65" s="22" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="F65" s="22" t="n"/>
+      <c r="G65" s="21" t="inlineStr">
+        <is>
+          <t>24VML01-2</t>
+        </is>
+      </c>
+      <c r="H65" s="22" t="n"/>
+      <c r="I65" s="21" t="inlineStr">
+        <is>
+          <t>Classic</t>
+        </is>
+      </c>
+      <c r="J65" s="21" t="inlineStr">
+        <is>
+          <t>8- Traverten Baba Başlık - Classic Mina - Dolgulu Cilalı 2 cm Delik - 32/36 x 32/36 x 7,6 cm - 8 adet</t>
+        </is>
+      </c>
+      <c r="K65" s="21" t="inlineStr">
+        <is>
+          <t>32,0x36,0x7,6</t>
+        </is>
+      </c>
+      <c r="L65" s="21" t="inlineStr">
+        <is>
+          <t>Candoğan Mermer</t>
+        </is>
+      </c>
+      <c r="M65" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N65" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P65" s="7" t="n"/>
       <c r="Q65" s="7" t="n"/>
     </row>
     <row r="66">
-      <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
-      <c r="F66" s="21" t="n"/>
-      <c r="G66" s="21" t="n"/>
-      <c r="H66" s="21" t="n"/>
-      <c r="I66" s="21" t="n"/>
-      <c r="J66" s="21" t="n"/>
-      <c r="K66" s="21" t="n"/>
-      <c r="L66" s="21" t="n"/>
-      <c r="M66" s="9" t="n"/>
-      <c r="N66" s="9" t="n"/>
-      <c r="O66" s="21" t="n"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D66" s="23" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="F66" s="23" t="n"/>
+      <c r="G66" s="21" t="inlineStr">
+        <is>
+          <t>24VML01-2</t>
+        </is>
+      </c>
+      <c r="H66" s="23" t="n"/>
+      <c r="I66" s="21" t="inlineStr">
+        <is>
+          <t>Classic</t>
+        </is>
+      </c>
+      <c r="J66" s="21" t="inlineStr">
+        <is>
+          <t>9- Traverten Baluster Alt Taşı - Classic Mina - Dolgulu Cilalı 1 Uzun Kenarı Alından Kırık Rockface - 20,32 x 100 x 6 cm - 45,72 lmt - 9,29 sqm</t>
+        </is>
+      </c>
+      <c r="K66" s="21" t="inlineStr">
+        <is>
+          <t>20,32x100,0x6,0</t>
+        </is>
+      </c>
+      <c r="L66" s="21" t="inlineStr">
+        <is>
+          <t>Candoğan Mermer</t>
+        </is>
+      </c>
+      <c r="M66" s="9" t="n">
+        <v>45.72</v>
+      </c>
+      <c r="N66" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="P66" s="7" t="n"/>
       <c r="Q66" s="7" t="n"/>
     </row>
     <row r="67">
-      <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
-      <c r="F67" s="21" t="n"/>
-      <c r="G67" s="21" t="n"/>
-      <c r="H67" s="21" t="n"/>
-      <c r="I67" s="21" t="n"/>
-      <c r="J67" s="21" t="n"/>
-      <c r="K67" s="21" t="n"/>
-      <c r="L67" s="21" t="n"/>
-      <c r="M67" s="9" t="n"/>
-      <c r="N67" s="9" t="n"/>
-      <c r="O67" s="21" t="n"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B67" s="20" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2024-01-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D67" s="16" t="inlineStr">
+        <is>
+          <t>2024-01-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>Yadira Rodriguez - Uruguay</t>
+        </is>
+      </c>
+      <c r="F67" s="16" t="inlineStr">
+        <is>
+          <t>Yadira Rodriguez - Uruguay</t>
+        </is>
+      </c>
+      <c r="G67" s="21" t="inlineStr">
+        <is>
+          <t>23PENTA01-3</t>
+        </is>
+      </c>
+      <c r="H67" s="16" t="inlineStr">
+        <is>
+          <t>23PENTA01-3</t>
+        </is>
+      </c>
+      <c r="I67" s="21" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J67" s="21" t="inlineStr">
+        <is>
+          <t>Silver traverten - dolgulu honlu - 60x120x2 cm</t>
+        </is>
+      </c>
+      <c r="K67" s="21" t="inlineStr">
+        <is>
+          <t>60,0x120,0x2,0</t>
+        </is>
+      </c>
+      <c r="L67" s="21" t="inlineStr">
+        <is>
+          <t>Emaş Doğaltaş</t>
+        </is>
+      </c>
+      <c r="M67" s="9" t="n">
+        <v>552.96</v>
+      </c>
+      <c r="N67" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P67" s="7" t="n"/>
       <c r="Q67" s="7" t="n"/>
     </row>
     <row r="68">
-      <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
-      <c r="F68" s="21" t="n"/>
-      <c r="G68" s="21" t="n"/>
-      <c r="H68" s="21" t="n"/>
-      <c r="I68" s="21" t="n"/>
-      <c r="J68" s="21" t="n"/>
-      <c r="K68" s="21" t="n"/>
-      <c r="L68" s="21" t="n"/>
-      <c r="M68" s="9" t="n"/>
-      <c r="N68" s="9" t="n"/>
-      <c r="O68" s="21" t="n"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024-01-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D68" s="23" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>Yadira Rodriguez - Uruguay</t>
+        </is>
+      </c>
+      <c r="F68" s="23" t="n"/>
+      <c r="G68" s="21" t="inlineStr">
+        <is>
+          <t>23PENTA01-3</t>
+        </is>
+      </c>
+      <c r="H68" s="23" t="n"/>
+      <c r="I68" s="21" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J68" s="21" t="inlineStr">
+        <is>
+          <t>Silver traverten Plaka - Dolgulu honlu -SLABXSLABX2,0</t>
+        </is>
+      </c>
+      <c r="K68" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L68" s="21" t="inlineStr">
+        <is>
+          <t>Emaş Doğaltaş</t>
+        </is>
+      </c>
+      <c r="M68" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="N68" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P68" s="7" t="n"/>
       <c r="Q68" s="7" t="n"/>
     </row>
     <row r="69">
-      <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
-      <c r="F69" s="21" t="n"/>
-      <c r="G69" s="21" t="n"/>
-      <c r="H69" s="21" t="n"/>
-      <c r="I69" s="21" t="n"/>
-      <c r="J69" s="21" t="n"/>
-      <c r="K69" s="21" t="n"/>
-      <c r="L69" s="21" t="n"/>
-      <c r="M69" s="9" t="n"/>
-      <c r="N69" s="9" t="n"/>
-      <c r="O69" s="21" t="n"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B69" s="20" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2023-10-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D69" s="16" t="inlineStr">
+        <is>
+          <t>2023-10-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="F69" s="16" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="G69" s="21" t="inlineStr">
+        <is>
+          <t>23COS33</t>
+        </is>
+      </c>
+      <c r="H69" s="16" t="inlineStr">
+        <is>
+          <t>23COS33</t>
+        </is>
+      </c>
+      <c r="I69" s="21" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="J69" s="21" t="inlineStr">
+        <is>
+          <t>Diana Royal - Cilalı Plaka (arkası meşli) - 2 cm</t>
+        </is>
+      </c>
+      <c r="K69" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L69" s="21" t="inlineStr">
+        <is>
+          <t>Köylü Mermer</t>
+        </is>
+      </c>
+      <c r="M69" s="9" t="n">
+        <v>145.56</v>
+      </c>
+      <c r="N69" s="9" t="n">
+        <v>145.56</v>
+      </c>
+      <c r="O69" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P69" s="7" t="n"/>
       <c r="Q69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
-      <c r="F70" s="21" t="n"/>
-      <c r="G70" s="21" t="n"/>
-      <c r="H70" s="21" t="n"/>
-      <c r="I70" s="21" t="n"/>
-      <c r="J70" s="21" t="n"/>
-      <c r="K70" s="21" t="n"/>
-      <c r="L70" s="21" t="n"/>
-      <c r="M70" s="9" t="n"/>
-      <c r="N70" s="9" t="n"/>
-      <c r="O70" s="21" t="n"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2023-10-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D70" s="22" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="F70" s="22" t="n"/>
+      <c r="G70" s="21" t="inlineStr">
+        <is>
+          <t>23COS33</t>
+        </is>
+      </c>
+      <c r="H70" s="22" t="n"/>
+      <c r="I70" s="21" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="J70" s="21" t="inlineStr">
+        <is>
+          <t>Classic Cross Cut Traverten - Dolgusuz Honlu (arkası meşli) - 2 cm</t>
+        </is>
+      </c>
+      <c r="K70" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L70" s="21" t="inlineStr">
+        <is>
+          <t>Ertu Mermer</t>
+        </is>
+      </c>
+      <c r="M70" s="9" t="n">
+        <v>60.84</v>
+      </c>
+      <c r="N70" s="9" t="n">
+        <v>60.84</v>
+      </c>
+      <c r="O70" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P70" s="7" t="n"/>
       <c r="Q70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
-      <c r="F71" s="21" t="n"/>
-      <c r="G71" s="21" t="n"/>
-      <c r="H71" s="21" t="n"/>
-      <c r="I71" s="21" t="n"/>
-      <c r="J71" s="21" t="n"/>
-      <c r="K71" s="21" t="n"/>
-      <c r="L71" s="21" t="n"/>
-      <c r="M71" s="9" t="n"/>
-      <c r="N71" s="9" t="n"/>
-      <c r="O71" s="21" t="n"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2023-10-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D71" s="23" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="F71" s="23" t="n"/>
+      <c r="G71" s="21" t="inlineStr">
+        <is>
+          <t>23COS33</t>
+        </is>
+      </c>
+      <c r="H71" s="23" t="n"/>
+      <c r="I71" s="21" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="J71" s="21" t="inlineStr">
+        <is>
+          <t>Classic Cross Cut Plaka - Dolgulu Honlu (arkası meşli) - 2 cm</t>
+        </is>
+      </c>
+      <c r="K71" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L71" s="21" t="inlineStr">
+        <is>
+          <t>Ece Mermer</t>
+        </is>
+      </c>
+      <c r="M71" s="9" t="n">
+        <v>225</v>
+      </c>
+      <c r="N71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P71" s="7" t="n"/>
       <c r="Q71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
-      <c r="F72" s="21" t="n"/>
-      <c r="G72" s="21" t="n"/>
-      <c r="H72" s="21" t="n"/>
-      <c r="I72" s="21" t="n"/>
-      <c r="J72" s="21" t="n"/>
-      <c r="K72" s="21" t="n"/>
-      <c r="L72" s="21" t="n"/>
-      <c r="M72" s="9" t="n"/>
-      <c r="N72" s="9" t="n"/>
-      <c r="O72" s="21" t="n"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B72" s="20" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2023-10-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D72" s="16" t="inlineStr">
+        <is>
+          <t>2023-10-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="F72" s="16" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="G72" s="21" t="inlineStr">
+        <is>
+          <t>23COS32</t>
+        </is>
+      </c>
+      <c r="H72" s="16" t="inlineStr">
+        <is>
+          <t>23COS32</t>
+        </is>
+      </c>
+      <c r="I72" s="21" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="J72" s="21" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut Plaka - Dolgulu Honlu ya da Cilalı (Arkası meşli) - 2 cm Slab</t>
+        </is>
+      </c>
+      <c r="K72" s="21" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="L72" s="21" t="inlineStr">
+        <is>
+          <t>Ayarlanmadi</t>
+        </is>
+      </c>
+      <c r="M72" s="9" t="n">
+        <v>450</v>
+      </c>
+      <c r="N72" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P72" s="7" t="n"/>
       <c r="Q72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="D73" s="21" t="n"/>
-      <c r="E73" s="21" t="n"/>
-      <c r="F73" s="21" t="n"/>
-      <c r="G73" s="21" t="n"/>
-      <c r="H73" s="21" t="n"/>
-      <c r="I73" s="21" t="n"/>
-      <c r="J73" s="21" t="n"/>
-      <c r="K73" s="21" t="n"/>
-      <c r="L73" s="21" t="n"/>
-      <c r="M73" s="9" t="n"/>
-      <c r="N73" s="9" t="n"/>
-      <c r="O73" s="21" t="n"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B73" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D73" s="16" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E73" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F73" s="16" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="G73" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H73" s="16" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="I73" s="21" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="J73" s="21" t="inlineStr">
+        <is>
+          <t>Marble Tiles - Bluestone - Cilalı - ANTXPATX1,2</t>
+        </is>
+      </c>
+      <c r="K73" s="21" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="L73" s="21" t="inlineStr">
+        <is>
+          <t>Tabi Mermer</t>
+        </is>
+      </c>
+      <c r="M73" s="9" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="N73" s="9" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="O73" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P73" s="7" t="n"/>
       <c r="Q73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="D74" s="21" t="n"/>
-      <c r="E74" s="21" t="n"/>
-      <c r="F74" s="21" t="n"/>
-      <c r="G74" s="21" t="n"/>
-      <c r="H74" s="21" t="n"/>
-      <c r="I74" s="21" t="n"/>
-      <c r="J74" s="21" t="n"/>
-      <c r="K74" s="21" t="n"/>
-      <c r="L74" s="21" t="n"/>
-      <c r="M74" s="9" t="n"/>
-      <c r="N74" s="9" t="n"/>
-      <c r="O74" s="21" t="n"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D74" s="22" t="n"/>
+      <c r="E74" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F74" s="22" t="n"/>
+      <c r="G74" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H74" s="22" t="n"/>
+      <c r="I74" s="21" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="J74" s="21" t="inlineStr">
+        <is>
+          <t>Marble Tiles - Bluestone - Kumlama&amp;Fırçalı- ANTXPATX1,2</t>
+        </is>
+      </c>
+      <c r="K74" s="21" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="L74" s="21" t="inlineStr">
+        <is>
+          <t>Tabi Mermer</t>
+        </is>
+      </c>
+      <c r="M74" s="9" t="n">
+        <v>120.45</v>
+      </c>
+      <c r="N74" s="9" t="n">
+        <v>120.45</v>
+      </c>
+      <c r="O74" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P74" s="7" t="n"/>
       <c r="Q74" s="7" t="n"/>
     </row>
     <row r="75">
-      <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
-      <c r="F75" s="21" t="n"/>
-      <c r="G75" s="21" t="n"/>
-      <c r="H75" s="21" t="n"/>
-      <c r="I75" s="21" t="n"/>
-      <c r="J75" s="21" t="n"/>
-      <c r="K75" s="21" t="n"/>
-      <c r="L75" s="21" t="n"/>
-      <c r="M75" s="9" t="n"/>
-      <c r="N75" s="9" t="n"/>
-      <c r="O75" s="21" t="n"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D75" s="22" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F75" s="22" t="n"/>
+      <c r="G75" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H75" s="22" t="n"/>
+      <c r="I75" s="21" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="J75" s="21" t="inlineStr">
+        <is>
+          <t>Travertine Rıht - Bluestone - Kumlama&amp;Fırçalı- 14,0X120,0X2,0</t>
+        </is>
+      </c>
+      <c r="K75" s="21" t="inlineStr">
+        <is>
+          <t>14,0x120,0x2,0</t>
+        </is>
+      </c>
+      <c r="L75" s="21" t="inlineStr">
+        <is>
+          <t>Tabi Mermer</t>
+        </is>
+      </c>
+      <c r="M75" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N75" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="O75" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P75" s="7" t="n"/>
       <c r="Q75" s="7" t="n"/>
     </row>
     <row r="76">
-      <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
-      <c r="F76" s="21" t="n"/>
-      <c r="G76" s="21" t="n"/>
-      <c r="H76" s="21" t="n"/>
-      <c r="I76" s="21" t="n"/>
-      <c r="J76" s="21" t="n"/>
-      <c r="K76" s="21" t="n"/>
-      <c r="L76" s="21" t="n"/>
-      <c r="M76" s="9" t="n"/>
-      <c r="N76" s="9" t="n"/>
-      <c r="O76" s="21" t="n"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D76" s="22" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F76" s="22" t="n"/>
+      <c r="G76" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H76" s="22" t="n"/>
+      <c r="I76" s="21" t="inlineStr">
+        <is>
+          <t>Hygassos</t>
+        </is>
+      </c>
+      <c r="J76" s="21" t="inlineStr">
+        <is>
+          <t>(3302) Quartz Slab - Hygassos - Cilalı - 2 cm Kalınlık - sqm daha sonra netleşecek</t>
+        </is>
+      </c>
+      <c r="K76" s="21" t="inlineStr">
+        <is>
+          <t>VARxVARx2,0</t>
+        </is>
+      </c>
+      <c r="L76" s="21" t="inlineStr">
+        <is>
+          <t>Coante</t>
+        </is>
+      </c>
+      <c r="M76" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P76" s="7" t="n"/>
       <c r="Q76" s="7" t="n"/>
     </row>
     <row r="77">
-      <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
-      <c r="F77" s="21" t="n"/>
-      <c r="G77" s="21" t="n"/>
-      <c r="H77" s="21" t="n"/>
-      <c r="I77" s="21" t="n"/>
-      <c r="J77" s="21" t="n"/>
-      <c r="K77" s="21" t="n"/>
-      <c r="L77" s="21" t="n"/>
-      <c r="M77" s="9" t="n"/>
-      <c r="N77" s="9" t="n"/>
-      <c r="O77" s="21" t="n"/>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D77" s="22" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F77" s="22" t="n"/>
+      <c r="G77" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H77" s="22" t="n"/>
+      <c r="I77" s="21" t="inlineStr">
+        <is>
+          <t>Kitchen Cabinets</t>
+        </is>
+      </c>
+      <c r="J77" s="21" t="inlineStr">
+        <is>
+          <t>Mutfak Dolabı - GÖVDE MDFLAM; 
+DOLAP KAPAKLARI LAKE ANTRASİT MAT VE LAKE PARLAK BEYAZ detaylar sqm daha sonra netleştirilecek</t>
+        </is>
+      </c>
+      <c r="K77" s="21" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="L77" s="21" t="inlineStr">
+        <is>
+          <t>Anka Ahşap</t>
+        </is>
+      </c>
+      <c r="M77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P77" s="7" t="n"/>
       <c r="Q77" s="7" t="n"/>
     </row>
     <row r="78">
-      <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
-      <c r="F78" s="21" t="n"/>
-      <c r="G78" s="21" t="n"/>
-      <c r="H78" s="21" t="n"/>
-      <c r="I78" s="21" t="n"/>
-      <c r="J78" s="21" t="n"/>
-      <c r="K78" s="21" t="n"/>
-      <c r="L78" s="21" t="n"/>
-      <c r="M78" s="9" t="n"/>
-      <c r="N78" s="9" t="n"/>
-      <c r="O78" s="21" t="n"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D78" s="22" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F78" s="22" t="n"/>
+      <c r="G78" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H78" s="22" t="n"/>
+      <c r="I78" s="21" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="J78" s="21" t="inlineStr">
+        <is>
+          <t>Travertine Sahanlık - Bluestone - Kumlama&amp;Fırçalı- 43,5X132,0X2,0</t>
+        </is>
+      </c>
+      <c r="K78" s="21" t="inlineStr">
+        <is>
+          <t>43,5x132,0x2,0</t>
+        </is>
+      </c>
+      <c r="L78" s="21" t="inlineStr">
+        <is>
+          <t>Tabi Mermer</t>
+        </is>
+      </c>
+      <c r="M78" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N78" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O78" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P78" s="7" t="n"/>
       <c r="Q78" s="7" t="n"/>
     </row>
     <row r="79">
-      <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
-      <c r="F79" s="21" t="n"/>
-      <c r="G79" s="21" t="n"/>
-      <c r="H79" s="21" t="n"/>
-      <c r="I79" s="21" t="n"/>
-      <c r="J79" s="21" t="n"/>
-      <c r="K79" s="21" t="n"/>
-      <c r="L79" s="21" t="n"/>
-      <c r="M79" s="9" t="n"/>
-      <c r="N79" s="9" t="n"/>
-      <c r="O79" s="21" t="n"/>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D79" s="22" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F79" s="22" t="n"/>
+      <c r="G79" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H79" s="22" t="n"/>
+      <c r="I79" s="21" t="inlineStr">
+        <is>
+          <t>Pablo Cross Cut</t>
+        </is>
+      </c>
+      <c r="J79" s="21" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Pablo Cross Cut - Dolgulu&amp;Fırçalı&amp;Düz Kenar - 40,6X61,0X1,2 (1616 Adet)</t>
+        </is>
+      </c>
+      <c r="K79" s="21" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L79" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M79" s="9" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="N79" s="9" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="O79" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="P79" s="7" t="n"/>
       <c r="Q79" s="7" t="n"/>
     </row>
     <row r="80">
-      <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
-      <c r="F80" s="21" t="n"/>
-      <c r="G80" s="21" t="n"/>
-      <c r="H80" s="21" t="n"/>
-      <c r="I80" s="21" t="n"/>
-      <c r="J80" s="21" t="n"/>
-      <c r="K80" s="21" t="n"/>
-      <c r="L80" s="21" t="n"/>
-      <c r="M80" s="9" t="n"/>
-      <c r="N80" s="9" t="n"/>
-      <c r="O80" s="21" t="n"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F80" s="22" t="n"/>
+      <c r="G80" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H80" s="22" t="n"/>
+      <c r="I80" s="21" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="J80" s="21" t="inlineStr">
+        <is>
+          <t>Basamak - Bluestone - Fırçalı Kumlama &amp; 1 Uzun Kenarı 2 mm Pahlı 3 Kaymaz Oluklu - 35 x 120 x 2 cm - 22 adet - 9,24 sqm</t>
+        </is>
+      </c>
+      <c r="K80" s="21" t="inlineStr">
+        <is>
+          <t>35,0x120,0x2,0</t>
+        </is>
+      </c>
+      <c r="L80" s="21" t="inlineStr">
+        <is>
+          <t>Tabi Mermer</t>
+        </is>
+      </c>
+      <c r="M80" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N80" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="O80" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P80" s="7" t="n"/>
       <c r="Q80" s="7" t="n"/>
     </row>
     <row r="81">
-      <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
-      <c r="F81" s="21" t="n"/>
-      <c r="G81" s="21" t="n"/>
-      <c r="H81" s="21" t="n"/>
-      <c r="I81" s="21" t="n"/>
-      <c r="J81" s="21" t="n"/>
-      <c r="K81" s="21" t="n"/>
-      <c r="L81" s="21" t="n"/>
-      <c r="M81" s="9" t="n"/>
-      <c r="N81" s="9" t="n"/>
-      <c r="O81" s="21" t="n"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D81" s="22" t="n"/>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F81" s="22" t="n"/>
+      <c r="G81" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H81" s="22" t="n"/>
+      <c r="I81" s="21" t="inlineStr">
+        <is>
+          <t>Bathroom Sink Cabinet</t>
+        </is>
+      </c>
+      <c r="J81" s="21" t="inlineStr">
+        <is>
+          <t>Banyo dolabı 45x80 cm - ayna, lavabo ve dolap içerir</t>
+        </is>
+      </c>
+      <c r="K81" s="21" t="inlineStr">
+        <is>
+          <t>45,0x80,0xVarious</t>
+        </is>
+      </c>
+      <c r="L81" s="21" t="inlineStr">
+        <is>
+          <t>Karpa</t>
+        </is>
+      </c>
+      <c r="M81" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P81" s="7" t="n"/>
       <c r="Q81" s="7" t="n"/>
     </row>
     <row r="82">
-      <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
-      <c r="F82" s="21" t="n"/>
-      <c r="G82" s="21" t="n"/>
-      <c r="H82" s="21" t="n"/>
-      <c r="I82" s="21" t="n"/>
-      <c r="J82" s="21" t="n"/>
-      <c r="K82" s="21" t="n"/>
-      <c r="L82" s="21" t="n"/>
-      <c r="M82" s="9" t="n"/>
-      <c r="N82" s="9" t="n"/>
-      <c r="O82" s="21" t="n"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D82" s="23" t="n"/>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F82" s="23" t="n"/>
+      <c r="G82" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H82" s="23" t="n"/>
+      <c r="I82" s="21" t="inlineStr">
+        <is>
+          <t>Refrigerator</t>
+        </is>
+      </c>
+      <c r="J82" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10- SILVERLINE - REFRIGERATOR - BLACK
+</t>
+        </is>
+      </c>
+      <c r="K82" s="21" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="L82" s="21" t="inlineStr">
+        <is>
+          <t>Süllü Yapı</t>
+        </is>
+      </c>
+      <c r="M82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
       <c r="P82" s="7" t="n"/>
       <c r="Q82" s="7" t="n"/>
     </row>
@@ -16104,55 +18389,83 @@
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
-  <mergeCells count="48">
+  <mergeCells count="76">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="B19"/>
-    <mergeCell ref="D19"/>
-    <mergeCell ref="F19"/>
-    <mergeCell ref="H19"/>
-    <mergeCell ref="B20"/>
-    <mergeCell ref="D20"/>
-    <mergeCell ref="F20"/>
-    <mergeCell ref="H20"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="D21"/>
-    <mergeCell ref="F21"/>
-    <mergeCell ref="H21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="B24"/>
-    <mergeCell ref="D24"/>
-    <mergeCell ref="F24"/>
-    <mergeCell ref="H24"/>
-    <mergeCell ref="B25"/>
-    <mergeCell ref="D25"/>
-    <mergeCell ref="F25"/>
-    <mergeCell ref="H25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="H19:H25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="D35:D46"/>
+    <mergeCell ref="F35:F46"/>
+    <mergeCell ref="H35:H46"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="D47:D54"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="H47:H54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="B72"/>
+    <mergeCell ref="D72"/>
+    <mergeCell ref="F72"/>
+    <mergeCell ref="H72"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="D73:D82"/>
+    <mergeCell ref="F73:F82"/>
+    <mergeCell ref="H73:H82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/excel/dosyalar/Uretim_list.xlsx
+++ b/excel/dosyalar/Uretim_list.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$C$1:$Q$1</definedName>
@@ -206,8 +206,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,66 +652,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="B2" s="20" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-06-11T00:00:00.000Z</t>
+          <t>2024-07-09T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D2" s="16" t="inlineStr">
         <is>
-          <t>2024-06-11T00:00:00.000Z</t>
+          <t>2024-07-09T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" s="21" t="inlineStr">
         <is>
-          <t>Ata Sab. - Kuwait</t>
+          <t>Pukka Stone - Turkey</t>
         </is>
       </c>
       <c r="F2" s="16" t="inlineStr">
         <is>
-          <t>Ata Sab. - Kuwait</t>
+          <t>Pukka Stone - Turkey</t>
         </is>
       </c>
       <c r="G2" s="21" t="inlineStr">
         <is>
-          <t>24ATA20</t>
+          <t>23PUK07</t>
         </is>
       </c>
       <c r="H2" s="16" t="inlineStr">
         <is>
-          <t>24ATA20</t>
+          <t>23PUK07</t>
         </is>
       </c>
       <c r="I2" s="21" t="inlineStr">
         <is>
-          <t>Perla</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="J2" s="21" t="inlineStr">
         <is>
-          <t>Cloudy (Perla) - Honlu - 40 x 80 x 3 cm</t>
+          <t>Travertine Tiles-Gold-Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık-15,25x30,5x3,0 ( Toplamda 4 palet 1360 Adet, 1 palet 340 adet)</t>
         </is>
       </c>
       <c r="K2" s="21" t="inlineStr">
         <is>
-          <t>40,0x80,0x3,0</t>
+          <t>15,25x30,5x3,0</t>
         </is>
       </c>
       <c r="L2" s="21" t="inlineStr">
         <is>
-          <t>Hazmer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M2" s="9" t="n">
-        <v>591.36</v>
+        <v>63.257</v>
       </c>
       <c r="N2" s="9" t="n">
         <v>0</v>
@@ -727,52 +727,69 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-06-11T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D3" s="22" t="n"/>
+          <t>2024-07-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>2024-07-09T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E3" s="21" t="inlineStr">
         <is>
-          <t>Ata Sab. - Kuwait</t>
-        </is>
-      </c>
-      <c r="F3" s="22" t="n"/>
+          <t>Fevzi - Turkey</t>
+        </is>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
+        <is>
+          <t>Fevzi - Turkey</t>
+        </is>
+      </c>
       <c r="G3" s="21" t="inlineStr">
         <is>
-          <t>24ATA20</t>
-        </is>
-      </c>
-      <c r="H3" s="22" t="n"/>
+          <t>24FEVZİ09</t>
+        </is>
+      </c>
+      <c r="H3" s="16" t="inlineStr">
+        <is>
+          <t>24FEVZİ09</t>
+        </is>
+      </c>
       <c r="I3" s="21" t="inlineStr">
         <is>
-          <t>Perla</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J3" s="21" t="inlineStr">
         <is>
-          <t>Cloudy (Perla) - Honlu - 50 x 100 x 4 cm</t>
+          <t>Travertine Stairs-Mina Rustic Vein Cut -Dolgusuz&amp;Honlu-30,0x100,0x2,0</t>
         </is>
       </c>
       <c r="K3" s="21" t="inlineStr">
         <is>
-          <t>50,0x100,0x4,0</t>
+          <t>30,0x100,0x2,0</t>
         </is>
       </c>
       <c r="L3" s="21" t="inlineStr">
         <is>
-          <t>Hazmer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M3" s="9" t="n">
-        <v>20</v>
+        <v>217.2</v>
       </c>
       <c r="N3" s="9" t="n">
-        <v>0</v>
+        <v>217.2</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
@@ -785,52 +802,69 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-06-11T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D4" s="23" t="n"/>
+          <t>2024-07-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>2024-07-04T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E4" s="21" t="inlineStr">
         <is>
-          <t>Ata Sab. - Kuwait</t>
-        </is>
-      </c>
-      <c r="F4" s="23" t="n"/>
+          <t>Fevzi - Turkey</t>
+        </is>
+      </c>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t>Fevzi - Turkey</t>
+        </is>
+      </c>
       <c r="G4" s="21" t="inlineStr">
         <is>
-          <t>24ATA20</t>
-        </is>
-      </c>
-      <c r="H4" s="23" t="n"/>
+          <t>24FEVZİ08-2</t>
+        </is>
+      </c>
+      <c r="H4" s="16" t="inlineStr">
+        <is>
+          <t>24FEVZİ08-2</t>
+        </is>
+      </c>
       <c r="I4" s="21" t="inlineStr">
         <is>
-          <t>Perla</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J4" s="21" t="inlineStr">
         <is>
-          <t>Cloudy (Perla) - Honed - 50 x 100 x 5 cm</t>
+          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgusuz&amp;Fırçalı-30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="K4" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">50,0x100,0x5,0 </t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="L4" s="21" t="inlineStr">
         <is>
-          <t>Hazmer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M4" s="9" t="n">
-        <v>100</v>
+        <v>271.26</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>271.26</v>
       </c>
       <c r="O4" s="21" t="inlineStr">
         <is>
@@ -843,69 +877,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D5" s="16" t="inlineStr">
-        <is>
-          <t>2024-06-08T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-07-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="n"/>
       <c r="E5" s="21" t="inlineStr">
         <is>
-          <t>Bruce - USA</t>
-        </is>
-      </c>
-      <c r="F5" s="16" t="inlineStr">
-        <is>
-          <t>Bruce - USA</t>
-        </is>
-      </c>
+          <t>Fevzi - Turkey</t>
+        </is>
+      </c>
+      <c r="F5" s="22" t="n"/>
       <c r="G5" s="21" t="inlineStr">
         <is>
-          <t>24AFG36</t>
-        </is>
-      </c>
-      <c r="H5" s="16" t="inlineStr">
-        <is>
-          <t>24AFG36</t>
-        </is>
-      </c>
+          <t>24FEVZİ08-2</t>
+        </is>
+      </c>
+      <c r="H5" s="22" t="n"/>
       <c r="I5" s="21" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J5" s="21" t="inlineStr">
         <is>
-          <t>1- Classic Light - Dolgusuz Eskitme - 61x61x1,2 cm - 200 adet - 74,42 sqm</t>
+          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Honlu-61,0x61,0x2,0</t>
         </is>
       </c>
       <c r="K5" s="21" t="inlineStr">
         <is>
-          <t>61,0x61,0x1,2</t>
+          <t>61,0x61,0x2,0</t>
         </is>
       </c>
       <c r="L5" s="21" t="inlineStr">
         <is>
-          <t>Şanlı Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M5" s="9" t="n">
-        <v>74.42</v>
+        <v>74.44</v>
       </c>
       <c r="N5" s="9" t="n">
-        <v>0</v>
+        <v>74.44</v>
       </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
@@ -918,52 +935,52 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="B6" s="20" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
+          <t>2024-07-04T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
+          <t>2024-07-04T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E6" s="21" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
+          <t>Serra Marble - Turkey</t>
         </is>
       </c>
       <c r="F6" s="16" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
+          <t>Serra Marble - Turkey</t>
         </is>
       </c>
       <c r="G6" s="21" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
+          <t>24SRM05</t>
         </is>
       </c>
       <c r="H6" s="16" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
+          <t>24SRM05</t>
         </is>
       </c>
       <c r="I6" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J6" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut - Dolgulu &amp; Honlu - 30.5 x Free (30,5-50 cm arası) x 1.2 cm</t>
+          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Honlu-30,5xFreex1,2</t>
         </is>
       </c>
       <c r="K6" s="21" t="inlineStr">
@@ -977,7 +994,7 @@
         </is>
       </c>
       <c r="M6" s="9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N6" s="9" t="n">
         <v>0</v>
@@ -993,49 +1010,49 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
+          <t>2024-07-04T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D7" s="22" t="n"/>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
+          <t>Serra Marble - Turkey</t>
         </is>
       </c>
       <c r="F7" s="22" t="n"/>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
+          <t>24SRM05</t>
         </is>
       </c>
       <c r="H7" s="22" t="n"/>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J7" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut - Dolgulu &amp; Honlu - 30.5 x FREE (45-75 cm arası) x 1.2 cm</t>
+          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgusuz&amp;Honlu-30,5xFreex1,2</t>
         </is>
       </c>
       <c r="K7" s="21" t="inlineStr">
         <is>
-          <t>30,5x75,0x1,2</t>
+          <t>30,5xFreex1,2</t>
         </is>
       </c>
       <c r="L7" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M7" s="9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N7" s="9" t="n">
         <v>0</v>
@@ -1051,40 +1068,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D8" s="22" t="n"/>
+          <t>2024-06-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>2024-06-13T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
-        </is>
-      </c>
-      <c r="F8" s="22" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F8" s="16" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="G8" s="21" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
-        </is>
-      </c>
-      <c r="H8" s="22" t="n"/>
+          <t>24İST-A02</t>
+        </is>
+      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>24İST-A02</t>
+        </is>
+      </c>
       <c r="I8" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J8" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut - Filled &amp; Honed - 30.5 x 61 x 1.2 cm</t>
+          <t>Travertine Tiles-Philadelphia-Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (Toplam 3 kasa, her kasa içi seperatörlü-bağlı 54 set, her kasa 40.12 metrekare, kasalar çift girişli olacak şekilde, Anatolia için sette 20.3 değil 20.1 cm kullanıyoruz)</t>
         </is>
       </c>
       <c r="K8" s="21" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L8" s="21" t="inlineStr">
@@ -1093,7 +1127,7 @@
         </is>
       </c>
       <c r="M8" s="9" t="n">
-        <v>200</v>
+        <v>120.36</v>
       </c>
       <c r="N8" s="9" t="n">
         <v>0</v>
@@ -1109,40 +1143,57 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D9" s="22" t="n"/>
+          <t>2024-06-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>2024-06-07T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
-        </is>
-      </c>
-      <c r="F9" s="22" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="G9" s="21" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
-        </is>
-      </c>
-      <c r="H9" s="22" t="n"/>
+          <t>24İST-G01</t>
+        </is>
+      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>24İST-G01</t>
+        </is>
+      </c>
       <c r="I9" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J9" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut - Dolgusuz &amp; Honlu - 30.5 x Free (30,5-50 cm) x 1.2 cm</t>
+          <t>Travertine Pavers-Philadelphia-Dolgusuz&amp;Honlu-30,5x61,0x3,0 (1056 Adet, 196,48 m2, Kasa içi adet 66, Toplam Kasa Adedi 16)</t>
         </is>
       </c>
       <c r="K9" s="21" t="inlineStr">
         <is>
-          <t>30,5xFreex1,2</t>
+          <t>30,5x61,0x3,0</t>
         </is>
       </c>
       <c r="L9" s="21" t="inlineStr">
@@ -1151,7 +1202,7 @@
         </is>
       </c>
       <c r="M9" s="9" t="n">
-        <v>100</v>
+        <v>196.48</v>
       </c>
       <c r="N9" s="9" t="n">
         <v>0</v>
@@ -1167,49 +1218,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="n"/>
+          <t>2024-06-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D10" s="23" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
-        </is>
-      </c>
-      <c r="F10" s="22" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F10" s="23" t="n"/>
       <c r="G10" s="21" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
-        </is>
-      </c>
-      <c r="H10" s="22" t="n"/>
+          <t>24İST-G01</t>
+        </is>
+      </c>
+      <c r="H10" s="23" t="n"/>
       <c r="I10" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J10" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut - Mastic Dolgu &amp; Honlu - 2 cm Yarım Plaka</t>
+          <t>Travertine Tiles-Philadelphia-Dolgusuz&amp;Honlu&amp;Pahlı-30,5x61,0x4,0 (249 adet, 46,5 m2, kasa içi adet 50, toplamda 5 kasa)</t>
         </is>
       </c>
       <c r="K10" s="21" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>30,5x61,0x4,0</t>
         </is>
       </c>
       <c r="L10" s="21" t="inlineStr">
         <is>
-          <t>DN Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M10" s="9" t="n">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="N10" s="9" t="n">
         <v>0</v>
@@ -1225,49 +1276,49 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D11" s="22" t="n"/>
+          <t>2024-06-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D11" s="23" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
-        </is>
-      </c>
-      <c r="F11" s="22" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F11" s="23" t="n"/>
       <c r="G11" s="21" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
-        </is>
-      </c>
-      <c r="H11" s="22" t="n"/>
+          <t>24İST-G01</t>
+        </is>
+      </c>
+      <c r="H11" s="23" t="n"/>
       <c r="I11" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Classic Vein Cut - Mastic Dolgu &amp; Honlu- 3 cm Yarım Plaka</t>
+          <t>Travertine Tiles-Philadelphia-Dolgulu&amp;Honlu-30,5x61,0x1,2 (108 adet, 20,09 m2)</t>
         </is>
       </c>
       <c r="K11" s="21" t="inlineStr">
         <is>
-          <t>SLABxSLABx3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L11" s="21" t="inlineStr">
         <is>
-          <t>DN Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M11" s="9" t="n">
-        <v>30</v>
+        <v>20.09</v>
       </c>
       <c r="N11" s="9" t="n">
         <v>0</v>
@@ -1283,49 +1334,49 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D12" s="22" t="n"/>
+          <t>2024-06-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D12" s="23" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
-        </is>
-      </c>
-      <c r="F12" s="22" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F12" s="23" t="n"/>
       <c r="G12" s="21" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
-        </is>
-      </c>
-      <c r="H12" s="22" t="n"/>
+          <t>24İST-G01</t>
+        </is>
+      </c>
+      <c r="H12" s="23" t="n"/>
       <c r="I12" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J12" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut - Dolgusuz &amp; Honlu - 30.5 x FREE (45-75 cm ARASI) x 1.2 cm</t>
+          <t>Travertine Tiles-Philadelphia-Dolgulu&amp;Honlu-40,6x40,6x1,2 (16 adet, 2,64 m2)</t>
         </is>
       </c>
       <c r="K12" s="21" t="inlineStr">
         <is>
-          <t>30,5x75,0x1,2</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="L12" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M12" s="9" t="n">
-        <v>100</v>
+        <v>2.64</v>
       </c>
       <c r="N12" s="9" t="n">
         <v>0</v>
@@ -1341,49 +1392,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-06-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D13" s="23" t="n"/>
+          <t>2024-06-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Emil, Riczy - Hungary</t>
-        </is>
-      </c>
-      <c r="F13" s="23" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F13" s="22" t="n"/>
       <c r="G13" s="21" t="inlineStr">
         <is>
-          <t>24RICZ01</t>
-        </is>
-      </c>
-      <c r="H13" s="23" t="n"/>
+          <t>24İST-G01</t>
+        </is>
+      </c>
+      <c r="H13" s="22" t="n"/>
       <c r="I13" s="21" t="inlineStr">
         <is>
-          <t>Mixed</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J13" s="21" t="inlineStr">
         <is>
-          <t>NUMUNE HAZIRLANACAK</t>
+          <t>Travertine Tiles-Philadelphia-Dolgulu&amp;Honlu-40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="K13" s="21" t="inlineStr">
         <is>
-          <t>60,0x60,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L13" s="21" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M13" s="9" t="n">
-        <v>1</v>
+        <v>140.19</v>
       </c>
       <c r="N13" s="9" t="n">
         <v>0</v>
@@ -1399,66 +1450,66 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="B14" s="20" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-05T00:00:00.000Z</t>
+          <t>2024-05-21T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D14" s="16" t="inlineStr">
         <is>
-          <t>2024-06-05T00:00:00.000Z</t>
+          <t>2024-05-21T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Atu - Ghana</t>
+          <t>Natsa - Turkey</t>
         </is>
       </c>
       <c r="F14" s="16" t="inlineStr">
         <is>
-          <t>Atu - Ghana</t>
+          <t>Natsa - Turkey</t>
         </is>
       </c>
       <c r="G14" s="21" t="inlineStr">
         <is>
-          <t>24ATU06</t>
+          <t>24NATSA01</t>
         </is>
       </c>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>24ATU06</t>
+          <t>24NATSA01</t>
         </is>
       </c>
       <c r="I14" s="21" t="inlineStr">
         <is>
-          <t>Perla</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="J14" s="21" t="inlineStr">
         <is>
-          <t>Perla (Beyaz Limestone) - Splitface - 10 x Free</t>
+          <t>Travertine Tiles-Sarı (Gold, Yellow)-Dolgulu&amp;Honlu-ANTxPATx1,2 (Her 1 kasa 52x6 = 312 Adet) Toplamda 270,13 m2, 2184 adet)</t>
         </is>
       </c>
       <c r="K14" s="21" t="inlineStr">
         <is>
-          <t>10,0xFreex2,5</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L14" s="21" t="inlineStr">
         <is>
-          <t>Kent Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M14" s="9" t="n">
-        <v>425</v>
+        <v>270.13</v>
       </c>
       <c r="N14" s="9" t="n">
         <v>0</v>
@@ -1474,57 +1525,57 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="B15" s="20" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-05-31T00:00:00.000Z</t>
+          <t>2024-05-15T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D15" s="16" t="inlineStr">
         <is>
-          <t>2024-05-31T00:00:00.000Z</t>
+          <t>2024-05-15T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="F15" s="16" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="G15" s="21" t="inlineStr">
         <is>
-          <t>24VEIK98</t>
+          <t>24İST-K01-2</t>
         </is>
       </c>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>24VEIK98</t>
+          <t>24İST-K01-2</t>
         </is>
       </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J15" s="21" t="inlineStr">
         <is>
-          <t>Silver - Dolgulu Fırçalı Kenarı Kırık - Mini Pattern Set x 1.2 cm (19 Kasa)</t>
+          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-61,0x61,0x3,0 (Kasa içi 33 adet,  Toplam 270,16 m2) 22 Kasa</t>
         </is>
       </c>
       <c r="K15" s="21" t="inlineStr">
         <is>
-          <t>MINIxPATx1,2</t>
+          <t>61,0x61,0x3,0</t>
         </is>
       </c>
       <c r="L15" s="21" t="inlineStr">
@@ -1533,7 +1584,7 @@
         </is>
       </c>
       <c r="M15" s="9" t="n">
-        <v>721.05</v>
+        <v>270.16</v>
       </c>
       <c r="N15" s="9" t="n">
         <v>0</v>
@@ -1549,40 +1600,40 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-05-31T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D16" s="22" t="n"/>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D16" s="23" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
-        </is>
-      </c>
-      <c r="F16" s="22" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F16" s="23" t="n"/>
       <c r="G16" s="21" t="inlineStr">
         <is>
-          <t>24VEIK98</t>
-        </is>
-      </c>
-      <c r="H16" s="22" t="n"/>
+          <t>24İST-K01-2</t>
+        </is>
+      </c>
+      <c r="H16" s="23" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J16" s="21" t="inlineStr">
         <is>
-          <t>Ela - Dolgulu Fırçalı - Mini Pattern Set x 1.2 cm (10 kasa)</t>
+          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;Tek Tarafı Pahlı-30,5x61,0x5,0 (6 kasa, kasa içi 40 adet,Toplam 240 adet, 44,64 m2)</t>
         </is>
       </c>
       <c r="K16" s="21" t="inlineStr">
         <is>
-          <t>MINIxPATx1,2</t>
+          <t>30,5x61,0x5,0</t>
         </is>
       </c>
       <c r="L16" s="21" t="inlineStr">
@@ -1591,7 +1642,7 @@
         </is>
       </c>
       <c r="M16" s="9" t="n">
-        <v>379.5</v>
+        <v>44.64</v>
       </c>
       <c r="N16" s="9" t="n">
         <v>0</v>
@@ -1607,40 +1658,40 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-05-31T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D17" s="22" t="n"/>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D17" s="23" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
-        </is>
-      </c>
-      <c r="F17" s="22" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F17" s="23" t="n"/>
       <c r="G17" s="21" t="inlineStr">
         <is>
-          <t>24VEIK98</t>
-        </is>
-      </c>
-      <c r="H17" s="22" t="n"/>
+          <t>24İST-K01-2</t>
+        </is>
+      </c>
+      <c r="H17" s="23" t="n"/>
       <c r="I17" s="21" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J17" s="21" t="inlineStr">
         <is>
-          <t>Mina Rustic - Dolgusuz &amp; Fırçalı - 15,25x30,5x1,2</t>
+          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;1 Uzun kenar bulnoz-40,6x61,0x3,0 (6 kasa, kasa içi 66 adet, Toplam 396 adet, 98,1 m2)</t>
         </is>
       </c>
       <c r="K17" s="21" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>40,6x61,0x3,0</t>
         </is>
       </c>
       <c r="L17" s="21" t="inlineStr">
@@ -1649,7 +1700,7 @@
         </is>
       </c>
       <c r="M17" s="9" t="n">
-        <v>390.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="N17" s="9" t="n">
         <v>0</v>
@@ -1665,40 +1716,40 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-05-31T00:00:00.000Z</t>
+          <t>2024-05-15T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D18" s="23" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="F18" s="23" t="n"/>
       <c r="G18" s="21" t="inlineStr">
         <is>
-          <t>24VEIK98</t>
+          <t>24İST-K01-2</t>
         </is>
       </c>
       <c r="H18" s="23" t="n"/>
       <c r="I18" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J18" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey - Dolgusuz &amp; Fırçalı - 15,25x30,5x1,2</t>
+          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;1 uzun kenar bulnoz-30,5x61,0x3,0 (8 kasa, kasa içi 66 adet, Toplam 528 adet, 98,24 m2)</t>
         </is>
       </c>
       <c r="K18" s="21" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>30,5x61,0x3,0</t>
         </is>
       </c>
       <c r="L18" s="21" t="inlineStr">
@@ -1707,7 +1758,7 @@
         </is>
       </c>
       <c r="M18" s="9" t="n">
-        <v>468.96</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="N18" s="9" t="n">
         <v>0</v>
@@ -1723,57 +1774,40 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-05-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D19" s="16" t="inlineStr">
-        <is>
-          <t>2024-05-30T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D19" s="23" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F19" s="16" t="inlineStr">
-        <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F19" s="23" t="n"/>
       <c r="G19" s="21" t="inlineStr">
         <is>
-          <t>24FLOS59</t>
-        </is>
-      </c>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>24FLOS59</t>
-        </is>
-      </c>
+          <t>24İST-K01-2</t>
+        </is>
+      </c>
+      <c r="H19" s="23" t="n"/>
       <c r="I19" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J19" s="21" t="inlineStr">
         <is>
-          <t>1- (112 - Nimbus) - Silver Grey - Dolgulu Eskitme - 40,6 x 61 x 1,2 cm - 1 kasa - 39,63 sqm - 160 adet</t>
+          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;Pahlı-30,5x121,9x5,0 (8 kasa, kasa içi 30 adet, Toplam 240 adet, 89,2 m2)</t>
         </is>
       </c>
       <c r="K19" s="21" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t xml:space="preserve">30,5x121,9x5,0 </t>
         </is>
       </c>
       <c r="L19" s="21" t="inlineStr">
@@ -1782,7 +1816,7 @@
         </is>
       </c>
       <c r="M19" s="9" t="n">
-        <v>39.63</v>
+        <v>89.2</v>
       </c>
       <c r="N19" s="9" t="n">
         <v>0</v>
@@ -1798,56 +1832,56 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-05-30T00:00:00.000Z</t>
+          <t>2024-05-15T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="F20" s="22" t="n"/>
       <c r="G20" s="21" t="inlineStr">
         <is>
-          <t>24FLOS59</t>
+          <t>24İST-K01-2</t>
         </is>
       </c>
       <c r="H20" s="22" t="n"/>
       <c r="I20" s="21" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J20" s="21" t="inlineStr">
         <is>
-          <t>2- (34 - Clara) Golden Ink - Dolgusuz Eskitme 1 Uzun Kenarı Bulnozlu - 33 x 61 x 3 cm - 66 LI 4 KASA - 264 adet - 53,14 sqm</t>
+          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;1 uzun kenar bulnoz-30,5x121,9x5,0 (7 kasa, kasa içi 66 adet, Toplam 210 adet, 78,05 m2)</t>
         </is>
       </c>
       <c r="K20" s="21" t="inlineStr">
         <is>
-          <t>33,0x61,0x3,0</t>
+          <t xml:space="preserve">30,5x121,9x5,0 </t>
         </is>
       </c>
       <c r="L20" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M20" s="9" t="n">
-        <v>264</v>
+        <v>78.05</v>
       </c>
       <c r="N20" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O20" s="21" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P20" s="7" t="n"/>
@@ -1856,56 +1890,73 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-05-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D21" s="22" t="n"/>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F21" s="22" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F21" s="16" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>24FLOS59</t>
-        </is>
-      </c>
-      <c r="H21" s="22" t="n"/>
+          <t>24İST-İ01-2</t>
+        </is>
+      </c>
+      <c r="H21" s="16" t="inlineStr">
+        <is>
+          <t>24İST-İ01-2</t>
+        </is>
+      </c>
       <c r="I21" s="21" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J21" s="21" t="inlineStr">
         <is>
-          <t>3- (14 - Stella) Classic - Dolgusuz Honlu Eskitme 1 Uzun Kenarı Bulnozlu - 33 x 61 x 3 cm - 66 LI 2 KASA - 132 Adet - 26,57 sqm</t>
+          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-30,5x61,0x3,0 (Toplam 56 kasa 687,68 m2, Kasa içi adet 66)</t>
         </is>
       </c>
       <c r="K21" s="21" t="inlineStr">
         <is>
-          <t>33,0x61,0x3,0</t>
+          <t>30,5x61,0x3,0</t>
         </is>
       </c>
       <c r="L21" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M21" s="9" t="n">
-        <v>132</v>
+        <v>687.6799999999999</v>
       </c>
       <c r="N21" s="9" t="n">
-        <v>0</v>
+        <v>356.0997</v>
       </c>
       <c r="O21" s="21" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P21" s="7" t="n"/>
@@ -1914,40 +1965,40 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-05-30T00:00:00.000Z</t>
+          <t>2024-05-15T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="F22" s="22" t="n"/>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>24FLOS59</t>
+          <t>24İST-İ01-2</t>
         </is>
       </c>
       <c r="H22" s="22" t="n"/>
       <c r="I22" s="21" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J22" s="21" t="inlineStr">
         <is>
-          <t>4- (SILL22) Classic - Dolgulu Honlu 2 Uzun Kenarı 2 mm Pahlı Alın Dolgulu Honlu- 22 x 150 x 2 cm - 100 LÜ 2 KASA - 200 Adet - 66 sqm</t>
+          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-MinixPATx3,0 (Toplam palet 50, 697,5 m2,  palet içi adet 260)</t>
         </is>
       </c>
       <c r="K22" s="21" t="inlineStr">
         <is>
-          <t>22,0x150,0x2,0</t>
+          <t>MinixPATx3,0</t>
         </is>
       </c>
       <c r="L22" s="21" t="inlineStr">
@@ -1956,14 +2007,14 @@
         </is>
       </c>
       <c r="M22" s="9" t="n">
-        <v>200</v>
+        <v>348.75</v>
       </c>
       <c r="N22" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O22" s="21" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P22" s="7" t="n"/>
@@ -1972,40 +2023,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-05-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D23" s="22" t="n"/>
+          <t>2024-04-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D23" s="16" t="inlineStr">
+        <is>
+          <t>2024-04-23T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F23" s="22" t="n"/>
+          <t>Edris Maden - Turkey</t>
+        </is>
+      </c>
+      <c r="F23" s="16" t="inlineStr">
+        <is>
+          <t>Edris Maden - Turkey</t>
+        </is>
+      </c>
       <c r="G23" s="21" t="inlineStr">
         <is>
-          <t>24FLOS59</t>
-        </is>
-      </c>
-      <c r="H23" s="22" t="n"/>
+          <t>24EDRS01-4</t>
+        </is>
+      </c>
+      <c r="H23" s="16" t="inlineStr">
+        <is>
+          <t>24EDRS01-4</t>
+        </is>
+      </c>
       <c r="I23" s="21" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J23" s="21" t="inlineStr">
         <is>
-          <t>5- (SILL150) Classic - Dolgulu Honlu 2 Uzun Kenarı 2 mm Pahlı Alın Dolgulu Honlu - 27 x 150 x 2 cm - 66 LI 4 KASA - 264 Adet - 106,92 sqm</t>
+          <t>Travertine Tiles-Classic Vein Cut-HAM-30,5xFreex1,2</t>
         </is>
       </c>
       <c r="K23" s="21" t="inlineStr">
         <is>
-          <t>27,0x150,0x2,0</t>
+          <t>30,5xFreex1,2</t>
         </is>
       </c>
       <c r="L23" s="21" t="inlineStr">
@@ -2014,14 +2082,14 @@
         </is>
       </c>
       <c r="M23" s="9" t="n">
-        <v>264</v>
+        <v>31.9978</v>
       </c>
       <c r="N23" s="9" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="O23" s="21" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P23" s="7" t="n"/>
@@ -2030,35 +2098,52 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-05-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D24" s="22" t="n"/>
+          <t>2024-04-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>2024-04-01T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F24" s="22" t="n"/>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="F24" s="16" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
       <c r="G24" s="21" t="inlineStr">
         <is>
-          <t>24FLOS59</t>
-        </is>
-      </c>
-      <c r="H24" s="22" t="n"/>
+          <t>24PK3006-11</t>
+        </is>
+      </c>
+      <c r="H24" s="16" t="inlineStr">
+        <is>
+          <t>24PK3006-11</t>
+        </is>
+      </c>
       <c r="I24" s="21" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J24" s="21" t="inlineStr">
         <is>
-          <t>6- (65 - Classic Mix) Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm - 210lu 7 Kasa - 1470 adet - 273,49 sqm</t>
+          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K24" s="21" t="inlineStr">
@@ -2072,7 +2157,7 @@
         </is>
       </c>
       <c r="M24" s="9" t="n">
-        <v>273.49</v>
+        <v>714.821</v>
       </c>
       <c r="N24" s="9" t="n">
         <v>0</v>
@@ -2088,49 +2173,66 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-05-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D25" s="23" t="n"/>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F25" s="23" t="n"/>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
+        <is>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
       <c r="G25" s="21" t="inlineStr">
         <is>
-          <t>24FLOS59</t>
-        </is>
-      </c>
-      <c r="H25" s="23" t="n"/>
+          <t>24RICZ01</t>
+        </is>
+      </c>
+      <c r="H25" s="16" t="inlineStr">
+        <is>
+          <t>24RICZ01</t>
+        </is>
+      </c>
       <c r="I25" s="21" t="inlineStr">
         <is>
-          <t>Walnut Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J25" s="21" t="inlineStr">
         <is>
-          <t>7- (105- Antique Cross Cut) Walnut Rustic - Dolgusuz Eskitme - 40,6 x 61 x 1,2 cm - 160lı 5 Kasa - 800 Adet - 198,15 sqm</t>
+          <t>Classic Vein Cut - Dolgulu &amp; Honlu - 30.5 x Free (30,5-50 cm arası) x 1.2 cm</t>
         </is>
       </c>
       <c r="K25" s="21" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5xFreex1,2</t>
         </is>
       </c>
       <c r="L25" s="21" t="inlineStr">
         <is>
-          <t>Sorkun</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M25" s="9" t="n">
-        <v>198.15</v>
+        <v>100</v>
       </c>
       <c r="N25" s="9" t="n">
         <v>0</v>
@@ -2146,52 +2248,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B26" s="20" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D26" s="16" t="inlineStr">
-        <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-06-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D26" s="23" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Osman Avukat - Ghana</t>
-        </is>
-      </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>Osman Avukat - Ghana</t>
-        </is>
-      </c>
+          <t>Emil, Riczy - Hungary</t>
+        </is>
+      </c>
+      <c r="F26" s="23" t="n"/>
       <c r="G26" s="21" t="inlineStr">
         <is>
-          <t>24AVKO01</t>
-        </is>
-      </c>
-      <c r="H26" s="16" t="inlineStr">
-        <is>
-          <t>24AVKO01</t>
-        </is>
-      </c>
+          <t>24RICZ01</t>
+        </is>
+      </c>
+      <c r="H26" s="23" t="n"/>
       <c r="I26" s="21" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J26" s="21" t="inlineStr">
         <is>
-          <t>Marble Tiles-Diana Royal-Cilalı-30,5x61,0x1,2</t>
+          <t>Classic Vein Cut - Filled &amp; Honed - 30.5 x 61 x 1.2 cm</t>
         </is>
       </c>
       <c r="K26" s="21" t="inlineStr">
@@ -2201,14 +2286,14 @@
       </c>
       <c r="L26" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M26" s="9" t="n">
-        <v>35</v>
+        <v>195.35</v>
       </c>
       <c r="N26" s="9" t="n">
-        <v>0</v>
+        <v>195.35</v>
       </c>
       <c r="O26" s="21" t="inlineStr">
         <is>
@@ -2221,49 +2306,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
+          <t>2024-06-06T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Osman Avukat - Ghana</t>
+          <t>Emil, Riczy - Hungary</t>
         </is>
       </c>
       <c r="F27" s="22" t="n"/>
       <c r="G27" s="21" t="inlineStr">
         <is>
-          <t>24AVKO01</t>
+          <t>24RICZ01</t>
         </is>
       </c>
       <c r="H27" s="22" t="n"/>
       <c r="I27" s="21" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J27" s="21" t="inlineStr">
         <is>
-          <t>Marble Tiles-Bianco Ibiza White-Cilalı-30,5x30,5x1,0</t>
+          <t>Classic Vein Cut - Dolgusuz &amp; Honlu - 30.5 x Free (30,5-50 cm) x 1.2 cm</t>
         </is>
       </c>
       <c r="K27" s="21" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,0</t>
+          <t>30,5xFreex1,2</t>
         </is>
       </c>
       <c r="L27" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M27" s="9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N27" s="9" t="n">
         <v>0</v>
@@ -2279,40 +2364,57 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B28" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D28" s="23" t="n"/>
+          <t>2024-05-31T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-31T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Osman Avukat - Ghana</t>
-        </is>
-      </c>
-      <c r="F28" s="23" t="n"/>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
+      <c r="F28" s="16" t="inlineStr">
+        <is>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
       <c r="G28" s="21" t="inlineStr">
         <is>
-          <t>24AVKO01</t>
-        </is>
-      </c>
-      <c r="H28" s="23" t="n"/>
+          <t>24VEIK98</t>
+        </is>
+      </c>
+      <c r="H28" s="16" t="inlineStr">
+        <is>
+          <t>24VEIK98</t>
+        </is>
+      </c>
       <c r="I28" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J28" s="21" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Cilalı-30,5x61,0x1,2</t>
+          <t>Silver - Dolgulu Fırçalı Kenarı Kırık - Mini Pattern Set x 1.2 cm (19 Kasa) - Kod: SBR01-1</t>
         </is>
       </c>
       <c r="K28" s="21" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>MINIxPATx1,2</t>
         </is>
       </c>
       <c r="L28" s="21" t="inlineStr">
@@ -2321,10 +2423,10 @@
         </is>
       </c>
       <c r="M28" s="9" t="n">
-        <v>95</v>
+        <v>721.05</v>
       </c>
       <c r="N28" s="9" t="n">
-        <v>0</v>
+        <v>417.45</v>
       </c>
       <c r="O28" s="21" t="inlineStr">
         <is>
@@ -2337,69 +2439,52 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B29" s="20" t="inlineStr">
-        <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D29" s="16" t="inlineStr">
-        <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-31T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D29" s="23" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Ashraf Dawood - Dubai</t>
-        </is>
-      </c>
-      <c r="F29" s="16" t="inlineStr">
-        <is>
-          <t>Ashraf Dawood - Dubai</t>
-        </is>
-      </c>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
+      <c r="F29" s="23" t="n"/>
       <c r="G29" s="21" t="inlineStr">
         <is>
-          <t>24MOHAJ01</t>
-        </is>
-      </c>
-      <c r="H29" s="16" t="inlineStr">
-        <is>
-          <t>24MOHAJ01</t>
-        </is>
-      </c>
+          <t>24VEIK98</t>
+        </is>
+      </c>
+      <c r="H29" s="23" t="n"/>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>North Blue 1</t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="J29" s="21" t="inlineStr">
         <is>
-          <t>North Blue 1 - Cilalı plaka - SLABxSLABx2,0 - 75,72 m2 - 16 adet  - 9944</t>
+          <t>Ela - Dolgulu Fırçalı - Mini Pattern Set x 1.2 cm (10 kasa) - Kod: SBY02-1</t>
         </is>
       </c>
       <c r="K29" s="21" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>MINIxPATx1,2</t>
         </is>
       </c>
       <c r="L29" s="21" t="inlineStr">
         <is>
-          <t>Şahinmer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M29" s="9" t="n">
-        <v>75.72</v>
+        <v>379.5</v>
       </c>
       <c r="N29" s="9" t="n">
-        <v>75.72</v>
+        <v>0</v>
       </c>
       <c r="O29" s="21" t="inlineStr">
         <is>
@@ -2412,52 +2497,52 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>2024-05-31T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D30" s="23" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Ashraf Dawood - Dubai</t>
-        </is>
-      </c>
-      <c r="F30" s="22" t="n"/>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
+      <c r="F30" s="23" t="n"/>
       <c r="G30" s="21" t="inlineStr">
         <is>
-          <t>24MOHAJ01</t>
-        </is>
-      </c>
-      <c r="H30" s="22" t="n"/>
+          <t>24VEIK98</t>
+        </is>
+      </c>
+      <c r="H30" s="23" t="n"/>
       <c r="I30" s="21" t="inlineStr">
         <is>
-          <t>North Blue 2</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J30" s="21" t="inlineStr">
         <is>
-          <t>North Blue 2 - Cilalı plaka - SLABxSLABx2,0 - 50,46 m2 - 11 adet  - 9943</t>
+          <t>Mina Rustic - Dolgusuz &amp; Fırçalı - 15,25x30,5x1,2 - Kod: ST450-1</t>
         </is>
       </c>
       <c r="K30" s="21" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="L30" s="21" t="inlineStr">
         <is>
-          <t>Şahinmer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M30" s="9" t="n">
-        <v>50.46</v>
+        <v>390.8</v>
       </c>
       <c r="N30" s="9" t="n">
-        <v>50.46</v>
+        <v>195.3525</v>
       </c>
       <c r="O30" s="21" t="inlineStr">
         <is>
@@ -2470,52 +2555,52 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
+          <t>2024-05-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Ashraf Dawood - Dubai</t>
+          <t>Veik - UAE</t>
         </is>
       </c>
       <c r="F31" s="22" t="n"/>
       <c r="G31" s="21" t="inlineStr">
         <is>
-          <t>24MOHAJ01</t>
+          <t>24VEIK98</t>
         </is>
       </c>
       <c r="H31" s="22" t="n"/>
       <c r="I31" s="21" t="inlineStr">
         <is>
-          <t>Ice Grey</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J31" s="21" t="inlineStr">
         <is>
-          <t>Ice Grey - cilalı plaka - SLABxSLABx2,0 - 200,54 m2 - 49 adet</t>
+          <t>Silver Grey - Dolgusuz &amp; Fırçalı - 15,25x30,5x1,2 - Kod: ST448-1</t>
         </is>
       </c>
       <c r="K31" s="21" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="L31" s="21" t="inlineStr">
         <is>
-          <t>Şahinmer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M31" s="9" t="n">
-        <v>200.54</v>
+        <v>468.96</v>
       </c>
       <c r="N31" s="9" t="n">
-        <v>141.39</v>
+        <v>234.423</v>
       </c>
       <c r="O31" s="21" t="inlineStr">
         <is>
@@ -2528,49 +2613,66 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B32" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D32" s="23" t="n"/>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D32" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Ashraf Dawood - Dubai</t>
-        </is>
-      </c>
-      <c r="F32" s="23" t="n"/>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F32" s="16" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
       <c r="G32" s="21" t="inlineStr">
         <is>
-          <t>24MOHAJ01</t>
-        </is>
-      </c>
-      <c r="H32" s="23" t="n"/>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H32" s="16" t="inlineStr">
+        <is>
+          <t>24FLOS59</t>
+        </is>
+      </c>
       <c r="I32" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J32" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut traverten - Ham - 2 cm plaka - 90,01 m2 - 29 adet</t>
+          <t>1- (112 - Nimbus) - Silver Grey - Dolgulu Eskitme - 40,6 x 61 x 1,2 cm - 1 kasa - 39,63 sqm - 160 adet</t>
         </is>
       </c>
       <c r="K32" s="21" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L32" s="21" t="inlineStr">
         <is>
-          <t>Şahinmer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M32" s="9" t="n">
-        <v>90.01000000000001</v>
+        <v>39.63</v>
       </c>
       <c r="N32" s="9" t="n">
         <v>0</v>
@@ -2586,73 +2688,56 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B33" s="20" t="inlineStr">
-        <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D33" s="16" t="inlineStr">
-        <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D33" s="23" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Calum McCarthy - Virgin</t>
-        </is>
-      </c>
-      <c r="F33" s="16" t="inlineStr">
-        <is>
-          <t>Calum McCarthy - Virgin</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F33" s="23" t="n"/>
       <c r="G33" s="21" t="inlineStr">
         <is>
-          <t>24EMCS01</t>
-        </is>
-      </c>
-      <c r="H33" s="16" t="inlineStr">
-        <is>
-          <t>24EMCS01</t>
-        </is>
-      </c>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H33" s="23" t="n"/>
       <c r="I33" s="21" t="inlineStr">
         <is>
-          <t>Classic Limestone</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="J33" s="21" t="inlineStr">
         <is>
-          <t>Classic limestone - Fırçalı - 60,0x120.0x2,0 cm - 744,48 m2 - 1034 adet</t>
+          <t>3- (14 - Stella) Classic - Dolgusuz Honlu Eskitme 1 Uzun Kenarı Bulnozlu - 33 x 61 x 3 cm - 66 LI 2 KASA - 132 Adet - 26,57 sqm</t>
         </is>
       </c>
       <c r="K33" s="21" t="inlineStr">
         <is>
-          <t>60,0x120,0x2,0</t>
+          <t>33,0x61,0x3,0</t>
         </is>
       </c>
       <c r="L33" s="21" t="inlineStr">
         <is>
-          <t>Ece Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M33" s="9" t="n">
-        <v>744.48</v>
+        <v>132</v>
       </c>
       <c r="N33" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O33" s="21" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P33" s="7" t="n"/>
@@ -2661,56 +2746,56 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
+          <t>2024-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D34" s="23" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Calum McCarthy - Virgin</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="F34" s="23" t="n"/>
       <c r="G34" s="21" t="inlineStr">
         <is>
-          <t>24EMCS01</t>
+          <t>24FLOS59</t>
         </is>
       </c>
       <c r="H34" s="23" t="n"/>
       <c r="I34" s="21" t="inlineStr">
         <is>
-          <t>Classic Limestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J34" s="21" t="inlineStr">
         <is>
-          <t>Classic Limestone - Derin fırçalı - 60,0x120,0x2,0 - 744,48 m2 - 1034 adet</t>
+          <t>4- (SILL22) Classic - Dolgulu Honlu 2 Uzun Kenarı 2 mm Pahlı Alın Dolgulu Honlu- 22 x 150 x 2 cm - 100 LÜ 2 KASA - 200 Adet - 66 sqm</t>
         </is>
       </c>
       <c r="K34" s="21" t="inlineStr">
         <is>
-          <t>60,0x120,0x2,0</t>
+          <t>22,0x150,0x2,0</t>
         </is>
       </c>
       <c r="L34" s="21" t="inlineStr">
         <is>
-          <t>Ece Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M34" s="9" t="n">
-        <v>744.48</v>
+        <v>200</v>
       </c>
       <c r="N34" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O34" s="21" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P34" s="7" t="n"/>
@@ -2719,57 +2804,40 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B35" s="20" t="inlineStr">
-        <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D35" s="16" t="inlineStr">
-        <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D35" s="23" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F35" s="16" t="inlineStr">
-        <is>
-          <t>YGM</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F35" s="23" t="n"/>
       <c r="G35" s="21" t="inlineStr">
         <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H35" s="16" t="inlineStr">
-        <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
+          <t>24FLOS59</t>
+        </is>
+      </c>
+      <c r="H35" s="23" t="n"/>
       <c r="I35" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J35" s="21" t="inlineStr">
         <is>
-          <t>Silver Pattern Set - Dolgulu Fırçalı Kenarı Kırık - 1.2 cm Pat. Set - 704 Set - 0.74 m2 kutu - 520.22 m2</t>
+          <t>5- (SILL150) Classic - Dolgulu Honlu 2 Uzun Kenarı 2 mm Pahlı Alın Dolgulu Honlu - 27 x 150 x 2 cm - 66 LI 4 KASA - 264 Adet - 106,92 sqm</t>
         </is>
       </c>
       <c r="K35" s="21" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>27,0x150,0x2,0</t>
         </is>
       </c>
       <c r="L35" s="21" t="inlineStr">
@@ -2778,14 +2846,14 @@
         </is>
       </c>
       <c r="M35" s="9" t="n">
-        <v>520.22</v>
+        <v>264</v>
       </c>
       <c r="N35" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O35" s="21" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P35" s="7" t="n"/>
@@ -2794,52 +2862,52 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
+          <t>2024-05-30T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>YGM</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="F36" s="22" t="n"/>
       <c r="G36" s="21" t="inlineStr">
         <is>
-          <t>24YGM15</t>
+          <t>24FLOS59</t>
         </is>
       </c>
       <c r="H36" s="22" t="n"/>
       <c r="I36" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J36" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Silver Travertine - Dolgulu Honlu - 100x100x2 cm </t>
+          <t>6- (65 - Classic Mix) Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm - 210lu 7 Kasa - 1470 adet - 273,49 sqm</t>
         </is>
       </c>
       <c r="K36" s="21" t="inlineStr">
         <is>
-          <t>100,0x100,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L36" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M36" s="9" t="n">
-        <v>24</v>
+        <v>273.49</v>
       </c>
       <c r="N36" s="9" t="n">
-        <v>0</v>
+        <v>273.492</v>
       </c>
       <c r="O36" s="21" t="inlineStr">
         <is>
@@ -2852,40 +2920,57 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B37" s="20" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="n"/>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-20T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F37" s="22" t="n"/>
+          <t>Osman Avukat - Ghana</t>
+        </is>
+      </c>
+      <c r="F37" s="16" t="inlineStr">
+        <is>
+          <t>Osman Avukat - Ghana</t>
+        </is>
+      </c>
       <c r="G37" s="21" t="inlineStr">
         <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H37" s="22" t="n"/>
+          <t>24AVKO01</t>
+        </is>
+      </c>
+      <c r="H37" s="16" t="inlineStr">
+        <is>
+          <t>24AVKO01</t>
+        </is>
+      </c>
       <c r="I37" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="J37" s="21" t="inlineStr">
         <is>
-          <t>Silver Traverten Basamak -  35 x 100 x 3 - Dolgulu Honlu 1 Uzun Kenar ince Pah ve Led Kanallı!</t>
+          <t>Marble Tiles-Bianco Ibiza White-Cilalı-30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="K37" s="21" t="inlineStr">
         <is>
-          <t>35,0x100,0x3,0</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="L37" s="21" t="inlineStr">
@@ -2894,14 +2979,14 @@
         </is>
       </c>
       <c r="M37" s="9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N37" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O37" s="21" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P37" s="7" t="n"/>
@@ -2910,40 +2995,40 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
+          <t>2024-05-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>YGM</t>
+          <t>Osman Avukat - Ghana</t>
         </is>
       </c>
       <c r="F38" s="22" t="n"/>
       <c r="G38" s="21" t="inlineStr">
         <is>
-          <t>24YGM15</t>
+          <t>24AVKO01</t>
         </is>
       </c>
       <c r="H38" s="22" t="n"/>
       <c r="I38" s="21" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J38" s="21" t="inlineStr">
         <is>
-          <t>Silver Rıht - 17.5 x 100 x 2 cm Dolgulu Honlu İnce Pah Kenar</t>
+          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Cilalı-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K38" s="21" t="inlineStr">
         <is>
-          <t>17,5x100,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L38" s="21" t="inlineStr">
@@ -2952,14 +3037,14 @@
         </is>
       </c>
       <c r="M38" s="9" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="N38" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O38" s="21" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P38" s="7" t="n"/>
@@ -2971,49 +3056,66 @@
           <t>Gizem</t>
         </is>
       </c>
+      <c r="B39" s="20" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>2024-05-17T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D39" s="22" t="n"/>
+      <c r="D39" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-17T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
           <t>YGM</t>
         </is>
       </c>
-      <c r="F39" s="22" t="n"/>
+      <c r="F39" s="16" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
       <c r="G39" s="21" t="inlineStr">
         <is>
           <t>24YGM15</t>
         </is>
       </c>
-      <c r="H39" s="22" t="n"/>
+      <c r="H39" s="16" t="inlineStr">
+        <is>
+          <t>24YGM15</t>
+        </is>
+      </c>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J39" s="21" t="inlineStr">
         <is>
-          <t>Classic Vein Cut Dolgulu Honlu 2 cm Plaka</t>
+          <t>Silver Pattern Set - Dolgulu Fırçalı Kenarı Kırık - 1.2 cm Pat. Set - 704 Set - 0.74 m2 kutu - 520.22 m2</t>
         </is>
       </c>
       <c r="K39" s="21" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L39" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M39" s="9" t="n">
-        <v>161.12</v>
+        <v>520.22</v>
       </c>
       <c r="N39" s="9" t="n">
-        <v>0</v>
+        <v>309.2792</v>
       </c>
       <c r="O39" s="21" t="inlineStr">
         <is>
@@ -3034,19 +3136,19 @@
           <t>2024-05-17T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D40" s="22" t="n"/>
+      <c r="D40" s="23" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
           <t>YGM</t>
         </is>
       </c>
-      <c r="F40" s="22" t="n"/>
+      <c r="F40" s="23" t="n"/>
       <c r="G40" s="21" t="inlineStr">
         <is>
           <t>24YGM15</t>
         </is>
       </c>
-      <c r="H40" s="22" t="n"/>
+      <c r="H40" s="23" t="n"/>
       <c r="I40" s="21" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -3054,12 +3156,12 @@
       </c>
       <c r="J40" s="21" t="inlineStr">
         <is>
-          <t>Silver Traverten Coping 30.5x61x3 cm Dolgulu Honlu - 1 Uzun Kenar  Full Bullnose</t>
+          <t>Silver Traverten Basamak -  35 x 100 x 3 - Dolgulu Honlu 1 Uzun Kenar ince Pah ve Led Kanallı!</t>
         </is>
       </c>
       <c r="K40" s="21" t="inlineStr">
         <is>
-          <t>30,5x61,0x3,0</t>
+          <t>35,0x100,0x3,0</t>
         </is>
       </c>
       <c r="L40" s="21" t="inlineStr">
@@ -3068,7 +3170,7 @@
         </is>
       </c>
       <c r="M40" s="9" t="n">
-        <v>34.16</v>
+        <v>20</v>
       </c>
       <c r="N40" s="9" t="n">
         <v>0</v>
@@ -3092,48 +3194,48 @@
           <t>2024-05-17T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D41" s="22" t="n"/>
+      <c r="D41" s="23" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
           <t>YGM</t>
         </is>
       </c>
-      <c r="F41" s="22" t="n"/>
+      <c r="F41" s="23" t="n"/>
       <c r="G41" s="21" t="inlineStr">
         <is>
           <t>24YGM15</t>
         </is>
       </c>
-      <c r="H41" s="22" t="n"/>
+      <c r="H41" s="23" t="n"/>
       <c r="I41" s="21" t="inlineStr">
         <is>
-          <t>Crystal White</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J41" s="21" t="inlineStr">
         <is>
-          <t>Crystal White - Cilalı - 100,0x100,0x2,0 cm</t>
+          <t>Silver Rıht - 17.5 x 100 x 2 cm Dolgulu Honlu</t>
         </is>
       </c>
       <c r="K41" s="21" t="inlineStr">
         <is>
-          <t>100,0x100,0x2,0</t>
+          <t>17,5x100,0x2,0</t>
         </is>
       </c>
       <c r="L41" s="21" t="inlineStr">
         <is>
-          <t>Kommersan</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M41" s="9" t="n">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="N41" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O41" s="21" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="P41" s="7" t="n"/>
@@ -3165,26 +3267,26 @@
       <c r="H42" s="22" t="n"/>
       <c r="I42" s="21" t="inlineStr">
         <is>
-          <t>Crystal White</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J42" s="21" t="inlineStr">
         <is>
-          <t>Crystal White baseboard - cilalı &amp; bullnose - 20,0x100,0x2,0</t>
+          <t>Silver Traverten Coping 30.5x61x3 cm Dolgulu Honlu - 1 Uzun Kenar  Full Bullnose</t>
         </is>
       </c>
       <c r="K42" s="21" t="inlineStr">
         <is>
-          <t>20,0x100,0x2,0</t>
+          <t>30,5x61,0x3,0</t>
         </is>
       </c>
       <c r="L42" s="21" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M42" s="9" t="n">
-        <v>118</v>
+        <v>34.16</v>
       </c>
       <c r="N42" s="9" t="n">
         <v>0</v>
@@ -3203,49 +3305,66 @@
           <t>Gizem</t>
         </is>
       </c>
+      <c r="B43" s="20" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D43" s="22" t="n"/>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D43" s="16" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F43" s="22" t="n"/>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F43" s="16" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
       <c r="G43" s="21" t="inlineStr">
         <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H43" s="22" t="n"/>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H43" s="16" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
       <c r="I43" s="21" t="inlineStr">
         <is>
-          <t>Crystal White</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J43" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crystal White Plaka -  2 cm - Cilalı </t>
+          <t>2- Mina Rustic - Dolgulu Fırçalı Kenarı Kırık - ANT x PAT x 1,2 cm - 86,25 sqm - 116 set</t>
         </is>
       </c>
       <c r="K43" s="21" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L43" s="21" t="inlineStr">
         <is>
-          <t>Kommersan</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M43" s="9" t="n">
-        <v>160</v>
+        <v>86.25</v>
       </c>
       <c r="N43" s="9" t="n">
-        <v>0</v>
+        <v>8.9215</v>
       </c>
       <c r="O43" s="21" t="inlineStr">
         <is>
@@ -3263,453 +3382,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D44" s="23" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F44" s="22" t="n"/>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F44" s="23" t="n"/>
       <c r="G44" s="21" t="inlineStr">
         <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H44" s="22" t="n"/>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H44" s="23" t="n"/>
       <c r="I44" s="21" t="inlineStr">
         <is>
-          <t>Crystal White</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="J44" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crystal White Mozaik -  7.5x15 cm Mesh Üstünde - Honlu - DM-075-0201 Kodlu - 215 adet - 0.093 m2 each </t>
-        </is>
-      </c>
-      <c r="K44" s="21" t="inlineStr">
-        <is>
-          <t>7,5x15,0x2,0</t>
-        </is>
-      </c>
-      <c r="L44" s="21" t="inlineStr">
-        <is>
-          <t>Denmar</t>
-        </is>
-      </c>
-      <c r="M44" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P44" s="7" t="n"/>
-      <c r="Q44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="n"/>
-      <c r="E45" s="21" t="inlineStr">
-        <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F45" s="22" t="n"/>
-      <c r="G45" s="21" t="inlineStr">
-        <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H45" s="22" t="n"/>
-      <c r="I45" s="21" t="inlineStr">
-        <is>
-          <t>Calacatta Erin</t>
-        </is>
-      </c>
-      <c r="J45" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monza Quartz (Calacatta Erin) - Plaka 2 cm - Cilalı </t>
-        </is>
-      </c>
-      <c r="K45" s="21" t="inlineStr">
-        <is>
-          <t>164,0x330,0x2,0</t>
-        </is>
-      </c>
-      <c r="L45" s="21" t="inlineStr">
-        <is>
-          <t>Coante</t>
-        </is>
-      </c>
-      <c r="M45" s="9" t="n">
-        <v>43.96</v>
-      </c>
-      <c r="N45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P45" s="7" t="n"/>
-      <c r="Q45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D46" s="23" t="n"/>
-      <c r="E46" s="21" t="inlineStr">
-        <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F46" s="23" t="n"/>
-      <c r="G46" s="21" t="inlineStr">
-        <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H46" s="23" t="n"/>
-      <c r="I46" s="21" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="J46" s="21" t="inlineStr">
-        <is>
-          <t>Silver Traverten - Patlatma - 10,0xFree</t>
-        </is>
-      </c>
-      <c r="K46" s="21" t="inlineStr">
-        <is>
-          <t>10,0xFreex</t>
-        </is>
-      </c>
-      <c r="L46" s="21" t="inlineStr">
-        <is>
-          <t>Kent Mermer</t>
-        </is>
-      </c>
-      <c r="M46" s="9" t="n">
-        <v>225</v>
-      </c>
-      <c r="N46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P46" s="7" t="n"/>
-      <c r="Q46" s="7" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B47" s="20" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D47" s="16" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E47" s="21" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F47" s="16" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="G47" s="21" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="H47" s="16" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="I47" s="21" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="J47" s="21" t="inlineStr">
-        <is>
-          <t>1- Classic Mina Light - Dolgulu Yarı Cilalı - 60cm x120cm x 2cm - 791,28 sqm - 1099 adet
-11- Classic Mina Light - Dolgulu Honlu - 60cm x120cm x 2cm - 21,6 sqm - 30 adet
-TOTAL: 812,88 sqm - 1129pcs</t>
-        </is>
-      </c>
-      <c r="K47" s="21" t="inlineStr">
-        <is>
-          <t>60,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="L47" s="21" t="inlineStr">
-        <is>
-          <t>Nova - Afyon</t>
-        </is>
-      </c>
-      <c r="M47" s="9" t="n">
-        <v>812.88</v>
-      </c>
-      <c r="N47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P47" s="7" t="n"/>
-      <c r="Q47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D48" s="22" t="n"/>
-      <c r="E48" s="21" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F48" s="22" t="n"/>
-      <c r="G48" s="21" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="H48" s="22" t="n"/>
-      <c r="I48" s="21" t="inlineStr">
-        <is>
-          <t>Mina Rustic</t>
-        </is>
-      </c>
-      <c r="J48" s="21" t="inlineStr">
-        <is>
-          <t>2- Mina Rustic - Dolgulu Fırçalı Kenarı Kırık - ANT x PAT x 1,2 cm - 86,25 sqm - 116 set</t>
-        </is>
-      </c>
-      <c r="K48" s="21" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-      <c r="L48" s="21" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M48" s="9" t="n">
-        <v>86.25</v>
-      </c>
-      <c r="N48" s="9" t="n">
-        <v>8.9215</v>
-      </c>
-      <c r="O48" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P48" s="7" t="n"/>
-      <c r="Q48" s="7" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
-      <c r="E49" s="21" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F49" s="22" t="n"/>
-      <c r="G49" s="21" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="H49" s="22" t="n"/>
-      <c r="I49" s="21" t="inlineStr">
-        <is>
-          <t>GL 132624</t>
-        </is>
-      </c>
-      <c r="J49" s="21" t="inlineStr">
-        <is>
-          <t>3- Cam Mozaik - GL 132624 - Cilalı - 2,5 x 2,5 cm - 66 sqm - Meshli</t>
-        </is>
-      </c>
-      <c r="K49" s="21" t="inlineStr">
-        <is>
-          <t>2,5x2,5x1,0</t>
-        </is>
-      </c>
-      <c r="L49" s="21" t="inlineStr">
-        <is>
-          <t>Yerevdekor</t>
-        </is>
-      </c>
-      <c r="M49" s="9" t="n">
-        <v>66</v>
-      </c>
-      <c r="N49" s="9" t="n">
-        <v>66</v>
-      </c>
-      <c r="O49" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P49" s="7" t="n"/>
-      <c r="Q49" s="7" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D50" s="22" t="n"/>
-      <c r="E50" s="21" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F50" s="22" t="n"/>
-      <c r="G50" s="21" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="H50" s="22" t="n"/>
-      <c r="I50" s="21" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="J50" s="21" t="inlineStr">
-        <is>
-          <t>4- Classic Mina Light Antique - Eskitme - 7,5x15x1 cm - 44.01 sqm - 3912 adet</t>
-        </is>
-      </c>
-      <c r="K50" s="21" t="inlineStr">
-        <is>
-          <t>7,5x15,0x1,0</t>
-        </is>
-      </c>
-      <c r="L50" s="21" t="inlineStr">
-        <is>
-          <t>Ayarlanmadi</t>
-        </is>
-      </c>
-      <c r="M50" s="9" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="N50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P50" s="7" t="n"/>
-      <c r="Q50" s="7" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D51" s="22" t="n"/>
-      <c r="E51" s="21" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F51" s="22" t="n"/>
-      <c r="G51" s="21" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="H51" s="22" t="n"/>
-      <c r="I51" s="21" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="J51" s="21" t="inlineStr">
         <is>
           <t>5- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 42 sqm
 6- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 29 sqm
@@ -3719,1946 +3413,778 @@
 TOTAL: 479,08 sqm - 2575 adet</t>
         </is>
       </c>
-      <c r="K51" s="21" t="inlineStr">
+      <c r="K44" s="21" t="inlineStr">
         <is>
           <t>30,5x61,0x1,2</t>
         </is>
       </c>
-      <c r="L51" s="21" t="inlineStr">
+      <c r="L44" s="21" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="M51" s="9" t="n">
+      <c r="M44" s="9" t="n">
         <v>479.08</v>
       </c>
-      <c r="N51" s="9" t="n">
+      <c r="N44" s="9" t="n">
+        <v>156.282</v>
+      </c>
+      <c r="O44" s="21" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P44" s="7" t="n"/>
+      <c r="Q44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D45" s="23" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F45" s="23" t="n"/>
+      <c r="G45" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H45" s="23" t="n"/>
+      <c r="I45" s="21" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="J45" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10- Classic Mina Light - Dolgulu Honlu 1 Uzun Kenarı 4 mm Pahlı - 30 x 150 x 3 cm Rıhtlar 15 x 150 x 2 cm SET! - 40 Adet </t>
+        </is>
+      </c>
+      <c r="K45" s="21" t="inlineStr">
+        <is>
+          <t>30,0x150,0x3,0</t>
+        </is>
+      </c>
+      <c r="L45" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M45" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="N45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O51" s="21" t="inlineStr">
+      <c r="O45" s="21" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P45" s="7" t="n"/>
+      <c r="Q45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D46" s="22" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>Farouk Hamza - Ghana</t>
+        </is>
+      </c>
+      <c r="F46" s="22" t="n"/>
+      <c r="G46" s="21" t="inlineStr">
+        <is>
+          <t>24FRIM01-2</t>
+        </is>
+      </c>
+      <c r="H46" s="22" t="n"/>
+      <c r="I46" s="21" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="J46" s="21" t="inlineStr">
+        <is>
+          <t>12- Classic Mina Light - Dolgulu Honlu - 10cm x 60cm x 2cm - 560,4 lmt - 934 adet - PAH VAR MI SONRA KONUŞULACAK!</t>
+        </is>
+      </c>
+      <c r="K46" s="21" t="inlineStr">
+        <is>
+          <t>10,0x60,0x2,0</t>
+        </is>
+      </c>
+      <c r="L46" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M46" s="9" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="N46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="P46" s="7" t="n"/>
+      <c r="Q46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B47" s="20" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D47" s="16" t="inlineStr">
+        <is>
+          <t>2023-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="G47" s="21" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="H47" s="16" t="inlineStr">
+        <is>
+          <t>23STAD01</t>
+        </is>
+      </c>
+      <c r="I47" s="21" t="inlineStr">
+        <is>
+          <t>Pablo Cross Cut</t>
+        </is>
+      </c>
+      <c r="J47" s="21" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Pablo Cross Cut - Dolgulu&amp;Fırçalı&amp;Düz Kenar - 40,6X61,0X1,2 (1616 Adet)</t>
+        </is>
+      </c>
+      <c r="K47" s="21" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L47" s="21" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M47" s="9" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="N47" s="9" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="O47" s="21" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
+      <c r="P47" s="7" t="n"/>
+      <c r="Q47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="21" t="n"/>
+      <c r="E48" s="21" t="n"/>
+      <c r="F48" s="21" t="n"/>
+      <c r="G48" s="21" t="n"/>
+      <c r="H48" s="21" t="n"/>
+      <c r="I48" s="21" t="n"/>
+      <c r="J48" s="21" t="n"/>
+      <c r="K48" s="21" t="n"/>
+      <c r="L48" s="21" t="n"/>
+      <c r="M48" s="9" t="n"/>
+      <c r="N48" s="9" t="n"/>
+      <c r="O48" s="21" t="n"/>
+      <c r="P48" s="7" t="n"/>
+      <c r="Q48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="21" t="n"/>
+      <c r="E49" s="21" t="n"/>
+      <c r="F49" s="21" t="n"/>
+      <c r="G49" s="21" t="n"/>
+      <c r="H49" s="21" t="n"/>
+      <c r="I49" s="21" t="n"/>
+      <c r="J49" s="21" t="n"/>
+      <c r="K49" s="21" t="n"/>
+      <c r="L49" s="21" t="n"/>
+      <c r="M49" s="9" t="n"/>
+      <c r="N49" s="9" t="n"/>
+      <c r="O49" s="21" t="n"/>
+      <c r="P49" s="7" t="n"/>
+      <c r="Q49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="21" t="n"/>
+      <c r="E50" s="21" t="n"/>
+      <c r="F50" s="21" t="n"/>
+      <c r="G50" s="21" t="n"/>
+      <c r="H50" s="21" t="n"/>
+      <c r="I50" s="21" t="n"/>
+      <c r="J50" s="21" t="n"/>
+      <c r="K50" s="21" t="n"/>
+      <c r="L50" s="21" t="n"/>
+      <c r="M50" s="9" t="n"/>
+      <c r="N50" s="9" t="n"/>
+      <c r="O50" s="21" t="n"/>
+      <c r="P50" s="7" t="n"/>
+      <c r="Q50" s="7" t="n"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="21" t="n"/>
+      <c r="E51" s="21" t="n"/>
+      <c r="F51" s="21" t="n"/>
+      <c r="G51" s="21" t="n"/>
+      <c r="H51" s="21" t="n"/>
+      <c r="I51" s="21" t="n"/>
+      <c r="J51" s="21" t="n"/>
+      <c r="K51" s="21" t="n"/>
+      <c r="L51" s="21" t="n"/>
+      <c r="M51" s="9" t="n"/>
+      <c r="N51" s="9" t="n"/>
+      <c r="O51" s="21" t="n"/>
       <c r="P51" s="7" t="n"/>
       <c r="Q51" s="7" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D52" s="22" t="n"/>
-      <c r="E52" s="21" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F52" s="22" t="n"/>
-      <c r="G52" s="21" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="H52" s="22" t="n"/>
-      <c r="I52" s="21" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="J52" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10- Classic Mina Light - Dolgulu Honlu 1 Uzun Kenarı 4 mm Pahlı - 30 x 150 x 3 cm Rıhtlar 15 x 150 x 2 cm SET! - 40 Adet </t>
-        </is>
-      </c>
-      <c r="K52" s="21" t="inlineStr">
-        <is>
-          <t>30,0x150,0x3,0</t>
-        </is>
-      </c>
-      <c r="L52" s="21" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M52" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="N52" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D52" s="21" t="n"/>
+      <c r="E52" s="21" t="n"/>
+      <c r="F52" s="21" t="n"/>
+      <c r="G52" s="21" t="n"/>
+      <c r="H52" s="21" t="n"/>
+      <c r="I52" s="21" t="n"/>
+      <c r="J52" s="21" t="n"/>
+      <c r="K52" s="21" t="n"/>
+      <c r="L52" s="21" t="n"/>
+      <c r="M52" s="9" t="n"/>
+      <c r="N52" s="9" t="n"/>
+      <c r="O52" s="21" t="n"/>
       <c r="P52" s="7" t="n"/>
       <c r="Q52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D53" s="22" t="n"/>
-      <c r="E53" s="21" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F53" s="22" t="n"/>
-      <c r="G53" s="21" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="H53" s="22" t="n"/>
-      <c r="I53" s="21" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="J53" s="21" t="inlineStr">
-        <is>
-          <t>12- Classic Mina Light - Dolgulu Honlu - 10cm x 60cm x 2cm - 560,4 lmt - 934 adet - PAH VAR MI SONRA KONUŞULACAK!</t>
-        </is>
-      </c>
-      <c r="K53" s="21" t="inlineStr">
-        <is>
-          <t>10,0x60,0x2,0</t>
-        </is>
-      </c>
-      <c r="L53" s="21" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M53" s="9" t="n">
-        <v>560.4</v>
-      </c>
-      <c r="N53" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="21" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
+      <c r="D53" s="21" t="n"/>
+      <c r="E53" s="21" t="n"/>
+      <c r="F53" s="21" t="n"/>
+      <c r="G53" s="21" t="n"/>
+      <c r="H53" s="21" t="n"/>
+      <c r="I53" s="21" t="n"/>
+      <c r="J53" s="21" t="n"/>
+      <c r="K53" s="21" t="n"/>
+      <c r="L53" s="21" t="n"/>
+      <c r="M53" s="9" t="n"/>
+      <c r="N53" s="9" t="n"/>
+      <c r="O53" s="21" t="n"/>
       <c r="P53" s="7" t="n"/>
       <c r="Q53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D54" s="23" t="n"/>
-      <c r="E54" s="21" t="inlineStr">
-        <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F54" s="23" t="n"/>
-      <c r="G54" s="21" t="inlineStr">
-        <is>
-          <t>24FRIM01-2</t>
-        </is>
-      </c>
-      <c r="H54" s="23" t="n"/>
-      <c r="I54" s="21" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="J54" s="21" t="inlineStr">
-        <is>
-          <t>13) Her -- His -- master bedroom special Design tiles estimated sqm and cost - DETAYA GÖRE ÜRÜN KARTI REVİZE OLACAK!</t>
-        </is>
-      </c>
-      <c r="K54" s="21" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="L54" s="21" t="inlineStr">
-        <is>
-          <t>Ayarlanmadi</t>
-        </is>
-      </c>
-      <c r="M54" s="9" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="N54" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D54" s="21" t="n"/>
+      <c r="E54" s="21" t="n"/>
+      <c r="F54" s="21" t="n"/>
+      <c r="G54" s="21" t="n"/>
+      <c r="H54" s="21" t="n"/>
+      <c r="I54" s="21" t="n"/>
+      <c r="J54" s="21" t="n"/>
+      <c r="K54" s="21" t="n"/>
+      <c r="L54" s="21" t="n"/>
+      <c r="M54" s="9" t="n"/>
+      <c r="N54" s="9" t="n"/>
+      <c r="O54" s="21" t="n"/>
       <c r="P54" s="7" t="n"/>
       <c r="Q54" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B55" s="20" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2024-05-07T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D55" s="16" t="inlineStr">
-        <is>
-          <t>2024-05-07T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E55" s="21" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="F55" s="16" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="G55" s="21" t="inlineStr">
-        <is>
-          <t>24DSP11</t>
-        </is>
-      </c>
-      <c r="H55" s="16" t="inlineStr">
-        <is>
-          <t>24DSP11</t>
-        </is>
-      </c>
-      <c r="I55" s="21" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="J55" s="21" t="inlineStr">
-        <is>
-          <t>1- Diana Royal - Fırçalı &amp; Kenarı Kırık - 61 x 61 x 1,2 cm - 327,47 sqm - 880 Adet - 11 kasa</t>
-        </is>
-      </c>
-      <c r="K55" s="21" t="inlineStr">
-        <is>
-          <t>61,0x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="L55" s="21" t="inlineStr">
-        <is>
-          <t>Kanal Mermer</t>
-        </is>
-      </c>
-      <c r="M55" s="9" t="n">
-        <v>327.47</v>
-      </c>
-      <c r="N55" s="9" t="n">
-        <v>327.47</v>
-      </c>
-      <c r="O55" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D55" s="21" t="n"/>
+      <c r="E55" s="21" t="n"/>
+      <c r="F55" s="21" t="n"/>
+      <c r="G55" s="21" t="n"/>
+      <c r="H55" s="21" t="n"/>
+      <c r="I55" s="21" t="n"/>
+      <c r="J55" s="21" t="n"/>
+      <c r="K55" s="21" t="n"/>
+      <c r="L55" s="21" t="n"/>
+      <c r="M55" s="9" t="n"/>
+      <c r="N55" s="9" t="n"/>
+      <c r="O55" s="21" t="n"/>
       <c r="P55" s="7" t="n"/>
       <c r="Q55" s="7" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2024-05-07T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D56" s="23" t="n"/>
-      <c r="E56" s="21" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="F56" s="23" t="n"/>
-      <c r="G56" s="21" t="inlineStr">
-        <is>
-          <t>24DSP11</t>
-        </is>
-      </c>
-      <c r="H56" s="23" t="n"/>
-      <c r="I56" s="21" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="J56" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2- Diana Royal - Cilalı 1 Uzun Kenarı 4 mm Alın Pah Cilalı - 20,3 x 61 x 2 cm - 300,91 sqm - 2430 Adet - 162 li 15 Kasa </t>
-        </is>
-      </c>
-      <c r="K56" s="21" t="inlineStr">
-        <is>
-          <t>20,3x61,0x2,0</t>
-        </is>
-      </c>
-      <c r="L56" s="21" t="inlineStr">
-        <is>
-          <t>Kanal Mermer</t>
-        </is>
-      </c>
-      <c r="M56" s="9" t="n">
-        <v>300.91</v>
-      </c>
-      <c r="N56" s="9" t="n">
-        <v>322.15</v>
-      </c>
-      <c r="O56" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="21" t="n"/>
+      <c r="K56" s="21" t="n"/>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="9" t="n"/>
+      <c r="N56" s="9" t="n"/>
+      <c r="O56" s="21" t="n"/>
       <c r="P56" s="7" t="n"/>
       <c r="Q56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B57" s="20" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2024-04-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D57" s="16" t="inlineStr">
-        <is>
-          <t>2024-04-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E57" s="21" t="inlineStr">
-        <is>
-          <t>Bruce - USA</t>
-        </is>
-      </c>
-      <c r="F57" s="16" t="inlineStr">
-        <is>
-          <t>Bruce - USA</t>
-        </is>
-      </c>
-      <c r="G57" s="21" t="inlineStr">
-        <is>
-          <t>24AFG35</t>
-        </is>
-      </c>
-      <c r="H57" s="16" t="inlineStr">
-        <is>
-          <t>24AFG35</t>
-        </is>
-      </c>
-      <c r="I57" s="21" t="inlineStr">
-        <is>
-          <t>Calacatta Green</t>
-        </is>
-      </c>
-      <c r="J57" s="21" t="inlineStr">
-        <is>
-          <t>1- Manikür Lavabosu - Calacatta Green - Cilalı - 45,7 x 48,25 x 50,8 cm - 2 adet</t>
-        </is>
-      </c>
-      <c r="K57" s="21" t="inlineStr">
-        <is>
-          <t>45,7x48,25x50,8</t>
-        </is>
-      </c>
-      <c r="L57" s="21" t="inlineStr">
-        <is>
-          <t>Erkan Mermer</t>
-        </is>
-      </c>
-      <c r="M57" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N57" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O57" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="21" t="n"/>
+      <c r="K57" s="21" t="n"/>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="9" t="n"/>
+      <c r="N57" s="9" t="n"/>
+      <c r="O57" s="21" t="n"/>
       <c r="P57" s="7" t="n"/>
       <c r="Q57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2024-04-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D58" s="22" t="n"/>
-      <c r="E58" s="21" t="inlineStr">
-        <is>
-          <t>Bruce - USA</t>
-        </is>
-      </c>
-      <c r="F58" s="22" t="n"/>
-      <c r="G58" s="21" t="inlineStr">
-        <is>
-          <t>24AFG35</t>
-        </is>
-      </c>
-      <c r="H58" s="22" t="n"/>
-      <c r="I58" s="21" t="inlineStr">
-        <is>
-          <t>Calacatta Green</t>
-        </is>
-      </c>
-      <c r="J58" s="21" t="inlineStr">
-        <is>
-          <t>2- Pedikür Lavabosu - Calacatta Green - Cilalı - 44,5 x 54,6 x 20,3 cm - 4 adet</t>
-        </is>
-      </c>
-      <c r="K58" s="21" t="inlineStr">
-        <is>
-          <t>44,5x54,6x20,3</t>
-        </is>
-      </c>
-      <c r="L58" s="21" t="inlineStr">
-        <is>
-          <t>Erkan Mermer</t>
-        </is>
-      </c>
-      <c r="M58" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O58" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="21" t="n"/>
+      <c r="K58" s="21" t="n"/>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="9" t="n"/>
+      <c r="N58" s="9" t="n"/>
+      <c r="O58" s="21" t="n"/>
       <c r="P58" s="7" t="n"/>
       <c r="Q58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2024-04-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D59" s="23" t="n"/>
-      <c r="E59" s="21" t="inlineStr">
-        <is>
-          <t>Bruce - USA</t>
-        </is>
-      </c>
-      <c r="F59" s="23" t="n"/>
-      <c r="G59" s="21" t="inlineStr">
-        <is>
-          <t>24AFG35</t>
-        </is>
-      </c>
-      <c r="H59" s="23" t="n"/>
-      <c r="I59" s="21" t="inlineStr">
-        <is>
-          <t>Calacatta Green</t>
-        </is>
-      </c>
-      <c r="J59" s="21" t="inlineStr">
-        <is>
-          <t>3- Manikür Lavabosu - Calacatta Green - Cilalı - 44,5 x 44,5 x 20,3 cm - 1 Adet</t>
-        </is>
-      </c>
-      <c r="K59" s="21" t="inlineStr">
-        <is>
-          <t>44,5x44,5x20,3</t>
-        </is>
-      </c>
-      <c r="L59" s="21" t="inlineStr">
-        <is>
-          <t>Erkan Mermer</t>
-        </is>
-      </c>
-      <c r="M59" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="21" t="n"/>
+      <c r="K59" s="21" t="n"/>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="9" t="n"/>
+      <c r="N59" s="9" t="n"/>
+      <c r="O59" s="21" t="n"/>
       <c r="P59" s="7" t="n"/>
       <c r="Q59" s="7" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B60" s="20" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2024-04-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D60" s="16" t="inlineStr">
-        <is>
-          <t>2024-04-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E60" s="21" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="F60" s="16" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="G60" s="21" t="inlineStr">
-        <is>
-          <t>24VML01-2</t>
-        </is>
-      </c>
-      <c r="H60" s="16" t="inlineStr">
-        <is>
-          <t>24VML01-2</t>
-        </is>
-      </c>
-      <c r="I60" s="21" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="J60" s="21" t="inlineStr">
-        <is>
-          <t>3- Traverten Baluster - Classic Mina - Dolgulu Cilalı - 15,2 x 86,4 x 15,2 cm - 150 Adet</t>
-        </is>
-      </c>
-      <c r="K60" s="21" t="inlineStr">
-        <is>
-          <t>15,2x86,4x15,2</t>
-        </is>
-      </c>
-      <c r="L60" s="21" t="inlineStr">
-        <is>
-          <t>Candoğan Mermer</t>
-        </is>
-      </c>
-      <c r="M60" s="9" t="n">
-        <v>150</v>
-      </c>
-      <c r="N60" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D60" s="21" t="n"/>
+      <c r="E60" s="21" t="n"/>
+      <c r="F60" s="21" t="n"/>
+      <c r="G60" s="21" t="n"/>
+      <c r="H60" s="21" t="n"/>
+      <c r="I60" s="21" t="n"/>
+      <c r="J60" s="21" t="n"/>
+      <c r="K60" s="21" t="n"/>
+      <c r="L60" s="21" t="n"/>
+      <c r="M60" s="9" t="n"/>
+      <c r="N60" s="9" t="n"/>
+      <c r="O60" s="21" t="n"/>
       <c r="P60" s="7" t="n"/>
       <c r="Q60" s="7" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2024-04-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D61" s="22" t="n"/>
-      <c r="E61" s="21" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="F61" s="22" t="n"/>
-      <c r="G61" s="21" t="inlineStr">
-        <is>
-          <t>24VML01-2</t>
-        </is>
-      </c>
-      <c r="H61" s="22" t="n"/>
-      <c r="I61" s="21" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="J61" s="21" t="inlineStr">
-        <is>
-          <t>4- Traverten Basamak - Classic Mina - Dolgulu Cilalı 1 Uzun Kenarı Alından Kırık ROCKFACE - 33 x 213,4 x 6 cm - 12 Adet - 8,45 sqm</t>
-        </is>
-      </c>
-      <c r="K61" s="21" t="inlineStr">
-        <is>
-          <t>33,0x213,4x6,0</t>
-        </is>
-      </c>
-      <c r="L61" s="21" t="inlineStr">
-        <is>
-          <t>Candoğan Mermer</t>
-        </is>
-      </c>
-      <c r="M61" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="N61" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="O61" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D61" s="21" t="n"/>
+      <c r="E61" s="21" t="n"/>
+      <c r="F61" s="21" t="n"/>
+      <c r="G61" s="21" t="n"/>
+      <c r="H61" s="21" t="n"/>
+      <c r="I61" s="21" t="n"/>
+      <c r="J61" s="21" t="n"/>
+      <c r="K61" s="21" t="n"/>
+      <c r="L61" s="21" t="n"/>
+      <c r="M61" s="9" t="n"/>
+      <c r="N61" s="9" t="n"/>
+      <c r="O61" s="21" t="n"/>
       <c r="P61" s="7" t="n"/>
       <c r="Q61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2024-04-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D62" s="22" t="n"/>
-      <c r="E62" s="21" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="F62" s="22" t="n"/>
-      <c r="G62" s="21" t="inlineStr">
-        <is>
-          <t>24VML01-2</t>
-        </is>
-      </c>
-      <c r="H62" s="22" t="n"/>
-      <c r="I62" s="21" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="J62" s="21" t="inlineStr">
-        <is>
-          <t>5- Traverten Duvar Üstü - Classic Mina - Dolgulu Cilalı - 36 x 100 x 9 cm - 19,81 lmt - 7,13 sqm</t>
-        </is>
-      </c>
-      <c r="K62" s="21" t="inlineStr">
-        <is>
-          <t>36,0x100,0x9,0</t>
-        </is>
-      </c>
-      <c r="L62" s="21" t="inlineStr">
-        <is>
-          <t>Candoğan Mermer</t>
-        </is>
-      </c>
-      <c r="M62" s="9" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="N62" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" s="21" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
+      <c r="D62" s="21" t="n"/>
+      <c r="E62" s="21" t="n"/>
+      <c r="F62" s="21" t="n"/>
+      <c r="G62" s="21" t="n"/>
+      <c r="H62" s="21" t="n"/>
+      <c r="I62" s="21" t="n"/>
+      <c r="J62" s="21" t="n"/>
+      <c r="K62" s="21" t="n"/>
+      <c r="L62" s="21" t="n"/>
+      <c r="M62" s="9" t="n"/>
+      <c r="N62" s="9" t="n"/>
+      <c r="O62" s="21" t="n"/>
       <c r="P62" s="7" t="n"/>
       <c r="Q62" s="7" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2024-04-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D63" s="22" t="n"/>
-      <c r="E63" s="21" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="F63" s="22" t="n"/>
-      <c r="G63" s="21" t="inlineStr">
-        <is>
-          <t>24VML01-2</t>
-        </is>
-      </c>
-      <c r="H63" s="22" t="n"/>
-      <c r="I63" s="21" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="J63" s="21" t="inlineStr">
-        <is>
-          <t>6- Traverten Profil Üstü Rayı - Classic Mina - Dolgulu Cilalı - 26 x 100 x 10 cm - 45,72 lmt - 11,89 sqm</t>
-        </is>
-      </c>
-      <c r="K63" s="21" t="inlineStr">
-        <is>
-          <t>26,0x100,0x10,0</t>
-        </is>
-      </c>
-      <c r="L63" s="21" t="inlineStr">
-        <is>
-          <t>Candoğan Mermer</t>
-        </is>
-      </c>
-      <c r="M63" s="9" t="n">
-        <v>45.72</v>
-      </c>
-      <c r="N63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" s="21" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
+      <c r="D63" s="21" t="n"/>
+      <c r="E63" s="21" t="n"/>
+      <c r="F63" s="21" t="n"/>
+      <c r="G63" s="21" t="n"/>
+      <c r="H63" s="21" t="n"/>
+      <c r="I63" s="21" t="n"/>
+      <c r="J63" s="21" t="n"/>
+      <c r="K63" s="21" t="n"/>
+      <c r="L63" s="21" t="n"/>
+      <c r="M63" s="9" t="n"/>
+      <c r="N63" s="9" t="n"/>
+      <c r="O63" s="21" t="n"/>
       <c r="P63" s="7" t="n"/>
       <c r="Q63" s="7" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2024-04-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
-      <c r="E64" s="21" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="F64" s="22" t="n"/>
-      <c r="G64" s="21" t="inlineStr">
-        <is>
-          <t>24VML01-2</t>
-        </is>
-      </c>
-      <c r="H64" s="22" t="n"/>
-      <c r="I64" s="21" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="J64" s="21" t="inlineStr">
-        <is>
-          <t>7- Traverten Merdiven Babası - Classic Mina - Dolgulu Cilalı 4 yüzünden 2 cm oymalı desenli - 30 x 102 x 30 cm - 8 adet</t>
-        </is>
-      </c>
-      <c r="K64" s="21" t="inlineStr">
-        <is>
-          <t>30,0x102,0x30,0</t>
-        </is>
-      </c>
-      <c r="L64" s="21" t="inlineStr">
-        <is>
-          <t>Candoğan Mermer</t>
-        </is>
-      </c>
-      <c r="M64" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N64" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O64" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D64" s="21" t="n"/>
+      <c r="E64" s="21" t="n"/>
+      <c r="F64" s="21" t="n"/>
+      <c r="G64" s="21" t="n"/>
+      <c r="H64" s="21" t="n"/>
+      <c r="I64" s="21" t="n"/>
+      <c r="J64" s="21" t="n"/>
+      <c r="K64" s="21" t="n"/>
+      <c r="L64" s="21" t="n"/>
+      <c r="M64" s="9" t="n"/>
+      <c r="N64" s="9" t="n"/>
+      <c r="O64" s="21" t="n"/>
       <c r="P64" s="7" t="n"/>
       <c r="Q64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2024-04-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D65" s="22" t="n"/>
-      <c r="E65" s="21" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="F65" s="22" t="n"/>
-      <c r="G65" s="21" t="inlineStr">
-        <is>
-          <t>24VML01-2</t>
-        </is>
-      </c>
-      <c r="H65" s="22" t="n"/>
-      <c r="I65" s="21" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="J65" s="21" t="inlineStr">
-        <is>
-          <t>8- Traverten Baba Başlık - Classic Mina - Dolgulu Cilalı 2 cm Delik - 32/36 x 32/36 x 7,6 cm - 8 adet</t>
-        </is>
-      </c>
-      <c r="K65" s="21" t="inlineStr">
-        <is>
-          <t>32,0x36,0x7,6</t>
-        </is>
-      </c>
-      <c r="L65" s="21" t="inlineStr">
-        <is>
-          <t>Candoğan Mermer</t>
-        </is>
-      </c>
-      <c r="M65" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="21" t="n"/>
+      <c r="K65" s="21" t="n"/>
+      <c r="L65" s="21" t="n"/>
+      <c r="M65" s="9" t="n"/>
+      <c r="N65" s="9" t="n"/>
+      <c r="O65" s="21" t="n"/>
       <c r="P65" s="7" t="n"/>
       <c r="Q65" s="7" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2024-04-02T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D66" s="23" t="n"/>
-      <c r="E66" s="21" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="F66" s="23" t="n"/>
-      <c r="G66" s="21" t="inlineStr">
-        <is>
-          <t>24VML01-2</t>
-        </is>
-      </c>
-      <c r="H66" s="23" t="n"/>
-      <c r="I66" s="21" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="J66" s="21" t="inlineStr">
-        <is>
-          <t>9- Traverten Baluster Alt Taşı - Classic Mina - Dolgulu Cilalı 1 Uzun Kenarı Alından Kırık Rockface - 20,32 x 100 x 6 cm - 45,72 lmt - 9,29 sqm</t>
-        </is>
-      </c>
-      <c r="K66" s="21" t="inlineStr">
-        <is>
-          <t>20,32x100,0x6,0</t>
-        </is>
-      </c>
-      <c r="L66" s="21" t="inlineStr">
-        <is>
-          <t>Candoğan Mermer</t>
-        </is>
-      </c>
-      <c r="M66" s="9" t="n">
-        <v>45.72</v>
-      </c>
-      <c r="N66" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="21" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="21" t="n"/>
+      <c r="K66" s="21" t="n"/>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="9" t="n"/>
+      <c r="N66" s="9" t="n"/>
+      <c r="O66" s="21" t="n"/>
       <c r="P66" s="7" t="n"/>
       <c r="Q66" s="7" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B67" s="20" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D67" s="16" t="inlineStr">
-        <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E67" s="21" t="inlineStr">
-        <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="F67" s="16" t="inlineStr">
-        <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="G67" s="21" t="inlineStr">
-        <is>
-          <t>23PENTA01-3</t>
-        </is>
-      </c>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>23PENTA01-3</t>
-        </is>
-      </c>
-      <c r="I67" s="21" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="J67" s="21" t="inlineStr">
-        <is>
-          <t>Silver traverten - dolgulu honlu - 60x120x2 cm</t>
-        </is>
-      </c>
-      <c r="K67" s="21" t="inlineStr">
-        <is>
-          <t>60,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="L67" s="21" t="inlineStr">
-        <is>
-          <t>Emaş Doğaltaş</t>
-        </is>
-      </c>
-      <c r="M67" s="9" t="n">
-        <v>552.96</v>
-      </c>
-      <c r="N67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="21" t="n"/>
+      <c r="K67" s="21" t="n"/>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="9" t="n"/>
+      <c r="N67" s="9" t="n"/>
+      <c r="O67" s="21" t="n"/>
       <c r="P67" s="7" t="n"/>
       <c r="Q67" s="7" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2024-01-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D68" s="23" t="n"/>
-      <c r="E68" s="21" t="inlineStr">
-        <is>
-          <t>Yadira Rodriguez - Uruguay</t>
-        </is>
-      </c>
-      <c r="F68" s="23" t="n"/>
-      <c r="G68" s="21" t="inlineStr">
-        <is>
-          <t>23PENTA01-3</t>
-        </is>
-      </c>
-      <c r="H68" s="23" t="n"/>
-      <c r="I68" s="21" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="J68" s="21" t="inlineStr">
-        <is>
-          <t>Silver traverten Plaka - Dolgulu honlu -SLABXSLABX2,0</t>
-        </is>
-      </c>
-      <c r="K68" s="21" t="inlineStr">
-        <is>
-          <t>SLABxSLABx2,0</t>
-        </is>
-      </c>
-      <c r="L68" s="21" t="inlineStr">
-        <is>
-          <t>Emaş Doğaltaş</t>
-        </is>
-      </c>
-      <c r="M68" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="N68" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="21" t="n"/>
+      <c r="K68" s="21" t="n"/>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="9" t="n"/>
+      <c r="N68" s="9" t="n"/>
+      <c r="O68" s="21" t="n"/>
       <c r="P68" s="7" t="n"/>
       <c r="Q68" s="7" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B69" s="20" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2023-10-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D69" s="16" t="inlineStr">
-        <is>
-          <t>2023-10-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E69" s="21" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="F69" s="16" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="G69" s="21" t="inlineStr">
-        <is>
-          <t>23COS33</t>
-        </is>
-      </c>
-      <c r="H69" s="16" t="inlineStr">
-        <is>
-          <t>23COS33</t>
-        </is>
-      </c>
-      <c r="I69" s="21" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="J69" s="21" t="inlineStr">
-        <is>
-          <t>Diana Royal - Cilalı Plaka (arkası meşli) - 2 cm</t>
-        </is>
-      </c>
-      <c r="K69" s="21" t="inlineStr">
-        <is>
-          <t>SLABxSLABx2,0</t>
-        </is>
-      </c>
-      <c r="L69" s="21" t="inlineStr">
-        <is>
-          <t>Köylü Mermer</t>
-        </is>
-      </c>
-      <c r="M69" s="9" t="n">
-        <v>145.56</v>
-      </c>
-      <c r="N69" s="9" t="n">
-        <v>145.56</v>
-      </c>
-      <c r="O69" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D69" s="21" t="n"/>
+      <c r="E69" s="21" t="n"/>
+      <c r="F69" s="21" t="n"/>
+      <c r="G69" s="21" t="n"/>
+      <c r="H69" s="21" t="n"/>
+      <c r="I69" s="21" t="n"/>
+      <c r="J69" s="21" t="n"/>
+      <c r="K69" s="21" t="n"/>
+      <c r="L69" s="21" t="n"/>
+      <c r="M69" s="9" t="n"/>
+      <c r="N69" s="9" t="n"/>
+      <c r="O69" s="21" t="n"/>
       <c r="P69" s="7" t="n"/>
       <c r="Q69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2023-10-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D70" s="22" t="n"/>
-      <c r="E70" s="21" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="F70" s="22" t="n"/>
-      <c r="G70" s="21" t="inlineStr">
-        <is>
-          <t>23COS33</t>
-        </is>
-      </c>
-      <c r="H70" s="22" t="n"/>
-      <c r="I70" s="21" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="J70" s="21" t="inlineStr">
-        <is>
-          <t>Classic Cross Cut Traverten - Dolgusuz Honlu (arkası meşli) - 2 cm</t>
-        </is>
-      </c>
-      <c r="K70" s="21" t="inlineStr">
-        <is>
-          <t>SLABxSLABx2,0</t>
-        </is>
-      </c>
-      <c r="L70" s="21" t="inlineStr">
-        <is>
-          <t>Ertu Mermer</t>
-        </is>
-      </c>
-      <c r="M70" s="9" t="n">
-        <v>60.84</v>
-      </c>
-      <c r="N70" s="9" t="n">
-        <v>60.84</v>
-      </c>
-      <c r="O70" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D70" s="21" t="n"/>
+      <c r="E70" s="21" t="n"/>
+      <c r="F70" s="21" t="n"/>
+      <c r="G70" s="21" t="n"/>
+      <c r="H70" s="21" t="n"/>
+      <c r="I70" s="21" t="n"/>
+      <c r="J70" s="21" t="n"/>
+      <c r="K70" s="21" t="n"/>
+      <c r="L70" s="21" t="n"/>
+      <c r="M70" s="9" t="n"/>
+      <c r="N70" s="9" t="n"/>
+      <c r="O70" s="21" t="n"/>
       <c r="P70" s="7" t="n"/>
       <c r="Q70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2023-10-30T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D71" s="23" t="n"/>
-      <c r="E71" s="21" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="F71" s="23" t="n"/>
-      <c r="G71" s="21" t="inlineStr">
-        <is>
-          <t>23COS33</t>
-        </is>
-      </c>
-      <c r="H71" s="23" t="n"/>
-      <c r="I71" s="21" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="J71" s="21" t="inlineStr">
-        <is>
-          <t>Classic Cross Cut Plaka - Dolgulu Honlu (arkası meşli) - 2 cm</t>
-        </is>
-      </c>
-      <c r="K71" s="21" t="inlineStr">
-        <is>
-          <t>SLABxSLABx2,0</t>
-        </is>
-      </c>
-      <c r="L71" s="21" t="inlineStr">
-        <is>
-          <t>Ece Mermer</t>
-        </is>
-      </c>
-      <c r="M71" s="9" t="n">
-        <v>225</v>
-      </c>
-      <c r="N71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D71" s="21" t="n"/>
+      <c r="E71" s="21" t="n"/>
+      <c r="F71" s="21" t="n"/>
+      <c r="G71" s="21" t="n"/>
+      <c r="H71" s="21" t="n"/>
+      <c r="I71" s="21" t="n"/>
+      <c r="J71" s="21" t="n"/>
+      <c r="K71" s="21" t="n"/>
+      <c r="L71" s="21" t="n"/>
+      <c r="M71" s="9" t="n"/>
+      <c r="N71" s="9" t="n"/>
+      <c r="O71" s="21" t="n"/>
       <c r="P71" s="7" t="n"/>
       <c r="Q71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B72" s="20" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2023-10-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D72" s="16" t="inlineStr">
-        <is>
-          <t>2023-10-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E72" s="21" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="F72" s="16" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="G72" s="21" t="inlineStr">
-        <is>
-          <t>23COS32</t>
-        </is>
-      </c>
-      <c r="H72" s="16" t="inlineStr">
-        <is>
-          <t>23COS32</t>
-        </is>
-      </c>
-      <c r="I72" s="21" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="J72" s="21" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut Plaka - Dolgulu Honlu ya da Cilalı (Arkası meşli) - 2 cm Slab</t>
-        </is>
-      </c>
-      <c r="K72" s="21" t="inlineStr">
-        <is>
-          <t>SLABxSLABx2,0</t>
-        </is>
-      </c>
-      <c r="L72" s="21" t="inlineStr">
-        <is>
-          <t>Ayarlanmadi</t>
-        </is>
-      </c>
-      <c r="M72" s="9" t="n">
-        <v>450</v>
-      </c>
-      <c r="N72" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D72" s="21" t="n"/>
+      <c r="E72" s="21" t="n"/>
+      <c r="F72" s="21" t="n"/>
+      <c r="G72" s="21" t="n"/>
+      <c r="H72" s="21" t="n"/>
+      <c r="I72" s="21" t="n"/>
+      <c r="J72" s="21" t="n"/>
+      <c r="K72" s="21" t="n"/>
+      <c r="L72" s="21" t="n"/>
+      <c r="M72" s="9" t="n"/>
+      <c r="N72" s="9" t="n"/>
+      <c r="O72" s="21" t="n"/>
       <c r="P72" s="7" t="n"/>
       <c r="Q72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B73" s="20" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D73" s="16" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E73" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F73" s="16" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="G73" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H73" s="16" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="I73" s="21" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-      <c r="J73" s="21" t="inlineStr">
-        <is>
-          <t>Marble Tiles - Bluestone - Cilalı - ANTXPATX1,2</t>
-        </is>
-      </c>
-      <c r="K73" s="21" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-      <c r="L73" s="21" t="inlineStr">
-        <is>
-          <t>Tabi Mermer</t>
-        </is>
-      </c>
-      <c r="M73" s="9" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="N73" s="9" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="O73" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D73" s="21" t="n"/>
+      <c r="E73" s="21" t="n"/>
+      <c r="F73" s="21" t="n"/>
+      <c r="G73" s="21" t="n"/>
+      <c r="H73" s="21" t="n"/>
+      <c r="I73" s="21" t="n"/>
+      <c r="J73" s="21" t="n"/>
+      <c r="K73" s="21" t="n"/>
+      <c r="L73" s="21" t="n"/>
+      <c r="M73" s="9" t="n"/>
+      <c r="N73" s="9" t="n"/>
+      <c r="O73" s="21" t="n"/>
       <c r="P73" s="7" t="n"/>
       <c r="Q73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D74" s="22" t="n"/>
-      <c r="E74" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F74" s="22" t="n"/>
-      <c r="G74" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H74" s="22" t="n"/>
-      <c r="I74" s="21" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-      <c r="J74" s="21" t="inlineStr">
-        <is>
-          <t>Marble Tiles - Bluestone - Kumlama&amp;Fırçalı- ANTXPATX1,2</t>
-        </is>
-      </c>
-      <c r="K74" s="21" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-      <c r="L74" s="21" t="inlineStr">
-        <is>
-          <t>Tabi Mermer</t>
-        </is>
-      </c>
-      <c r="M74" s="9" t="n">
-        <v>120.45</v>
-      </c>
-      <c r="N74" s="9" t="n">
-        <v>120.45</v>
-      </c>
-      <c r="O74" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D74" s="21" t="n"/>
+      <c r="E74" s="21" t="n"/>
+      <c r="F74" s="21" t="n"/>
+      <c r="G74" s="21" t="n"/>
+      <c r="H74" s="21" t="n"/>
+      <c r="I74" s="21" t="n"/>
+      <c r="J74" s="21" t="n"/>
+      <c r="K74" s="21" t="n"/>
+      <c r="L74" s="21" t="n"/>
+      <c r="M74" s="9" t="n"/>
+      <c r="N74" s="9" t="n"/>
+      <c r="O74" s="21" t="n"/>
       <c r="P74" s="7" t="n"/>
       <c r="Q74" s="7" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D75" s="22" t="n"/>
-      <c r="E75" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F75" s="22" t="n"/>
-      <c r="G75" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H75" s="22" t="n"/>
-      <c r="I75" s="21" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-      <c r="J75" s="21" t="inlineStr">
-        <is>
-          <t>Travertine Rıht - Bluestone - Kumlama&amp;Fırçalı- 14,0X120,0X2,0</t>
-        </is>
-      </c>
-      <c r="K75" s="21" t="inlineStr">
-        <is>
-          <t>14,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="L75" s="21" t="inlineStr">
-        <is>
-          <t>Tabi Mermer</t>
-        </is>
-      </c>
-      <c r="M75" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="N75" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="O75" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D75" s="21" t="n"/>
+      <c r="E75" s="21" t="n"/>
+      <c r="F75" s="21" t="n"/>
+      <c r="G75" s="21" t="n"/>
+      <c r="H75" s="21" t="n"/>
+      <c r="I75" s="21" t="n"/>
+      <c r="J75" s="21" t="n"/>
+      <c r="K75" s="21" t="n"/>
+      <c r="L75" s="21" t="n"/>
+      <c r="M75" s="9" t="n"/>
+      <c r="N75" s="9" t="n"/>
+      <c r="O75" s="21" t="n"/>
       <c r="P75" s="7" t="n"/>
       <c r="Q75" s="7" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D76" s="22" t="n"/>
-      <c r="E76" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F76" s="22" t="n"/>
-      <c r="G76" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H76" s="22" t="n"/>
-      <c r="I76" s="21" t="inlineStr">
-        <is>
-          <t>Hygassos</t>
-        </is>
-      </c>
-      <c r="J76" s="21" t="inlineStr">
-        <is>
-          <t>(3302) Quartz Slab - Hygassos - Cilalı - 2 cm Kalınlık - sqm daha sonra netleşecek</t>
-        </is>
-      </c>
-      <c r="K76" s="21" t="inlineStr">
-        <is>
-          <t>VARxVARx2,0</t>
-        </is>
-      </c>
-      <c r="L76" s="21" t="inlineStr">
-        <is>
-          <t>Coante</t>
-        </is>
-      </c>
-      <c r="M76" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D76" s="21" t="n"/>
+      <c r="E76" s="21" t="n"/>
+      <c r="F76" s="21" t="n"/>
+      <c r="G76" s="21" t="n"/>
+      <c r="H76" s="21" t="n"/>
+      <c r="I76" s="21" t="n"/>
+      <c r="J76" s="21" t="n"/>
+      <c r="K76" s="21" t="n"/>
+      <c r="L76" s="21" t="n"/>
+      <c r="M76" s="9" t="n"/>
+      <c r="N76" s="9" t="n"/>
+      <c r="O76" s="21" t="n"/>
       <c r="P76" s="7" t="n"/>
       <c r="Q76" s="7" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D77" s="22" t="n"/>
-      <c r="E77" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F77" s="22" t="n"/>
-      <c r="G77" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H77" s="22" t="n"/>
-      <c r="I77" s="21" t="inlineStr">
-        <is>
-          <t>Kitchen Cabinets</t>
-        </is>
-      </c>
-      <c r="J77" s="21" t="inlineStr">
-        <is>
-          <t>Mutfak Dolabı - GÖVDE MDFLAM; 
-DOLAP KAPAKLARI LAKE ANTRASİT MAT VE LAKE PARLAK BEYAZ detaylar sqm daha sonra netleştirilecek</t>
-        </is>
-      </c>
-      <c r="K77" s="21" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="L77" s="21" t="inlineStr">
-        <is>
-          <t>Anka Ahşap</t>
-        </is>
-      </c>
-      <c r="M77" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D77" s="21" t="n"/>
+      <c r="E77" s="21" t="n"/>
+      <c r="F77" s="21" t="n"/>
+      <c r="G77" s="21" t="n"/>
+      <c r="H77" s="21" t="n"/>
+      <c r="I77" s="21" t="n"/>
+      <c r="J77" s="21" t="n"/>
+      <c r="K77" s="21" t="n"/>
+      <c r="L77" s="21" t="n"/>
+      <c r="M77" s="9" t="n"/>
+      <c r="N77" s="9" t="n"/>
+      <c r="O77" s="21" t="n"/>
       <c r="P77" s="7" t="n"/>
       <c r="Q77" s="7" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D78" s="22" t="n"/>
-      <c r="E78" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F78" s="22" t="n"/>
-      <c r="G78" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H78" s="22" t="n"/>
-      <c r="I78" s="21" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-      <c r="J78" s="21" t="inlineStr">
-        <is>
-          <t>Travertine Sahanlık - Bluestone - Kumlama&amp;Fırçalı- 43,5X132,0X2,0</t>
-        </is>
-      </c>
-      <c r="K78" s="21" t="inlineStr">
-        <is>
-          <t>43,5x132,0x2,0</t>
-        </is>
-      </c>
-      <c r="L78" s="21" t="inlineStr">
-        <is>
-          <t>Tabi Mermer</t>
-        </is>
-      </c>
-      <c r="M78" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N78" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="O78" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D78" s="21" t="n"/>
+      <c r="E78" s="21" t="n"/>
+      <c r="F78" s="21" t="n"/>
+      <c r="G78" s="21" t="n"/>
+      <c r="H78" s="21" t="n"/>
+      <c r="I78" s="21" t="n"/>
+      <c r="J78" s="21" t="n"/>
+      <c r="K78" s="21" t="n"/>
+      <c r="L78" s="21" t="n"/>
+      <c r="M78" s="9" t="n"/>
+      <c r="N78" s="9" t="n"/>
+      <c r="O78" s="21" t="n"/>
       <c r="P78" s="7" t="n"/>
       <c r="Q78" s="7" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D79" s="22" t="n"/>
-      <c r="E79" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F79" s="22" t="n"/>
-      <c r="G79" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H79" s="22" t="n"/>
-      <c r="I79" s="21" t="inlineStr">
-        <is>
-          <t>Pablo Cross Cut</t>
-        </is>
-      </c>
-      <c r="J79" s="21" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Pablo Cross Cut - Dolgulu&amp;Fırçalı&amp;Düz Kenar - 40,6X61,0X1,2 (1616 Adet)</t>
-        </is>
-      </c>
-      <c r="K79" s="21" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="L79" s="21" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M79" s="9" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="N79" s="9" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="O79" s="21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="D79" s="21" t="n"/>
+      <c r="E79" s="21" t="n"/>
+      <c r="F79" s="21" t="n"/>
+      <c r="G79" s="21" t="n"/>
+      <c r="H79" s="21" t="n"/>
+      <c r="I79" s="21" t="n"/>
+      <c r="J79" s="21" t="n"/>
+      <c r="K79" s="21" t="n"/>
+      <c r="L79" s="21" t="n"/>
+      <c r="M79" s="9" t="n"/>
+      <c r="N79" s="9" t="n"/>
+      <c r="O79" s="21" t="n"/>
       <c r="P79" s="7" t="n"/>
       <c r="Q79" s="7" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
-      <c r="E80" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F80" s="22" t="n"/>
-      <c r="G80" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H80" s="22" t="n"/>
-      <c r="I80" s="21" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-      <c r="J80" s="21" t="inlineStr">
-        <is>
-          <t>Basamak - Bluestone - Fırçalı Kumlama &amp; 1 Uzun Kenarı 2 mm Pahlı 3 Kaymaz Oluklu - 35 x 120 x 2 cm - 22 adet - 9,24 sqm</t>
-        </is>
-      </c>
-      <c r="K80" s="21" t="inlineStr">
-        <is>
-          <t>35,0x120,0x2,0</t>
-        </is>
-      </c>
-      <c r="L80" s="21" t="inlineStr">
-        <is>
-          <t>Tabi Mermer</t>
-        </is>
-      </c>
-      <c r="M80" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="N80" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="O80" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D80" s="21" t="n"/>
+      <c r="E80" s="21" t="n"/>
+      <c r="F80" s="21" t="n"/>
+      <c r="G80" s="21" t="n"/>
+      <c r="H80" s="21" t="n"/>
+      <c r="I80" s="21" t="n"/>
+      <c r="J80" s="21" t="n"/>
+      <c r="K80" s="21" t="n"/>
+      <c r="L80" s="21" t="n"/>
+      <c r="M80" s="9" t="n"/>
+      <c r="N80" s="9" t="n"/>
+      <c r="O80" s="21" t="n"/>
       <c r="P80" s="7" t="n"/>
       <c r="Q80" s="7" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D81" s="22" t="n"/>
-      <c r="E81" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F81" s="22" t="n"/>
-      <c r="G81" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H81" s="22" t="n"/>
-      <c r="I81" s="21" t="inlineStr">
-        <is>
-          <t>Bathroom Sink Cabinet</t>
-        </is>
-      </c>
-      <c r="J81" s="21" t="inlineStr">
-        <is>
-          <t>Banyo dolabı 45x80 cm - ayna, lavabo ve dolap içerir</t>
-        </is>
-      </c>
-      <c r="K81" s="21" t="inlineStr">
-        <is>
-          <t>45,0x80,0xVarious</t>
-        </is>
-      </c>
-      <c r="L81" s="21" t="inlineStr">
-        <is>
-          <t>Karpa</t>
-        </is>
-      </c>
-      <c r="M81" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N81" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D81" s="21" t="n"/>
+      <c r="E81" s="21" t="n"/>
+      <c r="F81" s="21" t="n"/>
+      <c r="G81" s="21" t="n"/>
+      <c r="H81" s="21" t="n"/>
+      <c r="I81" s="21" t="n"/>
+      <c r="J81" s="21" t="n"/>
+      <c r="K81" s="21" t="n"/>
+      <c r="L81" s="21" t="n"/>
+      <c r="M81" s="9" t="n"/>
+      <c r="N81" s="9" t="n"/>
+      <c r="O81" s="21" t="n"/>
       <c r="P81" s="7" t="n"/>
       <c r="Q81" s="7" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D82" s="23" t="n"/>
-      <c r="E82" s="21" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F82" s="23" t="n"/>
-      <c r="G82" s="21" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H82" s="23" t="n"/>
-      <c r="I82" s="21" t="inlineStr">
-        <is>
-          <t>Refrigerator</t>
-        </is>
-      </c>
-      <c r="J82" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10- SILVERLINE - REFRIGERATOR - BLACK
-</t>
-        </is>
-      </c>
-      <c r="K82" s="21" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="L82" s="21" t="inlineStr">
-        <is>
-          <t>Süllü Yapı</t>
-        </is>
-      </c>
-      <c r="M82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" s="21" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
+      <c r="D82" s="21" t="n"/>
+      <c r="E82" s="21" t="n"/>
+      <c r="F82" s="21" t="n"/>
+      <c r="G82" s="21" t="n"/>
+      <c r="H82" s="21" t="n"/>
+      <c r="I82" s="21" t="n"/>
+      <c r="J82" s="21" t="n"/>
+      <c r="K82" s="21" t="n"/>
+      <c r="L82" s="21" t="n"/>
+      <c r="M82" s="9" t="n"/>
+      <c r="N82" s="9" t="n"/>
+      <c r="O82" s="21" t="n"/>
       <c r="P82" s="7" t="n"/>
       <c r="Q82" s="7" t="n"/>
     </row>
@@ -18385,87 +16911,87 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:Q1">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="0" hiddenButton="0" showButton="0"/>
+    <filterColumn colId="2" hiddenButton="0" showButton="0"/>
+    <filterColumn colId="4" hiddenButton="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="76">
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="H47"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="D23"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H23"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="F9:F13"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="H39:H42"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="D39:D42"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="H5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="B14"/>
-    <mergeCell ref="D14"/>
-    <mergeCell ref="F14"/>
-    <mergeCell ref="H14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="D35:D46"/>
-    <mergeCell ref="F35:F46"/>
-    <mergeCell ref="H35:H46"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="D47:D54"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="H47:H54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="H60:H66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="B72"/>
-    <mergeCell ref="D72"/>
-    <mergeCell ref="F72"/>
-    <mergeCell ref="H72"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="D73:D82"/>
-    <mergeCell ref="F73:F82"/>
-    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="D47"/>
+    <mergeCell ref="F47"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D32:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/excel/dosyalar/Uretim_list.xlsx
+++ b/excel/dosyalar/Uretim_list.xlsx
@@ -17,8 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -29,12 +30,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8312F"/>
+        <bgColor rgb="FFF8312F"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -149,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -199,8 +206,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,69 +651,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="B2" s="17" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-04T00:00:00.000Z</t>
+          <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>2024-07-04T00:00:00.000Z</t>
+          <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>Serra Marble - Turkey</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>Serra Marble - Turkey</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
-          <t>24SRM05</t>
+          <t>Labone Project</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>24SRM05</t>
+          <t>Labone Project</t>
         </is>
       </c>
       <c r="I2" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Turkish Calacatta</t>
         </is>
       </c>
       <c r="J2" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Honlu-30,5xFreex1,2</t>
+          <t>Marble Tiles-Turkish Calacatta-Dolgulu&amp;Yarı Cilalı&amp;Mat Yüzey-30,5x61,0x1,2 (115 m2, 618 Pcs)</t>
         </is>
       </c>
       <c r="K2" s="6" t="inlineStr">
         <is>
-          <t>30,5xFreex1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ionic Stone</t>
         </is>
       </c>
       <c r="M2" s="7" t="n">
-        <v>1000</v>
+        <v>115</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="O2" s="6" t="inlineStr">
         <is>
@@ -710,210 +721,176 @@
         </is>
       </c>
       <c r="P2" s="18" t="n">
-        <v>441</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-04T00:00:00.000Z</t>
+          <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D3" s="19" t="n"/>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Serra Marble - Turkey</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="F3" s="19" t="n"/>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>24SRM05</t>
+          <t>Labone Project</t>
         </is>
       </c>
       <c r="H3" s="19" t="n"/>
       <c r="I3" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Pasha White - Special Design</t>
         </is>
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgusuz&amp;Honlu-30,5xFreex1,2</t>
+          <t>Marble Lavabo-Pasha White - Special Design-Cilalı-45,0x65,0x13,0 (1 Adet)</t>
         </is>
       </c>
       <c r="K3" s="6" t="inlineStr">
         <is>
-          <t>30,5xFreex1,2</t>
+          <t>45,0x65,0x13,0</t>
         </is>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Erkan Mermer</t>
         </is>
       </c>
       <c r="M3" s="7" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P3" s="18" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B4" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>2024-06-13T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D4" s="19" t="n"/>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F4" s="19" t="n"/>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>24İST-A02</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>24İST-A02</t>
-        </is>
-      </c>
+          <t>Labone Project</t>
+        </is>
+      </c>
+      <c r="H4" s="19" t="n"/>
       <c r="I4" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Toros Black - Special Design</t>
         </is>
       </c>
       <c r="J4" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia-Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (Toplam 3 kasa, her kasa içi seperatörlü-bağlı 54 set, her kasa 40.12 metrekare, kasalar çift girişli olacak şekilde, Anatolia için sette 20.3 değil 20.1 cm kullanıyoruz)</t>
+          <t>Marble Lavabo-Toros Black - Special Design-Cilalı-47,0x47,0x13,0 (1 Adet)</t>
         </is>
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>47,0x47,0x13,0</t>
         </is>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Erkan Mermer</t>
         </is>
       </c>
       <c r="M4" s="7" t="n">
-        <v>120.36</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P4" s="18" t="n">
-        <v>120.36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B5" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-07T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>2024-06-07T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="n"/>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="n"/>
       <c r="G5" s="6" t="inlineStr">
         <is>
-          <t>24İST-G01</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>24İST-G01</t>
-        </is>
-      </c>
+          <t>Labone Project</t>
+        </is>
+      </c>
+      <c r="H5" s="20" t="n"/>
       <c r="I5" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Dolomite</t>
         </is>
       </c>
       <c r="J5" s="6" t="inlineStr">
         <is>
-          <t>Travertine Pavers-Philadelphia-Dolgusuz&amp;Honlu-30,5x61,0x3,0 (1056 Adet, 196,48 m2, Kasa içi adet 66, Toplam Kasa Adedi 16) 180 grit honlu olacak</t>
+          <t>Marble Tiles-Dolomite-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (45 m2, 241 Adet)</t>
         </is>
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ece Mermer</t>
         </is>
       </c>
       <c r="M5" s="7" t="n">
-        <v>196.48</v>
+        <v>45</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>196.4688</v>
+        <v>0</v>
       </c>
       <c r="O5" s="6" t="inlineStr">
         <is>
@@ -921,46 +898,63 @@
         </is>
       </c>
       <c r="P5" s="18" t="n">
-        <v>0.01120000000000232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-07T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D6" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F6" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
-          <t>24İST-G01</t>
-        </is>
-      </c>
-      <c r="H6" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J6" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia-Dolgusuz&amp;Honlu&amp;Pahlı-30,5x61,0x4,0 (250 adet, 46,51 m2, kasa içi adet 50, toplamda 5 kasa)</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (2195 m2, 12194 Adet)</t>
         </is>
       </c>
       <c r="K6" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x4,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L6" s="6" t="inlineStr">
@@ -969,7 +963,7 @@
         </is>
       </c>
       <c r="M6" s="7" t="n">
-        <v>46.5</v>
+        <v>2195</v>
       </c>
       <c r="N6" s="7" t="n">
         <v>0</v>
@@ -980,46 +974,46 @@
         </is>
       </c>
       <c r="P6" s="18" t="n">
-        <v>46.5</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-07T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D7" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D7" s="19" t="n"/>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F7" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F7" s="19" t="n"/>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>24İST-G01</t>
-        </is>
-      </c>
-      <c r="H7" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H7" s="19" t="n"/>
       <c r="I7" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J7" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia-Dolgulu&amp;Honlu-30,5x61,0x1,2 (108 adet, 20,09 m2)</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (370 m2, 4625 Adet)</t>
         </is>
       </c>
       <c r="K7" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="L7" s="6" t="inlineStr">
@@ -1028,7 +1022,7 @@
         </is>
       </c>
       <c r="M7" s="7" t="n">
-        <v>20.09</v>
+        <v>370</v>
       </c>
       <c r="N7" s="7" t="n">
         <v>0</v>
@@ -1039,55 +1033,55 @@
         </is>
       </c>
       <c r="P7" s="18" t="n">
-        <v>20.09</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-07T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D8" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D8" s="19" t="n"/>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F8" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F8" s="19" t="n"/>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>24İST-G01</t>
-        </is>
-      </c>
-      <c r="H8" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H8" s="19" t="n"/>
       <c r="I8" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia-Dolgulu&amp;Honlu-40,6x40,6x1,2 (16 adet, 2,64 m2)</t>
+          <t xml:space="preserve">Travertine Mozaik-Silver Grey-Dolgulu&amp;Cilalı-30,5x30,5x1,0 (295 m2 5x15) </t>
         </is>
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M8" s="7" t="n">
-        <v>2.64</v>
+        <v>295</v>
       </c>
       <c r="N8" s="7" t="n">
         <v>0</v>
@@ -1098,783 +1092,715 @@
         </is>
       </c>
       <c r="P8" s="18" t="n">
-        <v>2.64</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-07T00:00:00.000Z</t>
+          <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D9" s="19" t="n"/>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="F9" s="19" t="n"/>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>24İST-G01</t>
+          <t>Lincoln Court</t>
         </is>
       </c>
       <c r="H9" s="19" t="n"/>
       <c r="I9" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J9" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia-Dolgulu&amp;Honlu-40,6x61,0x1,2</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı-100,0x190,0x2,0 (Açılı Kesim 9 adet)</t>
         </is>
       </c>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>100,0x190,0x2,0</t>
         </is>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M9" s="7" t="n">
-        <v>140.19</v>
+        <v>9</v>
       </c>
       <c r="N9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P9" s="18" t="n">
-        <v>140.19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B10" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D10" s="19" t="n"/>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F10" s="19" t="n"/>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>24İST-İ01-3</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>24İST-İ01-3</t>
-        </is>
-      </c>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H10" s="19" t="n"/>
       <c r="I10" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-30,5x61,0x3,0 (Toplam 56 kasa 687,68 m2, Kasa içi adet 66)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x170,0x2,0 (60 adet)</t>
         </is>
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x3,0</t>
+          <t>15,0x170,0x2,0</t>
         </is>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M10" s="7" t="n">
-        <v>343.8596</v>
+        <v>60</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>12.2793</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P10" s="18" t="n">
-        <v>331.5803</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D11" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D11" s="19" t="n"/>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F11" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F11" s="19" t="n"/>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>24İST-İ01-3</t>
-        </is>
-      </c>
-      <c r="H11" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H11" s="19" t="n"/>
       <c r="I11" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J11" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-MinixPATx3,0 (Toplam palet 50, 697,5 m2,  palet içi adet 260)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-30,0x129,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>MinixPATx3,0</t>
+          <t>30,0x129,0x2,0</t>
         </is>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M11" s="7" t="n">
-        <v>348.75</v>
+        <v>40</v>
       </c>
       <c r="N11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P11" s="18" t="n">
-        <v>348.75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
+          <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D12" s="19" t="n"/>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="F12" s="19" t="n"/>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>24İST-İ01-3</t>
+          <t>Lincoln Court</t>
         </is>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia Vein Cut</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J12" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Honlu-45,7x91,4x1,5 (701.86 m2, kasa içi 60 adet, toplam 28 kasa)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x129,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>45,7x91,4x1,5</t>
+          <t>20,0x129,0x2,0</t>
         </is>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M12" s="7" t="n">
-        <v>701.86</v>
+        <v>40</v>
       </c>
       <c r="N12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O12" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P12" s="18" t="n">
-        <v>701.86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B13" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D13" s="19" t="n"/>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F13" s="19" t="n"/>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>24İST-K01-2</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
-        <is>
-          <t>24İST-K01-2</t>
-        </is>
-      </c>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H13" s="19" t="n"/>
       <c r="I13" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J13" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-61,0x61,0x3,0 (Kasa içi 33 adet,  Toplam 270,16 m2) 22 Kasa</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x126,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>61,0x61,0x3,0</t>
+          <t>33,0x126,0x2,0</t>
         </is>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M13" s="7" t="n">
-        <v>270.16</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>245.586</v>
+        <v>0</v>
       </c>
       <c r="O13" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P13" s="18" t="n">
-        <v>24.57400000000001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D14" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D14" s="19" t="n"/>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F14" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F14" s="19" t="n"/>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>24İST-K01-2</t>
-        </is>
-      </c>
-      <c r="H14" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H14" s="19" t="n"/>
       <c r="I14" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;Tek Tarafı Pahlı-30,5x61,0x5,0 (6 kasa, kasa içi 40 adet,Toplam 240 adet, 44,64 m2) Damlalık olacak.</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-22,0x126,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x5,0</t>
+          <t>22,0x126,0x2,0</t>
         </is>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M14" s="7" t="n">
-        <v>44.64</v>
+        <v>40</v>
       </c>
       <c r="N14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O14" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P14" s="18" t="n">
-        <v>44.64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D15" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D15" s="19" t="n"/>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F15" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="n"/>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>24İST-K01-2</t>
-        </is>
-      </c>
-      <c r="H15" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H15" s="19" t="n"/>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;1 Uzun kenar bulnoz-40,6x61,0x3,0 (6 kasa, kasa içi 66 adet, Toplam 396 adet, 98,1 m2) Damlalık olacak.</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x127,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x3,0</t>
+          <t>33,0x127,0x2,0</t>
         </is>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M15" s="7" t="n">
-        <v>98.09999999999999</v>
+        <v>40</v>
       </c>
       <c r="N15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O15" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P15" s="18" t="n">
-        <v>98.09999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D16" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D16" s="19" t="n"/>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F16" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F16" s="19" t="n"/>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>24İST-K01-2</t>
-        </is>
-      </c>
-      <c r="H16" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H16" s="19" t="n"/>
       <c r="I16" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
-          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;1 uzun kenar bulnoz-30,5x61,0x3,0 (8 kasa, kasa içi 66 adet, Toplam 528 adet, 98,24 m2) Damlalık olacak.</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x125,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x3,0</t>
+          <t>15,0x125,0x2,0</t>
         </is>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M16" s="7" t="n">
-        <v>98.23999999999999</v>
+        <v>40</v>
       </c>
       <c r="N16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P16" s="18" t="n">
-        <v>98.23999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D17" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D17" s="19" t="n"/>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F17" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F17" s="19" t="n"/>
       <c r="G17" s="6" t="inlineStr">
         <is>
-          <t>24İST-K01-2</t>
-        </is>
-      </c>
-      <c r="H17" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H17" s="19" t="n"/>
       <c r="I17" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J17" s="6" t="inlineStr">
         <is>
-          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;Pahlı-30,5x121,9x5,0 (8 kasa, kasa içi 30 adet, Toplam 240 adet, 89,2 m2) Damlalık olacak.</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x120,0x2,0 (80 Adet)</t>
         </is>
       </c>
       <c r="K17" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">30,5x121,9x5,0 </t>
+          <t>33,0x120,0x2,0</t>
         </is>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M17" s="7" t="n">
-        <v>89.2</v>
+        <v>80</v>
       </c>
       <c r="N17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O17" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P17" s="18" t="n">
-        <v>89.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
+          <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D18" s="19" t="n"/>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="F18" s="19" t="n"/>
       <c r="G18" s="6" t="inlineStr">
         <is>
-          <t>24İST-K01-2</t>
+          <t>Lincoln Court</t>
         </is>
       </c>
       <c r="H18" s="19" t="n"/>
       <c r="I18" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J18" s="6" t="inlineStr">
         <is>
-          <t>Travertine Coping-Philadelphia-Dolgusuz&amp;Honlu&amp;1 uzun kenar bulnoz-30,5x121,9x5,0 (7 kasa, kasa içi 66 adet, Toplam 210 adet, 78,05 m2) Damlalık olacak.</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-18,0x120,0x2,0 (80 Adet)</t>
         </is>
       </c>
       <c r="K18" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">30,5x121,9x5,0 </t>
+          <t>18,0x120,0x2,0</t>
         </is>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M18" s="7" t="n">
-        <v>78.05</v>
+        <v>80</v>
       </c>
       <c r="N18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O18" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P18" s="18" t="n">
-        <v>78.05</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B19" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-04-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>2024-04-23T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D19" s="19" t="n"/>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>Edris Maden - Turkey</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>Edris Maden - Turkey</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F19" s="19" t="n"/>
       <c r="G19" s="6" t="inlineStr">
         <is>
-          <t>24EDRS01-4</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="inlineStr">
-        <is>
-          <t>24EDRS01-4</t>
-        </is>
-      </c>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H19" s="19" t="n"/>
       <c r="I19" s="6" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J19" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-HAM-30,5xFreex1,2</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x115,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K19" s="6" t="inlineStr">
         <is>
-          <t>30,5xFreex1,2</t>
+          <t>33,0x115,0x2,0</t>
         </is>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M19" s="7" t="n">
-        <v>31.9978</v>
+        <v>40</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="O19" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P19" s="18" t="n">
-        <v>-11.0022</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B20" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-04-01T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>2024-04-01T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="n"/>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>Cem-Mer (PEKER)</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F20" s="20" t="n"/>
       <c r="G20" s="6" t="inlineStr">
         <is>
-          <t>24PK3006-12</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="inlineStr">
-        <is>
-          <t>24PK3006-12</t>
-        </is>
-      </c>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H20" s="20" t="n"/>
       <c r="I20" s="6" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J20" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x115,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K20" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,0x115,0x2,0</t>
         </is>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M20" s="7" t="n">
-        <v>536.201</v>
+        <v>40</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>29.768</v>
+        <v>0</v>
       </c>
       <c r="O20" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P20" s="18" t="n">
-        <v>506.433</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1890,47 +1816,47 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
+          <t>2024-10-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
+          <t>2024-10-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>Aston Loft-9</t>
+          <t>24FEVZİ14</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>Aston Loft-9</t>
+          <t>24FEVZİ14</t>
         </is>
       </c>
       <c r="I21" s="6" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J21" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Honlu - 15,25x30,5x1,2</t>
+          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Cilalı-30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="K21" s="6" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="L21" s="6" t="inlineStr">
@@ -1939,18 +1865,18 @@
         </is>
       </c>
       <c r="M21" s="7" t="n">
-        <v>620.55</v>
+        <v>69.84</v>
       </c>
       <c r="N21" s="7" t="n">
+        <v>69.84</v>
+      </c>
+      <c r="O21" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P21" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="O21" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P21" s="18" t="n">
-        <v>620.55</v>
       </c>
     </row>
     <row r="22">
@@ -1961,35 +1887,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
+          <t>2024-10-31T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D22" s="20" t="n"/>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="F22" s="20" t="n"/>
       <c r="G22" s="6" t="inlineStr">
         <is>
-          <t>Aston Loft-9</t>
+          <t>24FEVZİ14</t>
         </is>
       </c>
       <c r="H22" s="20" t="n"/>
       <c r="I22" s="6" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J22" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Silver Rustic - Dolgulu&amp;Cilalı - 40,6X61,0X1,2</t>
+          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Cilalı-30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="K22" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="L22" s="6" t="inlineStr">
@@ -1998,18 +1924,18 @@
         </is>
       </c>
       <c r="M22" s="7" t="n">
-        <v>600</v>
+        <v>93.42</v>
       </c>
       <c r="N22" s="7" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="O22" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P22" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="O22" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P22" s="18" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -2018,37 +1944,54 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B23" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D23" s="20" t="n"/>
+          <t>2024-10-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>2024-10-11T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="F23" s="20" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
-          <t>Aston Loft-9</t>
-        </is>
-      </c>
-      <c r="H23" s="20" t="n"/>
+          <t>24İST-L01</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>24İST-L01</t>
+        </is>
+      </c>
       <c r="I23" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J23" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Honlu - 30,5x61,0x1,2</t>
+          <t>Travertine Tiles-Philadelphia-Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (889.18 m2 , 23 Kasa, Her set bağlı, standart set ölçüleri (yani 20.3 olacak))</t>
         </is>
       </c>
       <c r="K23" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L23" s="6" t="inlineStr">
@@ -2057,7 +2000,7 @@
         </is>
       </c>
       <c r="M23" s="7" t="n">
-        <v>655.6900000000001</v>
+        <v>889.1799999999999</v>
       </c>
       <c r="N23" s="7" t="n">
         <v>0</v>
@@ -2068,7 +2011,7 @@
         </is>
       </c>
       <c r="P23" s="18" t="n">
-        <v>655.6900000000001</v>
+        <v>889.1799999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2077,24 +2020,41 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B24" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D24" s="20" t="n"/>
+          <t>2024-10-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>2024-10-10T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="F24" s="20" t="n"/>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>YGM</t>
+        </is>
+      </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
-          <t>Aston Loft-9</t>
-        </is>
-      </c>
-      <c r="H24" s="20" t="n"/>
+          <t>24YGM18</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>24YGM18</t>
+        </is>
+      </c>
       <c r="I24" s="6" t="inlineStr">
         <is>
           <t>Classic Mina</t>
@@ -2102,12 +2062,21 @@
       </c>
       <c r="J24" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Mina-Dolgulu&amp;Yarı Cilalı-61,0x61,0x1,2</t>
+          <t xml:space="preserve">Travertine Pavers-Classic Mina-Dolgusuz&amp;Fırçalı Kenarı Kırık-15,25x30,5x3,0
+1 Paletteki Taş Sayısı : 240 adet taş
+1 Paletteki Sqft: 120 sqft
+1 Paletteki Metrekare: 11.15m²
+Toplam Sipariş
+Palet Sayısı: 6 palet
+Sqft : 720
+Taş Sayısı: 1440 adet
+Total m²: 66.90 m²
+</t>
         </is>
       </c>
       <c r="K24" s="6" t="inlineStr">
         <is>
-          <t>61,0x61,0x1,2</t>
+          <t>15,25x30,5x3,0</t>
         </is>
       </c>
       <c r="L24" s="6" t="inlineStr">
@@ -2116,10 +2085,10 @@
         </is>
       </c>
       <c r="M24" s="7" t="n">
-        <v>12.99</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>0</v>
+        <v>70.31999999999999</v>
       </c>
       <c r="O24" s="6" t="inlineStr">
         <is>
@@ -2127,7 +2096,7 @@
         </is>
       </c>
       <c r="P24" s="18" t="n">
-        <v>12.99</v>
+        <v>-3.419999999999987</v>
       </c>
     </row>
     <row r="25">
@@ -2138,35 +2107,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-06-23T00:00:00.000Z</t>
+          <t>2024-10-10T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D25" s="19" t="n"/>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="F25" s="19" t="n"/>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>Aston Loft-9</t>
+          <t>24YGM18</t>
         </is>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="6" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="J25" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Picasso Ivory-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2</t>
+          <t>Travertine Tiles-Volcano-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (10 kasa olacak 193.3m2 )
+Kasa detayları: Küçük Set Kasası
+Kasa için kutu adedi: 26 Kutu
+Toplam Sipariş Miktarı: 260 kutu.</t>
         </is>
       </c>
       <c r="K25" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L25" s="6" t="inlineStr">
@@ -2175,10 +2147,10 @@
         </is>
       </c>
       <c r="M25" s="7" t="n">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="N25" s="7" t="n">
-        <v>0</v>
+        <v>191.07</v>
       </c>
       <c r="O25" s="6" t="inlineStr">
         <is>
@@ -2186,63 +2158,46 @@
         </is>
       </c>
       <c r="P25" s="18" t="n">
-        <v>400</v>
+        <v>57.93000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B26" s="17" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-07-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>2024-07-23T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-10-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D26" s="19" t="n"/>
       <c r="E26" s="6" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F26" s="19" t="n"/>
       <c r="G26" s="6" t="inlineStr">
         <is>
-          <t>24FLOS60</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>24FLOS60</t>
-        </is>
-      </c>
+          <t>24YGM18</t>
+        </is>
+      </c>
+      <c r="H26" s="19" t="n"/>
       <c r="I26" s="6" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="J26" s="6" t="inlineStr">
         <is>
-          <t>1- (101 - Stella Light) - Classic Light - Dolgusuz Eskitme - 40,6 x 61 x 1,2 cm - 7 Kasa - 1120 Adet - 277,41 sqm</t>
+          <t>Travertine Tiles-Volcano-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-45,7x45,7x1,2 (325,3 m2 10 kasa 1560 adet)</t>
         </is>
       </c>
       <c r="K26" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="L26" s="6" t="inlineStr">
@@ -2251,7 +2206,7 @@
         </is>
       </c>
       <c r="M26" s="7" t="n">
-        <v>277.41</v>
+        <v>325.3</v>
       </c>
       <c r="N26" s="7" t="n">
         <v>0</v>
@@ -2262,46 +2217,46 @@
         </is>
       </c>
       <c r="P26" s="18" t="n">
-        <v>277.41</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-07-23T00:00:00.000Z</t>
+          <t>2024-10-10T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D27" s="20" t="n"/>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="F27" s="20" t="n"/>
       <c r="G27" s="6" t="inlineStr">
         <is>
-          <t>24FLOS60</t>
+          <t>24YGM18</t>
         </is>
       </c>
       <c r="H27" s="20" t="n"/>
       <c r="I27" s="6" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="J27" s="6" t="inlineStr">
         <is>
-          <t>2- (162) Mina Rustic - Dolgulu Honlu - 40,6 x 61 x 1,2 cm - 4 Kasa - 640 Adet - 158,52 sqm</t>
+          <t>Marble Tiles-Bluestone-Sandblasted&amp;Brushed&amp;Yumuşak Kenar-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K27" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L27" s="6" t="inlineStr">
@@ -2310,7 +2265,7 @@
         </is>
       </c>
       <c r="M27" s="7" t="n">
-        <v>158.52</v>
+        <v>37.2</v>
       </c>
       <c r="N27" s="7" t="n">
         <v>0</v>
@@ -2321,46 +2276,63 @@
         </is>
       </c>
       <c r="P27" s="18" t="n">
-        <v>158.52</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B28" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-07-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D28" s="20" t="n"/>
+          <t>2024-09-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-28T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F28" s="20" t="n"/>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
       <c r="G28" s="6" t="inlineStr">
         <is>
-          <t>24FLOS60</t>
-        </is>
-      </c>
-      <c r="H28" s="20" t="n"/>
+          <t>24SNY21</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>24SNY21</t>
+        </is>
+      </c>
       <c r="I28" s="6" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="J28" s="6" t="inlineStr">
         <is>
-          <t>5-  (170) Classic Light - Dolgulu Honlu - 40,6 x 61 x 1,2 cm - 2 Kasa - 320 Adet - 79,26 sqm</t>
+          <t>Scabos Dolgulu Fırçalı kenarı kırık</t>
         </is>
       </c>
       <c r="K28" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="L28" s="6" t="inlineStr">
@@ -2369,10 +2341,10 @@
         </is>
       </c>
       <c r="M28" s="7" t="n">
-        <v>79.26000000000001</v>
+        <v>6</v>
       </c>
       <c r="N28" s="7" t="n">
-        <v>0</v>
+        <v>6.28</v>
       </c>
       <c r="O28" s="6" t="inlineStr">
         <is>
@@ -2380,58 +2352,75 @@
         </is>
       </c>
       <c r="P28" s="18" t="n">
-        <v>79.26000000000001</v>
+        <v>-0.2800000000000002</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B29" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-07-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D29" s="19" t="n"/>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F29" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t>24FLOS60</t>
-        </is>
-      </c>
-      <c r="H29" s="19" t="n"/>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
       <c r="I29" s="6" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J29" s="6" t="inlineStr">
         <is>
-          <t>6- (65 - Classic Mix) Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm- 2 Kasa - 420 Adet - 78,14 sqm</t>
+          <t>Marble Tiles-Diana Royal-Cilalı-61,0x122,0x2,0 (1733 m2)</t>
         </is>
       </c>
       <c r="K29" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>61,0x122,0x2,0</t>
         </is>
       </c>
       <c r="L29" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Köylü Mermer</t>
         </is>
       </c>
       <c r="M29" s="7" t="n">
-        <v>78.14</v>
+        <v>1232.99</v>
       </c>
       <c r="N29" s="7" t="n">
-        <v>78.14100000000001</v>
+        <v>0</v>
       </c>
       <c r="O29" s="6" t="inlineStr">
         <is>
@@ -2439,58 +2428,41 @@
         </is>
       </c>
       <c r="P29" s="18" t="n">
-        <v>-0.001000000000004775</v>
+        <v>1232.99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
-      <c r="B30" s="17" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-07-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>2024-07-15T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D30" s="19" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F30" s="19" t="n"/>
       <c r="G30" s="6" t="inlineStr">
         <is>
-          <t>24BERNARD02</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>24BERNARD02</t>
-        </is>
-      </c>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
+      <c r="H30" s="19" t="n"/>
       <c r="I30" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="J30" s="6" t="inlineStr">
         <is>
-          <t>Silver traverten-dolgulu yarı cilalı-30,5x61x1,2 cm-78,14 m2-420 adet</t>
+          <t>Travertine Tiles-Pablo-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (791 m2, 4251 adet)</t>
         </is>
       </c>
       <c r="K30" s="6" t="inlineStr">
@@ -2504,7 +2476,7 @@
         </is>
       </c>
       <c r="M30" s="7" t="n">
-        <v>78.14</v>
+        <v>791</v>
       </c>
       <c r="N30" s="7" t="n">
         <v>0</v>
@@ -2515,55 +2487,55 @@
         </is>
       </c>
       <c r="P30" s="18" t="n">
-        <v>78.14</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-07-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D31" s="20" t="n"/>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D31" s="19" t="n"/>
       <c r="E31" s="6" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="F31" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F31" s="19" t="n"/>
       <c r="G31" s="6" t="inlineStr">
         <is>
-          <t>24BERNARD02</t>
-        </is>
-      </c>
-      <c r="H31" s="20" t="n"/>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
+      <c r="H31" s="19" t="n"/>
       <c r="I31" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="J31" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia traverten-Dolgulu, fırçalı, kenarı kırık-Mini set 1,2 cm-116,40 m2 (MINI SET MODELİ ÖNCEKİ SİSTEM OLACAK!)</t>
+          <t>Travertine Tiles-Picasso Ivory-Dolgulu&amp;Honlu-30,5x61,0x1,2 (1060 m2 5697 adet)</t>
         </is>
       </c>
       <c r="K31" s="6" t="inlineStr">
         <is>
-          <t>MINIxSETx1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L31" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M31" s="7" t="n">
-        <v>116.4</v>
+        <v>1060</v>
       </c>
       <c r="N31" s="7" t="n">
         <v>0</v>
@@ -2574,114 +2546,114 @@
         </is>
       </c>
       <c r="P31" s="18" t="n">
-        <v>116.4</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-07-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D32" s="20" t="n"/>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D32" s="19" t="n"/>
       <c r="E32" s="6" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="F32" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F32" s="19" t="n"/>
       <c r="G32" s="6" t="inlineStr">
         <is>
-          <t>24BERNARD02</t>
-        </is>
-      </c>
-      <c r="H32" s="20" t="n"/>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
+      <c r="H32" s="19" t="n"/>
       <c r="I32" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J32" s="6" t="inlineStr">
         <is>
-          <t>Silver traverten-dolgulu cilalı-15,25x30,5x1,2 cm-117,21 m2-2520 adet</t>
+          <t>Marble Threads-Diana Royal-Polished-60,0x650x2,0  (650cm will be divided 3-4 pieces)</t>
         </is>
       </c>
       <c r="K32" s="6" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>60,0x650x2,0</t>
         </is>
       </c>
       <c r="L32" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M32" s="7" t="n">
-        <v>117.21</v>
+        <v>6</v>
       </c>
       <c r="N32" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O32" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P32" s="18" t="n">
-        <v>117.21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-07-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D33" s="20" t="n"/>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D33" s="19" t="n"/>
       <c r="E33" s="6" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="F33" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F33" s="19" t="n"/>
       <c r="G33" s="6" t="inlineStr">
         <is>
-          <t>24BERNARD02</t>
-        </is>
-      </c>
-      <c r="H33" s="20" t="n"/>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
+      <c r="H33" s="19" t="n"/>
       <c r="I33" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J33" s="6" t="inlineStr">
         <is>
-          <t>Basamak - Silver Grey - Dolgulu Yarı Cilalı &amp; 3 Adet Kaymaz Oluk Açılacak - 30 x 110 x 2 cm - 10 Adet</t>
+          <t>Marble Risers-Diana Royal-Cilalı-10,0x650x2,0</t>
         </is>
       </c>
       <c r="K33" s="6" t="inlineStr">
         <is>
-          <t>30,0x110,0x2,0</t>
+          <t>10,0x650x2,0</t>
         </is>
       </c>
       <c r="L33" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M33" s="7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7" t="n">
         <v>0</v>
@@ -2692,33 +2664,33 @@
         </is>
       </c>
       <c r="P33" s="18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-07-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D34" s="20" t="n"/>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D34" s="19" t="n"/>
       <c r="E34" s="6" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="F34" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F34" s="19" t="n"/>
       <c r="G34" s="6" t="inlineStr">
         <is>
-          <t>24BERNARD02</t>
-        </is>
-      </c>
-      <c r="H34" s="20" t="n"/>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
+      <c r="H34" s="19" t="n"/>
       <c r="I34" s="6" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -2726,58 +2698,58 @@
       </c>
       <c r="J34" s="6" t="inlineStr">
         <is>
-          <t>Rıht - Silver Grey - Dolgulu Yarı Cilalı - 16 x 110 x 2 cm - 10 Adet</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x61,0x1,2 (3800 m2, 15343 Adet)</t>
         </is>
       </c>
       <c r="K34" s="6" t="inlineStr">
         <is>
-          <t>16,0x110,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L34" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M34" s="7" t="n">
-        <v>10</v>
+        <v>3800</v>
       </c>
       <c r="N34" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O34" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P34" s="18" t="n">
-        <v>10</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-07-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D35" s="20" t="n"/>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D35" s="19" t="n"/>
       <c r="E35" s="6" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="F35" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F35" s="19" t="n"/>
       <c r="G35" s="6" t="inlineStr">
         <is>
-          <t>24BERNARD02</t>
-        </is>
-      </c>
-      <c r="H35" s="20" t="n"/>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
+      <c r="H35" s="19" t="n"/>
       <c r="I35" s="6" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -2785,55 +2757,55 @@
       </c>
       <c r="J35" s="6" t="inlineStr">
         <is>
-          <t>Sahanlık - Silver Grey - Dolgulu Yarı Cilalı - 43 x 110 x 2 cm - 4 Adet</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="K35" s="6" t="inlineStr">
         <is>
-          <t>43,0x110,0x2,0</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="L35" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M35" s="7" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="N35" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O35" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P35" s="18" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-07-15T00:00:00.000Z</t>
+          <t>2024-09-16T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D36" s="19" t="n"/>
       <c r="E36" s="6" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="F36" s="19" t="n"/>
       <c r="G36" s="6" t="inlineStr">
         <is>
-          <t>24BERNARD02</t>
+          <t>DR Nash-2</t>
         </is>
       </c>
       <c r="H36" s="19" t="n"/>
@@ -2844,21 +2816,21 @@
       </c>
       <c r="J36" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey - Dolgulu Yarı Cilalı - 40,6 x 61 x 1,2 cm - 3 Kasa - 118,89 sqm - 480 Adet</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (500 m2, 6066 pcs)</t>
         </is>
       </c>
       <c r="K36" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="L36" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M36" s="7" t="n">
-        <v>118.89</v>
+        <v>500</v>
       </c>
       <c r="N36" s="7" t="n">
         <v>0</v>
@@ -2869,72 +2841,55 @@
         </is>
       </c>
       <c r="P36" s="18" t="n">
-        <v>118.89</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B37" s="17" t="inlineStr">
-        <is>
-          <t>Hakan</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-06-27T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>2024-06-27T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D37" s="19" t="n"/>
       <c r="E37" s="6" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F37" s="19" t="n"/>
       <c r="G37" s="6" t="inlineStr">
         <is>
-          <t>24CST08</t>
-        </is>
-      </c>
-      <c r="H37" s="5" t="inlineStr">
-        <is>
-          <t>24CST08</t>
-        </is>
-      </c>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
+      <c r="H37" s="19" t="n"/>
       <c r="I37" s="6" t="inlineStr">
         <is>
-          <t>Silverela</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J37" s="6" t="inlineStr">
         <is>
-          <t>Silverela traverten - dolgulu fırçalı - mini pattern set 1,2 cm - 199,05 m2 - 5 kasa</t>
+          <t>Travertine Tiles-Classic Mina-Dolgulu&amp;Cilalı-30,5x30,5x1,2 (330 m2, 3547 adet)</t>
         </is>
       </c>
       <c r="K37" s="6" t="inlineStr">
         <is>
-          <t>MINIxPATx1,2</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="L37" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M37" s="7" t="n">
-        <v>199.05</v>
+        <v>330</v>
       </c>
       <c r="N37" s="7" t="n">
         <v>0</v>
@@ -2945,55 +2900,55 @@
         </is>
       </c>
       <c r="P37" s="18" t="n">
-        <v>199.05</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-06-27T00:00:00.000Z</t>
+          <t>2024-09-16T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D38" s="20" t="n"/>
       <c r="E38" s="6" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="F38" s="20" t="n"/>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>24CST08</t>
+          <t>DR Nash-2</t>
         </is>
       </c>
       <c r="H38" s="20" t="n"/>
       <c r="I38" s="6" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Philadelphia Vein Cut</t>
         </is>
       </c>
       <c r="J38" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Mina Rustic-Dolgulu&amp;Honlu-30,0x60,0x2,0 (68,04 m2, 3 kasa)</t>
+          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (1200 m2, 6450 Adet)</t>
         </is>
       </c>
       <c r="K38" s="6" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L38" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M38" s="7" t="n">
-        <v>68.04000000000001</v>
+        <v>1200</v>
       </c>
       <c r="N38" s="7" t="n">
         <v>0</v>
@@ -3004,46 +2959,63 @@
         </is>
       </c>
       <c r="P38" s="18" t="n">
-        <v>68.04000000000001</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B39" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-06-27T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D39" s="19" t="n"/>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E39" s="6" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="F39" s="19" t="n"/>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
       <c r="G39" s="6" t="inlineStr">
         <is>
-          <t>24CST08</t>
-        </is>
-      </c>
-      <c r="H39" s="19" t="n"/>
+          <t>24KM08-6</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>24KM08-6</t>
+        </is>
+      </c>
       <c r="I39" s="6" t="inlineStr">
         <is>
-          <t>Silverela</t>
+          <t>Silver Mix</t>
         </is>
       </c>
       <c r="J39" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silverela-Dolgulu&amp;Fırçalı&amp;Eskitme-ANTxPATx1,2 ( 77,32 m2, 2 kasa)</t>
+          <t>Travertine Tiles-Silver Mix-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K39" s="6" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L39" s="6" t="inlineStr">
@@ -3052,10 +3024,10 @@
         </is>
       </c>
       <c r="M39" s="7" t="n">
-        <v>77.31999999999999</v>
+        <v>413.96</v>
       </c>
       <c r="N39" s="7" t="n">
-        <v>0</v>
+        <v>39.07</v>
       </c>
       <c r="O39" s="6" t="inlineStr">
         <is>
@@ -3063,63 +3035,46 @@
         </is>
       </c>
       <c r="P39" s="18" t="n">
-        <v>77.31999999999999</v>
+        <v>374.89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B40" s="17" t="inlineStr">
-        <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-06-24T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>2024-06-24T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D40" s="19" t="n"/>
       <c r="E40" s="6" t="inlineStr">
         <is>
-          <t>Mike - Anguilla</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>Mike - Anguilla</t>
-        </is>
-      </c>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="F40" s="19" t="n"/>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>24MIKE06</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>24MIKE06</t>
-        </is>
-      </c>
+          <t>24KM08-6</t>
+        </is>
+      </c>
+      <c r="H40" s="19" t="n"/>
       <c r="I40" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Mix</t>
         </is>
       </c>
       <c r="J40" s="6" t="inlineStr">
         <is>
-          <t>Classic - Premium - Dolgulu &amp; Fırçalı - 45.7 x 45.7 x 1.2 cm - 401,04 sqm - 1920 Adet - 12 Kasa</t>
+          <t>Travertine Tiles-Silver Mix-Dolgusuz&amp;Fırçalı-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K40" s="6" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L40" s="6" t="inlineStr">
@@ -3128,7 +3083,7 @@
         </is>
       </c>
       <c r="M40" s="7" t="n">
-        <v>401.04</v>
+        <v>218.6</v>
       </c>
       <c r="N40" s="7" t="n">
         <v>0</v>
@@ -3139,46 +3094,46 @@
         </is>
       </c>
       <c r="P40" s="18" t="n">
-        <v>401.04</v>
+        <v>218.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-06-24T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D41" s="19" t="n"/>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D41" s="20" t="n"/>
       <c r="E41" s="6" t="inlineStr">
         <is>
-          <t>Mike - Anguilla</t>
-        </is>
-      </c>
-      <c r="F41" s="19" t="n"/>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="F41" s="20" t="n"/>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>24MIKE06</t>
-        </is>
-      </c>
-      <c r="H41" s="19" t="n"/>
+          <t>24KM08-6</t>
+        </is>
+      </c>
+      <c r="H41" s="20" t="n"/>
       <c r="I41" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J41" s="6" t="inlineStr">
         <is>
-          <t>Classic - Premium - Dolgulu &amp; Derin Fırça - 45,7 x 45,7 x 1,2 cm - 436,46 sqm - 2080 adet - 13 Kasa</t>
+          <t>Travertine Tiles-Silver Grey-Dolgusuz&amp;Fırçalı-10,0x40,6x1,2 (14 kasa ortalama 40 m2 = toplam 561.02 m2)</t>
         </is>
       </c>
       <c r="K41" s="6" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>10,0x40,6x1,2</t>
         </is>
       </c>
       <c r="L41" s="6" t="inlineStr">
@@ -3187,7 +3142,7 @@
         </is>
       </c>
       <c r="M41" s="7" t="n">
-        <v>434.46</v>
+        <v>249.18</v>
       </c>
       <c r="N41" s="7" t="n">
         <v>0</v>
@@ -3198,7 +3153,7 @@
         </is>
       </c>
       <c r="P41" s="18" t="n">
-        <v>434.46</v>
+        <v>249.18</v>
       </c>
     </row>
     <row r="42">
@@ -3214,47 +3169,47 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
+          <t>2024-09-03T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
+          <t>2024-09-03T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E42" s="6" t="inlineStr">
         <is>
-          <t>Osman Avukat - Ghana</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>Osman Avukat - Ghana</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="G42" s="6" t="inlineStr">
         <is>
-          <t>24AVKO01</t>
+          <t>24BYN74-3</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>24AVKO01</t>
+          <t>24BYN74-3</t>
         </is>
       </c>
       <c r="I42" s="6" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J42" s="6" t="inlineStr">
         <is>
-          <t>Marble Tiles-Bianco Ibiza White-Cilalı-30,5x30,5x1,0</t>
+          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Fırçalı-20,3x61,0x1,2 (Paketleme eskisi gibi olacak, 3 konteynır)</t>
         </is>
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,0</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="L42" s="6" t="inlineStr">
@@ -3263,10 +3218,10 @@
         </is>
       </c>
       <c r="M42" s="7" t="n">
-        <v>50</v>
+        <v>1834.92</v>
       </c>
       <c r="N42" s="7" t="n">
-        <v>0</v>
+        <v>582.54</v>
       </c>
       <c r="O42" s="6" t="inlineStr">
         <is>
@@ -3274,7 +3229,7 @@
         </is>
       </c>
       <c r="P42" s="18" t="n">
-        <v>50</v>
+        <v>1252.38</v>
       </c>
     </row>
     <row r="43">
@@ -3283,32 +3238,49 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B43" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-05-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D43" s="19" t="n"/>
+          <t>2024-08-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>2024-08-15T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E43" s="6" t="inlineStr">
         <is>
-          <t>Osman Avukat - Ghana</t>
-        </is>
-      </c>
-      <c r="F43" s="19" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>24AVKO01</t>
-        </is>
-      </c>
-      <c r="H43" s="19" t="n"/>
+          <t>DAVID JONES</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>DAVID JONES</t>
+        </is>
+      </c>
       <c r="I43" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="J43" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Cilalı-30,5x61,0x1,2</t>
+          <t>Travertine Tiles-Ivory Rustic-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (300m2, 1613 adet)</t>
         </is>
       </c>
       <c r="K43" s="6" t="inlineStr">
@@ -3322,7 +3294,7 @@
         </is>
       </c>
       <c r="M43" s="7" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N43" s="7" t="n">
         <v>0</v>
@@ -3333,63 +3305,46 @@
         </is>
       </c>
       <c r="P43" s="18" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B44" s="17" t="inlineStr">
-        <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-08-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D44" s="20" t="n"/>
       <c r="E44" s="6" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F44" s="5" t="inlineStr">
-        <is>
-          <t>YGM</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F44" s="20" t="n"/>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H44" s="5" t="inlineStr">
-        <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
+          <t>DAVID JONES</t>
+        </is>
+      </c>
+      <c r="H44" s="20" t="n"/>
       <c r="I44" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="J44" s="6" t="inlineStr">
         <is>
-          <t>Silver Pattern Set - Dolgulu Fırçalı Kenarı Kırık - 1.2 cm Pat. Set - 704 Set - 0.74 m2 kutu - 520.22 m2</t>
+          <t>Travertine Tiles-Ivory Rustic-Filled&amp;Honed-40,6x61,0x1,2 (600 m2  2422 adet)</t>
         </is>
       </c>
       <c r="K44" s="6" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L44" s="6" t="inlineStr">
@@ -3398,10 +3353,10 @@
         </is>
       </c>
       <c r="M44" s="7" t="n">
-        <v>520.22</v>
+        <v>600</v>
       </c>
       <c r="N44" s="7" t="n">
-        <v>522.6521</v>
+        <v>0</v>
       </c>
       <c r="O44" s="6" t="inlineStr">
         <is>
@@ -3409,46 +3364,63 @@
         </is>
       </c>
       <c r="P44" s="18" t="n">
-        <v>-2.432099999999991</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B45" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D45" s="20" t="n"/>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E45" s="6" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F45" s="20" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H45" s="20" t="n"/>
+          <t>24İST-İ01-4</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>24İST-İ01-4</t>
+        </is>
+      </c>
       <c r="I45" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J45" s="6" t="inlineStr">
         <is>
-          <t>Silver Traverten Basamak -  35 x 100 x 3 - Dolgulu Honlu 1 Uzun Kenar ince Pah ve Led Kanallı!</t>
+          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-30,5x61,0x3,0 (Toplam 56 kasa 687,68 m2, Kasa içi adet 66)</t>
         </is>
       </c>
       <c r="K45" s="6" t="inlineStr">
         <is>
-          <t>35,0x100,0x3,0</t>
+          <t>30,5x61,0x3,0</t>
         </is>
       </c>
       <c r="L45" s="6" t="inlineStr">
@@ -3457,57 +3429,57 @@
         </is>
       </c>
       <c r="M45" s="7" t="n">
-        <v>20</v>
+        <v>343.8596</v>
       </c>
       <c r="N45" s="7" t="n">
-        <v>21</v>
+        <v>12.2793</v>
       </c>
       <c r="O45" s="6" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P45" s="18" t="n">
-        <v>-1</v>
+        <v>331.5803</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
+          <t>2024-05-15T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D46" s="20" t="n"/>
       <c r="E46" s="6" t="inlineStr">
         <is>
-          <t>YGM</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="F46" s="20" t="n"/>
       <c r="G46" s="6" t="inlineStr">
         <is>
-          <t>24YGM15</t>
+          <t>24İST-İ01-4</t>
         </is>
       </c>
       <c r="H46" s="20" t="n"/>
       <c r="I46" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J46" s="6" t="inlineStr">
         <is>
-          <t>Silver Rıht - 17.5 x 100 x 2 cm Dolgulu Honlu</t>
+          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-MinixPATx3,0 (Toplam palet 50, 697,5 m2,  palet içi adet 260)</t>
         </is>
       </c>
       <c r="K46" s="6" t="inlineStr">
         <is>
-          <t>17,5x100,0x2,0</t>
+          <t>MinixPATx3,0</t>
         </is>
       </c>
       <c r="L46" s="6" t="inlineStr">
@@ -3516,57 +3488,74 @@
         </is>
       </c>
       <c r="M46" s="7" t="n">
-        <v>20</v>
+        <v>348.75</v>
       </c>
       <c r="N46" s="7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O46" s="6" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P46" s="18" t="n">
-        <v>0</v>
+        <v>348.75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B47" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-05-17T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D47" s="19" t="n"/>
+          <t>2024-04-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E47" s="6" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F47" s="19" t="n"/>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
       <c r="G47" s="6" t="inlineStr">
         <is>
-          <t>24YGM15</t>
-        </is>
-      </c>
-      <c r="H47" s="19" t="n"/>
+          <t>24PK3006-21</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>24PK3006-21</t>
+        </is>
+      </c>
       <c r="I47" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J47" s="6" t="inlineStr">
         <is>
-          <t>Silver Traverten Coping 30.5x61x3 cm Dolgulu Honlu - 1 Uzun Kenar  Full Bullnose</t>
+          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K47" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L47" s="6" t="inlineStr">
@@ -3575,74 +3564,74 @@
         </is>
       </c>
       <c r="M47" s="7" t="n">
-        <v>34.16</v>
+        <v>148.85</v>
       </c>
       <c r="N47" s="7" t="n">
-        <v>34.16</v>
+        <v>119.08</v>
       </c>
       <c r="O47" s="6" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P47" s="18" t="n">
-        <v>0</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B48" s="17" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-05-08T00:00:00.000Z</t>
+          <t>2024-11-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>2024-05-08T00:00:00.000Z</t>
+          <t>2024-11-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E48" s="6" t="inlineStr">
         <is>
-          <t>Farouk Hamza - Ghana</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>Farouk Hamza - Ghana</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>24FRIM01-3</t>
+          <t>24FLOS64</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>24FRIM01-3</t>
+          <t>24FLOS64</t>
         </is>
       </c>
       <c r="I48" s="6" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="J48" s="6" t="inlineStr">
         <is>
-          <t>2- Mina Rustic - Dolgulu Fırçalı Kenarı Kırık - ANT x PAT x 1,2 cm - 86,25 sqm - 116 set</t>
+          <t>1- (14S - Stella Light) Classic Light AÇIK SELEKSİYON! - Dolgusuz Eskitme 1 Uzun Kenarı Bulnozlu - 33,5 x 61 x 3 cm - 1 Kasa - 66 Adet - 13,29 sqm</t>
         </is>
       </c>
       <c r="K48" s="6" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>33,5x61,0x3,0</t>
         </is>
       </c>
       <c r="L48" s="6" t="inlineStr">
@@ -3651,57 +3640,52 @@
         </is>
       </c>
       <c r="M48" s="7" t="n">
-        <v>8.93</v>
+        <v>66</v>
       </c>
       <c r="N48" s="7" t="n">
-        <v>8.9215</v>
+        <v>0</v>
       </c>
       <c r="O48" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P48" s="18" t="n">
-        <v>0.00849999999999973</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D49" s="20" t="n"/>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D49" s="19" t="n"/>
       <c r="E49" s="6" t="inlineStr">
         <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F49" s="20" t="n"/>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F49" s="19" t="n"/>
       <c r="G49" s="6" t="inlineStr">
         <is>
-          <t>24FRIM01-3</t>
-        </is>
-      </c>
-      <c r="H49" s="20" t="n"/>
+          <t>24FLOS64</t>
+        </is>
+      </c>
+      <c r="H49" s="19" t="n"/>
       <c r="I49" s="6" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J49" s="6" t="inlineStr">
         <is>
-          <t>5- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 42 sqm
-6- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 29 sqm
-7- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 29 sqm
-8- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 35 sqm
-9- Picasso Ivory Travertine - Dolgulu Yarı Cilalı - 30,5x61x1,2cm - 344 sqm
-TOTAL: 479,08 sqm - 2575 adet</t>
+          <t>3- (65 - Classic Mix) Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm - 10 Kasa - 2100 Adet - 390,70 sqm</t>
         </is>
       </c>
       <c r="K49" s="6" t="inlineStr">
@@ -3715,10 +3699,10 @@
         </is>
       </c>
       <c r="M49" s="7" t="n">
-        <v>479.08</v>
+        <v>390.7</v>
       </c>
       <c r="N49" s="7" t="n">
-        <v>156.282</v>
+        <v>39.07</v>
       </c>
       <c r="O49" s="6" t="inlineStr">
         <is>
@@ -3726,46 +3710,46 @@
         </is>
       </c>
       <c r="P49" s="18" t="n">
-        <v>322.798</v>
+        <v>351.63</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-05-08T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D50" s="20" t="n"/>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D50" s="19" t="n"/>
       <c r="E50" s="6" t="inlineStr">
         <is>
-          <t>Farouk Hamza - Ghana</t>
-        </is>
-      </c>
-      <c r="F50" s="20" t="n"/>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F50" s="19" t="n"/>
       <c r="G50" s="6" t="inlineStr">
         <is>
-          <t>24FRIM01-3</t>
-        </is>
-      </c>
-      <c r="H50" s="20" t="n"/>
+          <t>24FLOS64</t>
+        </is>
+      </c>
+      <c r="H50" s="19" t="n"/>
       <c r="I50" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="J50" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">10- Classic Mina Light - Dolgulu Honlu 1 Uzun Kenarı 4 mm Pahlı - 30 x 150 x 3 cm Rıhtlar 15 x 150 x 2 cm SET! - 40 Adet </t>
+          <t>5-  (56F) Golden Ink - Dolgulu Eskitme - ANT x PAT x 1,2 cm - 3 Kasa - 115,98 sqm</t>
         </is>
       </c>
       <c r="K50" s="6" t="inlineStr">
         <is>
-          <t>30,0x150,0x3,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L50" s="6" t="inlineStr">
@@ -3774,57 +3758,57 @@
         </is>
       </c>
       <c r="M50" s="7" t="n">
-        <v>40</v>
+        <v>115.98</v>
       </c>
       <c r="N50" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O50" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P50" s="18" t="n">
-        <v>40</v>
+        <v>115.98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-05-08T00:00:00.000Z</t>
+          <t>2024-11-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D51" s="19" t="n"/>
       <c r="E51" s="6" t="inlineStr">
         <is>
-          <t>Farouk Hamza - Ghana</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="F51" s="19" t="n"/>
       <c r="G51" s="6" t="inlineStr">
         <is>
-          <t>24FRIM01-3</t>
+          <t>24FLOS64</t>
         </is>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="6" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Licom</t>
         </is>
       </c>
       <c r="J51" s="6" t="inlineStr">
         <is>
-          <t>12- Classic Mina Light - Dolgulu Honlu - 10cm x 60cm x 2cm - 560,4 lmt - 934 adet - PAH VAR MI SONRA KONUŞULACAK!</t>
+          <t>6- (81F) Licom - Dolgulu Eskitme - 40,6 x 61 x 1,2 cm - 2 Kasa - 320 Adet - 79,26 sqm</t>
         </is>
       </c>
       <c r="K51" s="6" t="inlineStr">
         <is>
-          <t>10,0x60,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L51" s="6" t="inlineStr">
@@ -3833,18 +3817,18 @@
         </is>
       </c>
       <c r="M51" s="7" t="n">
-        <v>560.4</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="N51" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O51" s="6" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P51" s="18" t="n">
-        <v>560.4</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3853,285 +3837,972 @@
           <t>Ozlem</t>
         </is>
       </c>
-      <c r="B52" s="17" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D52" s="20" t="n"/>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F52" s="20" t="n"/>
+      <c r="G52" s="6" t="inlineStr">
+        <is>
+          <t>24FLOS64</t>
+        </is>
+      </c>
+      <c r="H52" s="20" t="n"/>
+      <c r="I52" s="6" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="J52" s="6" t="inlineStr">
+        <is>
+          <t>7- (154) Silver Rustic - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 2 Kasa - 77,32 sqm</t>
+        </is>
+      </c>
+      <c r="K52" s="6" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="L52" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M52" s="7" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="N52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P52" s="18" t="n">
+        <v>77.31999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Ozlem</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>2023-08-23T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="F52" s="5" t="inlineStr">
-        <is>
-          <t>Stephen Adjokatcher - Ghana</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="H52" s="5" t="inlineStr">
-        <is>
-          <t>23STAD01</t>
-        </is>
-      </c>
-      <c r="I52" s="6" t="inlineStr">
-        <is>
-          <t>Pablo Cross Cut</t>
-        </is>
-      </c>
-      <c r="J52" s="6" t="inlineStr">
-        <is>
-          <t>Travertine Tiles - Pablo Cross Cut - Dolgulu&amp;Fırçalı&amp;Düz Kenar - 40,6X61,0X1,2 (1616 Adet)</t>
-        </is>
-      </c>
-      <c r="K52" s="6" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="L52" s="6" t="inlineStr">
+      <c r="B53" s="17" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024-10-24T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>2024-10-24T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>Brenda Pollak - USA</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>Brenda Pollak - USA</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr">
+        <is>
+          <t>24BPOL01</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>24BPOL01</t>
+        </is>
+      </c>
+      <c r="I53" s="6" t="inlineStr">
+        <is>
+          <t>Ivory Rustic</t>
+        </is>
+      </c>
+      <c r="J53" s="6" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Ivory Rustic - Dolgulu Honlu Kenarı Kırık  GİDEN NUMUNE KONUSUNDA MEKMERE BİLGİ VERİLECEK! - 40,6 x 40,6 x 1,2 cm - 677 adet - 111,59 sqm</t>
+        </is>
+      </c>
+      <c r="K53" s="6" t="inlineStr">
+        <is>
+          <t>40,6x40,6x1,2</t>
+        </is>
+      </c>
+      <c r="L53" s="6" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="M52" s="7" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="N52" s="7" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="O52" s="6" t="inlineStr">
+      <c r="M53" s="7" t="n">
+        <v>111.59</v>
+      </c>
+      <c r="N53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P52" s="18" t="n">
+      <c r="P53" s="18" t="n">
+        <v>111.59</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B54" s="17" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="G54" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="I54" s="6" t="inlineStr">
+        <is>
+          <t>Silver Vein Cut</t>
+        </is>
+      </c>
+      <c r="J54" s="6" t="inlineStr">
+        <is>
+          <t>Silver Vein Cut-dolgulu cilalı-30,5x61,0x1,2 - 595,36 m2 - 3200 adet</t>
+        </is>
+      </c>
+      <c r="K54" s="6" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L54" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M54" s="7" t="n">
+        <v>595.36</v>
+      </c>
+      <c r="N54" s="7" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="O54" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P54" s="18" t="n">
+        <v>439.08</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D55" s="19" t="n"/>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F55" s="19" t="n"/>
+      <c r="G55" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H55" s="19" t="n"/>
+      <c r="I55" s="6" t="inlineStr">
+        <is>
+          <t>Carrara White</t>
+        </is>
+      </c>
+      <c r="J55" s="6" t="inlineStr">
+        <is>
+          <t>Carrara White - cilalı -45,7x45,7x1,2 cm - 52,84 m2 - 253 adet</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="L55" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M55" s="7" t="n">
+        <v>52.84</v>
+      </c>
+      <c r="N55" s="7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="D53" s="6" t="n"/>
-      <c r="E53" s="6" t="n"/>
-      <c r="F53" s="6" t="n"/>
-      <c r="G53" s="6" t="n"/>
-      <c r="H53" s="6" t="n"/>
-      <c r="I53" s="6" t="n"/>
-      <c r="J53" s="6" t="n"/>
-      <c r="K53" s="6" t="n"/>
-      <c r="L53" s="6" t="n"/>
-      <c r="M53" s="7" t="n"/>
-      <c r="N53" s="7" t="n"/>
-      <c r="O53" s="6" t="n"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="6" t="n"/>
-      <c r="E54" s="6" t="n"/>
-      <c r="F54" s="6" t="n"/>
-      <c r="G54" s="6" t="n"/>
-      <c r="H54" s="6" t="n"/>
-      <c r="I54" s="6" t="n"/>
-      <c r="J54" s="6" t="n"/>
-      <c r="K54" s="6" t="n"/>
-      <c r="L54" s="6" t="n"/>
-      <c r="M54" s="7" t="n"/>
-      <c r="N54" s="7" t="n"/>
-      <c r="O54" s="6" t="n"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="6" t="n"/>
-      <c r="E55" s="6" t="n"/>
-      <c r="F55" s="6" t="n"/>
-      <c r="G55" s="6" t="n"/>
-      <c r="H55" s="6" t="n"/>
-      <c r="I55" s="6" t="n"/>
-      <c r="J55" s="6" t="n"/>
-      <c r="K55" s="6" t="n"/>
-      <c r="L55" s="6" t="n"/>
-      <c r="M55" s="7" t="n"/>
-      <c r="N55" s="7" t="n"/>
-      <c r="O55" s="6" t="n"/>
+      <c r="O55" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P55" s="18" t="n">
+        <v>52.84</v>
+      </c>
     </row>
     <row r="56">
-      <c r="D56" s="6" t="n"/>
-      <c r="E56" s="6" t="n"/>
-      <c r="F56" s="6" t="n"/>
-      <c r="G56" s="6" t="n"/>
-      <c r="H56" s="6" t="n"/>
-      <c r="I56" s="6" t="n"/>
-      <c r="J56" s="6" t="n"/>
-      <c r="K56" s="6" t="n"/>
-      <c r="L56" s="6" t="n"/>
-      <c r="M56" s="7" t="n"/>
-      <c r="N56" s="7" t="n"/>
-      <c r="O56" s="6" t="n"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D56" s="19" t="n"/>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F56" s="19" t="n"/>
+      <c r="G56" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H56" s="19" t="n"/>
+      <c r="I56" s="6" t="inlineStr">
+        <is>
+          <t>Carrara White</t>
+        </is>
+      </c>
+      <c r="J56" s="6" t="inlineStr">
+        <is>
+          <t>Carrara White - cilalı - 10,0x10,0x1,2 cm - 6,50 m2 - 650 adet</t>
+        </is>
+      </c>
+      <c r="K56" s="6" t="inlineStr">
+        <is>
+          <t>10,0x10,0x1,2</t>
+        </is>
+      </c>
+      <c r="L56" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M56" s="7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P56" s="18" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="57">
-      <c r="D57" s="6" t="n"/>
-      <c r="E57" s="6" t="n"/>
-      <c r="F57" s="6" t="n"/>
-      <c r="G57" s="6" t="n"/>
-      <c r="H57" s="6" t="n"/>
-      <c r="I57" s="6" t="n"/>
-      <c r="J57" s="6" t="n"/>
-      <c r="K57" s="6" t="n"/>
-      <c r="L57" s="6" t="n"/>
-      <c r="M57" s="7" t="n"/>
-      <c r="N57" s="7" t="n"/>
-      <c r="O57" s="6" t="n"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D57" s="20" t="n"/>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F57" s="20" t="n"/>
+      <c r="G57" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H57" s="20" t="n"/>
+      <c r="I57" s="6" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="J57" s="6" t="inlineStr">
+        <is>
+          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
+        </is>
+      </c>
+      <c r="K57" s="6" t="inlineStr">
+        <is>
+          <t>10,0x10,0x1,2</t>
+        </is>
+      </c>
+      <c r="L57" s="6" t="inlineStr">
+        <is>
+          <t>Köylü Mermer</t>
+        </is>
+      </c>
+      <c r="M57" s="7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P57" s="18" t="n">
+        <v>4.65</v>
+      </c>
     </row>
     <row r="58">
-      <c r="D58" s="6" t="n"/>
-      <c r="E58" s="6" t="n"/>
-      <c r="F58" s="6" t="n"/>
-      <c r="G58" s="6" t="n"/>
-      <c r="H58" s="6" t="n"/>
-      <c r="I58" s="6" t="n"/>
-      <c r="J58" s="6" t="n"/>
-      <c r="K58" s="6" t="n"/>
-      <c r="L58" s="6" t="n"/>
-      <c r="M58" s="7" t="n"/>
-      <c r="N58" s="7" t="n"/>
-      <c r="O58" s="6" t="n"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B58" s="17" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2024-08-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>2024-08-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>Dwight Rigby - Turks and Caicos</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>Dwight Rigby - Turks and Caicos</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>24DWGT01-2</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>24DWGT01-2</t>
+        </is>
+      </c>
+      <c r="I58" s="6" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="J58" s="6" t="inlineStr">
+        <is>
+          <t>Classic Mina- dolgulu honlu-35,5x152,4x1,5 cm - 139,71 sqft - 12,98 m2 - 24 adet</t>
+        </is>
+      </c>
+      <c r="K58" s="6" t="inlineStr">
+        <is>
+          <t>35,5x152,4x1,5</t>
+        </is>
+      </c>
+      <c r="L58" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M58" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="N58" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="O58" s="6" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P58" s="18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="6" t="n"/>
-      <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-      <c r="J59" s="6" t="n"/>
-      <c r="K59" s="6" t="n"/>
-      <c r="L59" s="6" t="n"/>
-      <c r="M59" s="7" t="n"/>
-      <c r="N59" s="7" t="n"/>
-      <c r="O59" s="6" t="n"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024-08-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D59" s="19" t="n"/>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>Dwight Rigby - Turks and Caicos</t>
+        </is>
+      </c>
+      <c r="F59" s="19" t="n"/>
+      <c r="G59" s="6" t="inlineStr">
+        <is>
+          <t>24DWGT01-2</t>
+        </is>
+      </c>
+      <c r="H59" s="19" t="n"/>
+      <c r="I59" s="6" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="J59" s="6" t="inlineStr">
+        <is>
+          <t>Classic Mina-dolgulu honlu-45,7x61,0x1,2 cm - 179,97 sqft - 16,73 m2 - 60 adet</t>
+        </is>
+      </c>
+      <c r="K59" s="6" t="inlineStr">
+        <is>
+          <t>45,7x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L59" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M59" s="7" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="N59" s="7" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="O59" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P59" s="18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
-      <c r="D60" s="6" t="n"/>
-      <c r="E60" s="6" t="n"/>
-      <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-      <c r="J60" s="6" t="n"/>
-      <c r="K60" s="6" t="n"/>
-      <c r="L60" s="6" t="n"/>
-      <c r="M60" s="7" t="n"/>
-      <c r="N60" s="7" t="n"/>
-      <c r="O60" s="6" t="n"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024-08-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D60" s="19" t="n"/>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>Dwight Rigby - Turks and Caicos</t>
+        </is>
+      </c>
+      <c r="F60" s="19" t="n"/>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>24DWGT01-2</t>
+        </is>
+      </c>
+      <c r="H60" s="19" t="n"/>
+      <c r="I60" s="6" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="J60" s="6" t="inlineStr">
+        <is>
+          <t>Classic Mina-dolgulu honlu-30,5x61,0x1,2 cm - 120,11 sqft- 11,16 m2 - 60 adet</t>
+        </is>
+      </c>
+      <c r="K60" s="6" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L60" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M60" s="7" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="N60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P60" s="18" t="n">
+        <v>11.16</v>
+      </c>
     </row>
     <row r="61">
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="6" t="n"/>
-      <c r="F61" s="6" t="n"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-      <c r="J61" s="6" t="n"/>
-      <c r="K61" s="6" t="n"/>
-      <c r="L61" s="6" t="n"/>
-      <c r="M61" s="7" t="n"/>
-      <c r="N61" s="7" t="n"/>
-      <c r="O61" s="6" t="n"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024-08-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D61" s="20" t="n"/>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>Dwight Rigby - Turks and Caicos</t>
+        </is>
+      </c>
+      <c r="F61" s="20" t="n"/>
+      <c r="G61" s="6" t="inlineStr">
+        <is>
+          <t>24DWGT01-2</t>
+        </is>
+      </c>
+      <c r="H61" s="20" t="n"/>
+      <c r="I61" s="6" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="J61" s="6" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Classic Mina-Dolgulu Honlu-30,5x35,5x1,2 - 58,25 sqft - 5.41 m2 - 50 adet</t>
+        </is>
+      </c>
+      <c r="K61" s="6" t="inlineStr">
+        <is>
+          <t>30,5x35,5x1,2</t>
+        </is>
+      </c>
+      <c r="L61" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M61" s="7" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="N61" s="7" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="O61" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P61" s="18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="D62" s="6" t="n"/>
-      <c r="E62" s="6" t="n"/>
-      <c r="F62" s="6" t="n"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-      <c r="J62" s="6" t="n"/>
-      <c r="K62" s="6" t="n"/>
-      <c r="L62" s="6" t="n"/>
-      <c r="M62" s="7" t="n"/>
-      <c r="N62" s="7" t="n"/>
-      <c r="O62" s="6" t="n"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B62" s="17" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="G62" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="I62" s="6" t="inlineStr">
+        <is>
+          <t>Silver Vein Cut</t>
+        </is>
+      </c>
+      <c r="J62" s="6" t="inlineStr">
+        <is>
+          <t>Silver Vein Cut-dolgulu cilalı-30,5x61,0x1,2 - 595,36 m2 - 3200 adet</t>
+        </is>
+      </c>
+      <c r="K62" s="6" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L62" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M62" s="7" t="n">
+        <v>595.36</v>
+      </c>
+      <c r="N62" s="7" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="O62" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P62" s="18" t="n">
+        <v>439.08</v>
+      </c>
     </row>
     <row r="63">
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
-      <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-      <c r="J63" s="6" t="n"/>
-      <c r="K63" s="6" t="n"/>
-      <c r="L63" s="6" t="n"/>
-      <c r="M63" s="7" t="n"/>
-      <c r="N63" s="7" t="n"/>
-      <c r="O63" s="6" t="n"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="n"/>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F63" s="19" t="n"/>
+      <c r="G63" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H63" s="19" t="n"/>
+      <c r="I63" s="6" t="inlineStr">
+        <is>
+          <t>Carrara White</t>
+        </is>
+      </c>
+      <c r="J63" s="6" t="inlineStr">
+        <is>
+          <t>Carrara White - cilalı -45,7x45,7x1,2 cm - 52,84 m2 - 253 adet</t>
+        </is>
+      </c>
+      <c r="K63" s="6" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="L63" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M63" s="7" t="n">
+        <v>52.84</v>
+      </c>
+      <c r="N63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P63" s="18" t="n">
+        <v>52.84</v>
+      </c>
     </row>
     <row r="64">
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="6" t="n"/>
-      <c r="F64" s="6" t="n"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-      <c r="J64" s="6" t="n"/>
-      <c r="K64" s="6" t="n"/>
-      <c r="L64" s="6" t="n"/>
-      <c r="M64" s="7" t="n"/>
-      <c r="N64" s="7" t="n"/>
-      <c r="O64" s="6" t="n"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D64" s="19" t="n"/>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F64" s="19" t="n"/>
+      <c r="G64" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H64" s="19" t="n"/>
+      <c r="I64" s="6" t="inlineStr">
+        <is>
+          <t>Carrara White</t>
+        </is>
+      </c>
+      <c r="J64" s="6" t="inlineStr">
+        <is>
+          <t>Carrara White - cilalı - 10,0x10,0x1,2 cm - 6,50 m2 - 650 adet</t>
+        </is>
+      </c>
+      <c r="K64" s="6" t="inlineStr">
+        <is>
+          <t>10,0x10,0x1,2</t>
+        </is>
+      </c>
+      <c r="L64" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M64" s="7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P64" s="18" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="65">
-      <c r="D65" s="6" t="n"/>
-      <c r="E65" s="6" t="n"/>
-      <c r="F65" s="6" t="n"/>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-      <c r="J65" s="6" t="n"/>
-      <c r="K65" s="6" t="n"/>
-      <c r="L65" s="6" t="n"/>
-      <c r="M65" s="7" t="n"/>
-      <c r="N65" s="7" t="n"/>
-      <c r="O65" s="6" t="n"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D65" s="20" t="n"/>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F65" s="20" t="n"/>
+      <c r="G65" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H65" s="20" t="n"/>
+      <c r="I65" s="6" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="J65" s="6" t="inlineStr">
+        <is>
+          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
+        </is>
+      </c>
+      <c r="K65" s="6" t="inlineStr">
+        <is>
+          <t>10,0x10,0x1,2</t>
+        </is>
+      </c>
+      <c r="L65" s="6" t="inlineStr">
+        <is>
+          <t>Köylü Mermer</t>
+        </is>
+      </c>
+      <c r="M65" s="7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P65" s="18" t="n">
+        <v>4.65</v>
+      </c>
     </row>
     <row r="66">
-      <c r="D66" s="6" t="n"/>
-      <c r="E66" s="6" t="n"/>
-      <c r="F66" s="6" t="n"/>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-      <c r="J66" s="6" t="n"/>
-      <c r="K66" s="6" t="n"/>
-      <c r="L66" s="6" t="n"/>
-      <c r="M66" s="7" t="n"/>
-      <c r="N66" s="7" t="n"/>
-      <c r="O66" s="6" t="n"/>
+      <c r="A66" s="21" t="inlineStr">
+        <is>
+          <t>ÖZEL İŞÇİLİK YAPILACAKLAR</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="D67" s="6" t="n"/>
-      <c r="E67" s="6" t="n"/>
-      <c r="F67" s="6" t="n"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-      <c r="J67" s="6" t="n"/>
-      <c r="K67" s="6" t="n"/>
-      <c r="L67" s="6" t="n"/>
-      <c r="M67" s="7" t="n"/>
-      <c r="N67" s="7" t="n"/>
-      <c r="O67" s="6" t="n"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B67" s="17" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C67" s="22" t="n">
+        <v>45545</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>45545</v>
+      </c>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="G67" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="I67" s="6" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="J67" s="6" t="inlineStr">
+        <is>
+          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
+        </is>
+      </c>
+      <c r="K67" s="6" t="inlineStr">
+        <is>
+          <t>10,0x10,0x1,2</t>
+        </is>
+      </c>
+      <c r="L67" s="6" t="inlineStr">
+        <is>
+          <t>Köylü Mermer</t>
+        </is>
+      </c>
+      <c r="M67" s="7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P67" s="18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="D68" s="6" t="n"/>
@@ -16571,75 +17242,84 @@
     <filterColumn colId="2" hiddenButton="0" showButton="0"/>
     <filterColumn colId="4" hiddenButton="0" showButton="0"/>
   </autoFilter>
-  <mergeCells count="68">
-    <mergeCell ref="D4"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="F52"/>
-    <mergeCell ref="B20"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="77">
+    <mergeCell ref="F6:F20"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H6:H20"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="F67"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="D29:D38"/>
+    <mergeCell ref="F29:F38"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="H42"/>
+    <mergeCell ref="D67"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H53"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H67"/>
+    <mergeCell ref="B6:B20"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="H47"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="D42"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D20"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H20"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D19"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="F19"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="B52"/>
-    <mergeCell ref="D52"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F20"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="H52"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="H48:H52"/>
+    <mergeCell ref="F53"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="F42"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="A66:P66"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="B19"/>
-    <mergeCell ref="H19"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="F28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="H28"/>
+    <mergeCell ref="D6:D20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H23"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53"/>
+    <mergeCell ref="D53"/>
+    <mergeCell ref="D47"/>
+    <mergeCell ref="F47"/>
+    <mergeCell ref="B28"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D28"/>
+    <mergeCell ref="H54:H57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/excel/dosyalar/Uretim_list.xlsx
+++ b/excel/dosyalar/Uretim_list.xlsx
@@ -651,66 +651,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="B2" s="17" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-07T00:00:00.000Z</t>
+          <t>2024-11-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>2024-11-07T00:00:00.000Z</t>
+          <t>2024-11-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
-          <t>Labone Project</t>
+          <t>24YGM20</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>Labone Project</t>
+          <t>24YGM20</t>
         </is>
       </c>
       <c r="I2" s="6" t="inlineStr">
         <is>
-          <t>Turkish Calacatta</t>
+          <t>Carrara White</t>
         </is>
       </c>
       <c r="J2" s="6" t="inlineStr">
         <is>
-          <t>Marble Tiles-Turkish Calacatta-Dolgulu&amp;Yarı Cilalı&amp;Mat Yüzey-30,5x61,0x1,2 (115 m2, 618 Pcs)</t>
+          <t>Marble Tiles-Carrara White-Cilalı&amp;Mikro Pahlı-30,5x61,0x1,0 (5 tam 180 Adet, 1 Kasa 80 Adet Toplam 182,33 m2
+1 kutuda 5 taş , 1 kasada 36 kutu olacak
+)</t>
         </is>
       </c>
       <c r="K2" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x61,0x1,0</t>
         </is>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>Ionic Stone</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M2" s="7" t="n">
-        <v>115</v>
+        <v>182.33</v>
       </c>
       <c r="N2" s="7" t="n">
         <v>0</v>
@@ -721,7 +723,7 @@
         </is>
       </c>
       <c r="P2" s="18" t="n">
-        <v>115</v>
+        <v>182.33</v>
       </c>
     </row>
     <row r="3">
@@ -730,57 +732,74 @@
           <t>Mehmet</t>
         </is>
       </c>
+      <c r="B3" s="17" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D3" s="19" t="n"/>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F3" s="19" t="n"/>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
           <t>Labone Project</t>
         </is>
       </c>
-      <c r="H3" s="19" t="n"/>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>Labone Project</t>
+        </is>
+      </c>
       <c r="I3" s="6" t="inlineStr">
         <is>
-          <t>Pasha White - Special Design</t>
+          <t>Turkish Calacatta</t>
         </is>
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
-          <t>Marble Lavabo-Pasha White - Special Design-Cilalı-45,0x65,0x13,0 (1 Adet)</t>
+          <t>Marble Tiles-Turkish Calacatta-Dolgulu&amp;Yarı Cilalı&amp;Mat Yüzey-30,5x61,0x1,2 (119.08 m2, 640 Pcs)</t>
         </is>
       </c>
       <c r="K3" s="6" t="inlineStr">
         <is>
-          <t>45,0x65,0x13,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>Erkan Mermer</t>
+          <t>Ionic Stone</t>
         </is>
       </c>
       <c r="M3" s="7" t="n">
-        <v>1</v>
+        <v>119.08</v>
       </c>
       <c r="N3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P3" s="18" t="n">
-        <v>1</v>
+        <v>119.08</v>
       </c>
     </row>
     <row r="4">
@@ -809,17 +828,17 @@
       <c r="H4" s="19" t="n"/>
       <c r="I4" s="6" t="inlineStr">
         <is>
-          <t>Toros Black - Special Design</t>
+          <t>Pasha White - Special Design</t>
         </is>
       </c>
       <c r="J4" s="6" t="inlineStr">
         <is>
-          <t>Marble Lavabo-Toros Black - Special Design-Cilalı-47,0x47,0x13,0 (1 Adet)</t>
+          <t>Marble Lavabo-Pasha White - Special Design-Cilalı-45,0x65,0x13,0 (1 Adet)</t>
         </is>
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>47,0x47,0x13,0</t>
+          <t>45,0x65,0x13,0</t>
         </is>
       </c>
       <c r="L4" s="6" t="inlineStr">
@@ -831,15 +850,15 @@
         <v>1</v>
       </c>
       <c r="N4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P4" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="O4" s="6" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="P4" s="18" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -853,52 +872,52 @@
           <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D5" s="20" t="n"/>
+      <c r="D5" s="19" t="n"/>
       <c r="E5" s="6" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F5" s="20" t="n"/>
+      <c r="F5" s="19" t="n"/>
       <c r="G5" s="6" t="inlineStr">
         <is>
           <t>Labone Project</t>
         </is>
       </c>
-      <c r="H5" s="20" t="n"/>
+      <c r="H5" s="19" t="n"/>
       <c r="I5" s="6" t="inlineStr">
         <is>
-          <t>Dolomite</t>
+          <t>Toros Black - Special Design</t>
         </is>
       </c>
       <c r="J5" s="6" t="inlineStr">
         <is>
-          <t>Marble Tiles-Dolomite-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (45 m2, 241 Adet)</t>
+          <t>Marble Lavabo-Toros Black - Special Design-Cilalı-47,0x47,0x13,0 (1 Adet)</t>
         </is>
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>47,0x47,0x13,0</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>Ece Mermer</t>
+          <t>Erkan Mermer</t>
         </is>
       </c>
       <c r="M5" s="7" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P5" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="O5" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P5" s="18" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -907,49 +926,32 @@
           <t>Mehmet</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>2024-11-07T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D6" s="20" t="n"/>
       <c r="E6" s="6" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="F6" s="20" t="n"/>
       <c r="G6" s="6" t="inlineStr">
         <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
+          <t>Labone Project</t>
+        </is>
+      </c>
+      <c r="H6" s="20" t="n"/>
       <c r="I6" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Dolomite</t>
         </is>
       </c>
       <c r="J6" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (2195 m2, 12194 Adet)</t>
+          <t>Marble Tiles-Dolomite-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (45 m2, 241 Adet)</t>
         </is>
       </c>
       <c r="K6" s="6" t="inlineStr">
@@ -959,11 +961,11 @@
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ece Mermer</t>
         </is>
       </c>
       <c r="M6" s="7" t="n">
-        <v>2195</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7" t="n">
         <v>0</v>
@@ -974,7 +976,7 @@
         </is>
       </c>
       <c r="P6" s="18" t="n">
-        <v>2195</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -983,24 +985,41 @@
           <t>Mehmet</t>
         </is>
       </c>
+      <c r="B7" s="17" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D7" s="19" t="n"/>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F7" s="19" t="n"/>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
           <t>Lincoln Court</t>
         </is>
       </c>
-      <c r="H7" s="19" t="n"/>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
       <c r="I7" s="6" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -1008,12 +1027,12 @@
       </c>
       <c r="J7" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (370 m2, 4625 Adet)</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (2195 m2, 12194 Adet)</t>
         </is>
       </c>
       <c r="K7" s="6" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L7" s="6" t="inlineStr">
@@ -1022,7 +1041,7 @@
         </is>
       </c>
       <c r="M7" s="7" t="n">
-        <v>370</v>
+        <v>2195</v>
       </c>
       <c r="N7" s="7" t="n">
         <v>0</v>
@@ -1033,7 +1052,7 @@
         </is>
       </c>
       <c r="P7" s="18" t="n">
-        <v>370</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="8">
@@ -1067,21 +1086,21 @@
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travertine Mozaik-Silver Grey-Dolgulu&amp;Cilalı-30,5x30,5x1,0 (295 m2 5x15) </t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (370 m2, 4625 Adet)</t>
         </is>
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,0</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M8" s="7" t="n">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="N8" s="7" t="n">
         <v>0</v>
@@ -1092,7 +1111,7 @@
         </is>
       </c>
       <c r="P8" s="18" t="n">
-        <v>295</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9">
@@ -1121,17 +1140,17 @@
       <c r="H9" s="19" t="n"/>
       <c r="I9" s="6" t="inlineStr">
         <is>
-          <t>Silver Tundra Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J9" s="6" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı-100,0x190,0x2,0 (Açılı Kesim 9 adet)</t>
+          <t xml:space="preserve">Travertine Mozaik-Silver Grey-Dolgulu&amp;Cilalı-30,5x30,5x1,0 (295 m2 5x15) </t>
         </is>
       </c>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>100,0x190,0x2,0</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="L9" s="6" t="inlineStr">
@@ -1140,18 +1159,18 @@
         </is>
       </c>
       <c r="M9" s="7" t="n">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="N9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P9" s="18" t="n">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
@@ -1185,12 +1204,12 @@
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x170,0x2,0 (60 adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı-100,0x190,0x2,0 (Açılı Kesim 9 adet)</t>
         </is>
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>15,0x170,0x2,0</t>
+          <t>100,0x190,0x2,0</t>
         </is>
       </c>
       <c r="L10" s="6" t="inlineStr">
@@ -1199,7 +1218,7 @@
         </is>
       </c>
       <c r="M10" s="7" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7" t="n">
         <v>0</v>
@@ -1210,7 +1229,7 @@
         </is>
       </c>
       <c r="P10" s="18" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1244,12 +1263,12 @@
       </c>
       <c r="J11" s="6" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-30,0x129,0x2,0 (40 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x170,0x2,0 (60 adet)</t>
         </is>
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>30,0x129,0x2,0</t>
+          <t>15,0x170,0x2,0</t>
         </is>
       </c>
       <c r="L11" s="6" t="inlineStr">
@@ -1258,7 +1277,7 @@
         </is>
       </c>
       <c r="M11" s="7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7" t="n">
         <v>0</v>
@@ -1269,7 +1288,7 @@
         </is>
       </c>
       <c r="P11" s="18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1303,12 +1322,12 @@
       </c>
       <c r="J12" s="6" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x129,0x2,0 (40 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-30,0x129,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>20,0x129,0x2,0</t>
+          <t>30,0x129,0x2,0</t>
         </is>
       </c>
       <c r="L12" s="6" t="inlineStr">
@@ -1362,12 +1381,12 @@
       </c>
       <c r="J13" s="6" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x126,0x2,0 (40 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x129,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>33,0x126,0x2,0</t>
+          <t>20,0x129,0x2,0</t>
         </is>
       </c>
       <c r="L13" s="6" t="inlineStr">
@@ -1421,12 +1440,12 @@
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-22,0x126,0x2,0 (40 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x126,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>22,0x126,0x2,0</t>
+          <t>33,0x126,0x2,0</t>
         </is>
       </c>
       <c r="L14" s="6" t="inlineStr">
@@ -1480,12 +1499,12 @@
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x127,0x2,0 (40 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-22,0x126,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>33,0x127,0x2,0</t>
+          <t>22,0x126,0x2,0</t>
         </is>
       </c>
       <c r="L15" s="6" t="inlineStr">
@@ -1539,12 +1558,12 @@
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x125,0x2,0 (40 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x127,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>15,0x125,0x2,0</t>
+          <t>33,0x127,0x2,0</t>
         </is>
       </c>
       <c r="L16" s="6" t="inlineStr">
@@ -1598,12 +1617,12 @@
       </c>
       <c r="J17" s="6" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x120,0x2,0 (80 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x125,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K17" s="6" t="inlineStr">
         <is>
-          <t>33,0x120,0x2,0</t>
+          <t>15,0x125,0x2,0</t>
         </is>
       </c>
       <c r="L17" s="6" t="inlineStr">
@@ -1612,7 +1631,7 @@
         </is>
       </c>
       <c r="M17" s="7" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N17" s="7" t="n">
         <v>0</v>
@@ -1623,7 +1642,7 @@
         </is>
       </c>
       <c r="P17" s="18" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -1657,12 +1676,12 @@
       </c>
       <c r="J18" s="6" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-18,0x120,0x2,0 (80 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x120,0x2,0 (80 Adet)</t>
         </is>
       </c>
       <c r="K18" s="6" t="inlineStr">
         <is>
-          <t>18,0x120,0x2,0</t>
+          <t>33,0x120,0x2,0</t>
         </is>
       </c>
       <c r="L18" s="6" t="inlineStr">
@@ -1716,12 +1735,12 @@
       </c>
       <c r="J19" s="6" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x115,0x2,0 (40 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-18,0x120,0x2,0 (80 Adet)</t>
         </is>
       </c>
       <c r="K19" s="6" t="inlineStr">
         <is>
-          <t>33,0x115,0x2,0</t>
+          <t>18,0x120,0x2,0</t>
         </is>
       </c>
       <c r="L19" s="6" t="inlineStr">
@@ -1730,7 +1749,7 @@
         </is>
       </c>
       <c r="M19" s="7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N19" s="7" t="n">
         <v>0</v>
@@ -1741,7 +1760,7 @@
         </is>
       </c>
       <c r="P19" s="18" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -1755,19 +1774,19 @@
           <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D20" s="20" t="n"/>
+      <c r="D20" s="19" t="n"/>
       <c r="E20" s="6" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F20" s="20" t="n"/>
+      <c r="F20" s="19" t="n"/>
       <c r="G20" s="6" t="inlineStr">
         <is>
           <t>Lincoln Court</t>
         </is>
       </c>
-      <c r="H20" s="20" t="n"/>
+      <c r="H20" s="19" t="n"/>
       <c r="I20" s="6" t="inlineStr">
         <is>
           <t>Silver Tundra Beige</t>
@@ -1775,12 +1794,12 @@
       </c>
       <c r="J20" s="6" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x115,0x2,0 (40 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x115,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K20" s="6" t="inlineStr">
         <is>
-          <t>20,0x115,0x2,0</t>
+          <t>33,0x115,0x2,0</t>
         </is>
       </c>
       <c r="L20" s="6" t="inlineStr">
@@ -1806,77 +1825,60 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B21" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-10-31T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>2024-10-31T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n"/>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>Fevzi - Turkey</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F21" s="20" t="n"/>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>24FEVZİ14</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>24FEVZİ14</t>
-        </is>
-      </c>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H21" s="20" t="n"/>
       <c r="I21" s="6" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J21" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Cilalı-30,0x60,0x2,0</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x115,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K21" s="6" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>20,0x115,0x2,0</t>
         </is>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M21" s="7" t="n">
-        <v>69.84</v>
+        <v>40</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>69.84</v>
+        <v>0</v>
       </c>
       <c r="O21" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P21" s="18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -1885,37 +1887,54 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-10-31T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D22" s="20" t="n"/>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
-        </is>
-      </c>
-      <c r="F22" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
-          <t>24FEVZİ14</t>
-        </is>
-      </c>
-      <c r="H22" s="20" t="n"/>
+          <t>Apartment 24</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>Apartment 24</t>
+        </is>
+      </c>
       <c r="I22" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J22" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Cilalı-30,0x60,0x2,0</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x61,0x1,2 (3800 m2, 15343 Adet)</t>
         </is>
       </c>
       <c r="K22" s="6" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L22" s="6" t="inlineStr">
@@ -1924,10 +1943,10 @@
         </is>
       </c>
       <c r="M22" s="7" t="n">
-        <v>93.42</v>
+        <v>3800</v>
       </c>
       <c r="N22" s="7" t="n">
-        <v>93.42</v>
+        <v>0</v>
       </c>
       <c r="O22" s="6" t="inlineStr">
         <is>
@@ -1935,7 +1954,7 @@
         </is>
       </c>
       <c r="P22" s="18" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="23">
@@ -1944,54 +1963,37 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B23" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-10-11T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>2024-10-11T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="n"/>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F23" s="19" t="n"/>
       <c r="G23" s="6" t="inlineStr">
         <is>
-          <t>24İST-L01</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="inlineStr">
-        <is>
-          <t>24İST-L01</t>
-        </is>
-      </c>
+          <t>Apartment 24</t>
+        </is>
+      </c>
+      <c r="H23" s="19" t="n"/>
       <c r="I23" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J23" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia-Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (889.18 m2 , 23 Kasa, Her set bağlı, standart set ölçüleri (yani 20.3 olacak))</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="K23" s="6" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="L23" s="6" t="inlineStr">
@@ -2000,7 +2002,7 @@
         </is>
       </c>
       <c r="M23" s="7" t="n">
-        <v>889.1799999999999</v>
+        <v>1000</v>
       </c>
       <c r="N23" s="7" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         </is>
       </c>
       <c r="P23" s="18" t="n">
-        <v>889.1799999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -2020,47 +2022,300 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B24" s="17" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D24" s="19" t="n"/>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F24" s="19" t="n"/>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>Apartment 24</t>
+        </is>
+      </c>
+      <c r="H24" s="19" t="n"/>
+      <c r="I24" s="6" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (500 m2, 6066 pcs)</t>
+        </is>
+      </c>
+      <c r="K24" s="6" t="inlineStr">
+        <is>
+          <t>20,3x40,6x1,2</t>
+        </is>
+      </c>
+      <c r="L24" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P24" s="18" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Semih</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D25" s="19" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F25" s="19" t="n"/>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>Apartment 24</t>
+        </is>
+      </c>
+      <c r="H25" s="19" t="n"/>
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="J25" s="6" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Classic Mina-Dolgulu&amp;Cilalı-30,5x30,5x1,2 (330 m2, 3547 adet)</t>
+        </is>
+      </c>
+      <c r="K25" s="6" t="inlineStr">
+        <is>
+          <t>30,5x30,5x1,2</t>
+        </is>
+      </c>
+      <c r="L25" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>330</v>
+      </c>
+      <c r="N25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P25" s="18" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="n"/>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>Apartment 24</t>
+        </is>
+      </c>
+      <c r="H26" s="20" t="n"/>
+      <c r="I26" s="6" t="inlineStr">
+        <is>
+          <t>Philadelphia Vein Cut</t>
+        </is>
+      </c>
+      <c r="J26" s="6" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (1200 m2, 6450 Adet)</t>
+        </is>
+      </c>
+      <c r="K26" s="6" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="L26" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P26" s="18" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B27" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-10-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>2024-10-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="inlineStr">
+        <is>
+          <t>24İST-L01</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>24İST-L01</t>
+        </is>
+      </c>
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="J27" s="6" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Philadelphia-Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (889.18 m2 , 23 Kasa, Her set bağlı, standart set ölçüleri (yani 20.3 olacak))</t>
+        </is>
+      </c>
+      <c r="K27" s="6" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="L27" s="6" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>889.1799999999999</v>
+      </c>
+      <c r="N27" s="7" t="n">
+        <v>850.52</v>
+      </c>
+      <c r="O27" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P27" s="18" t="n">
+        <v>38.65999999999997</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B28" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>2024-10-10T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>2024-10-10T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>YGM</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>YGM</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>24YGM18</t>
-        </is>
-      </c>
-      <c r="H24" s="5" t="inlineStr">
-        <is>
-          <t>24YGM18</t>
-        </is>
-      </c>
-      <c r="I24" s="6" t="inlineStr">
+      <c r="G28" s="6" t="inlineStr">
+        <is>
+          <t>24YGM18-2</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>24YGM18-2</t>
+        </is>
+      </c>
+      <c r="I28" s="6" t="inlineStr">
         <is>
           <t>Classic Mina</t>
         </is>
       </c>
-      <c r="J24" s="6" t="inlineStr">
+      <c r="J28" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Travertine Pavers-Classic Mina-Dolgusuz&amp;Fırçalı Kenarı Kırık-15,25x30,5x3,0
 1 Paletteki Taş Sayısı : 240 adet taş
@@ -2074,361 +2329,91 @@
 </t>
         </is>
       </c>
-      <c r="K24" s="6" t="inlineStr">
+      <c r="K28" s="6" t="inlineStr">
         <is>
           <t>15,25x30,5x3,0</t>
         </is>
       </c>
-      <c r="L24" s="6" t="inlineStr">
+      <c r="L28" s="6" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="M24" s="7" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="N24" s="7" t="n">
-        <v>70.31999999999999</v>
-      </c>
-      <c r="O24" s="6" t="inlineStr">
+      <c r="M28" s="7" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="N28" s="7" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="O28" s="6" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P24" s="18" t="n">
-        <v>-3.419999999999987</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="P28" s="18" t="n">
+        <v>-3.420000000000002</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Semih</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>2024-10-10T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D25" s="19" t="n"/>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="D29" s="19" t="n"/>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>YGM</t>
         </is>
       </c>
-      <c r="F25" s="19" t="n"/>
-      <c r="G25" s="6" t="inlineStr">
-        <is>
-          <t>24YGM18</t>
-        </is>
-      </c>
-      <c r="H25" s="19" t="n"/>
-      <c r="I25" s="6" t="inlineStr">
+      <c r="F29" s="19" t="n"/>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>24YGM18-2</t>
+        </is>
+      </c>
+      <c r="H29" s="19" t="n"/>
+      <c r="I29" s="6" t="inlineStr">
         <is>
           <t>Volcano</t>
         </is>
       </c>
-      <c r="J25" s="6" t="inlineStr">
-        <is>
-          <t>Travertine Tiles-Volcano-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (10 kasa olacak 193.3m2 )
+      <c r="J29" s="6" t="inlineStr">
+        <is>
+          <t>Travertine Tiles-Volcano-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-ANTxPATx1,2 (94.36 m2 )
 Kasa detayları: Küçük Set Kasası
 Kasa için kutu adedi: 26 Kutu
 Toplam Sipariş Miktarı: 260 kutu.</t>
         </is>
       </c>
-      <c r="K25" s="6" t="inlineStr">
+      <c r="K29" s="6" t="inlineStr">
         <is>
           <t>ANTxPATx1,2</t>
         </is>
       </c>
-      <c r="L25" s="6" t="inlineStr">
+      <c r="L29" s="6" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="M25" s="7" t="n">
-        <v>249</v>
-      </c>
-      <c r="N25" s="7" t="n">
-        <v>191.07</v>
-      </c>
-      <c r="O25" s="6" t="inlineStr">
+      <c r="M29" s="7" t="n">
+        <v>96.59</v>
+      </c>
+      <c r="N29" s="7" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="O29" s="6" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="P25" s="18" t="n">
+      <c r="P29" s="18" t="n">
         <v>57.93000000000001</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2024-10-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D26" s="19" t="n"/>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F26" s="19" t="n"/>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>24YGM18</t>
-        </is>
-      </c>
-      <c r="H26" s="19" t="n"/>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
-          <t>Volcano</t>
-        </is>
-      </c>
-      <c r="J26" s="6" t="inlineStr">
-        <is>
-          <t>Travertine Tiles-Volcano-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-45,7x45,7x1,2 (325,3 m2 10 kasa 1560 adet)</t>
-        </is>
-      </c>
-      <c r="K26" s="6" t="inlineStr">
-        <is>
-          <t>45,7x45,7x1,2</t>
-        </is>
-      </c>
-      <c r="L26" s="6" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>325.3</v>
-      </c>
-      <c r="N26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P26" s="18" t="n">
-        <v>325.3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2024-10-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D27" s="20" t="n"/>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F27" s="20" t="n"/>
-      <c r="G27" s="6" t="inlineStr">
-        <is>
-          <t>24YGM18</t>
-        </is>
-      </c>
-      <c r="H27" s="20" t="n"/>
-      <c r="I27" s="6" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-      <c r="J27" s="6" t="inlineStr">
-        <is>
-          <t>Marble Tiles-Bluestone-Sandblasted&amp;Brushed&amp;Yumuşak Kenar-30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="K27" s="6" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="L27" s="6" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M27" s="7" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="N27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P27" s="18" t="n">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B28" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2024-09-28T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>2024-09-28T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Sanya Dogaltas - Turkey</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>Sanya Dogaltas - Turkey</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr">
-        <is>
-          <t>24SNY21</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>24SNY21</t>
-        </is>
-      </c>
-      <c r="I28" s="6" t="inlineStr">
-        <is>
-          <t>Scabos</t>
-        </is>
-      </c>
-      <c r="J28" s="6" t="inlineStr">
-        <is>
-          <t>Scabos Dolgulu Fırçalı kenarı kırık</t>
-        </is>
-      </c>
-      <c r="K28" s="6" t="inlineStr">
-        <is>
-          <t>15,25x30,5x1,2</t>
-        </is>
-      </c>
-      <c r="L28" s="6" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N28" s="7" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="O28" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P28" s="18" t="n">
-        <v>-0.2800000000000002</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B29" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2024-09-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>2024-09-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="inlineStr">
-        <is>
-          <t>DR Nash-2</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>DR Nash-2</t>
-        </is>
-      </c>
-      <c r="I29" s="6" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="J29" s="6" t="inlineStr">
-        <is>
-          <t>Marble Tiles-Diana Royal-Cilalı-61,0x122,0x2,0 (1733 m2)</t>
-        </is>
-      </c>
-      <c r="K29" s="6" t="inlineStr">
-        <is>
-          <t>61,0x122,0x2,0</t>
-        </is>
-      </c>
-      <c r="L29" s="6" t="inlineStr">
-        <is>
-          <t>Köylü Mermer</t>
-        </is>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v>1232.99</v>
-      </c>
-      <c r="N29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P29" s="18" t="n">
-        <v>1232.99</v>
       </c>
     </row>
     <row r="30">
@@ -2439,35 +2424,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-09-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D30" s="19" t="n"/>
+          <t>2024-10-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="F30" s="19" t="n"/>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="n"/>
       <c r="G30" s="6" t="inlineStr">
         <is>
-          <t>DR Nash-2</t>
-        </is>
-      </c>
-      <c r="H30" s="19" t="n"/>
+          <t>24YGM18-2</t>
+        </is>
+      </c>
+      <c r="H30" s="20" t="n"/>
       <c r="I30" s="6" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="J30" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Pablo-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (791 m2, 4251 adet)</t>
+          <t>Travertine Tiles-Volcano-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-45,7x45,7x1,2 (325,3 m2 10 kasa 1560 adet)</t>
         </is>
       </c>
       <c r="K30" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="L30" s="6" t="inlineStr">
@@ -2476,10 +2461,10 @@
         </is>
       </c>
       <c r="M30" s="7" t="n">
-        <v>791</v>
+        <v>325.3</v>
       </c>
       <c r="N30" s="7" t="n">
-        <v>0</v>
+        <v>334.2</v>
       </c>
       <c r="O30" s="6" t="inlineStr">
         <is>
@@ -2487,7 +2472,7 @@
         </is>
       </c>
       <c r="P30" s="18" t="n">
-        <v>791</v>
+        <v>-8.899999999999977</v>
       </c>
     </row>
     <row r="31">
@@ -2496,49 +2481,66 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B31" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-09-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D31" s="19" t="n"/>
+          <t>2024-09-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-28T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E31" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="F31" s="19" t="n"/>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
       <c r="G31" s="6" t="inlineStr">
         <is>
-          <t>DR Nash-2</t>
-        </is>
-      </c>
-      <c r="H31" s="19" t="n"/>
+          <t>24SNY21</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>24SNY21</t>
+        </is>
+      </c>
       <c r="I31" s="6" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="J31" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Picasso Ivory-Dolgulu&amp;Honlu-30,5x61,0x1,2 (1060 m2 5697 adet)</t>
+          <t>Scabos Dolgulu Fırçalı kenarı kırık</t>
         </is>
       </c>
       <c r="K31" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="L31" s="6" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M31" s="7" t="n">
-        <v>1060</v>
+        <v>6</v>
       </c>
       <c r="N31" s="7" t="n">
-        <v>0</v>
+        <v>6.28</v>
       </c>
       <c r="O31" s="6" t="inlineStr">
         <is>
@@ -2546,7 +2548,7 @@
         </is>
       </c>
       <c r="P31" s="18" t="n">
-        <v>1060</v>
+        <v>-0.2800000000000002</v>
       </c>
     </row>
     <row r="32">
@@ -2555,24 +2557,41 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B32" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>2024-09-16T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D32" s="19" t="n"/>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E32" s="6" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F32" s="19" t="n"/>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
           <t>DR Nash-2</t>
         </is>
       </c>
-      <c r="H32" s="19" t="n"/>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>DR Nash-2</t>
+        </is>
+      </c>
       <c r="I32" s="6" t="inlineStr">
         <is>
           <t>Diana Royal</t>
@@ -2580,32 +2599,32 @@
       </c>
       <c r="J32" s="6" t="inlineStr">
         <is>
-          <t>Marble Threads-Diana Royal-Polished-60,0x650x2,0  (650cm will be divided 3-4 pieces)</t>
+          <t>Marble Tiles-Diana Royal-Cilalı-61,0x122,0x2,0 (1733 m2)</t>
         </is>
       </c>
       <c r="K32" s="6" t="inlineStr">
         <is>
-          <t>60,0x650x2,0</t>
+          <t>61,0x122,0x2,0</t>
         </is>
       </c>
       <c r="L32" s="6" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Köylü Mermer</t>
         </is>
       </c>
       <c r="M32" s="7" t="n">
-        <v>6</v>
+        <v>1232.99</v>
       </c>
       <c r="N32" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O32" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P32" s="18" t="n">
-        <v>6</v>
+        <v>1232.99</v>
       </c>
     </row>
     <row r="33">
@@ -2634,37 +2653,37 @@
       <c r="H33" s="19" t="n"/>
       <c r="I33" s="6" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="J33" s="6" t="inlineStr">
         <is>
-          <t>Marble Risers-Diana Royal-Cilalı-10,0x650x2,0</t>
+          <t>Travertine Tiles-Pablo-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (791 m2, 4251 adet)</t>
         </is>
       </c>
       <c r="K33" s="6" t="inlineStr">
         <is>
-          <t>10,0x650x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L33" s="6" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M33" s="7" t="n">
-        <v>6</v>
+        <v>791</v>
       </c>
       <c r="N33" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O33" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P33" s="18" t="n">
-        <v>6</v>
+        <v>791</v>
       </c>
     </row>
     <row r="34">
@@ -2693,26 +2712,26 @@
       <c r="H34" s="19" t="n"/>
       <c r="I34" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="J34" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x61,0x1,2 (3800 m2, 15343 Adet)</t>
+          <t>Travertine Tiles-Picasso Ivory-Dolgulu&amp;Honlu-30,5x61,0x1,2 (1060 m2 5697 adet)</t>
         </is>
       </c>
       <c r="K34" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L34" s="6" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M34" s="7" t="n">
-        <v>3800</v>
+        <v>1060</v>
       </c>
       <c r="N34" s="7" t="n">
         <v>0</v>
@@ -2723,7 +2742,7 @@
         </is>
       </c>
       <c r="P34" s="18" t="n">
-        <v>3800</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="35">
@@ -2752,17 +2771,17 @@
       <c r="H35" s="19" t="n"/>
       <c r="I35" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J35" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x40,6x1,2</t>
+          <t>Marble Threads-Diana Royal-Polished-60,0x650x2,0  (650cm will be divided 3-4 pieces)</t>
         </is>
       </c>
       <c r="K35" s="6" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>60,0x650x2,0</t>
         </is>
       </c>
       <c r="L35" s="6" t="inlineStr">
@@ -2771,18 +2790,18 @@
         </is>
       </c>
       <c r="M35" s="7" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="N35" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O35" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P35" s="18" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2796,32 +2815,32 @@
           <t>2024-09-16T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D36" s="19" t="n"/>
+      <c r="D36" s="20" t="n"/>
       <c r="E36" s="6" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F36" s="19" t="n"/>
+      <c r="F36" s="20" t="n"/>
       <c r="G36" s="6" t="inlineStr">
         <is>
           <t>DR Nash-2</t>
         </is>
       </c>
-      <c r="H36" s="19" t="n"/>
+      <c r="H36" s="20" t="n"/>
       <c r="I36" s="6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J36" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (500 m2, 6066 pcs)</t>
+          <t>Marble Risers-Diana Royal-Cilalı-10,0x650x2,0</t>
         </is>
       </c>
       <c r="K36" s="6" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>10,0x650x2,0</t>
         </is>
       </c>
       <c r="L36" s="6" t="inlineStr">
@@ -2830,18 +2849,18 @@
         </is>
       </c>
       <c r="M36" s="7" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="N36" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O36" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P36" s="18" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2850,49 +2869,66 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B37" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-09-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D37" s="19" t="n"/>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E37" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="F37" s="19" t="n"/>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
       <c r="G37" s="6" t="inlineStr">
         <is>
-          <t>DR Nash-2</t>
-        </is>
-      </c>
-      <c r="H37" s="19" t="n"/>
+          <t>24KM08-6</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>24KM08-6</t>
+        </is>
+      </c>
       <c r="I37" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Mix</t>
         </is>
       </c>
       <c r="J37" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Mina-Dolgulu&amp;Cilalı-30,5x30,5x1,2 (330 m2, 3547 adet)</t>
+          <t>Travertine Tiles-Silver Mix-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K37" s="6" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L37" s="6" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M37" s="7" t="n">
-        <v>330</v>
+        <v>390.7</v>
       </c>
       <c r="N37" s="7" t="n">
-        <v>0</v>
+        <v>39.07</v>
       </c>
       <c r="O37" s="6" t="inlineStr">
         <is>
@@ -2900,7 +2936,7 @@
         </is>
       </c>
       <c r="P37" s="18" t="n">
-        <v>330</v>
+        <v>351.63</v>
       </c>
     </row>
     <row r="38">
@@ -2911,30 +2947,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-09-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D38" s="20" t="n"/>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D38" s="19" t="n"/>
       <c r="E38" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="F38" s="20" t="n"/>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="F38" s="19" t="n"/>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>DR Nash-2</t>
-        </is>
-      </c>
-      <c r="H38" s="20" t="n"/>
+          <t>24KM08-6</t>
+        </is>
+      </c>
+      <c r="H38" s="19" t="n"/>
       <c r="I38" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia Vein Cut</t>
+          <t>Silver Mix</t>
         </is>
       </c>
       <c r="J38" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (1200 m2, 6450 Adet)</t>
+          <t>Travertine Tiles-Silver Mix-Dolgusuz&amp;Fırçalı-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K38" s="6" t="inlineStr">
@@ -2944,11 +2980,11 @@
       </c>
       <c r="L38" s="6" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M38" s="7" t="n">
-        <v>1200</v>
+        <v>273.49</v>
       </c>
       <c r="N38" s="7" t="n">
         <v>0</v>
@@ -2959,7 +2995,7 @@
         </is>
       </c>
       <c r="P38" s="18" t="n">
-        <v>1200</v>
+        <v>273.49</v>
       </c>
     </row>
     <row r="39">
@@ -2968,54 +3004,37 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B39" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>2024-09-06T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>2024-09-06T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D39" s="19" t="n"/>
       <c r="E39" s="6" t="inlineStr">
         <is>
           <t>Kent Mermer</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>Kent Mermer</t>
-        </is>
-      </c>
+      <c r="F39" s="19" t="n"/>
       <c r="G39" s="6" t="inlineStr">
         <is>
           <t>24KM08-6</t>
         </is>
       </c>
-      <c r="H39" s="5" t="inlineStr">
-        <is>
-          <t>24KM08-6</t>
-        </is>
-      </c>
+      <c r="H39" s="19" t="n"/>
       <c r="I39" s="6" t="inlineStr">
         <is>
-          <t>Silver Mix</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J39" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Mix-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
+          <t>Travertine Tiles-Silver Grey-Dolgusuz&amp;Fırçalı-10,0x40,6x1,2 (14 kasa ortalama 40 m2 = toplam 561.02 m2)</t>
         </is>
       </c>
       <c r="K39" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>10,0x40,6x1,2</t>
         </is>
       </c>
       <c r="L39" s="6" t="inlineStr">
@@ -3024,10 +3043,10 @@
         </is>
       </c>
       <c r="M39" s="7" t="n">
-        <v>413.96</v>
+        <v>249.18</v>
       </c>
       <c r="N39" s="7" t="n">
-        <v>39.07</v>
+        <v>38.98</v>
       </c>
       <c r="O39" s="6" t="inlineStr">
         <is>
@@ -3035,7 +3054,7 @@
         </is>
       </c>
       <c r="P39" s="18" t="n">
-        <v>374.89</v>
+        <v>210.2</v>
       </c>
     </row>
     <row r="40">
@@ -3064,17 +3083,28 @@
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="6" t="inlineStr">
         <is>
-          <t>Silver Mix</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J40" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Mix-Dolgusuz&amp;Fırçalı-30,5x61,0x1,2</t>
+          <t>Travertine Sills-Silver Grey-Dolgulu&amp;Honlu-VARxVARx2,0 (Birinin 3 Tarafı 45 derece Pahlı olacak.)
+1- 22x83x2,0 = 1 Adet
+2- 22x100x2,0 = 2 Adet
+3- 22x91x2,0 = 1 Adet
+4- 22x137x2,0 = 1 Adet
+5- 22x92x2,0 = 1 Adet
+6- 22x271x2,0 = 1 Adet
+7- 22x170x2,0 = 1 Adet
+8- 22x90x2,0 = 1 Adet
+9- 22x94x2,0 = 1 Adet
+10- 22x239x2,0 = 1 Adet
+11- 20x153x2,0 = 2 Adet</t>
         </is>
       </c>
       <c r="K40" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>VARxVARx2,0</t>
         </is>
       </c>
       <c r="L40" s="6" t="inlineStr">
@@ -3083,7 +3113,7 @@
         </is>
       </c>
       <c r="M40" s="7" t="n">
-        <v>218.6</v>
+        <v>3.84</v>
       </c>
       <c r="N40" s="7" t="n">
         <v>0</v>
@@ -3094,7 +3124,7 @@
         </is>
       </c>
       <c r="P40" s="18" t="n">
-        <v>218.6</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="41">
@@ -3108,19 +3138,19 @@
           <t>2024-09-06T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D41" s="20" t="n"/>
+      <c r="D41" s="19" t="n"/>
       <c r="E41" s="6" t="inlineStr">
         <is>
           <t>Kent Mermer</t>
         </is>
       </c>
-      <c r="F41" s="20" t="n"/>
+      <c r="F41" s="19" t="n"/>
       <c r="G41" s="6" t="inlineStr">
         <is>
           <t>24KM08-6</t>
         </is>
       </c>
-      <c r="H41" s="20" t="n"/>
+      <c r="H41" s="19" t="n"/>
       <c r="I41" s="6" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -3128,12 +3158,12 @@
       </c>
       <c r="J41" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgusuz&amp;Fırçalı-10,0x40,6x1,2 (14 kasa ortalama 40 m2 = toplam 561.02 m2)</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Honlu-60,0x60,0x2,0 ( 15 m2 )</t>
         </is>
       </c>
       <c r="K41" s="6" t="inlineStr">
         <is>
-          <t>10,0x40,6x1,2</t>
+          <t>60,0x60,0x2,0</t>
         </is>
       </c>
       <c r="L41" s="6" t="inlineStr">
@@ -3142,7 +3172,7 @@
         </is>
       </c>
       <c r="M41" s="7" t="n">
-        <v>249.18</v>
+        <v>15</v>
       </c>
       <c r="N41" s="7" t="n">
         <v>0</v>
@@ -3153,7 +3183,7 @@
         </is>
       </c>
       <c r="P41" s="18" t="n">
-        <v>249.18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3162,54 +3192,37 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B42" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-09-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
-        <is>
-          <t>2024-09-03T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D42" s="20" t="n"/>
       <c r="E42" s="6" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
-      <c r="F42" s="5" t="inlineStr">
-        <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="F42" s="20" t="n"/>
       <c r="G42" s="6" t="inlineStr">
         <is>
-          <t>24BYN74-3</t>
-        </is>
-      </c>
-      <c r="H42" s="5" t="inlineStr">
-        <is>
-          <t>24BYN74-3</t>
-        </is>
-      </c>
+          <t>24KM08-6</t>
+        </is>
+      </c>
+      <c r="H42" s="20" t="n"/>
       <c r="I42" s="6" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="J42" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Fırçalı-20,3x61,0x1,2 (Paketleme eskisi gibi olacak, 3 konteynır)</t>
+          <t>Travertine Tiles-Mina Rustic Vein Cut -Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-MinixPATx1,2 (3 kasa olacak)</t>
         </is>
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>MinixPATx1,2</t>
         </is>
       </c>
       <c r="L42" s="6" t="inlineStr">
@@ -3218,10 +3231,10 @@
         </is>
       </c>
       <c r="M42" s="7" t="n">
-        <v>1834.92</v>
+        <v>116.64</v>
       </c>
       <c r="N42" s="7" t="n">
-        <v>582.54</v>
+        <v>35.57</v>
       </c>
       <c r="O42" s="6" t="inlineStr">
         <is>
@@ -3229,7 +3242,7 @@
         </is>
       </c>
       <c r="P42" s="18" t="n">
-        <v>1252.38</v>
+        <v>81.06999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3245,47 +3258,47 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-08-15T00:00:00.000Z</t>
+          <t>2024-09-03T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15T00:00:00.000Z</t>
+          <t>2024-09-03T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E43" s="6" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>DAVID JONES</t>
+          <t>24BYN74-3</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>DAVID JONES</t>
+          <t>24BYN74-3</t>
         </is>
       </c>
       <c r="I43" s="6" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J43" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Ivory Rustic-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (300m2, 1613 adet)</t>
+          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Fırçalı-20,3x61,0x1,2 (Paketleme eskisi gibi olacak, 3 konteynır)</t>
         </is>
       </c>
       <c r="K43" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="L43" s="6" t="inlineStr">
@@ -3294,10 +3307,10 @@
         </is>
       </c>
       <c r="M43" s="7" t="n">
-        <v>300</v>
+        <v>1834.92</v>
       </c>
       <c r="N43" s="7" t="n">
-        <v>0</v>
+        <v>707.37</v>
       </c>
       <c r="O43" s="6" t="inlineStr">
         <is>
@@ -3305,7 +3318,7 @@
         </is>
       </c>
       <c r="P43" s="18" t="n">
-        <v>300</v>
+        <v>1127.55</v>
       </c>
     </row>
     <row r="44">
@@ -3314,24 +3327,41 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B44" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>2024-08-15T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D44" s="20" t="n"/>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>2024-08-15T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E44" s="6" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F44" s="20" t="n"/>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
           <t>DAVID JONES</t>
         </is>
       </c>
-      <c r="H44" s="20" t="n"/>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>DAVID JONES</t>
+        </is>
+      </c>
       <c r="I44" s="6" t="inlineStr">
         <is>
           <t>Ivory Rustic</t>
@@ -3339,12 +3369,12 @@
       </c>
       <c r="J44" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Ivory Rustic-Filled&amp;Honed-40,6x61,0x1,2 (600 m2  2422 adet)</t>
+          <t>Travertine Tiles-Ivory Rustic-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (300m2, 1613 adet)</t>
         </is>
       </c>
       <c r="K44" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L44" s="6" t="inlineStr">
@@ -3353,7 +3383,7 @@
         </is>
       </c>
       <c r="M44" s="7" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N44" s="7" t="n">
         <v>0</v>
@@ -3364,7 +3394,7 @@
         </is>
       </c>
       <c r="P44" s="18" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
@@ -3373,54 +3403,37 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B45" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D45" s="5" t="inlineStr">
-        <is>
-          <t>2024-05-15T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-08-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D45" s="20" t="n"/>
       <c r="E45" s="6" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F45" s="5" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F45" s="20" t="n"/>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>24İST-İ01-4</t>
-        </is>
-      </c>
-      <c r="H45" s="5" t="inlineStr">
-        <is>
-          <t>24İST-İ01-4</t>
-        </is>
-      </c>
+          <t>DAVID JONES</t>
+        </is>
+      </c>
+      <c r="H45" s="20" t="n"/>
       <c r="I45" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="J45" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-30,5x61,0x3,0 (Toplam 56 kasa 687,68 m2, Kasa içi adet 66)</t>
+          <t>Travertine Tiles-Ivory Rustic-Filled&amp;Honed-40,6x61,0x1,2 (600 m2  2422 adet)</t>
         </is>
       </c>
       <c r="K45" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x3,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L45" s="6" t="inlineStr">
@@ -3429,10 +3442,10 @@
         </is>
       </c>
       <c r="M45" s="7" t="n">
-        <v>343.8596</v>
+        <v>600</v>
       </c>
       <c r="N45" s="7" t="n">
-        <v>12.2793</v>
+        <v>0</v>
       </c>
       <c r="O45" s="6" t="inlineStr">
         <is>
@@ -3440,7 +3453,7 @@
         </is>
       </c>
       <c r="P45" s="18" t="n">
-        <v>331.5803</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46">
@@ -3449,24 +3462,41 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B46" s="17" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>2024-05-15T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D46" s="20" t="n"/>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E46" s="6" t="inlineStr">
         <is>
           <t>Efe - Turkey</t>
         </is>
       </c>
-      <c r="F46" s="20" t="n"/>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
           <t>24İST-İ01-4</t>
         </is>
       </c>
-      <c r="H46" s="20" t="n"/>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>24İST-İ01-4</t>
+        </is>
+      </c>
       <c r="I46" s="6" t="inlineStr">
         <is>
           <t>Philadelphia</t>
@@ -3474,12 +3504,12 @@
       </c>
       <c r="J46" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-MinixPATx3,0 (Toplam palet 50, 697,5 m2,  palet içi adet 260)</t>
+          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-30,5x61,0x3,0 (Toplam 56 kasa 687,68 m2, Kasa içi adet 66)</t>
         </is>
       </c>
       <c r="K46" s="6" t="inlineStr">
         <is>
-          <t>MinixPATx3,0</t>
+          <t>30,5x61,0x3,0</t>
         </is>
       </c>
       <c r="L46" s="6" t="inlineStr">
@@ -3488,10 +3518,10 @@
         </is>
       </c>
       <c r="M46" s="7" t="n">
-        <v>348.75</v>
+        <v>343.8596</v>
       </c>
       <c r="N46" s="7" t="n">
-        <v>0</v>
+        <v>12.2793</v>
       </c>
       <c r="O46" s="6" t="inlineStr">
         <is>
@@ -3499,7 +3529,7 @@
         </is>
       </c>
       <c r="P46" s="18" t="n">
-        <v>348.75</v>
+        <v>331.5803</v>
       </c>
     </row>
     <row r="47">
@@ -3508,54 +3538,37 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B47" s="17" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-04-01T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D47" s="5" t="inlineStr">
-        <is>
-          <t>2024-04-01T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-05-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D47" s="20" t="n"/>
       <c r="E47" s="6" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
-        </is>
-      </c>
-      <c r="F47" s="5" t="inlineStr">
-        <is>
-          <t>Cem-Mer (PEKER)</t>
-        </is>
-      </c>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F47" s="20" t="n"/>
       <c r="G47" s="6" t="inlineStr">
         <is>
-          <t>24PK3006-21</t>
-        </is>
-      </c>
-      <c r="H47" s="5" t="inlineStr">
-        <is>
-          <t>24PK3006-21</t>
-        </is>
-      </c>
+          <t>24İST-İ01-4</t>
+        </is>
+      </c>
+      <c r="H47" s="20" t="n"/>
       <c r="I47" s="6" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="J47" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
+          <t>Travertine Tiles-Valencia-Dolgusuz&amp;Fırçalı&amp;Eskitme-MinixPATx3,0 (Toplam palet 50, 697,5 m2,  palet içi adet 260)</t>
         </is>
       </c>
       <c r="K47" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>MinixPATx3,0</t>
         </is>
       </c>
       <c r="L47" s="6" t="inlineStr">
@@ -3564,10 +3577,10 @@
         </is>
       </c>
       <c r="M47" s="7" t="n">
-        <v>148.85</v>
+        <v>348.75</v>
       </c>
       <c r="N47" s="7" t="n">
-        <v>119.08</v>
+        <v>0</v>
       </c>
       <c r="O47" s="6" t="inlineStr">
         <is>
@@ -3575,63 +3588,63 @@
         </is>
       </c>
       <c r="P47" s="18" t="n">
-        <v>29.77</v>
+        <v>348.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="B48" s="17" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-11-05T00:00:00.000Z</t>
+          <t>2024-04-01T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>2024-11-05T00:00:00.000Z</t>
+          <t>2024-04-01T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E48" s="6" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>24FLOS64</t>
+          <t>24PK3006-22</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>24FLOS64</t>
+          <t>24PK3006-22</t>
         </is>
       </c>
       <c r="I48" s="6" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J48" s="6" t="inlineStr">
         <is>
-          <t>1- (14S - Stella Light) Classic Light AÇIK SELEKSİYON! - Dolgusuz Eskitme 1 Uzun Kenarı Bulnozlu - 33,5 x 61 x 3 cm - 1 Kasa - 66 Adet - 13,29 sqm</t>
+          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K48" s="6" t="inlineStr">
         <is>
-          <t>33,5x61,0x3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L48" s="6" t="inlineStr">
@@ -3640,18 +3653,18 @@
         </is>
       </c>
       <c r="M48" s="7" t="n">
-        <v>66</v>
+        <v>59.54</v>
       </c>
       <c r="N48" s="7" t="n">
-        <v>0</v>
+        <v>29.77</v>
       </c>
       <c r="O48" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P48" s="18" t="n">
-        <v>66</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="49">
@@ -3660,24 +3673,41 @@
           <t>Ozlem</t>
         </is>
       </c>
+      <c r="B49" s="17" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-11-05T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D49" s="19" t="n"/>
+          <t>2024-11-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-15T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E49" s="6" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F49" s="19" t="n"/>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
       <c r="G49" s="6" t="inlineStr">
         <is>
-          <t>24FLOS64</t>
-        </is>
-      </c>
-      <c r="H49" s="19" t="n"/>
+          <t>24VEIK101</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>24VEIK101</t>
+        </is>
+      </c>
       <c r="I49" s="6" t="inlineStr">
         <is>
           <t>Mina Rustic</t>
@@ -3685,12 +3715,12 @@
       </c>
       <c r="J49" s="6" t="inlineStr">
         <is>
-          <t>3- (65 - Classic Mix) Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm - 10 Kasa - 2100 Adet - 390,70 sqm</t>
+          <t>Mina Rustic - SNS01 - Dolgulu Fırçalı Kenarı Kırık - ANT x PAT x 1.2 cm (50 Kasa)</t>
         </is>
       </c>
       <c r="K49" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L49" s="6" t="inlineStr">
@@ -3699,10 +3729,10 @@
         </is>
       </c>
       <c r="M49" s="7" t="n">
-        <v>390.7</v>
+        <v>1933</v>
       </c>
       <c r="N49" s="7" t="n">
-        <v>39.07</v>
+        <v>1778.36</v>
       </c>
       <c r="O49" s="6" t="inlineStr">
         <is>
@@ -3710,7 +3740,7 @@
         </is>
       </c>
       <c r="P49" s="18" t="n">
-        <v>351.63</v>
+        <v>154.6400000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3719,32 +3749,49 @@
           <t>Ozlem</t>
         </is>
       </c>
+      <c r="B50" s="17" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-11-05T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D50" s="19" t="n"/>
+          <t>2024-11-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-13T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E50" s="6" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F50" s="19" t="n"/>
+          <t>Eric - Dubai</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>Eric - Dubai</t>
+        </is>
+      </c>
       <c r="G50" s="6" t="inlineStr">
         <is>
-          <t>24FLOS64</t>
-        </is>
-      </c>
-      <c r="H50" s="19" t="n"/>
+          <t>24LZB02</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>24LZB02</t>
+        </is>
+      </c>
       <c r="I50" s="6" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="J50" s="6" t="inlineStr">
         <is>
-          <t>5-  (56F) Golden Ink - Dolgulu Eskitme - ANT x PAT x 1,2 cm - 3 Kasa - 115,98 sqm</t>
+          <t>1- Scabos (Siyah girişi az, açık sarı renk taş kullanılmayacak) - Dolgulu Fırçalı Eskitme Kenar - ANT x PAT x 1,2 cm - 25,5 Kasa - 985,83 sqm</t>
         </is>
       </c>
       <c r="K50" s="6" t="inlineStr">
@@ -3758,7 +3805,7 @@
         </is>
       </c>
       <c r="M50" s="7" t="n">
-        <v>115.98</v>
+        <v>985.83</v>
       </c>
       <c r="N50" s="7" t="n">
         <v>0</v>
@@ -3769,46 +3816,63 @@
         </is>
       </c>
       <c r="P50" s="18" t="n">
-        <v>115.98</v>
+        <v>985.83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B51" s="17" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-11-05T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D51" s="19" t="n"/>
+          <t>2024-11-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-13T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E51" s="6" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F51" s="19" t="n"/>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
       <c r="G51" s="6" t="inlineStr">
         <is>
-          <t>24FLOS64</t>
-        </is>
-      </c>
-      <c r="H51" s="19" t="n"/>
+          <t>24BERNARD03</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>24BERNARD03</t>
+        </is>
+      </c>
       <c r="I51" s="6" t="inlineStr">
         <is>
-          <t>Licom</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J51" s="6" t="inlineStr">
         <is>
-          <t>6- (81F) Licom - Dolgulu Eskitme - 40,6 x 61 x 1,2 cm - 2 Kasa - 320 Adet - 79,26 sqm</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="K51" s="6" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="L51" s="6" t="inlineStr">
@@ -3817,7 +3881,7 @@
         </is>
       </c>
       <c r="M51" s="7" t="n">
-        <v>79.26000000000001</v>
+        <v>160</v>
       </c>
       <c r="N51" s="7" t="n">
         <v>0</v>
@@ -3828,7 +3892,7 @@
         </is>
       </c>
       <c r="P51" s="18" t="n">
-        <v>79.26000000000001</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52">
@@ -3837,37 +3901,54 @@
           <t>Ozlem</t>
         </is>
       </c>
+      <c r="B52" s="17" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>2024-11-05T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D52" s="20" t="n"/>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E52" s="6" t="inlineStr">
         <is>
           <t>Flos - Malta</t>
         </is>
       </c>
-      <c r="F52" s="20" t="n"/>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
       <c r="G52" s="6" t="inlineStr">
         <is>
           <t>24FLOS64</t>
         </is>
       </c>
-      <c r="H52" s="20" t="n"/>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>24FLOS64</t>
+        </is>
+      </c>
       <c r="I52" s="6" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="J52" s="6" t="inlineStr">
         <is>
-          <t>7- (154) Silver Rustic - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 2 Kasa - 77,32 sqm</t>
+          <t>1- (14S - Stella Light) Classic Light AÇIK SELEKSİYON! - Dolgusuz Eskitme 1 Uzun Kenarı Bulnozlu - 33,5 x 61 x 3 cm - 1 Kasa - 66 Adet - 13,29 sqm</t>
         </is>
       </c>
       <c r="K52" s="6" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>33,5x61,0x3,0</t>
         </is>
       </c>
       <c r="L52" s="6" t="inlineStr">
@@ -3876,18 +3957,18 @@
         </is>
       </c>
       <c r="M52" s="7" t="n">
-        <v>77.31999999999999</v>
+        <v>66</v>
       </c>
       <c r="N52" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="O52" s="6" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P52" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="O52" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P52" s="18" t="n">
-        <v>77.31999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3896,54 +3977,37 @@
           <t>Ozlem</t>
         </is>
       </c>
-      <c r="B53" s="17" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2024-10-24T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D53" s="5" t="inlineStr">
-        <is>
-          <t>2024-10-24T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D53" s="19" t="n"/>
       <c r="E53" s="6" t="inlineStr">
         <is>
-          <t>Brenda Pollak - USA</t>
-        </is>
-      </c>
-      <c r="F53" s="5" t="inlineStr">
-        <is>
-          <t>Brenda Pollak - USA</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F53" s="19" t="n"/>
       <c r="G53" s="6" t="inlineStr">
         <is>
-          <t>24BPOL01</t>
-        </is>
-      </c>
-      <c r="H53" s="5" t="inlineStr">
-        <is>
-          <t>24BPOL01</t>
-        </is>
-      </c>
+          <t>24FLOS64</t>
+        </is>
+      </c>
+      <c r="H53" s="19" t="n"/>
       <c r="I53" s="6" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J53" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Ivory Rustic - Dolgulu Honlu Kenarı Kırık  GİDEN NUMUNE KONUSUNDA MEKMERE BİLGİ VERİLECEK! - 40,6 x 40,6 x 1,2 cm - 677 adet - 111,59 sqm</t>
+          <t>3- (65 - Classic Mix) Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm - 10 Kasa - 2100 Adet - 390,70 sqm</t>
         </is>
       </c>
       <c r="K53" s="6" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L53" s="6" t="inlineStr">
@@ -3952,74 +4016,57 @@
         </is>
       </c>
       <c r="M53" s="7" t="n">
-        <v>111.59</v>
+        <v>390.7</v>
       </c>
       <c r="N53" s="7" t="n">
+        <v>390.7</v>
+      </c>
+      <c r="O53" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P53" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="O53" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P53" s="18" t="n">
-        <v>111.59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B54" s="17" t="inlineStr">
-        <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-09-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D54" s="5" t="inlineStr">
-        <is>
-          <t>2024-09-10T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="n"/>
       <c r="E54" s="6" t="inlineStr">
         <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
-      <c r="F54" s="5" t="inlineStr">
-        <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F54" s="19" t="n"/>
       <c r="G54" s="6" t="inlineStr">
         <is>
-          <t>24GRG03</t>
-        </is>
-      </c>
-      <c r="H54" s="5" t="inlineStr">
-        <is>
-          <t>24GRG03</t>
-        </is>
-      </c>
+          <t>24FLOS64</t>
+        </is>
+      </c>
+      <c r="H54" s="19" t="n"/>
       <c r="I54" s="6" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="J54" s="6" t="inlineStr">
         <is>
-          <t>Silver Vein Cut-dolgulu cilalı-30,5x61,0x1,2 - 595,36 m2 - 3200 adet</t>
+          <t>5-  (56F) Golden Ink - Dolgulu Eskitme - ANT x PAT x 1,2 cm - 3 Kasa - 115,98 sqm</t>
         </is>
       </c>
       <c r="K54" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L54" s="6" t="inlineStr">
@@ -4028,10 +4075,10 @@
         </is>
       </c>
       <c r="M54" s="7" t="n">
-        <v>595.36</v>
+        <v>115.98</v>
       </c>
       <c r="N54" s="7" t="n">
-        <v>156.28</v>
+        <v>115.98</v>
       </c>
       <c r="O54" s="6" t="inlineStr">
         <is>
@@ -4039,46 +4086,46 @@
         </is>
       </c>
       <c r="P54" s="18" t="n">
-        <v>439.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-09-10T00:00:00.000Z</t>
+          <t>2024-11-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D55" s="19" t="n"/>
       <c r="E55" s="6" t="inlineStr">
         <is>
-          <t>Gregory Dean - Guyana</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="F55" s="19" t="n"/>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>24GRG03</t>
+          <t>24FLOS64</t>
         </is>
       </c>
       <c r="H55" s="19" t="n"/>
       <c r="I55" s="6" t="inlineStr">
         <is>
-          <t>Carrara White</t>
+          <t>Licom</t>
         </is>
       </c>
       <c r="J55" s="6" t="inlineStr">
         <is>
-          <t>Carrara White - cilalı -45,7x45,7x1,2 cm - 52,84 m2 - 253 adet</t>
+          <t>6- (81F) Licom - Dolgulu Eskitme - 40,6 x 61 x 1,2 cm - 2 Kasa - 320 Adet - 79,26 sqm</t>
         </is>
       </c>
       <c r="K55" s="6" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L55" s="6" t="inlineStr">
@@ -4087,57 +4134,57 @@
         </is>
       </c>
       <c r="M55" s="7" t="n">
-        <v>52.84</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="N55" s="7" t="n">
+        <v>79.26000000000001</v>
+      </c>
+      <c r="O55" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P55" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="O55" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P55" s="18" t="n">
-        <v>52.84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-09-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D56" s="19" t="n"/>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D56" s="20" t="n"/>
       <c r="E56" s="6" t="inlineStr">
         <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
-      <c r="F56" s="19" t="n"/>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="F56" s="20" t="n"/>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>24GRG03</t>
-        </is>
-      </c>
-      <c r="H56" s="19" t="n"/>
+          <t>24FLOS64</t>
+        </is>
+      </c>
+      <c r="H56" s="20" t="n"/>
       <c r="I56" s="6" t="inlineStr">
         <is>
-          <t>Carrara White</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="J56" s="6" t="inlineStr">
         <is>
-          <t>Carrara White - cilalı - 10,0x10,0x1,2 cm - 6,50 m2 - 650 adet</t>
+          <t>7- (154) Silver Rustic - Dolgusuz Eskitme - ANT x PAT x 1,2 cm - 2 Kasa - 77,32 sqm</t>
         </is>
       </c>
       <c r="K56" s="6" t="inlineStr">
         <is>
-          <t>10,0x10,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L56" s="6" t="inlineStr">
@@ -4146,18 +4193,18 @@
         </is>
       </c>
       <c r="M56" s="7" t="n">
-        <v>6.5</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="N56" s="7" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="O56" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P56" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="O56" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P56" s="18" t="n">
-        <v>6.5</v>
       </c>
     </row>
     <row r="57">
@@ -4166,49 +4213,66 @@
           <t>Gizem</t>
         </is>
       </c>
+      <c r="B57" s="17" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>2024-09-10T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D57" s="20" t="n"/>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E57" s="6" t="inlineStr">
         <is>
           <t>Gregory Dean - Guyana</t>
         </is>
       </c>
-      <c r="F57" s="20" t="n"/>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
       <c r="G57" s="6" t="inlineStr">
         <is>
           <t>24GRG03</t>
         </is>
       </c>
-      <c r="H57" s="20" t="n"/>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
       <c r="I57" s="6" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="J57" s="6" t="inlineStr">
         <is>
-          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
+          <t>Silver Vein Cut-dolgulu cilalı-30,5x61,0x1,2 - 595,36 m2 - 3200 adet</t>
         </is>
       </c>
       <c r="K57" s="6" t="inlineStr">
         <is>
-          <t>10,0x10,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L57" s="6" t="inlineStr">
         <is>
-          <t>Köylü Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M57" s="7" t="n">
-        <v>4.65</v>
+        <v>595.36</v>
       </c>
       <c r="N57" s="7" t="n">
-        <v>0</v>
+        <v>156.28</v>
       </c>
       <c r="O57" s="6" t="inlineStr">
         <is>
@@ -4216,7 +4280,7 @@
         </is>
       </c>
       <c r="P57" s="18" t="n">
-        <v>4.65</v>
+        <v>439.08</v>
       </c>
     </row>
     <row r="58">
@@ -4225,54 +4289,37 @@
           <t>Gizem</t>
         </is>
       </c>
-      <c r="B58" s="17" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>2024-08-10T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D58" s="19" t="n"/>
       <c r="E58" s="6" t="inlineStr">
         <is>
-          <t>Dwight Rigby - Turks and Caicos</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>Dwight Rigby - Turks and Caicos</t>
-        </is>
-      </c>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F58" s="19" t="n"/>
       <c r="G58" s="6" t="inlineStr">
         <is>
-          <t>24DWGT01-2</t>
-        </is>
-      </c>
-      <c r="H58" s="5" t="inlineStr">
-        <is>
-          <t>24DWGT01-2</t>
-        </is>
-      </c>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H58" s="19" t="n"/>
       <c r="I58" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Carrara White</t>
         </is>
       </c>
       <c r="J58" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina- dolgulu honlu-35,5x152,4x1,5 cm - 139,71 sqft - 12,98 m2 - 24 adet</t>
+          <t>Carrara White - cilalı - 10,0x10,0x1,2 cm - 6,50 m2 - 650 adet</t>
         </is>
       </c>
       <c r="K58" s="6" t="inlineStr">
         <is>
-          <t>35,5x152,4x1,5</t>
+          <t>10,0x10,0x1,2</t>
         </is>
       </c>
       <c r="L58" s="6" t="inlineStr">
@@ -4281,18 +4328,18 @@
         </is>
       </c>
       <c r="M58" s="7" t="n">
-        <v>24</v>
+        <v>6.5</v>
       </c>
       <c r="N58" s="7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="O58" s="6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P58" s="18" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="59">
@@ -4303,47 +4350,47 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D59" s="19" t="n"/>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D59" s="20" t="n"/>
       <c r="E59" s="6" t="inlineStr">
         <is>
-          <t>Dwight Rigby - Turks and Caicos</t>
-        </is>
-      </c>
-      <c r="F59" s="19" t="n"/>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F59" s="20" t="n"/>
       <c r="G59" s="6" t="inlineStr">
         <is>
-          <t>24DWGT01-2</t>
-        </is>
-      </c>
-      <c r="H59" s="19" t="n"/>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H59" s="20" t="n"/>
       <c r="I59" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J59" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina-dolgulu honlu-45,7x61,0x1,2 cm - 179,97 sqft - 16,73 m2 - 60 adet</t>
+          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
         </is>
       </c>
       <c r="K59" s="6" t="inlineStr">
         <is>
-          <t>45,7x61,0x1,2</t>
+          <t>10,0x10,0x1,2</t>
         </is>
       </c>
       <c r="L59" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Köylü Mermer</t>
         </is>
       </c>
       <c r="M59" s="7" t="n">
-        <v>16.73</v>
+        <v>4.65</v>
       </c>
       <c r="N59" s="7" t="n">
-        <v>16.73</v>
+        <v>4.65</v>
       </c>
       <c r="O59" s="6" t="inlineStr">
         <is>
@@ -4357,52 +4404,69 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B60" s="17" t="inlineStr">
+        <is>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D60" s="19" t="n"/>
+          <t>2024-09-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-18T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E60" s="6" t="inlineStr">
         <is>
-          <t>Dwight Rigby - Turks and Caicos</t>
-        </is>
-      </c>
-      <c r="F60" s="19" t="n"/>
+          <t>Calum McCarthy - Virgin</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>Calum McCarthy - Virgin</t>
+        </is>
+      </c>
       <c r="G60" s="6" t="inlineStr">
         <is>
-          <t>24DWGT01-2</t>
-        </is>
-      </c>
-      <c r="H60" s="19" t="n"/>
+          <t>24EMCS02</t>
+        </is>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>24EMCS02</t>
+        </is>
+      </c>
       <c r="I60" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="J60" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina-dolgulu honlu-30,5x61,0x1,2 cm - 120,11 sqft- 11,16 m2 - 60 adet</t>
+          <t>Classic Limestone Mozaik - Fırçalı &amp; Fileli - 2 x 2 x 0,75 inches (5x5x2 cm) - Mesh ölçüsü 15,25x15,25 cm olacak - 79,47 m2</t>
         </is>
       </c>
       <c r="K60" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>5,0x5,0x2,0</t>
         </is>
       </c>
       <c r="L60" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="M60" s="7" t="n">
-        <v>11.16</v>
+        <v>79.47</v>
       </c>
       <c r="N60" s="7" t="n">
-        <v>0</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="O60" s="6" t="inlineStr">
         <is>
@@ -4410,7 +4474,7 @@
         </is>
       </c>
       <c r="P60" s="18" t="n">
-        <v>11.16</v>
+        <v>-0.7399999999999949</v>
       </c>
     </row>
     <row r="61">
@@ -4419,37 +4483,54 @@
           <t>Gizem</t>
         </is>
       </c>
+      <c r="B61" s="17" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D61" s="20" t="n"/>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-10T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E61" s="6" t="inlineStr">
         <is>
-          <t>Dwight Rigby - Turks and Caicos</t>
-        </is>
-      </c>
-      <c r="F61" s="20" t="n"/>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
       <c r="G61" s="6" t="inlineStr">
         <is>
-          <t>24DWGT01-2</t>
-        </is>
-      </c>
-      <c r="H61" s="20" t="n"/>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
       <c r="I61" s="6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="J61" s="6" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Mina-Dolgulu Honlu-30,5x35,5x1,2 - 58,25 sqft - 5.41 m2 - 50 adet</t>
+          <t>Silver Vein Cut-dolgulu cilalı-30,5x61,0x1,2 - 595,36 m2 - 3200 adet</t>
         </is>
       </c>
       <c r="K61" s="6" t="inlineStr">
         <is>
-          <t>30,5x35,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L61" s="6" t="inlineStr">
@@ -4458,10 +4539,10 @@
         </is>
       </c>
       <c r="M61" s="7" t="n">
-        <v>5.41</v>
+        <v>595.36</v>
       </c>
       <c r="N61" s="7" t="n">
-        <v>5.41</v>
+        <v>156.28</v>
       </c>
       <c r="O61" s="6" t="inlineStr">
         <is>
@@ -4469,7 +4550,7 @@
         </is>
       </c>
       <c r="P61" s="18" t="n">
-        <v>0</v>
+        <v>439.08</v>
       </c>
     </row>
     <row r="62">
@@ -4478,54 +4559,37 @@
           <t>Gizem</t>
         </is>
       </c>
-      <c r="B62" s="17" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>2024-09-10T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D62" s="5" t="inlineStr">
-        <is>
-          <t>2024-09-10T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D62" s="19" t="n"/>
       <c r="E62" s="6" t="inlineStr">
         <is>
           <t>Gregory Dean - Guyana</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
-        <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
+      <c r="F62" s="19" t="n"/>
       <c r="G62" s="6" t="inlineStr">
         <is>
           <t>24GRG03</t>
         </is>
       </c>
-      <c r="H62" s="5" t="inlineStr">
-        <is>
-          <t>24GRG03</t>
-        </is>
-      </c>
+      <c r="H62" s="19" t="n"/>
       <c r="I62" s="6" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Carrara White</t>
         </is>
       </c>
       <c r="J62" s="6" t="inlineStr">
         <is>
-          <t>Silver Vein Cut-dolgulu cilalı-30,5x61,0x1,2 - 595,36 m2 - 3200 adet</t>
+          <t>Carrara White - cilalı - 10,0x10,0x1,2 cm - 6,50 m2 - 650 adet</t>
         </is>
       </c>
       <c r="K62" s="6" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>10,0x10,0x1,2</t>
         </is>
       </c>
       <c r="L62" s="6" t="inlineStr">
@@ -4534,10 +4598,10 @@
         </is>
       </c>
       <c r="M62" s="7" t="n">
-        <v>595.36</v>
+        <v>6.5</v>
       </c>
       <c r="N62" s="7" t="n">
-        <v>156.28</v>
+        <v>0</v>
       </c>
       <c r="O62" s="6" t="inlineStr">
         <is>
@@ -4545,7 +4609,7 @@
         </is>
       </c>
       <c r="P62" s="18" t="n">
-        <v>439.08</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="63">
@@ -4559,159 +4623,120 @@
           <t>2024-09-10T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D63" s="19" t="n"/>
+      <c r="D63" s="20" t="n"/>
       <c r="E63" s="6" t="inlineStr">
         <is>
           <t>Gregory Dean - Guyana</t>
         </is>
       </c>
-      <c r="F63" s="19" t="n"/>
+      <c r="F63" s="20" t="n"/>
       <c r="G63" s="6" t="inlineStr">
         <is>
           <t>24GRG03</t>
         </is>
       </c>
-      <c r="H63" s="19" t="n"/>
+      <c r="H63" s="20" t="n"/>
       <c r="I63" s="6" t="inlineStr">
         <is>
-          <t>Carrara White</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J63" s="6" t="inlineStr">
         <is>
-          <t>Carrara White - cilalı -45,7x45,7x1,2 cm - 52,84 m2 - 253 adet</t>
+          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
         </is>
       </c>
       <c r="K63" s="6" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>10,0x10,0x1,2</t>
         </is>
       </c>
       <c r="L63" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Köylü Mermer</t>
         </is>
       </c>
       <c r="M63" s="7" t="n">
-        <v>52.84</v>
+        <v>4.65</v>
       </c>
       <c r="N63" s="7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O63" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P63" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="O63" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P63" s="18" t="n">
-        <v>52.84</v>
-      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2024-09-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D64" s="19" t="n"/>
-      <c r="E64" s="6" t="inlineStr">
-        <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
-      <c r="F64" s="19" t="n"/>
-      <c r="G64" s="6" t="inlineStr">
-        <is>
-          <t>24GRG03</t>
-        </is>
-      </c>
-      <c r="H64" s="19" t="n"/>
-      <c r="I64" s="6" t="inlineStr">
-        <is>
-          <t>Carrara White</t>
-        </is>
-      </c>
-      <c r="J64" s="6" t="inlineStr">
-        <is>
-          <t>Carrara White - cilalı - 10,0x10,0x1,2 cm - 6,50 m2 - 650 adet</t>
-        </is>
-      </c>
-      <c r="K64" s="6" t="inlineStr">
-        <is>
-          <t>10,0x10,0x1,2</t>
-        </is>
-      </c>
-      <c r="L64" s="6" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M64" s="7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N64" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P64" s="18" t="n">
-        <v>6.5</v>
+      <c r="A64" s="21" t="inlineStr">
+        <is>
+          <t>ÖZEL İŞÇİLİK YAPILACAKLAR</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2024-09-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D65" s="20" t="n"/>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B65" s="17" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C65" s="22" t="n">
+        <v>45553</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>45553</v>
+      </c>
       <c r="E65" s="6" t="inlineStr">
         <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
-      <c r="F65" s="20" t="n"/>
+          <t>Calum McCarthy - Virgin</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>Calum McCarthy - Virgin</t>
+        </is>
+      </c>
       <c r="G65" s="6" t="inlineStr">
         <is>
-          <t>24GRG03</t>
-        </is>
-      </c>
-      <c r="H65" s="20" t="n"/>
+          <t>24EMCS02</t>
+        </is>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>24EMCS02</t>
+        </is>
+      </c>
       <c r="I65" s="6" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="J65" s="6" t="inlineStr">
         <is>
-          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
+          <t>Classic Limestone Mozaik - Fırçalı &amp; Fileli - 2 x 2 x 0,75 inches (5x5x2 cm) - Mesh ölçüsü 15,25x15,25 cm olacak - 79,47 m2</t>
         </is>
       </c>
       <c r="K65" s="6" t="inlineStr">
         <is>
-          <t>10,0x10,0x1,2</t>
+          <t>5,0x5,0x2,0</t>
         </is>
       </c>
       <c r="L65" s="6" t="inlineStr">
         <is>
-          <t>Köylü Mermer</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="M65" s="7" t="n">
-        <v>4.65</v>
+        <v>79.47</v>
       </c>
       <c r="N65" s="7" t="n">
         <v>0</v>
@@ -4722,87 +4747,94 @@
         </is>
       </c>
       <c r="P65" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B66" s="17" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C66" s="22" t="n">
+        <v>45545</v>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>45545</v>
+      </c>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="G66" s="6" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>24GRG03</t>
+        </is>
+      </c>
+      <c r="I66" s="6" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="J66" s="6" t="inlineStr">
+        <is>
+          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
+        </is>
+      </c>
+      <c r="K66" s="6" t="inlineStr">
+        <is>
+          <t>10,0x10,0x1,2</t>
+        </is>
+      </c>
+      <c r="L66" s="6" t="inlineStr">
+        <is>
+          <t>Köylü Mermer</t>
+        </is>
+      </c>
+      <c r="M66" s="7" t="n">
         <v>4.65</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="21" t="inlineStr">
-        <is>
-          <t>ÖZEL İŞÇİLİK YAPILACAKLAR</t>
-        </is>
+      <c r="N66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P66" s="18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B67" s="17" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C67" s="22" t="n">
-        <v>45545</v>
-      </c>
-      <c r="D67" s="5" t="n">
-        <v>45545</v>
-      </c>
-      <c r="E67" s="6" t="inlineStr">
-        <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
-      <c r="F67" s="5" t="inlineStr">
-        <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
-      <c r="G67" s="6" t="inlineStr">
-        <is>
-          <t>24GRG03</t>
-        </is>
-      </c>
-      <c r="H67" s="5" t="inlineStr">
-        <is>
-          <t>24GRG03</t>
-        </is>
-      </c>
-      <c r="I67" s="6" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="J67" s="6" t="inlineStr">
-        <is>
-          <t>Diana Royal - cilalı - 10,0x10,0x1,2 cm - 4,65 m2 - 465 adet -  Hammadde cilalı geldi, Mekmer ebatlama ve kasalama yapacak</t>
-        </is>
-      </c>
-      <c r="K67" s="6" t="inlineStr">
-        <is>
-          <t>10,0x10,0x1,2</t>
-        </is>
-      </c>
-      <c r="L67" s="6" t="inlineStr">
-        <is>
-          <t>Köylü Mermer</t>
-        </is>
-      </c>
-      <c r="M67" s="7" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="N67" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" s="6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P67" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="6" t="n"/>
+      <c r="F67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+      <c r="J67" s="6" t="n"/>
+      <c r="K67" s="6" t="n"/>
+      <c r="L67" s="6" t="n"/>
+      <c r="M67" s="7" t="n"/>
+      <c r="N67" s="7" t="n"/>
+      <c r="O67" s="6" t="n"/>
     </row>
     <row r="68">
       <c r="D68" s="6" t="n"/>
@@ -17242,84 +17274,100 @@
     <filterColumn colId="2" hiddenButton="0" showButton="0"/>
     <filterColumn colId="4" hiddenButton="0" showButton="0"/>
   </autoFilter>
-  <mergeCells count="77">
-    <mergeCell ref="F6:F20"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="F39:F41"/>
+  <mergeCells count="93">
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="F49"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H6:H20"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="F67"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="D29:D38"/>
-    <mergeCell ref="F29:F38"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="H42"/>
-    <mergeCell ref="D67"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="H53"/>
-    <mergeCell ref="H29:H38"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="B47"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H67"/>
-    <mergeCell ref="B6:B20"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="B23"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="H47"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="D42"/>
+    <mergeCell ref="F65"/>
+    <mergeCell ref="H31"/>
+    <mergeCell ref="B48"/>
+    <mergeCell ref="F51"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H51"/>
+    <mergeCell ref="D27"/>
+    <mergeCell ref="H60"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="F50"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D43"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="B65"/>
+    <mergeCell ref="H27"/>
+    <mergeCell ref="F7:F21"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="D60"/>
+    <mergeCell ref="B31"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D31"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="B49"/>
+    <mergeCell ref="H65"/>
+    <mergeCell ref="F43"/>
+    <mergeCell ref="B51"/>
+    <mergeCell ref="D51"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F48:F52"/>
-    <mergeCell ref="H48:H52"/>
-    <mergeCell ref="F53"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="F42"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="F60"/>
+    <mergeCell ref="B50"/>
+    <mergeCell ref="D50"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="H50"/>
+    <mergeCell ref="B27"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="H49"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="D48"/>
+    <mergeCell ref="D52:D56"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="H28"/>
-    <mergeCell ref="D6:D20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H23"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53"/>
-    <mergeCell ref="D53"/>
-    <mergeCell ref="D47"/>
-    <mergeCell ref="F47"/>
-    <mergeCell ref="B28"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="D28"/>
-    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="B7:B21"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="F48"/>
+    <mergeCell ref="H48"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H43"/>
+    <mergeCell ref="D7:D21"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="D65"/>
+    <mergeCell ref="B43"/>
+    <mergeCell ref="H7:H21"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="D49"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="B60"/>
+    <mergeCell ref="D66"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="F66"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H66"/>
+    <mergeCell ref="F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/excel/dosyalar/Uretim_list.xlsx
+++ b/excel/dosyalar/Uretim_list.xlsx
@@ -189,11 +189,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -204,14 +207,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -502,10 +502,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P955"/>
+  <dimension ref="A1:Q955"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B1" s="17" t="n"/>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>TARİH</t>
         </is>
       </c>
       <c r="D1" s="17" t="n"/>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>KİME</t>
         </is>
       </c>
       <c r="F1" s="17" t="n"/>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
@@ -559,96 +559,101 @@
           <t>ÜRÜN ADI</t>
         </is>
       </c>
-      <c r="J1" s="14" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>İÇERİK</t>
         </is>
       </c>
-      <c r="K1" s="14" t="inlineStr">
+      <c r="K1" s="11" t="inlineStr">
         <is>
           <t>Ebat</t>
         </is>
       </c>
-      <c r="L1" s="14" t="inlineStr">
+      <c r="L1" s="11" t="inlineStr">
         <is>
           <t>Tedarikçi</t>
         </is>
       </c>
-      <c r="M1" s="14" t="inlineStr">
+      <c r="M1" s="11" t="inlineStr">
         <is>
           <t>Sipariş M.</t>
         </is>
       </c>
-      <c r="N1" s="14" t="inlineStr">
+      <c r="N1" s="11" t="inlineStr">
         <is>
           <t>Üretim M.</t>
         </is>
       </c>
-      <c r="O1" s="14" t="inlineStr">
+      <c r="O1" s="11" t="inlineStr">
         <is>
           <t>Birim</t>
         </is>
       </c>
-      <c r="P1" s="15" t="inlineStr">
+      <c r="P1" s="10" t="inlineStr">
         <is>
           <t>Kalan Miktar</t>
+        </is>
+      </c>
+      <c r="Q1" s="10" t="inlineStr">
+        <is>
+          <t>Adet</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B2" s="18" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-03-12T00:00:00.000Z</t>
+          <t>2025-06-02T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>2025-03-12T00:00:00.000Z</t>
+          <t>2025-06-02T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Mazista - S. Africa</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Mazista - S. Africa</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>25VEIK104</t>
+          <t>25MAZ01</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>25VEIK104</t>
+          <t>25MAZ01</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>SBR01-1 - Silver Grey-Dolgulu&amp;Fırçalı&amp;Kenarı Kırık-MINIxPATx1,2 (16 Kasa)  SBR01-1 ( 607.2 m2)</t>
+          <t>Mina Rustic - Dolgulu Honlu - 40,6 x 40,6 x 1,2 cm</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>MINIxPATx1,2</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
@@ -657,7 +662,7 @@
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>607.2</v>
+        <v>105.5</v>
       </c>
       <c r="N2" s="6" t="n">
         <v>0</v>
@@ -668,30 +673,33 @@
         </is>
       </c>
       <c r="P2" s="19" t="n">
-        <v>607.2</v>
+        <v>105.5</v>
+      </c>
+      <c r="Q2" s="19" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-12T00:00:00.000Z</t>
+          <t>2025-06-02T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D3" s="20" t="n"/>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Mazista - S. Africa</t>
         </is>
       </c>
       <c r="F3" s="20" t="n"/>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>25VEIK104</t>
+          <t>25MAZ01</t>
         </is>
       </c>
       <c r="H3" s="20" t="n"/>
@@ -702,13 +710,12 @@
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>ST450-1 - Mina Rustic - Dolgusuz&amp;Fırçalı&amp;Düz Kenar - 15,25 x 30,5 x 1.2 cm (8 Kasa)  327,44 m2
-  7040 Adet</t>
+          <t>Mina Rustic - Dolgulu Honlu - 45,7 x 45,7 x 1,2 cm</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
@@ -717,10 +724,10 @@
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>327.44</v>
+        <v>233.91</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>0</v>
+        <v>58.48</v>
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
@@ -728,63 +735,66 @@
         </is>
       </c>
       <c r="P3" s="19" t="n">
-        <v>327.44</v>
+        <v>175.43</v>
+      </c>
+      <c r="Q3" s="19" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B4" s="18" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-11T00:00:00.000Z</t>
+          <t>2025-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>2025-03-11T00:00:00.000Z</t>
+          <t>2025-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>DN Mermer - Turkey</t>
+          <t>Veik - UAE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>DN Mermer - Turkey</t>
+          <t>Veik - UAE</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>25DN01</t>
+          <t>25VEIK106</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>25DN01</t>
+          <t>25VEIK106</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-7,50x30,5x1,2 (1000m2 43716 Adet)</t>
+          <t>Mina Rustic - ST450-1 - Dolgusuz Fırçalı Düz Kenar - 15,25 x 30,5 x 1.2 cm (14 Kasa) - Kasalar 840lı</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>7,50x30,5x1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
@@ -793,10 +803,10 @@
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>1000</v>
+        <v>546.98</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>38.41</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
@@ -804,63 +814,66 @@
         </is>
       </c>
       <c r="P4" s="19" t="n">
-        <v>961.59</v>
+        <v>546.98</v>
+      </c>
+      <c r="Q4" s="19" t="n">
+        <v>11760</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B5" s="18" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-04T00:00:00.000Z</t>
+          <t>2025-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>2025-03-04T00:00:00.000Z</t>
+          <t>2025-05-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>BURCU BULGUÇ - Turkey</t>
+          <t>Justine &amp; Kwabena - Ghana</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>BURCU BULGUÇ - Turkey</t>
+          <t>Justine &amp; Kwabena - Ghana</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>25BRC01</t>
+          <t>25PEDU01</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>25BRC01</t>
+          <t>25PEDU01</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Mina-Dolgusuz&amp;Yastıklama-ANTxPATx1,2</t>
+          <t>Travertine Tiles-Classic Vein Cut-dolgulu yarı cilalı matt-30,5x61,0x2,0</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>30,5x61,0x2,0</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
@@ -869,10 +882,10 @@
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>40</v>
+        <v>468</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0</v>
+        <v>45.76</v>
       </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
@@ -880,7 +893,10 @@
         </is>
       </c>
       <c r="P5" s="19" t="n">
-        <v>40</v>
+        <v>422.24</v>
+      </c>
+      <c r="Q5" s="19" t="n">
+        <v>2600</v>
       </c>
     </row>
     <row r="6">
@@ -896,32 +912,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-03T00:00:00.000Z</t>
+          <t>2025-05-27T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>2025-03-03T00:00:00.000Z</t>
+          <t>2025-05-27T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Hürmer - Turkey</t>
+          <t>Tolga Öner - Turkey</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Hürmer - Turkey</t>
+          <t>Tolga Öner - Turkey</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>25HRM02</t>
+          <t>25TLG02</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>25HRM02</t>
+          <t>25TLG02</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -931,12 +947,13 @@
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Filled&amp;Honed-40,6x61,0x1,2 (Ekstra light travertine 118,86 m2, 480 adet)</t>
+          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-30,5xFreex1,2 (1 kasa 39 m2, toplamda 20 kasa 780 m2)
+STANDART KALİTE TRAVERTEN VEIN CUT HONLU DOLGULU KASALI BS 30,5-45,7 CM ARASI</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5xFreex1,2</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
@@ -945,18 +962,21 @@
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>118.86</v>
+        <v>780</v>
       </c>
       <c r="N6" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P6" s="19" t="n">
+        <v>741</v>
+      </c>
+      <c r="Q6" s="19" t="n">
         <v>0</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P6" s="19" t="n">
-        <v>118.86</v>
       </c>
     </row>
     <row r="7">
@@ -965,54 +985,41 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B7" s="18" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-02-25T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>2025-02-25T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2025-05-27T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="n"/>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
+          <t>Tolga Öner - Turkey</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n"/>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>25SU121</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>25SU121</t>
-        </is>
-      </c>
+          <t>25TLG02</t>
+        </is>
+      </c>
+      <c r="H7" s="20" t="n"/>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>Philadelphia Vein Cut</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Honlu-40,6x61,0x1,2 ( 3 Kasa 118,89 m2)</t>
+          <t xml:space="preserve">Travertine Tiles-Classic Vein Cut-Unfilled&amp;Honed-30,5xFreex1,2
+STANDART KALİTE TRAVERTEN VEIN CUT DOLGUSUZ HONLU KASALI
+30,5XBSX1,2 CM ( BS 30,5-45,7 CM ARASI
+16 Kasa	1 kasa içi m2 39.00	 toplam m2 624.00
+</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5xFreex1,2</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
@@ -1021,74 +1028,77 @@
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>118.89</v>
+        <v>624</v>
       </c>
       <c r="N7" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P7" s="19" t="n">
+        <v>585</v>
+      </c>
+      <c r="Q7" s="19" t="n">
         <v>0</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P7" s="19" t="n">
-        <v>118.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B8" s="18" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-02-24T00:00:00.000Z</t>
+          <t>2025-05-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>2025-02-24T00:00:00.000Z</t>
+          <t>2025-05-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>Tolga Öner - Turkey</t>
+          <t>Dickson &amp; Anthony - Ghana</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Tolga Öner - Turkey</t>
+          <t>Dickson &amp; Anthony - Ghana</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>25TLG01-2</t>
+          <t>25LIBI04</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>25TLG01-2</t>
+          <t>25LIBI04</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Dolgusuz&amp;Honlu-30,5xFree(30,5x45,7) x1,2 (1032 m2, 24 Kasa)</t>
+          <t>Classic Mina - Eskitme - ANTxPATx3,0 cm</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t>30,5xFreex1,2</t>
+          <t>ANTxPATx3,0</t>
         </is>
       </c>
       <c r="L8" s="5" t="inlineStr">
@@ -1097,10 +1107,10 @@
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>1032</v>
+        <v>81.77</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>156</v>
+        <v>81.8</v>
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
@@ -1108,63 +1118,66 @@
         </is>
       </c>
       <c r="P8" s="19" t="n">
-        <v>876</v>
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="Q8" s="19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="B9" s="18" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-02-24T00:00:00.000Z</t>
+          <t>2025-05-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>2025-02-24T00:00:00.000Z</t>
+          <t>2025-05-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>25CST09</t>
+          <t>25BYN75-3</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>25CST09</t>
+          <t>25BYN75-3</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>Silverela</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Silverela-Dolgulu&amp;Fırçalı&amp;Eskitme-ANTxPATx1,2 ( 5 kasa, 193,3 m2)</t>
+          <t>Travertine Tiles-Classic Light-Dolgusuz&amp;Honlu&amp;Eskitme-40,6x61,0x1,2 (1. kalite)</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
@@ -1173,10 +1186,10 @@
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>193.3</v>
+        <v>500</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>193.3</v>
+        <v>0</v>
       </c>
       <c r="O9" s="5" t="inlineStr">
         <is>
@@ -1184,46 +1197,49 @@
         </is>
       </c>
       <c r="P9" s="19" t="n">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="Q9" s="19" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-02-24T00:00:00.000Z</t>
+          <t>2025-05-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="F10" s="21" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>25CST09</t>
+          <t>25BYN75-3</t>
         </is>
       </c>
       <c r="H10" s="21" t="n"/>
       <c r="I10" s="5" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>Storm Noche - Dolgulu Fırçalı Kenarı Kırık - ANTxPATx1,2 ( 2 Kasa 77,32 m2)</t>
+          <t>Travertine Tiles-Classic Mina-Dolgusuz&amp;Honlu&amp;Eskitme-40,6x61,0x1,2 (2.kalite)</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L10" s="5" t="inlineStr">
@@ -1232,10 +1248,10 @@
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>77.31999999999999</v>
+        <v>500</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>77.31999999999999</v>
+        <v>277.41</v>
       </c>
       <c r="O10" s="5" t="inlineStr">
         <is>
@@ -1243,41 +1259,44 @@
         </is>
       </c>
       <c r="P10" s="19" t="n">
-        <v>0</v>
+        <v>222.59</v>
+      </c>
+      <c r="Q10" s="19" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-02-24T00:00:00.000Z</t>
+          <t>2025-05-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="F11" s="21" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>25CST09</t>
+          <t>25BYN75-3</t>
         </is>
       </c>
       <c r="H11" s="21" t="n"/>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Com</t>
         </is>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Mina Rustic - Dolgulu Honlu - 40,6x61,0x1,2 ( 5 kasa, 198,13 m2, 800 Adet)</t>
+          <t>Travertine Tiles-Classic Com-Dolgusuz&amp;Honlu&amp;Eskitme-40,6x61,0x1,2 (3. kalite)</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
@@ -1291,10 +1310,10 @@
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>198.13</v>
+        <v>500</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>198.15</v>
+        <v>39.63</v>
       </c>
       <c r="O11" s="5" t="inlineStr">
         <is>
@@ -1302,46 +1321,49 @@
         </is>
       </c>
       <c r="P11" s="19" t="n">
-        <v>-0.02000000000001023</v>
+        <v>460.37</v>
+      </c>
+      <c r="Q11" s="19" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-02-24T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D12" s="20" t="n"/>
+          <t>2025-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n"/>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="F12" s="20" t="n"/>
+          <t>Beyzanur Mermer</t>
+        </is>
+      </c>
+      <c r="F12" s="21" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>25CST09</t>
-        </is>
-      </c>
-      <c r="H12" s="20" t="n"/>
+          <t>25BYN75-3</t>
+        </is>
+      </c>
+      <c r="H12" s="21" t="n"/>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>Silverela</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>Silverela-Dolgulu&amp;Honlu-30,5x61,0x1,2 (162li 4 kasa, 120.56 m2,648 Adet)</t>
+          <t>Travertine Tiles-Classic Light-Dolgusuz&amp;Honlu&amp;Eskitme-ANTxPATx1,2 (1. kalite)</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
@@ -1350,10 +1372,10 @@
         </is>
       </c>
       <c r="M12" s="6" t="n">
-        <v>120.56</v>
+        <v>500</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>120.56</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5" t="inlineStr">
         <is>
@@ -1361,63 +1383,49 @@
         </is>
       </c>
       <c r="P12" s="19" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>2025-02-14T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2025-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
+          <t>Beyzanur Mermer</t>
+        </is>
+      </c>
+      <c r="F13" s="21" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
-        <is>
-          <t>25FLOS68</t>
-        </is>
-      </c>
+          <t>25BYN75-3</t>
+        </is>
+      </c>
+      <c r="H13" s="21" t="n"/>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>1- (69) Red - Dolgulu Honlu - 40,6 x 61 x 1,2 cm - 2 Kasa</t>
+          <t>Travertine Tiles-Classic Mina-Dolgusuz&amp;Honlu&amp;Eskitme-ANTxPATx1,2 (2. Kalite)</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L13" s="5" t="inlineStr">
@@ -1426,10 +1434,10 @@
         </is>
       </c>
       <c r="M13" s="6" t="n">
-        <v>79.26000000000001</v>
+        <v>500</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>79.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
@@ -1437,46 +1445,49 @@
         </is>
       </c>
       <c r="P13" s="19" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q13" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
+          <t>2025-05-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="F14" s="21" t="n"/>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
+          <t>25BYN75-3</t>
         </is>
       </c>
       <c r="H14" s="21" t="n"/>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Com</t>
         </is>
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>2- (162) Mina Rustic - Dolgulu Honlu - 40,6 x 61 x 1,2 cm - 4 Kasa</t>
+          <t>Travertine Tiles-Classic Com-Dolgusuz&amp;Honlu&amp;Eskitme-ANTxPATx1,2 (3. kalite)</t>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L14" s="5" t="inlineStr">
@@ -1485,10 +1496,10 @@
         </is>
       </c>
       <c r="M14" s="6" t="n">
-        <v>158.52</v>
+        <v>500</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>158.52</v>
+        <v>0</v>
       </c>
       <c r="O14" s="5" t="inlineStr">
         <is>
@@ -1496,46 +1507,49 @@
         </is>
       </c>
       <c r="P14" s="19" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q14" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
+          <t>2025-05-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="F15" s="21" t="n"/>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
+          <t>25BYN75-3</t>
         </is>
       </c>
       <c r="H15" s="21" t="n"/>
       <c r="I15" s="5" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>6- (34S) Golden Ink - Dolgusuz Eskitme - 33 x 61 x 3 cm - 66 adet</t>
+          <t>Travertine Tiles-Classic Mina-Dolgulu&amp;Fırçalı-40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="K15" s="5" t="inlineStr">
         <is>
-          <t>33,0x61,0x3,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L15" s="5" t="inlineStr">
@@ -1544,57 +1558,60 @@
         </is>
       </c>
       <c r="M15" s="6" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="O15" s="5" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P15" s="19" t="n">
-        <v>66</v>
+        <v>120.74</v>
+      </c>
+      <c r="Q15" s="19" t="n">
+        <v>808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>2025-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="n"/>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F16" s="21" t="n"/>
+          <t>Beyzanur Mermer</t>
+        </is>
+      </c>
+      <c r="F16" s="20" t="n"/>
       <c r="G16" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
-        </is>
-      </c>
-      <c r="H16" s="21" t="n"/>
+          <t>25BYN75-3</t>
+        </is>
+      </c>
+      <c r="H16" s="20" t="n"/>
       <c r="I16" s="5" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>7- (61) Classic Vein Cut - Dolgusuz Eskitme - 40,6 x 61 x 1,2 cm - 1 Kasa</t>
+          <t>Travertine Tiles-Classic Mina-Dolgusuz&amp;Honlu&amp;Eskitme-20,0x50,0x1,0</t>
         </is>
       </c>
       <c r="K16" s="5" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>20,0x50,0x1,0</t>
         </is>
       </c>
       <c r="L16" s="5" t="inlineStr">
@@ -1603,10 +1620,10 @@
         </is>
       </c>
       <c r="M16" s="6" t="n">
-        <v>39.63</v>
+        <v>300</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
@@ -1614,7 +1631,10 @@
         </is>
       </c>
       <c r="P16" s="19" t="n">
-        <v>39.63</v>
+        <v>30</v>
+      </c>
+      <c r="Q16" s="19" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="17">
@@ -1623,24 +1643,41 @@
           <t>Ozlem</t>
         </is>
       </c>
+      <c r="B17" s="18" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="n"/>
+          <t>2025-05-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-05T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F17" s="21" t="n"/>
+          <t xml:space="preserve">Michael - Germany </t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael - Germany </t>
+        </is>
+      </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
-        </is>
-      </c>
-      <c r="H17" s="21" t="n"/>
+          <t>25MICK03</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>25MICK03</t>
+        </is>
+      </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
           <t>Classic Light</t>
@@ -1648,12 +1685,12 @@
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>8- (114) Classic Light AÇIK SELEKSİYON! - Dolgulu Fırçalı - 40,6 x 61 x 1,2 cm - 2 Kasa</t>
+          <t>1- Classic Light - Dolgusuz Eskitme - ANT x PAT x 1,2 cm Özel Ebatlı Set!!!!! - 51,07 sqm</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L17" s="5" t="inlineStr">
@@ -1662,10 +1699,10 @@
         </is>
       </c>
       <c r="M17" s="6" t="n">
-        <v>79.26000000000001</v>
+        <v>51.07</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>79.26000000000001</v>
+        <v>52.04</v>
       </c>
       <c r="O17" s="5" t="inlineStr">
         <is>
@@ -1673,6 +1710,9 @@
         </is>
       </c>
       <c r="P17" s="19" t="n">
+        <v>-0.9699999999999989</v>
+      </c>
+      <c r="Q17" s="19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1684,35 +1724,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="n"/>
+          <t>2025-05-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="n"/>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F18" s="21" t="n"/>
+          <t xml:space="preserve">Michael - Germany </t>
+        </is>
+      </c>
+      <c r="F18" s="20" t="n"/>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
-        </is>
-      </c>
-      <c r="H18" s="21" t="n"/>
+          <t>25MICK03</t>
+        </is>
+      </c>
+      <c r="H18" s="20" t="n"/>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
-          <t>9- (113) Silver Grey - Dolgusuz Eskitme - 40,6 x 61 x 1,2 cm - 2 Kasa</t>
+          <t>4- Traverten Süpürgelik - Classic Light - Dolgusuz Eskitme - 10 x 40-60 x 1,2 cm - 50 lmt</t>
         </is>
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>10,0xFreex1,2</t>
         </is>
       </c>
       <c r="L18" s="5" t="inlineStr">
@@ -1721,57 +1761,77 @@
         </is>
       </c>
       <c r="M18" s="6" t="n">
-        <v>79.26000000000001</v>
+        <v>50</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>79.26000000000001</v>
+        <v>50</v>
       </c>
       <c r="O18" s="5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="P18" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B19" s="18" t="inlineStr">
+        <is>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D19" s="21" t="n"/>
+          <t>2025-04-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>2025-04-14T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F19" s="21" t="n"/>
+          <t>Roger - USA</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Roger - USA</t>
+        </is>
+      </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
-        </is>
-      </c>
-      <c r="H19" s="21" t="n"/>
+          <t>25BEARD01</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>25BEARD01</t>
+        </is>
+      </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Leonardo Cross Cut</t>
         </is>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t>10- (65 - Classic Mix) Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm - 4 Kasa</t>
+          <t>Leonardo Cross Cut traverten-dolgusuz eskitme-10,0x23,0x2,5 cm - 500 adet - 11,5 m2</t>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>10,0x23,0x2,5</t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
@@ -1780,57 +1840,78 @@
         </is>
       </c>
       <c r="M19" s="6" t="n">
-        <v>156.28</v>
+        <v>500</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>39.07</v>
+        <v>580</v>
       </c>
       <c r="O19" s="5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P19" s="19" t="n">
-        <v>117.21</v>
+        <v>-80</v>
+      </c>
+      <c r="Q19" s="19" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B20" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="n"/>
+          <t>2025-04-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>2025-04-08T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="F20" s="21" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
-        </is>
-      </c>
-      <c r="H20" s="21" t="n"/>
+          <t>Vista 2</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>Vista 2</t>
+        </is>
+      </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t>Classic - Dolgulu Honlu 2 Uzun Kenarı 4 mm Pahlı - 27 x 150 x 2 cm - 20  Adet</t>
+          <t xml:space="preserve">Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-30,5x61,0x1,2 ( 900 m2, 4837 Adet 23 kasa)
+</t>
         </is>
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>27,0x150,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L20" s="5" t="inlineStr">
@@ -1839,57 +1920,60 @@
         </is>
       </c>
       <c r="M20" s="6" t="n">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P20" s="19" t="n">
-        <v>20</v>
+        <v>900</v>
+      </c>
+      <c r="Q20" s="19" t="n">
+        <v>4837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00.000Z</t>
+          <t>2025-04-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D21" s="20" t="n"/>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="F21" s="20" t="n"/>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>25FLOS68</t>
+          <t>Vista 2</t>
         </is>
       </c>
       <c r="H21" s="20" t="n"/>
       <c r="I21" s="5" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>Classic - Dolgulu Honlu - 65 x 65 x 2 cm - 2 Adet</t>
+          <t>Travertine Tiles-Classic Vein Cut-Filled&amp;Honed-40,6x61,0x1,2 (360 m2, 1454 adet, 9 kasa)</t>
         </is>
       </c>
       <c r="K21" s="5" t="inlineStr">
         <is>
-          <t>VARxVARx2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L21" s="5" t="inlineStr">
@@ -1898,18 +1982,21 @@
         </is>
       </c>
       <c r="M21" s="6" t="n">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O21" s="5" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P21" s="19" t="n">
-        <v>2</v>
+        <v>360</v>
+      </c>
+      <c r="Q21" s="19" t="n">
+        <v>1454</v>
       </c>
     </row>
     <row r="22">
@@ -1925,67 +2012,71 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-02-12T00:00:00.000Z</t>
+          <t>2025-03-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>2025-02-12T00:00:00.000Z</t>
+          <t>2025-03-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Pukka Stone - Turkey</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Pukka Stone - Turkey</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>25PUK09-2</t>
+          <t>GOB-MEK-006</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>25PUK09-2</t>
+          <t>GOB-MEK-006</t>
         </is>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Silver Panel</t>
         </is>
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Gold-Dolgusuz&amp;Fırçalı&amp;Eskitme-15,25x30,5x3,0</t>
+          <t>Silver Grey Patlatma  Panel - 7.25"x19.75"x3/4" Düz 18.5x50x2 cm şeklinde yazmışlar ama 18.5 üretim yok diye biliyorum(SD) 
+170 Adet</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>15,25x30,5x3,0</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="L22" s="5" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M22" s="6" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O22" s="5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P22" s="19" t="n">
-        <v>100</v>
+        <v>170</v>
+      </c>
+      <c r="Q22" s="19" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -1994,74 +2085,61 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B23" s="18" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-02-10T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>2025-02-10T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2025-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n"/>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
+          <t>YGM</t>
+        </is>
+      </c>
+      <c r="F23" s="20" t="n"/>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>25SU120</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>25SU120</t>
-        </is>
-      </c>
+          <t>GOB-MEK-006</t>
+        </is>
+      </c>
+      <c r="H23" s="20" t="n"/>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Corner</t>
         </is>
       </c>
       <c r="J23" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-10,0xFreex1,2</t>
+          <t>Silver Grey Patlatma Panel - 7.25"x19.75"x3/4" Köşe 18.5x50x2 cm şeklinde yazılmış bu da ama 18.5 yok sanırım (SD)
+330 adet</t>
         </is>
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>10,0xFreex1,2</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="L23" s="5" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M23" s="6" t="n">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P23" s="19" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="Q23" s="19" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="24">
@@ -2077,32 +2155,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-02-04T00:00:00.000Z</t>
+          <t>2025-02-25T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>2025-02-04T00:00:00.000Z</t>
+          <t>2025-02-25T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>25İST-K03-2</t>
+          <t>25SU121</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>25İST-K03-2</t>
+          <t>25SU121</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
@@ -2112,12 +2190,12 @@
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Honlu-40,0x60,0x1,2 (2232 m2, 9300 Adet)</t>
+          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Honlu-40,6x61,0x1,2 ( 3 Kasa 118,89 m2)</t>
         </is>
       </c>
       <c r="K24" s="5" t="inlineStr">
         <is>
-          <t>40,0x60,0x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L24" s="5" t="inlineStr">
@@ -2126,10 +2204,10 @@
         </is>
       </c>
       <c r="M24" s="6" t="n">
-        <v>2232</v>
+        <v>118.89</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="O24" s="5" t="inlineStr">
         <is>
@@ -2137,7 +2215,10 @@
         </is>
       </c>
       <c r="P24" s="19" t="n">
-        <v>1848</v>
+        <v>118.89</v>
+      </c>
+      <c r="Q24" s="19" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="25">
@@ -2146,37 +2227,54 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B25" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-02-04T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D25" s="21" t="n"/>
+          <t>2025-02-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-12T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F25" s="21" t="n"/>
+          <t>Pukka Stone - Turkey</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>Pukka Stone - Turkey</t>
+        </is>
+      </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>25İST-K03-2</t>
-        </is>
-      </c>
-      <c r="H25" s="21" t="n"/>
+          <t>25PUK09-2</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>25PUK09-2</t>
+        </is>
+      </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>Philadelphia Vein Cut</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Honlu-15,0xFreex1,2 ( 240 m2)</t>
+          <t>Travertine Tiles-Gold-Dolgusuz&amp;Fırçalı&amp;Eskitme-15,25x30,5x3,0</t>
         </is>
       </c>
       <c r="K25" s="5" t="inlineStr">
         <is>
-          <t>15,0xFreex1,2</t>
+          <t>15,25x30,5x3,0</t>
         </is>
       </c>
       <c r="L25" s="5" t="inlineStr">
@@ -2188,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="O25" s="5" t="inlineStr">
         <is>
@@ -2196,7 +2294,10 @@
         </is>
       </c>
       <c r="P25" s="19" t="n">
-        <v>-5</v>
+        <v>100</v>
+      </c>
+      <c r="Q25" s="19" t="n">
+        <v>2150</v>
       </c>
     </row>
     <row r="26">
@@ -2205,37 +2306,54 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B26" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-02-04T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="n"/>
+          <t>2025-02-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-10T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F26" s="21" t="n"/>
+          <t>Tamer ($)</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>Tamer ($)</t>
+        </is>
+      </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>25İST-K03-2</t>
-        </is>
-      </c>
-      <c r="H26" s="21" t="n"/>
+          <t>25SU120</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>25SU120</t>
+        </is>
+      </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>Philadelphia Vein Cut</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>Travertine Coping-Philadelphia Vein Cut-Dolgulu&amp;Honlu&amp;Pahlı-35,0x120,0x3,0 (189 m2, 450 Adet, Her iki üst uzun kenarı pahlı, Her iki uzun kenarın altı 2 cm içeride damlalıklı)</t>
+          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Honlu-10,0xFreex1,2</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>35,0x120,0x3,0</t>
+          <t>10,0xFreex1,2</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -2244,18 +2362,21 @@
         </is>
       </c>
       <c r="M26" s="6" t="n">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="N26" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P26" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P26" s="19" t="n">
-        <v>189</v>
+      <c r="Q26" s="19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2264,24 +2385,41 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B27" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>2025-02-04T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D27" s="20" t="n"/>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-04T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Efe - Turkey</t>
         </is>
       </c>
-      <c r="F27" s="20" t="n"/>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>25İST-K03-2</t>
-        </is>
-      </c>
-      <c r="H27" s="20" t="n"/>
+          <t>25İST-K03-3</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>25İST-K03-3</t>
+        </is>
+      </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
           <t>Philadelphia Vein Cut</t>
@@ -2289,12 +2427,12 @@
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>Travertine Coping-Philadelphia Vein Cut-Dolgulu&amp;Honlu&amp;Pahlı-35,0x80,0x3,0 ( 21 m2, 75 adet Her iki üst uzun kenarı pahlı, Her iki uzun kenarın altı 2 cm içeride damlalıklı )</t>
+          <t>Travertine Coping-Philadelphia Vein Cut-Dolgulu&amp;Honlu&amp;Pahlı-35,0x120,0x3,0 (189 m2, 450 Adet, Her iki üst uzun kenarı pahlı, Her iki uzun kenarın altı 2 cm içeride damlalıklı)</t>
         </is>
       </c>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>35,0x80,0x3,0</t>
+          <t>35,0x120,0x3,0</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
@@ -2303,7 +2441,7 @@
         </is>
       </c>
       <c r="M27" s="6" t="n">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0</v>
@@ -2314,63 +2452,49 @@
         </is>
       </c>
       <c r="P27" s="19" t="n">
-        <v>21</v>
+        <v>189</v>
+      </c>
+      <c r="Q27" s="19" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B28" s="18" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-01-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>2025-01-20T00:00:00.000Z</t>
-        </is>
-      </c>
+          <t>2025-02-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="n"/>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Rex Darko - Ghana</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>Rex Darko - Ghana</t>
-        </is>
-      </c>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F28" s="20" t="n"/>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>25REX01</t>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>25REX01</t>
-        </is>
-      </c>
+          <t>25İST-K03-3</t>
+        </is>
+      </c>
+      <c r="H28" s="20" t="n"/>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Philadelphia Vein Cut</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>Classic Light Cross Cut - Dolgulu Honlu -  60 x 60 x 3 cm</t>
+          <t>Travertine Coping-Philadelphia Vein Cut-Dolgulu&amp;Honlu&amp;Pahlı-35,0x80,0x3,0 ( 21 m2, 75 adet Her iki üst uzun kenarı pahlı, Her iki uzun kenarın altı 2 cm içeride damlalıklı )</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>60,0x60,0x3,0</t>
+          <t>35,0x80,0x3,0</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
@@ -2379,10 +2503,10 @@
         </is>
       </c>
       <c r="M28" s="6" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>85.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="O28" s="5" t="inlineStr">
         <is>
@@ -2390,46 +2514,67 @@
         </is>
       </c>
       <c r="P28" s="19" t="n">
-        <v>4.319999999999993</v>
+        <v>21</v>
+      </c>
+      <c r="Q28" s="19" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B29" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-01-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D29" s="20" t="n"/>
+          <t>2025-01-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-16T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Rex Darko - Ghana</t>
-        </is>
-      </c>
-      <c r="F29" s="20" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>25REX01</t>
-        </is>
-      </c>
-      <c r="H29" s="20" t="n"/>
+          <t>25İST-K02-2</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>25İST-K02-2</t>
+        </is>
+      </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Philadelphia Vein Cut</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>Picasso Ivory - Dolgulu Honlu - 45,7 x 45,7 x 1,2 cm</t>
+          <t xml:space="preserve">Travertine Tiles-Philadelphia Vein Cut-Dolgusuz&amp;Honlu-46,0x120,0x3,0
+</t>
         </is>
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>46,0x120,0x3,0</t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
@@ -2438,18 +2583,21 @@
         </is>
       </c>
       <c r="M29" s="6" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P29" s="19" t="n">
-        <v>-0.5</v>
+        <v>5</v>
+      </c>
+      <c r="Q29" s="19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2458,107 +2606,30 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B30" s="18" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>2025-01-16T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>2025-01-16T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D30" s="20" t="n"/>
       <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Efe - Turkey</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
+      <c r="F30" s="20" t="n"/>
       <c r="G30" s="5" t="inlineStr">
         <is>
           <t>25İST-K02-2</t>
         </is>
       </c>
-      <c r="H30" s="4" t="inlineStr">
-        <is>
-          <t>25İST-K02-2</t>
-        </is>
-      </c>
+      <c r="H30" s="20" t="n"/>
       <c r="I30" s="5" t="inlineStr">
         <is>
           <t>Philadelphia Vein Cut</t>
         </is>
       </c>
       <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Travertine Tiles-Philadelphia Vein Cut-Dolgusuz&amp;Honlu-46,0x120,0x3,0
-</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>46,0x120,0x3,0</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M30" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="P30" s="19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-01-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D31" s="20" t="n"/>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="F31" s="20" t="n"/>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>25İST-K02-2</t>
-        </is>
-      </c>
-      <c r="H31" s="20" t="n"/>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>Philadelphia Vein Cut</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>Travertine Tiles-Philadelphia Vein Cut-Dolgusuz&amp;Honlu-VARxVARx3,0
 3x120 = 4
@@ -2570,9 +2641,88 @@
 40x103,4=5</t>
         </is>
       </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>VARxVARx3,0</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="M30" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="P30" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B31" s="18" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-12-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>Veik - UAE</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>24VEIK103-2</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>24VEIK103-2</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>Mina Rustic (SNS01) - Dolgulu Fırçalı Kenarı Kırık -ANTxPATx1,2 cm - Kutulu ve Etiketli 75 Kasa</t>
+        </is>
+      </c>
       <c r="K31" s="5" t="inlineStr">
         <is>
-          <t>VARxVARx3,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="L31" s="5" t="inlineStr">
@@ -2581,29 +2731,27 @@
         </is>
       </c>
       <c r="M31" s="6" t="n">
-        <v>24</v>
+        <v>2899.5</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O31" s="5" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P31" s="19" t="n">
-        <v>24</v>
+        <v>2899.5</v>
+      </c>
+      <c r="Q31" s="19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B32" s="18" t="inlineStr">
-        <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2611,31 +2759,19 @@
           <t>2024-12-14T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>2024-12-14T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D32" s="20" t="n"/>
       <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Veik - UAE</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>Veik - UAE</t>
-        </is>
-      </c>
+      <c r="F32" s="20" t="n"/>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>24VEIK103</t>
-        </is>
-      </c>
-      <c r="H32" s="4" t="inlineStr">
-        <is>
-          <t>24VEIK103</t>
-        </is>
-      </c>
+          <t>24VEIK103-2</t>
+        </is>
+      </c>
+      <c r="H32" s="20" t="n"/>
       <c r="I32" s="5" t="inlineStr">
         <is>
           <t>Mina Rustic</t>
@@ -2643,7 +2779,7 @@
       </c>
       <c r="J32" s="5" t="inlineStr">
         <is>
-          <t>Mina Rustic (SNS01) - Dolgulu Fırçalı Kenarı Kırık -ANTxPATx1,2 cm - Kutulu ve Etiketli 75 Kasa</t>
+          <t>Mina Rustic (SNS02) - Dolgulu Fırçalı Düz Kenar - ANT x PAT x 1.2 cm - Kutulu ve Etiketli 25 Kasa</t>
         </is>
       </c>
       <c r="K32" s="5" t="inlineStr">
@@ -2657,10 +2793,10 @@
         </is>
       </c>
       <c r="M32" s="6" t="n">
-        <v>2899.5</v>
+        <v>966.5</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>927.84</v>
+        <v>695.88</v>
       </c>
       <c r="O32" s="5" t="inlineStr">
         <is>
@@ -2668,46 +2804,66 @@
         </is>
       </c>
       <c r="P32" s="19" t="n">
-        <v>1971.66</v>
+        <v>270.62</v>
+      </c>
+      <c r="Q32" s="19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B33" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D33" s="20" t="n"/>
+          <t>2024-12-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-10T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
-        </is>
-      </c>
-      <c r="F33" s="20" t="n"/>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
-          <t>24VEIK103</t>
-        </is>
-      </c>
-      <c r="H33" s="20" t="n"/>
+          <t>24PK3007-9</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>24PK3007-9</t>
+        </is>
+      </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="J33" s="5" t="inlineStr">
         <is>
-          <t>Mina Rustic (SNS02) - Dolgulu Fırçalı Düz Kenar - ANT x PAT x 1.2 cm - Kutulu ve Etiketli 50 Kasa</t>
+          <t>Travertine Tiles-Classic Vein Cut-Filled&amp;Honed-30,5x61,0x1,2 (327.47 m2,  1760Adet)</t>
         </is>
       </c>
       <c r="K33" s="5" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L33" s="5" t="inlineStr">
@@ -2716,10 +2872,10 @@
         </is>
       </c>
       <c r="M33" s="6" t="n">
-        <v>1933</v>
+        <v>327.47</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>1005.16</v>
+        <v>0</v>
       </c>
       <c r="O33" s="5" t="inlineStr">
         <is>
@@ -2727,7 +2883,10 @@
         </is>
       </c>
       <c r="P33" s="19" t="n">
-        <v>927.84</v>
+        <v>327.47</v>
+      </c>
+      <c r="Q33" s="19" t="n">
+        <v>1760</v>
       </c>
     </row>
     <row r="34">
@@ -2743,59 +2902,60 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-12-10T00:00:00.000Z</t>
+          <t>2024-11-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>2024-12-10T00:00:00.000Z</t>
+          <t>2024-11-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
         <is>
-          <t>24PK3007-5</t>
+          <t>24YGM20</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>24PK3007-5</t>
+          <t>24YGM20</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Carrara White</t>
         </is>
       </c>
       <c r="J34" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Vein Cut-Filled&amp;Honed-30,5x61,0x1,2 (119.46 m2, 4 Kasa, 642 Adet)</t>
+          <t>Marble Tiles-Carrara White-Cilalı&amp;Mikro Pahlı-30,5x61,0x1,0 
+(4 kasa 180 Adet, 1 Kasa 80 Adet Toplam 800 adet - 148.84 - 1 kutuda 5 taş , 1 kasada 36 kutu olacak)</t>
         </is>
       </c>
       <c r="K34" s="5" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x61,0x1,0</t>
         </is>
       </c>
       <c r="L34" s="5" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Çobanlar Mermer</t>
         </is>
       </c>
       <c r="M34" s="6" t="n">
-        <v>119.46</v>
+        <v>148.84</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>89.31</v>
+        <v>0</v>
       </c>
       <c r="O34" s="5" t="inlineStr">
         <is>
@@ -2803,7 +2963,10 @@
         </is>
       </c>
       <c r="P34" s="19" t="n">
-        <v>30.14999999999999</v>
+        <v>148.84</v>
+      </c>
+      <c r="Q34" s="19" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="35">
@@ -2812,50 +2975,33 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B35" s="18" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>2024-11-20T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-20T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D35" s="20" t="n"/>
       <c r="E35" s="5" t="inlineStr">
         <is>
           <t>YGM</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>YGM</t>
-        </is>
-      </c>
+      <c r="F35" s="20" t="n"/>
       <c r="G35" s="5" t="inlineStr">
         <is>
           <t>24YGM20</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
-        <is>
-          <t>24YGM20</t>
-        </is>
-      </c>
+      <c r="H35" s="20" t="n"/>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>Carrara White</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
           <t>Marble Tiles-Carrara White-Cilalı&amp;Mikro Pahlı-30,5x61,0x1,0 
-(4 kasa 180 Adet, 1 Kasa 80 Adet Toplam 800 adet - 148.84 - 1 kutuda 5 taş , 1 kasada 36 kutu olacak)</t>
+(1 kasa 180 Adet, 1 kutuda 5 taş , 1 kasada 36 kutu olacak)</t>
         </is>
       </c>
       <c r="K35" s="5" t="inlineStr">
@@ -2865,14 +3011,14 @@
       </c>
       <c r="L35" s="5" t="inlineStr">
         <is>
-          <t>Çobanlar Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M35" s="6" t="n">
-        <v>148.84</v>
+        <v>33.49</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0</v>
+        <v>46.88</v>
       </c>
       <c r="O35" s="5" t="inlineStr">
         <is>
@@ -2880,47 +3026,66 @@
         </is>
       </c>
       <c r="P35" s="19" t="n">
-        <v>148.84</v>
+        <v>-13.39</v>
+      </c>
+      <c r="Q35" s="19" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B36" s="18" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-11-20T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D36" s="20" t="n"/>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-07T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>YGM</t>
-        </is>
-      </c>
-      <c r="F36" s="20" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
-          <t>24YGM20</t>
-        </is>
-      </c>
-      <c r="H36" s="20" t="n"/>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
-          <t>Marble Tiles-Carrara White-Cilalı&amp;Mikro Pahlı-30,5x61,0x1,0 
-(1 kasa 180 Adet, 1 kutuda 5 taş , 1 kasada 36 kutu olacak)</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (2195 m2, 12194 Adet)</t>
         </is>
       </c>
       <c r="K36" s="5" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L36" s="5" t="inlineStr">
@@ -2929,10 +3094,10 @@
         </is>
       </c>
       <c r="M36" s="6" t="n">
-        <v>33.49</v>
+        <v>2195</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>46.88</v>
+        <v>0</v>
       </c>
       <c r="O36" s="5" t="inlineStr">
         <is>
@@ -2940,7 +3105,10 @@
         </is>
       </c>
       <c r="P36" s="19" t="n">
-        <v>-13.39</v>
+        <v>2195</v>
+      </c>
+      <c r="Q36" s="19" t="n">
+        <v>12194</v>
       </c>
     </row>
     <row r="37">
@@ -2949,41 +3117,24 @@
           <t>Mehmet</t>
         </is>
       </c>
-      <c r="B37" s="18" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-07T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D37" s="21" t="n"/>
       <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="F37" s="21" t="n"/>
       <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Lincoln Court</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
+      <c r="H37" s="21" t="n"/>
       <c r="I37" s="5" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -2991,12 +3142,12 @@
       </c>
       <c r="J37" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (2195 m2, 12194 Adet)</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (370 m2, 4625 Adet)</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="L37" s="5" t="inlineStr">
@@ -3005,7 +3156,7 @@
         </is>
       </c>
       <c r="M37" s="6" t="n">
-        <v>2195</v>
+        <v>370</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0</v>
@@ -3016,7 +3167,10 @@
         </is>
       </c>
       <c r="P37" s="19" t="n">
-        <v>2195</v>
+        <v>370</v>
+      </c>
+      <c r="Q37" s="19" t="n">
+        <v>4625</v>
       </c>
     </row>
     <row r="38">
@@ -3050,21 +3204,21 @@
       </c>
       <c r="J38" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (370 m2, 4625 Adet)</t>
+          <t xml:space="preserve">Travertine Mozaik-Silver Grey-Dolgulu&amp;Cilalı-30,5x30,5x1,0 (295 m2 5x15) </t>
         </is>
       </c>
       <c r="K38" s="5" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="L38" s="5" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M38" s="6" t="n">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0</v>
@@ -3075,7 +3229,10 @@
         </is>
       </c>
       <c r="P38" s="19" t="n">
-        <v>370</v>
+        <v>295</v>
+      </c>
+      <c r="Q38" s="19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3104,17 +3261,17 @@
       <c r="H39" s="21" t="n"/>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Silver Tundra Beige</t>
         </is>
       </c>
       <c r="J39" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travertine Mozaik-Silver Grey-Dolgulu&amp;Cilalı-30,5x30,5x1,0 (295 m2 5x15) </t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı-100,0x190,0x2,0 (Açılı Kesim 9 adet)</t>
         </is>
       </c>
       <c r="K39" s="5" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,0</t>
+          <t>100,0x190,0x2,0</t>
         </is>
       </c>
       <c r="L39" s="5" t="inlineStr">
@@ -3123,18 +3280,21 @@
         </is>
       </c>
       <c r="M39" s="6" t="n">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O39" s="5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P39" s="19" t="n">
-        <v>295</v>
+        <v>9</v>
+      </c>
+      <c r="Q39" s="19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -3168,12 +3328,12 @@
       </c>
       <c r="J40" s="5" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı-100,0x190,0x2,0 (Açılı Kesim 9 adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x170,0x2,0 (60 adet)</t>
         </is>
       </c>
       <c r="K40" s="5" t="inlineStr">
         <is>
-          <t>100,0x190,0x2,0</t>
+          <t>15,0x170,0x2,0</t>
         </is>
       </c>
       <c r="L40" s="5" t="inlineStr">
@@ -3182,7 +3342,7 @@
         </is>
       </c>
       <c r="M40" s="6" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0</v>
@@ -3193,7 +3353,10 @@
         </is>
       </c>
       <c r="P40" s="19" t="n">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="Q40" s="19" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -3227,12 +3390,12 @@
       </c>
       <c r="J41" s="5" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x170,0x2,0 (60 adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-30,0x129,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K41" s="5" t="inlineStr">
         <is>
-          <t>15,0x170,0x2,0</t>
+          <t>30,0x129,0x2,0</t>
         </is>
       </c>
       <c r="L41" s="5" t="inlineStr">
@@ -3241,7 +3404,7 @@
         </is>
       </c>
       <c r="M41" s="6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0</v>
@@ -3252,7 +3415,10 @@
         </is>
       </c>
       <c r="P41" s="19" t="n">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="Q41" s="19" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -3286,12 +3452,12 @@
       </c>
       <c r="J42" s="5" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-30,0x129,0x2,0 (40 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x129,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K42" s="5" t="inlineStr">
         <is>
-          <t>30,0x129,0x2,0</t>
+          <t>20,0x129,0x2,0</t>
         </is>
       </c>
       <c r="L42" s="5" t="inlineStr">
@@ -3313,6 +3479,9 @@
       <c r="P42" s="19" t="n">
         <v>40</v>
       </c>
+      <c r="Q42" s="19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3345,12 +3514,12 @@
       </c>
       <c r="J43" s="5" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x129,0x2,0 (40 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x126,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K43" s="5" t="inlineStr">
         <is>
-          <t>20,0x129,0x2,0</t>
+          <t>33,0x126,0x2,0</t>
         </is>
       </c>
       <c r="L43" s="5" t="inlineStr">
@@ -3372,6 +3541,9 @@
       <c r="P43" s="19" t="n">
         <v>40</v>
       </c>
+      <c r="Q43" s="19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3404,12 +3576,12 @@
       </c>
       <c r="J44" s="5" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x126,0x2,0 (40 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-22,0x126,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K44" s="5" t="inlineStr">
         <is>
-          <t>33,0x126,0x2,0</t>
+          <t>22,0x126,0x2,0</t>
         </is>
       </c>
       <c r="L44" s="5" t="inlineStr">
@@ -3431,6 +3603,9 @@
       <c r="P44" s="19" t="n">
         <v>40</v>
       </c>
+      <c r="Q44" s="19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3463,12 +3638,12 @@
       </c>
       <c r="J45" s="5" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-22,0x126,0x2,0 (40 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x127,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K45" s="5" t="inlineStr">
         <is>
-          <t>22,0x126,0x2,0</t>
+          <t>33,0x127,0x2,0</t>
         </is>
       </c>
       <c r="L45" s="5" t="inlineStr">
@@ -3490,6 +3665,9 @@
       <c r="P45" s="19" t="n">
         <v>40</v>
       </c>
+      <c r="Q45" s="19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3522,12 +3700,12 @@
       </c>
       <c r="J46" s="5" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x127,0x2,0 (40 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x125,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K46" s="5" t="inlineStr">
         <is>
-          <t>33,0x127,0x2,0</t>
+          <t>15,0x125,0x2,0</t>
         </is>
       </c>
       <c r="L46" s="5" t="inlineStr">
@@ -3549,6 +3727,9 @@
       <c r="P46" s="19" t="n">
         <v>40</v>
       </c>
+      <c r="Q46" s="19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3581,12 +3762,12 @@
       </c>
       <c r="J47" s="5" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-15,0x125,0x2,0 (40 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x120,0x2,0 (80 Adet)</t>
         </is>
       </c>
       <c r="K47" s="5" t="inlineStr">
         <is>
-          <t>15,0x125,0x2,0</t>
+          <t>33,0x120,0x2,0</t>
         </is>
       </c>
       <c r="L47" s="5" t="inlineStr">
@@ -3595,7 +3776,7 @@
         </is>
       </c>
       <c r="M47" s="6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0</v>
@@ -3606,7 +3787,10 @@
         </is>
       </c>
       <c r="P47" s="19" t="n">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="Q47" s="19" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -3640,12 +3824,12 @@
       </c>
       <c r="J48" s="5" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x120,0x2,0 (80 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-18,0x120,0x2,0 (80 Adet)</t>
         </is>
       </c>
       <c r="K48" s="5" t="inlineStr">
         <is>
-          <t>33,0x120,0x2,0</t>
+          <t>18,0x120,0x2,0</t>
         </is>
       </c>
       <c r="L48" s="5" t="inlineStr">
@@ -3667,6 +3851,9 @@
       <c r="P48" s="19" t="n">
         <v>80</v>
       </c>
+      <c r="Q48" s="19" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3699,12 +3886,12 @@
       </c>
       <c r="J49" s="5" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-18,0x120,0x2,0 (80 Adet)</t>
+          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x115,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K49" s="5" t="inlineStr">
         <is>
-          <t>18,0x120,0x2,0</t>
+          <t>33,0x115,0x2,0</t>
         </is>
       </c>
       <c r="L49" s="5" t="inlineStr">
@@ -3713,7 +3900,7 @@
         </is>
       </c>
       <c r="M49" s="6" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0</v>
@@ -3724,7 +3911,10 @@
         </is>
       </c>
       <c r="P49" s="19" t="n">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="Q49" s="19" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="50">
@@ -3738,19 +3928,19 @@
           <t>2024-11-07T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D50" s="21" t="n"/>
+      <c r="D50" s="20" t="n"/>
       <c r="E50" s="5" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F50" s="21" t="n"/>
+      <c r="F50" s="20" t="n"/>
       <c r="G50" s="5" t="inlineStr">
         <is>
           <t>Lincoln Court</t>
         </is>
       </c>
-      <c r="H50" s="21" t="n"/>
+      <c r="H50" s="20" t="n"/>
       <c r="I50" s="5" t="inlineStr">
         <is>
           <t>Silver Tundra Beige</t>
@@ -3758,12 +3948,12 @@
       </c>
       <c r="J50" s="5" t="inlineStr">
         <is>
-          <t>Marble Basamak-Silver Tundra Beige-Cilalı&amp;Pahlı-33,0x115,0x2,0 (40 Adet)</t>
+          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x115,0x2,0 (40 Adet)</t>
         </is>
       </c>
       <c r="K50" s="5" t="inlineStr">
         <is>
-          <t>33,0x115,0x2,0</t>
+          <t>20,0x115,0x2,0</t>
         </is>
       </c>
       <c r="L50" s="5" t="inlineStr">
@@ -3785,64 +3975,87 @@
       <c r="P50" s="19" t="n">
         <v>40</v>
       </c>
+      <c r="Q50" s="19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="B51" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-11-07T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D51" s="20" t="n"/>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-05T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F51" s="20" t="n"/>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="H51" s="20" t="n"/>
+          <t>Apartment 24-4</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
+        <is>
+          <t>Apartment 24-4</t>
+        </is>
+      </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>Silver Tundra Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J51" s="5" t="inlineStr">
         <is>
-          <t>Marble Rıht-Silver Tundra Beige-Cilalı-20,0x115,0x2,0 (40 Adet)</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x61,0x1,2 (3800 m2, 15343 Adet)</t>
         </is>
       </c>
       <c r="K51" s="5" t="inlineStr">
         <is>
-          <t>20,0x115,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="L51" s="5" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M51" s="6" t="n">
-        <v>40</v>
+        <v>3284.82</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O51" s="5" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P51" s="19" t="n">
-        <v>40</v>
+        <v>3284.82</v>
+      </c>
+      <c r="Q51" s="19" t="n">
+        <v>13263</v>
       </c>
     </row>
     <row r="52">
@@ -3851,41 +4064,24 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B52" s="18" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>2024-11-05T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-05T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="5" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="F52" s="21" t="n"/>
       <c r="G52" s="5" t="inlineStr">
         <is>
-          <t>Apartment 24-2</t>
-        </is>
-      </c>
-      <c r="H52" s="4" t="inlineStr">
-        <is>
-          <t>Apartment 24-2</t>
-        </is>
-      </c>
+          <t>Apartment 24-4</t>
+        </is>
+      </c>
+      <c r="H52" s="21" t="n"/>
       <c r="I52" s="5" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -3893,12 +4089,12 @@
       </c>
       <c r="J52" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x61,0x1,2 (3800 m2, 15343 Adet)</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x40,6x1,2 (836.81 m2, 5077 adet)</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="L52" s="5" t="inlineStr">
@@ -3907,10 +4103,10 @@
         </is>
       </c>
       <c r="M52" s="6" t="n">
-        <v>3681.12</v>
+        <v>836.8099999999999</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0</v>
+        <v>54.39</v>
       </c>
       <c r="O52" s="5" t="inlineStr">
         <is>
@@ -3918,7 +4114,10 @@
         </is>
       </c>
       <c r="P52" s="19" t="n">
-        <v>3681.12</v>
+        <v>782.42</v>
+      </c>
+      <c r="Q52" s="19" t="n">
+        <v>5077</v>
       </c>
     </row>
     <row r="53">
@@ -3941,7 +4140,7 @@
       <c r="F53" s="21" t="n"/>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>Apartment 24-2</t>
+          <t>Apartment 24-4</t>
         </is>
       </c>
       <c r="H53" s="21" t="n"/>
@@ -3952,12 +4151,12 @@
       </c>
       <c r="J53" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-40,6x40,6x1,2</t>
+          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (500 m2, 6066 pcs)</t>
         </is>
       </c>
       <c r="K53" s="5" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="L53" s="5" t="inlineStr">
@@ -3966,10 +4165,10 @@
         </is>
       </c>
       <c r="M53" s="6" t="n">
-        <v>947.25</v>
+        <v>339.29</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>52.74</v>
+        <v>0</v>
       </c>
       <c r="O53" s="5" t="inlineStr">
         <is>
@@ -3977,7 +4176,10 @@
         </is>
       </c>
       <c r="P53" s="19" t="n">
-        <v>894.51</v>
+        <v>339.29</v>
+      </c>
+      <c r="Q53" s="19" t="n">
+        <v>4117</v>
       </c>
     </row>
     <row r="54">
@@ -4000,23 +4202,23 @@
       <c r="F54" s="21" t="n"/>
       <c r="G54" s="5" t="inlineStr">
         <is>
-          <t>Apartment 24-2</t>
+          <t>Apartment 24-4</t>
         </is>
       </c>
       <c r="H54" s="21" t="n"/>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="J54" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgulu&amp;Cilalı-20,3x40,6x1,2 (500 m2, 6066 pcs)</t>
+          <t>Travertine Tiles-Classic Mina-Dolgulu&amp;Cilalı-30,5x30,5x1,2 (330 m2, 3547 adet)</t>
         </is>
       </c>
       <c r="K54" s="5" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="L54" s="5" t="inlineStr">
@@ -4025,10 +4227,10 @@
         </is>
       </c>
       <c r="M54" s="6" t="n">
-        <v>381.32</v>
+        <v>330</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>42.03</v>
+        <v>0</v>
       </c>
       <c r="O54" s="5" t="inlineStr">
         <is>
@@ -4036,7 +4238,10 @@
         </is>
       </c>
       <c r="P54" s="19" t="n">
-        <v>339.29</v>
+        <v>330</v>
+      </c>
+      <c r="Q54" s="19" t="n">
+        <v>3547</v>
       </c>
     </row>
     <row r="55">
@@ -4050,32 +4255,32 @@
           <t>2024-11-05T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D55" s="21" t="n"/>
+      <c r="D55" s="20" t="n"/>
       <c r="E55" s="5" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F55" s="21" t="n"/>
+      <c r="F55" s="20" t="n"/>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>Apartment 24-2</t>
-        </is>
-      </c>
-      <c r="H55" s="21" t="n"/>
+          <t>Apartment 24-4</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="n"/>
       <c r="I55" s="5" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Pablo Cross Cut</t>
         </is>
       </c>
       <c r="J55" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Classic Mina-Dolgulu&amp;Cilalı-30,5x30,5x1,2 (330 m2, 3547 adet)</t>
+          <t>Travertine Tiles-Pablo Cross Cut-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (1200 m2, 6450 Adet)</t>
         </is>
       </c>
       <c r="K55" s="5" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L55" s="5" t="inlineStr">
@@ -4084,7 +4289,7 @@
         </is>
       </c>
       <c r="M55" s="6" t="n">
-        <v>330</v>
+        <v>1200</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0</v>
@@ -4095,7 +4300,10 @@
         </is>
       </c>
       <c r="P55" s="19" t="n">
-        <v>330</v>
+        <v>1200</v>
+      </c>
+      <c r="Q55" s="19" t="n">
+        <v>6450</v>
       </c>
     </row>
     <row r="56">
@@ -4104,46 +4312,63 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B56" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-11-05T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D56" s="20" t="n"/>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>2024-09-16T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F56" s="20" t="n"/>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="G56" s="5" t="inlineStr">
         <is>
-          <t>Apartment 24-2</t>
-        </is>
-      </c>
-      <c r="H56" s="20" t="n"/>
+          <t>DR Nash-5</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
+        <is>
+          <t>DR Nash-5</t>
+        </is>
+      </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
-          <t>Philadelphia Vein Cut</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J56" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Philadelphia Vein Cut-Dolgulu&amp;Cilalı-30,5x61,0x1,2 (1200 m2, 6450 Adet)</t>
+          <t>Marble Tiles-Diana Royal-Cilalı-61,0x122,0x2,0 (732.89 m2)</t>
         </is>
       </c>
       <c r="K56" s="5" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>61,0x122,0x2,0</t>
         </is>
       </c>
       <c r="L56" s="5" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Köylü Mermer</t>
         </is>
       </c>
       <c r="M56" s="6" t="n">
-        <v>1200</v>
+        <v>732.89</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0</v>
@@ -4154,7 +4379,10 @@
         </is>
       </c>
       <c r="P56" s="19" t="n">
-        <v>1200</v>
+        <v>732.89</v>
+      </c>
+      <c r="Q56" s="19" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="57">
@@ -4163,63 +4391,46 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B57" s="18" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>2024-09-16T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-16T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="5" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="F57" s="21" t="n"/>
       <c r="G57" s="5" t="inlineStr">
         <is>
-          <t>DR Nash-3</t>
-        </is>
-      </c>
-      <c r="H57" s="4" t="inlineStr">
-        <is>
-          <t>DR Nash-3</t>
-        </is>
-      </c>
+          <t>DR Nash-5</t>
+        </is>
+      </c>
+      <c r="H57" s="21" t="n"/>
       <c r="I57" s="5" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="J57" s="5" t="inlineStr">
         <is>
-          <t>Marble Tiles-Diana Royal-Cilalı-61,0x122,0x2,0 (732.89 m2)</t>
+          <t>Travertine Tiles-Pablo-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (322.16 m2, 1732adet)</t>
         </is>
       </c>
       <c r="K57" s="5" t="inlineStr">
         <is>
-          <t>61,0x122,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L57" s="5" t="inlineStr">
         <is>
-          <t>Köylü Mermer</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M57" s="6" t="n">
-        <v>732.89</v>
+        <v>322.16</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0</v>
@@ -4230,7 +4441,10 @@
         </is>
       </c>
       <c r="P57" s="19" t="n">
-        <v>732.89</v>
+        <v>322.16</v>
+      </c>
+      <c r="Q57" s="19" t="n">
+        <v>1732</v>
       </c>
     </row>
     <row r="58">
@@ -4253,18 +4467,18 @@
       <c r="F58" s="21" t="n"/>
       <c r="G58" s="5" t="inlineStr">
         <is>
-          <t>DR Nash-3</t>
+          <t>DR Nash-5</t>
         </is>
       </c>
       <c r="H58" s="21" t="n"/>
       <c r="I58" s="5" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="J58" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Pablo-Dolgulu&amp;Yarı Cilalı-30,5x61,0x1,2 (791 m2, 4251 adet)</t>
+          <t>Travertine Tiles-Picasso Ivory-Dolgulu&amp;Honlu-30,5x61,0x1,2 (669.3 m2 3597adet)</t>
         </is>
       </c>
       <c r="K58" s="5" t="inlineStr">
@@ -4278,7 +4492,7 @@
         </is>
       </c>
       <c r="M58" s="6" t="n">
-        <v>791</v>
+        <v>669.3</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0</v>
@@ -4289,7 +4503,10 @@
         </is>
       </c>
       <c r="P58" s="19" t="n">
-        <v>791</v>
+        <v>669.3</v>
+      </c>
+      <c r="Q58" s="19" t="n">
+        <v>3597</v>
       </c>
     </row>
     <row r="59">
@@ -4312,43 +4529,46 @@
       <c r="F59" s="21" t="n"/>
       <c r="G59" s="5" t="inlineStr">
         <is>
-          <t>DR Nash-3</t>
+          <t>DR Nash-5</t>
         </is>
       </c>
       <c r="H59" s="21" t="n"/>
       <c r="I59" s="5" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="J59" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Picasso Ivory-Dolgulu&amp;Honlu-30,5x61,0x1,2 (1060 m2 5697 adet)</t>
+          <t>Marble Threads-Diana Royal-Polished-60,0x650x2,0  (650cm will be divided 3-4 pieces)</t>
         </is>
       </c>
       <c r="K59" s="5" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>60,0x650x2,0</t>
         </is>
       </c>
       <c r="L59" s="5" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Ayarlanmadi</t>
         </is>
       </c>
       <c r="M59" s="6" t="n">
-        <v>1060</v>
+        <v>6</v>
       </c>
       <c r="N59" s="6" t="n">
-        <v>351.63</v>
+        <v>0</v>
       </c>
       <c r="O59" s="5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="P59" s="19" t="n">
-        <v>708.37</v>
+        <v>6</v>
+      </c>
+      <c r="Q59" s="19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -4362,19 +4582,19 @@
           <t>2024-09-16T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D60" s="21" t="n"/>
+      <c r="D60" s="20" t="n"/>
       <c r="E60" s="5" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="F60" s="21" t="n"/>
+      <c r="F60" s="20" t="n"/>
       <c r="G60" s="5" t="inlineStr">
         <is>
-          <t>DR Nash-3</t>
-        </is>
-      </c>
-      <c r="H60" s="21" t="n"/>
+          <t>DR Nash-5</t>
+        </is>
+      </c>
+      <c r="H60" s="20" t="n"/>
       <c r="I60" s="5" t="inlineStr">
         <is>
           <t>Diana Royal</t>
@@ -4382,12 +4602,12 @@
       </c>
       <c r="J60" s="5" t="inlineStr">
         <is>
-          <t>Marble Threads-Diana Royal-Polished-60,0x650x2,0  (650cm will be divided 3-4 pieces)</t>
+          <t>Marble Risers-Diana Royal-Cilalı-10,0x650x2,0</t>
         </is>
       </c>
       <c r="K60" s="5" t="inlineStr">
         <is>
-          <t>60,0x650x2,0</t>
+          <t>10,0x650x2,0</t>
         </is>
       </c>
       <c r="L60" s="5" t="inlineStr">
@@ -4409,6 +4629,9 @@
       <c r="P60" s="19" t="n">
         <v>6</v>
       </c>
+      <c r="Q60" s="19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4416,57 +4639,77 @@
           <t>Semih</t>
         </is>
       </c>
+      <c r="B61" s="18" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-09-16T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D61" s="20" t="n"/>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>2024-09-06T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="F61" s="20" t="n"/>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
       <c r="G61" s="5" t="inlineStr">
         <is>
-          <t>DR Nash-3</t>
-        </is>
-      </c>
-      <c r="H61" s="20" t="n"/>
+          <t>24KM08-10</t>
+        </is>
+      </c>
+      <c r="H61" s="4" t="inlineStr">
+        <is>
+          <t>24KM08-10</t>
+        </is>
+      </c>
       <c r="I61" s="5" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Silver Mix</t>
         </is>
       </c>
       <c r="J61" s="5" t="inlineStr">
         <is>
-          <t>Marble Risers-Diana Royal-Cilalı-10,0x650x2,0</t>
+          <t>Travertine Tiles-Silver Mix-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K61" s="5" t="inlineStr">
         <is>
-          <t>10,0x650x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="L61" s="5" t="inlineStr">
         <is>
-          <t>Ayarlanmadi</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="M61" s="6" t="n">
-        <v>6</v>
+        <v>156.28</v>
       </c>
       <c r="N61" s="6" t="n">
-        <v>0</v>
+        <v>117.21</v>
       </c>
       <c r="O61" s="5" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P61" s="19" t="n">
-        <v>6</v>
+        <v>39.07000000000001</v>
+      </c>
+      <c r="Q61" s="19" t="n">
+        <v>840</v>
       </c>
     </row>
     <row r="62">
@@ -4475,41 +4718,24 @@
           <t>Semih</t>
         </is>
       </c>
-      <c r="B62" s="18" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>2024-09-06T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D62" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-06T00:00:00.000Z</t>
-        </is>
-      </c>
+      <c r="D62" s="21" t="n"/>
       <c r="E62" s="5" t="inlineStr">
         <is>
           <t>Kent Mermer</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>Kent Mermer</t>
-        </is>
-      </c>
+      <c r="F62" s="21" t="n"/>
       <c r="G62" s="5" t="inlineStr">
         <is>
           <t>24KM08-10</t>
         </is>
       </c>
-      <c r="H62" s="4" t="inlineStr">
-        <is>
-          <t>24KM08-10</t>
-        </is>
-      </c>
+      <c r="H62" s="21" t="n"/>
       <c r="I62" s="5" t="inlineStr">
         <is>
           <t>Silver Mix</t>
@@ -4517,7 +4743,7 @@
       </c>
       <c r="J62" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Mix-Dolgulu&amp;Honlu-30,5x61,0x1,2</t>
+          <t>Travertine Tiles-Silver Mix-Dolgusuz&amp;Fırçalı-30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="K62" s="5" t="inlineStr">
@@ -4531,10 +4757,10 @@
         </is>
       </c>
       <c r="M62" s="6" t="n">
-        <v>156.28</v>
+        <v>117.21</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>39.07</v>
+        <v>78.14</v>
       </c>
       <c r="O62" s="5" t="inlineStr">
         <is>
@@ -4542,7 +4768,10 @@
         </is>
       </c>
       <c r="P62" s="19" t="n">
-        <v>117.21</v>
+        <v>39.06999999999999</v>
+      </c>
+      <c r="Q62" s="19" t="n">
+        <v>630</v>
       </c>
     </row>
     <row r="63">
@@ -4556,32 +4785,32 @@
           <t>2024-09-06T00:00:00.000Z</t>
         </is>
       </c>
-      <c r="D63" s="21" t="n"/>
+      <c r="D63" s="20" t="n"/>
       <c r="E63" s="5" t="inlineStr">
         <is>
           <t>Kent Mermer</t>
         </is>
       </c>
-      <c r="F63" s="21" t="n"/>
+      <c r="F63" s="20" t="n"/>
       <c r="G63" s="5" t="inlineStr">
         <is>
           <t>24KM08-10</t>
         </is>
       </c>
-      <c r="H63" s="21" t="n"/>
+      <c r="H63" s="20" t="n"/>
       <c r="I63" s="5" t="inlineStr">
         <is>
-          <t>Silver Mix</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="J63" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Mix-Dolgusuz&amp;Fırçalı-30,5x61,0x1,2</t>
+          <t>Travertine Tiles-Silver Grey-Dolgusuz&amp;Fırçalı-10,0x40,6x1,2</t>
         </is>
       </c>
       <c r="K63" s="5" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>10,0x40,6x1,2</t>
         </is>
       </c>
       <c r="L63" s="5" t="inlineStr">
@@ -4590,10 +4819,10 @@
         </is>
       </c>
       <c r="M63" s="6" t="n">
-        <v>117.21</v>
+        <v>210.2</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>78.14</v>
+        <v>32.48</v>
       </c>
       <c r="O63" s="5" t="inlineStr">
         <is>
@@ -4601,46 +4830,66 @@
         </is>
       </c>
       <c r="P63" s="19" t="n">
-        <v>39.06999999999999</v>
+        <v>177.72</v>
+      </c>
+      <c r="Q63" s="19" t="n">
+        <v>5177</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B64" s="18" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-09-06T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D64" s="20" t="n"/>
+          <t>2024-07-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-03T00:00:00.000Z</t>
+        </is>
+      </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>Kent Mermer</t>
-        </is>
-      </c>
-      <c r="F64" s="20" t="n"/>
+          <t>Dan Frazer - USA</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>Dan Frazer - USA</t>
+        </is>
+      </c>
       <c r="G64" s="5" t="inlineStr">
         <is>
-          <t>24KM08-10</t>
-        </is>
-      </c>
-      <c r="H64" s="20" t="n"/>
+          <t>24IMEX01-3</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>24IMEX01-3</t>
+        </is>
+      </c>
       <c r="I64" s="5" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="J64" s="5" t="inlineStr">
         <is>
-          <t>Travertine Tiles-Silver Grey-Dolgusuz&amp;Fırçalı-10,0x40,6x1,2</t>
+          <t>Classic limestone - honlu - 10,0x20,0x2,0 cm - 156 m2 - 7800 adet - 1,678.56 sqft</t>
         </is>
       </c>
       <c r="K64" s="5" t="inlineStr">
         <is>
-          <t>10,0x40,6x1,2</t>
+          <t>10,0x20,0x2,0</t>
         </is>
       </c>
       <c r="L64" s="5" t="inlineStr">
@@ -4649,10 +4898,10 @@
         </is>
       </c>
       <c r="M64" s="6" t="n">
-        <v>210.2</v>
+        <v>156</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="O64" s="5" t="inlineStr">
         <is>
@@ -4660,167 +4909,46 @@
         </is>
       </c>
       <c r="P64" s="19" t="n">
-        <v>210.2</v>
+        <v>-2</v>
+      </c>
+      <c r="Q64" s="19" t="n">
+        <v>7800</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="B65" s="18" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2024-09-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E65" s="5" t="inlineStr">
-        <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
-      <c r="G65" s="5" t="inlineStr">
-        <is>
-          <t>24BYN74-4</t>
-        </is>
-      </c>
-      <c r="H65" s="4" t="inlineStr">
-        <is>
-          <t>24BYN74-4</t>
-        </is>
-      </c>
-      <c r="I65" s="5" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="J65" s="5" t="inlineStr">
-        <is>
-          <t>Travertine Tiles-Classic Vein Cut-Dolgulu&amp;Fırçalı-20,3x61,0x1,2 (Paketleme eskisi gibi olacak, 961.11 m2)</t>
-        </is>
-      </c>
-      <c r="K65" s="5" t="inlineStr">
-        <is>
-          <t>20,3x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="L65" s="5" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M65" s="6" t="n">
-        <v>961.11</v>
-      </c>
-      <c r="N65" s="6" t="n">
-        <v>873.8099999999999</v>
-      </c>
-      <c r="O65" s="5" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P65" s="19" t="n">
-        <v>87.30000000000007</v>
+      <c r="A65" s="22" t="inlineStr">
+        <is>
+          <t>ÖZEL İŞÇİLİK YAPILACAKLAR</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B66" s="18" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2024-07-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-03T00:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="E66" s="5" t="inlineStr">
-        <is>
-          <t>Dan Frazer - USA</t>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>Dan Frazer - USA</t>
-        </is>
-      </c>
-      <c r="G66" s="5" t="inlineStr">
-        <is>
-          <t>24IMEX01-3</t>
-        </is>
-      </c>
-      <c r="H66" s="4" t="inlineStr">
-        <is>
-          <t>24IMEX01-3</t>
-        </is>
-      </c>
-      <c r="I66" s="5" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="J66" s="5" t="inlineStr">
-        <is>
-          <t>Classic limestone - honlu - 10,0x20,0x2,0 cm - 156 m2 - 7800 adet - 1,678.56 sqft</t>
-        </is>
-      </c>
-      <c r="K66" s="5" t="inlineStr">
-        <is>
-          <t>10,0x20,0x2,0</t>
-        </is>
-      </c>
-      <c r="L66" s="5" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="M66" s="6" t="n">
-        <v>156</v>
-      </c>
-      <c r="N66" s="6" t="n">
-        <v>158</v>
-      </c>
-      <c r="O66" s="5" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="P66" s="19" t="n">
-        <v>-2</v>
-      </c>
+      <c r="D66" s="5" t="n"/>
+      <c r="E66" s="5" t="n"/>
+      <c r="F66" s="5" t="n"/>
+      <c r="G66" s="5" t="n"/>
+      <c r="H66" s="5" t="n"/>
+      <c r="I66" s="5" t="n"/>
+      <c r="J66" s="5" t="n"/>
+      <c r="K66" s="5" t="n"/>
+      <c r="L66" s="5" t="n"/>
+      <c r="M66" s="6" t="n"/>
+      <c r="N66" s="6" t="n"/>
+      <c r="O66" s="5" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="22" t="inlineStr">
-        <is>
-          <t>ÖZEL İŞÇİLİK YAPILACAKLAR</t>
-        </is>
-      </c>
+      <c r="D67" s="5" t="n"/>
+      <c r="E67" s="5" t="n"/>
+      <c r="F67" s="5" t="n"/>
+      <c r="G67" s="5" t="n"/>
+      <c r="H67" s="5" t="n"/>
+      <c r="I67" s="5" t="n"/>
+      <c r="J67" s="5" t="n"/>
+      <c r="K67" s="5" t="n"/>
+      <c r="L67" s="5" t="n"/>
+      <c r="M67" s="6" t="n"/>
+      <c r="N67" s="6" t="n"/>
+      <c r="O67" s="5" t="n"/>
     </row>
     <row r="68">
       <c r="D68" s="5" t="n"/>
@@ -17260,100 +17388,104 @@
     <filterColumn colId="2" hiddenButton="0" showButton="0"/>
     <filterColumn colId="4" hiddenButton="0" showButton="0"/>
   </autoFilter>
-  <mergeCells count="93">
-    <mergeCell ref="H57:H61"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="D23"/>
-    <mergeCell ref="F30:F31"/>
+  <mergeCells count="97">
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="H5"/>
     <mergeCell ref="B4"/>
-    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F61:F63"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F64"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="F65"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="H4"/>
-    <mergeCell ref="D37:D51"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H64"/>
     <mergeCell ref="B8"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H7"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H66"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B65"/>
-    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H33"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="D5"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F13:F21"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="B22"/>
-    <mergeCell ref="D22"/>
-    <mergeCell ref="B37:B51"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="F37:F51"/>
-    <mergeCell ref="H37:H51"/>
-    <mergeCell ref="B23"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="H65"/>
+    <mergeCell ref="D36:D50"/>
+    <mergeCell ref="F36:F50"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="H36:H50"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="B64"/>
     <mergeCell ref="D8"/>
-    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33"/>
+    <mergeCell ref="D64"/>
+    <mergeCell ref="D33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="H8"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="D34"/>
-    <mergeCell ref="F34"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="H34"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H26"/>
+    <mergeCell ref="B25"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="H25"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="F33"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B36:B50"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="D4"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H23"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="D24"/>
+    <mergeCell ref="B26"/>
     <mergeCell ref="F4"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="D65"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B56:B60"/>
     <mergeCell ref="F5"/>
     <mergeCell ref="F8"/>
-    <mergeCell ref="D66"/>
-    <mergeCell ref="F66"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="B34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F22"/>
-    <mergeCell ref="H22"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
